--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="1212">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9616117477417</t>
+    <t xml:space="preserve">4.96161127090454</t>
   </si>
   <si>
     <t xml:space="preserve">CE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00243330001831</t>
+    <t xml:space="preserve">5.00243234634399</t>
   </si>
   <si>
     <t xml:space="preserve">4.93192338943481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75750637054443</t>
+    <t xml:space="preserve">4.75750589370728</t>
   </si>
   <si>
     <t xml:space="preserve">4.71297454833984</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76492834091187</t>
+    <t xml:space="preserve">4.76492881774902</t>
   </si>
   <si>
     <t xml:space="preserve">4.7723503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82430505752563</t>
+    <t xml:space="preserve">4.82430410385132</t>
   </si>
   <si>
     <t xml:space="preserve">4.72039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67957544326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47547054290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51258039474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13405799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32702970504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45320463180542</t>
+    <t xml:space="preserve">4.67957496643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47547006607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51257991790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13405752182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32703018188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45320415496826</t>
   </si>
   <si>
     <t xml:space="preserve">4.59051132202148</t>
@@ -92,25 +92,25 @@
     <t xml:space="preserve">4.56082344055176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4346489906311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55711221694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55340147018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36042881011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20085620880127</t>
+    <t xml:space="preserve">4.43464946746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5571117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55340099334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36042833328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20085573196411</t>
   </si>
   <si>
     <t xml:space="preserve">4.23796558380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2750768661499</t>
+    <t xml:space="preserve">4.27507591247559</t>
   </si>
   <si>
     <t xml:space="preserve">3.95592999458313</t>
@@ -119,76 +119,76 @@
     <t xml:space="preserve">3.78893446922302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14519071578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98561763763428</t>
+    <t xml:space="preserve">4.14519119262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98561787605286</t>
   </si>
   <si>
     <t xml:space="preserve">4.25281047821045</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31589698791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3826961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49031448364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23054361343384</t>
+    <t xml:space="preserve">4.3158974647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38269472122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49031400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.230544090271</t>
   </si>
   <si>
     <t xml:space="preserve">4.16745662689209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3121862411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28620958328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11921405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19343376159668</t>
+    <t xml:space="preserve">4.31218576431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28620910644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11921453475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19343423843384</t>
   </si>
   <si>
     <t xml:space="preserve">4.28992033004761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3715615272522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56453418731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63504362106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62391042709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57195615768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6647310256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.750084400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81317186355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70184087753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72781896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58308982849121</t>
+    <t xml:space="preserve">4.37156200408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56453466415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63504314422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62390995025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57195663452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66473150253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75008487701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81317138671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70184135437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72781848907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58308839797974</t>
   </si>
   <si>
     <t xml:space="preserve">4.77977228164673</t>
@@ -197,37 +197,37 @@
     <t xml:space="preserve">4.71668529510498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60164403915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52742385864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47175884246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46433687210083</t>
+    <t xml:space="preserve">4.60164451599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52742481231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47175979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46433734893799</t>
   </si>
   <si>
     <t xml:space="preserve">4.34187412261963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31960868835449</t>
+    <t xml:space="preserve">4.31960821151733</t>
   </si>
   <si>
     <t xml:space="preserve">4.21941089630127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15261268615723</t>
+    <t xml:space="preserve">4.15261220932007</t>
   </si>
   <si>
     <t xml:space="preserve">4.10065841674805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34558534622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22683382034302</t>
+    <t xml:space="preserve">4.34558582305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22683334350586</t>
   </si>
   <si>
     <t xml:space="preserve">4.50886917114258</t>
@@ -236,52 +236,52 @@
     <t xml:space="preserve">4.59422254562378</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61648797988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65359783172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65730953216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.731529712677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75379610061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80946063995361</t>
+    <t xml:space="preserve">4.61648750305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65359830856323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65731000900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73152923583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7537956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80946016311646</t>
   </si>
   <si>
     <t xml:space="preserve">4.63875436782837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5014476776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51629114151001</t>
+    <t xml:space="preserve">4.50144672393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51629161834717</t>
   </si>
   <si>
     <t xml:space="preserve">4.48660326004028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44578218460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34929656982422</t>
+    <t xml:space="preserve">4.44578170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34929704666138</t>
   </si>
   <si>
     <t xml:space="preserve">4.6581335067749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57827997207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63912057876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69996118545532</t>
+    <t xml:space="preserve">4.57827949523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63912010192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69996166229248</t>
   </si>
   <si>
     <t xml:space="preserve">4.67714643478394</t>
@@ -299,43 +299,43 @@
     <t xml:space="preserve">4.9395227432251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92431211471558</t>
+    <t xml:space="preserve">4.92431259155273</t>
   </si>
   <si>
     <t xml:space="preserve">4.93191766738892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83685398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77221059799194</t>
+    <t xml:space="preserve">4.83685350418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77221012115479</t>
   </si>
   <si>
     <t xml:space="preserve">4.82924842834473</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73038148880005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89389228820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79502534866333</t>
+    <t xml:space="preserve">4.73038196563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89389181137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79502582550049</t>
   </si>
   <si>
     <t xml:space="preserve">4.80643367767334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69615888595581</t>
+    <t xml:space="preserve">4.69615936279297</t>
   </si>
   <si>
     <t xml:space="preserve">4.46040010452271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32731103897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39955902099609</t>
+    <t xml:space="preserve">4.32731151580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39955949783325</t>
   </si>
   <si>
     <t xml:space="preserve">4.27407503128052</t>
@@ -350,43 +350,43 @@
     <t xml:space="preserve">4.84065628051758</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88628721237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00416660308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13338088989258</t>
+    <t xml:space="preserve">4.88628673553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00416612625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13337993621826</t>
   </si>
   <si>
     <t xml:space="preserve">4.14478826522827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12197256088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24365472793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03451347351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89381909370422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78734731674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87480616569519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04211902618408</t>
+    <t xml:space="preserve">4.12197351455688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24365425109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0345139503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8938193321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7873477935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480664253235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04211950302124</t>
   </si>
   <si>
     <t xml:space="preserve">4.14859056472778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22083950042725</t>
+    <t xml:space="preserve">4.22083902359009</t>
   </si>
   <si>
     <t xml:space="preserve">4.18281364440918</t>
@@ -395,73 +395,73 @@
     <t xml:space="preserve">4.3159031867981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38054752349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3653359413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46420335769653</t>
+    <t xml:space="preserve">4.38054656982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36533641815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46420288085938</t>
   </si>
   <si>
     <t xml:space="preserve">4.43378257751465</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35773134231567</t>
+    <t xml:space="preserve">4.35773181915283</t>
   </si>
   <si>
     <t xml:space="preserve">4.40716457366943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37294101715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19422101974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210041046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19802379608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07253980636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08774948120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15999841690063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09155225753784</t>
+    <t xml:space="preserve">4.37294149398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19422149658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19802331924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07253932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08774995803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15999794006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.091552734375</t>
   </si>
   <si>
     <t xml:space="preserve">4.04972457885742</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05352687835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92423939704895</t>
+    <t xml:space="preserve">4.05352640151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92423987388611</t>
   </si>
   <si>
     <t xml:space="preserve">3.85199117660522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84438586235046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72650694847107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7249858379364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86720108985901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07634258270264</t>
+    <t xml:space="preserve">3.84438633918762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72650671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72498536109924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86720180511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07634210586548</t>
   </si>
   <si>
     <t xml:space="preserve">3.92804217338562</t>
@@ -470,46 +470,46 @@
     <t xml:space="preserve">3.81396579742432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84058403968811</t>
+    <t xml:space="preserve">3.84058380126953</t>
   </si>
   <si>
     <t xml:space="preserve">4.02690839767456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11056566238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09535503387451</t>
+    <t xml:space="preserve">4.11056518554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09535455703735</t>
   </si>
   <si>
     <t xml:space="preserve">4.17520809173584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20562887191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99268531799316</t>
+    <t xml:space="preserve">4.20562934875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99268555641174</t>
   </si>
   <si>
     <t xml:space="preserve">3.99648809432983</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95466065406799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93945026397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85959577560425</t>
+    <t xml:space="preserve">3.95466017723083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93944954872131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85959649085999</t>
   </si>
   <si>
     <t xml:space="preserve">3.85579395294189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8101634979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01930332183838</t>
+    <t xml:space="preserve">3.81016278266907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01930379867554</t>
   </si>
   <si>
     <t xml:space="preserve">3.8633987903595</t>
@@ -518,61 +518,61 @@
     <t xml:space="preserve">3.74171733856201</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70977544784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72802782058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65806078910828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67479181289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70673322677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77365827560425</t>
+    <t xml:space="preserve">3.7097749710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72802758216858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6580605506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67479157447815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70673394203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77365875244141</t>
   </si>
   <si>
     <t xml:space="preserve">3.88241147994995</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84818816184998</t>
+    <t xml:space="preserve">3.84818863868713</t>
   </si>
   <si>
     <t xml:space="preserve">3.87860918045044</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88621425628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83678030967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95085835456848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90522742271423</t>
+    <t xml:space="preserve">3.8862144947052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83678126335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95085787773132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90522718429565</t>
   </si>
   <si>
     <t xml:space="preserve">4.03071117401123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06493425369263</t>
+    <t xml:space="preserve">4.06493377685547</t>
   </si>
   <si>
     <t xml:space="preserve">3.97367286682129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02310609817505</t>
+    <t xml:space="preserve">4.02310657501221</t>
   </si>
   <si>
     <t xml:space="preserve">4.01169872283936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93564796447754</t>
+    <t xml:space="preserve">3.93564701080322</t>
   </si>
   <si>
     <t xml:space="preserve">3.90142464637756</t>
@@ -581,82 +581,82 @@
     <t xml:space="preserve">3.81776833534241</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7690954208374</t>
+    <t xml:space="preserve">3.76909518241882</t>
   </si>
   <si>
     <t xml:space="preserve">3.78886866569519</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8215708732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80255770683289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89762139320374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01550149917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06113195419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00789546966553</t>
+    <t xml:space="preserve">3.82157111167908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80255746841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89762187004089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01550102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06113243103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00789594650269</t>
   </si>
   <si>
     <t xml:space="preserve">3.9622654914856</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91663503646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93184447288513</t>
+    <t xml:space="preserve">3.91663479804993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93184471130371</t>
   </si>
   <si>
     <t xml:space="preserve">3.94325256347656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10676240921021</t>
+    <t xml:space="preserve">4.10676288604736</t>
   </si>
   <si>
     <t xml:space="preserve">4.35392904281616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42997980117798</t>
+    <t xml:space="preserve">4.42998027801514</t>
   </si>
   <si>
     <t xml:space="preserve">4.29308795928955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3881516456604</t>
+    <t xml:space="preserve">4.38815116882324</t>
   </si>
   <si>
     <t xml:space="preserve">4.23604965209961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33871793746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40336179733276</t>
+    <t xml:space="preserve">4.3387188911438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40336132049561</t>
   </si>
   <si>
     <t xml:space="preserve">4.47941303253174</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34252071380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46800565719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48701810836792</t>
+    <t xml:space="preserve">4.34252119064331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46800518035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48701858520508</t>
   </si>
   <si>
     <t xml:space="preserve">4.31970596313477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30829811096191</t>
+    <t xml:space="preserve">4.30829763412476</t>
   </si>
   <si>
     <t xml:space="preserve">4.48321580886841</t>
@@ -668,52 +668,52 @@
     <t xml:space="preserve">4.50603103637695</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45279550552368</t>
+    <t xml:space="preserve">4.45279502868652</t>
   </si>
   <si>
     <t xml:space="preserve">4.63531827926636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65052843093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74559259414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72657918930054</t>
+    <t xml:space="preserve">4.6505274772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74559164047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7265796661377</t>
   </si>
   <si>
     <t xml:space="preserve">4.69235610961914</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75319766998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55926656723022</t>
+    <t xml:space="preserve">4.75319719314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55926704406738</t>
   </si>
   <si>
     <t xml:space="preserve">4.56306982040405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64292335510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53645133972168</t>
+    <t xml:space="preserve">4.64292287826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53645181655884</t>
   </si>
   <si>
     <t xml:space="preserve">4.5516619682312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61630582809448</t>
+    <t xml:space="preserve">4.61630535125732</t>
   </si>
   <si>
     <t xml:space="preserve">4.68475103378296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58208227157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59729194641113</t>
+    <t xml:space="preserve">4.58208274841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59729242324829</t>
   </si>
   <si>
     <t xml:space="preserve">4.47180843353271</t>
@@ -725,37 +725,37 @@
     <t xml:space="preserve">4.5858850479126</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58968734741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62010765075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59348964691162</t>
+    <t xml:space="preserve">4.58968782424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62010812759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59349012374878</t>
   </si>
   <si>
     <t xml:space="preserve">4.65433073043823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77601337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82164335250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89769411087036</t>
+    <t xml:space="preserve">4.77601289749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8216438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89769458770752</t>
   </si>
   <si>
     <t xml:space="preserve">4.9052996635437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84445953369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94332599639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.882483959198</t>
+    <t xml:space="preserve">4.84445858001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94332504272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88248491287231</t>
   </si>
   <si>
     <t xml:space="preserve">4.8330512046814</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">4.87487888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.798828125</t>
+    <t xml:space="preserve">4.79882764816284</t>
   </si>
   <si>
     <t xml:space="preserve">4.76080274581909</t>
@@ -773,22 +773,22 @@
     <t xml:space="preserve">4.82544565200806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81023597717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73418426513672</t>
+    <t xml:space="preserve">4.81023550033569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73418474197388</t>
   </si>
   <si>
     <t xml:space="preserve">5.00036382675171</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86727380752563</t>
+    <t xml:space="preserve">4.86727428436279</t>
   </si>
   <si>
     <t xml:space="preserve">4.95853519439697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98135137557983</t>
+    <t xml:space="preserve">4.98135042190552</t>
   </si>
   <si>
     <t xml:space="preserve">5.0117712020874</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">4.91290473937988</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16007089614868</t>
+    <t xml:space="preserve">5.16007137298584</t>
   </si>
   <si>
     <t xml:space="preserve">5.19117975234985</t>
@@ -812,16 +812,16 @@
     <t xml:space="preserve">5.21062231063843</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34283208847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37005138397217</t>
+    <t xml:space="preserve">5.3428316116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37005186080933</t>
   </si>
   <si>
     <t xml:space="preserve">5.35838556289673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3894944190979</t>
+    <t xml:space="preserve">5.38949394226074</t>
   </si>
   <si>
     <t xml:space="preserve">5.28450393676758</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">5.21451044082642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17562580108643</t>
+    <t xml:space="preserve">5.17562532424927</t>
   </si>
   <si>
     <t xml:space="preserve">5.2261757850647</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">5.44393348693848</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45559883117676</t>
+    <t xml:space="preserve">5.4555983543396</t>
   </si>
   <si>
     <t xml:space="preserve">5.38560581207275</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">5.28839254379272</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47892951965332</t>
+    <t xml:space="preserve">5.47892999649048</t>
   </si>
   <si>
     <t xml:space="preserve">5.37393999099731</t>
@@ -872,25 +872,25 @@
     <t xml:space="preserve">5.40504837036133</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40893697738647</t>
+    <t xml:space="preserve">5.40893650054932</t>
   </si>
   <si>
     <t xml:space="preserve">5.42837905883789</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49448394775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49837207794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46337556838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64613723754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80945444107056</t>
+    <t xml:space="preserve">5.49448442459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49837303161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46337604522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64613676071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8094539642334</t>
   </si>
   <si>
     <t xml:space="preserve">5.59169721603394</t>
@@ -899,22 +899,22 @@
     <t xml:space="preserve">5.61891651153564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63836002349854</t>
+    <t xml:space="preserve">5.63835954666138</t>
   </si>
   <si>
     <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58003187179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62280464172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54503536224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57614326477051</t>
+    <t xml:space="preserve">5.5800313949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62280559539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54503488540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57614374160767</t>
   </si>
   <si>
     <t xml:space="preserve">5.48670721054077</t>
@@ -923,10 +923,10 @@
     <t xml:space="preserve">5.42449045181274</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53336954116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63447141647339</t>
+    <t xml:space="preserve">5.53336906433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63447093963623</t>
   </si>
   <si>
     <t xml:space="preserve">5.59947395324707</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">5.56836652755737</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66169023513794</t>
+    <t xml:space="preserve">5.66169118881226</t>
   </si>
   <si>
     <t xml:space="preserve">5.75501489639282</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">5.56447792053223</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70446443557739</t>
+    <t xml:space="preserve">5.70446395874023</t>
   </si>
   <si>
     <t xml:space="preserve">5.82500886917114</t>
@@ -962,64 +962,64 @@
     <t xml:space="preserve">5.77834701538086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69279909133911</t>
+    <t xml:space="preserve">5.69279956817627</t>
   </si>
   <si>
     <t xml:space="preserve">5.74723815917969</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65002536773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64224815368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52948093414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52170419692993</t>
+    <t xml:space="preserve">5.65002489089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64224863052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52948141098022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52170372009277</t>
   </si>
   <si>
     <t xml:space="preserve">5.53725814819336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57225465774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59558534622192</t>
+    <t xml:space="preserve">5.5722541809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59558629989624</t>
   </si>
   <si>
     <t xml:space="preserve">5.6966872215271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9027795791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85611629486084</t>
+    <t xml:space="preserve">5.90277910232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85611724853516</t>
   </si>
   <si>
     <t xml:space="preserve">5.83278608322144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86389446258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80167770385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84833955764771</t>
+    <t xml:space="preserve">5.86389398574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80167722702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84833908081055</t>
   </si>
   <si>
     <t xml:space="preserve">5.84445142745972</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89500188827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90666770935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92999935150146</t>
+    <t xml:space="preserve">5.8950023651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90666723251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92999887466431</t>
   </si>
   <si>
     <t xml:space="preserve">5.91444492340088</t>
@@ -1028,10 +1028,10 @@
     <t xml:space="preserve">5.94944143295288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96499586105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81723165512085</t>
+    <t xml:space="preserve">5.96499538421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81723260879517</t>
   </si>
   <si>
     <t xml:space="preserve">5.86778259277344</t>
@@ -1040,10 +1040,10 @@
     <t xml:space="preserve">5.88333654403687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83667421340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78223514556885</t>
+    <t xml:space="preserve">5.83667469024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78223466873169</t>
   </si>
   <si>
     <t xml:space="preserve">5.76279211044312</t>
@@ -1052,52 +1052,52 @@
     <t xml:space="preserve">5.68113327026367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70835256576538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87167119979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85222816467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73557281494141</t>
+    <t xml:space="preserve">5.70835304260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87167167663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85222864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73557233810425</t>
   </si>
   <si>
     <t xml:space="preserve">5.91833353042603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60336256027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50614976882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4594874382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37782859802246</t>
+    <t xml:space="preserve">5.60336303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50614929199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45948791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37782764434814</t>
   </si>
   <si>
     <t xml:space="preserve">5.44004535675049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50226163864136</t>
+    <t xml:space="preserve">5.5022611618042</t>
   </si>
   <si>
     <t xml:space="preserve">5.56058883666992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58392000198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72779512405396</t>
+    <t xml:space="preserve">5.5839204788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72779560089111</t>
   </si>
   <si>
     <t xml:space="preserve">5.71612977981567</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76668119430542</t>
+    <t xml:space="preserve">5.76668071746826</t>
   </si>
   <si>
     <t xml:space="preserve">5.72001886367798</t>
@@ -1112,16 +1112,16 @@
     <t xml:space="preserve">5.5489239692688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52559232711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55670022964478</t>
+    <t xml:space="preserve">5.52559185028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55670070648193</t>
   </si>
   <si>
     <t xml:space="preserve">5.58780908584595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43615674972534</t>
+    <t xml:space="preserve">5.43615579605103</t>
   </si>
   <si>
     <t xml:space="preserve">5.51392698287964</t>
@@ -1136,19 +1136,19 @@
     <t xml:space="preserve">6.05832004547119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01165771484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00388050079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10498237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08942794799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04276609420776</t>
+    <t xml:space="preserve">6.01165819168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0038800239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10498285293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08942842483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04276561737061</t>
   </si>
   <si>
     <t xml:space="preserve">5.9727725982666</t>
@@ -1175,28 +1175,28 @@
     <t xml:space="preserve">5.79390001296997</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77056980133057</t>
+    <t xml:space="preserve">5.77056932449341</t>
   </si>
   <si>
     <t xml:space="preserve">5.78612375259399</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7005763053894</t>
+    <t xml:space="preserve">5.70057582855225</t>
   </si>
   <si>
     <t xml:space="preserve">5.65391397476196</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49059534072876</t>
+    <t xml:space="preserve">5.49059581756592</t>
   </si>
   <si>
     <t xml:space="preserve">5.76564836502075</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68568134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50175619125366</t>
+    <t xml:space="preserve">5.68568181991577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50175666809082</t>
   </si>
   <si>
     <t xml:space="preserve">5.46177244186401</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">5.31783103942871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34981822967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36581134796143</t>
+    <t xml:space="preserve">5.34981775283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36581182479858</t>
   </si>
   <si>
     <t xml:space="preserve">5.32582759857178</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">5.30983448028564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03794574737549</t>
+    <t xml:space="preserve">5.03794527053833</t>
   </si>
   <si>
     <t xml:space="preserve">4.93398761749268</t>
@@ -1226,31 +1226,31 @@
     <t xml:space="preserve">4.65410232543945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91799402236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83002948760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99796152114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87001419067383</t>
+    <t xml:space="preserve">4.91799449920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83002996444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99796199798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87001371383667</t>
   </si>
   <si>
     <t xml:space="preserve">4.7980432510376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7420654296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85402059555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92599105834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90200090408325</t>
+    <t xml:space="preserve">4.74206590652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85402011871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92599058151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90200138092041</t>
   </si>
   <si>
     <t xml:space="preserve">5.00595855712891</t>
@@ -1265,19 +1265,19 @@
     <t xml:space="preserve">5.18188619613647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05393934249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06193590164185</t>
+    <t xml:space="preserve">5.05393886566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06193542480469</t>
   </si>
   <si>
     <t xml:space="preserve">4.95797777175903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0219521522522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06993198394775</t>
+    <t xml:space="preserve">5.02195167541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06993246078491</t>
   </si>
   <si>
     <t xml:space="preserve">5.08592557907104</t>
@@ -1292,22 +1292,22 @@
     <t xml:space="preserve">5.10991621017456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11791229248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10191917419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04594230651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90999794006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89400386810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07792901992798</t>
+    <t xml:space="preserve">5.11791276931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10191965103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04594278335571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90999746322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89400339126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07792854309082</t>
   </si>
   <si>
     <t xml:space="preserve">4.94198417663574</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">4.98996448516846</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98196744918823</t>
+    <t xml:space="preserve">4.98196792602539</t>
   </si>
   <si>
     <t xml:space="preserve">4.61411809921265</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">4.53415107727051</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47017669677734</t>
+    <t xml:space="preserve">4.4701771736145</t>
   </si>
   <si>
     <t xml:space="preserve">4.44618654251099</t>
@@ -1334,25 +1334,25 @@
     <t xml:space="preserve">4.45418310165405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47817325592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4941668510437</t>
+    <t xml:space="preserve">4.47817373275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49416732788086</t>
   </si>
   <si>
     <t xml:space="preserve">4.39020919799805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42219686508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25426483154297</t>
+    <t xml:space="preserve">4.42219734191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25426435470581</t>
   </si>
   <si>
     <t xml:space="preserve">4.27825498580933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34222888946533</t>
+    <t xml:space="preserve">4.34222841262817</t>
   </si>
   <si>
     <t xml:space="preserve">4.33423233032227</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">4.54214715957642</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67009544372559</t>
+    <t xml:space="preserve">4.67009496688843</t>
   </si>
   <si>
     <t xml:space="preserve">4.64610481262207</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">4.66209840774536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67809200286865</t>
+    <t xml:space="preserve">4.67809247970581</t>
   </si>
   <si>
     <t xml:space="preserve">4.70208263397217</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">4.75006294250488</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82203388214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81403636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71007919311523</t>
+    <t xml:space="preserve">4.8220329284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81403684616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71007871627808</t>
   </si>
   <si>
     <t xml:space="preserve">4.52615404129028</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">4.48617029190063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55814075469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31823825836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2462682723999</t>
+    <t xml:space="preserve">4.55814123153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31823921203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24626779556274</t>
   </si>
   <si>
     <t xml:space="preserve">4.18229389190674</t>
@@ -1421,19 +1421,19 @@
     <t xml:space="preserve">4.11032390594482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07034015655518</t>
+    <t xml:space="preserve">4.07033967971802</t>
   </si>
   <si>
     <t xml:space="preserve">3.95438718795776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81844282150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9224009513855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21428108215332</t>
+    <t xml:space="preserve">3.81844329833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92240071296692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21428155899048</t>
   </si>
   <si>
     <t xml:space="preserve">4.15830421447754</t>
@@ -1445,19 +1445,19 @@
     <t xml:space="preserve">4.23827171325684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26226186752319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13431358337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15030717849731</t>
+    <t xml:space="preserve">4.26226234436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13431406021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15030765533447</t>
   </si>
   <si>
     <t xml:space="preserve">4.09432983398438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06234312057495</t>
+    <t xml:space="preserve">4.06234359741211</t>
   </si>
   <si>
     <t xml:space="preserve">4.01436281204224</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">3.99836921691895</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02236032485962</t>
+    <t xml:space="preserve">4.02235984802246</t>
   </si>
   <si>
     <t xml:space="preserve">4.16630077362061</t>
@@ -1487,19 +1487,19 @@
     <t xml:space="preserve">4.27025842666626</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98237562179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96238398551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95038843154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91440367698669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03835344314575</t>
+    <t xml:space="preserve">3.98237586021423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96238374710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95038890838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91440343856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03835296630859</t>
   </si>
   <si>
     <t xml:space="preserve">4.2222785949707</t>
@@ -1508,46 +1508,46 @@
     <t xml:space="preserve">4.1023268699646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08633375167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07833623886108</t>
+    <t xml:space="preserve">4.08633327484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07833671569824</t>
   </si>
   <si>
     <t xml:space="preserve">4.00636625289917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03035593032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89441132545471</t>
+    <t xml:space="preserve">4.03035640716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89441180229187</t>
   </si>
   <si>
     <t xml:space="preserve">3.97837734222412</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91840219497681</t>
+    <t xml:space="preserve">3.91840195655823</t>
   </si>
   <si>
     <t xml:space="preserve">3.87042164802551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98637461662292</t>
+    <t xml:space="preserve">3.98637437820435</t>
   </si>
   <si>
     <t xml:space="preserve">4.19029092788696</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29424810409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93839406967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97038078308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17429780960083</t>
+    <t xml:space="preserve">4.29424858093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93839359283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97038102149963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17429733276367</t>
   </si>
   <si>
     <t xml:space="preserve">3.95838522911072</t>
@@ -1556,31 +1556,31 @@
     <t xml:space="preserve">3.910404920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84643125534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86242437362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81444454193115</t>
+    <t xml:space="preserve">3.846431016922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86242461204529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81444406509399</t>
   </si>
   <si>
     <t xml:space="preserve">3.77845883369446</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79098415374756</t>
+    <t xml:space="preserve">3.79098463058472</t>
   </si>
   <si>
     <t xml:space="preserve">3.79515957832336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77010846138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68243169784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69913196563721</t>
+    <t xml:space="preserve">3.77010869979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68243193626404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69913220405579</t>
   </si>
   <si>
     <t xml:space="preserve">3.74088335037231</t>
@@ -1589,37 +1589,37 @@
     <t xml:space="preserve">3.72418260574341</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71583247184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73670792579651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65738153457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67408156394958</t>
+    <t xml:space="preserve">3.71583223342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73670816421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65738129615784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67408132553101</t>
   </si>
   <si>
     <t xml:space="preserve">3.63650584220886</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59475493431091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66155648231506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68660688400269</t>
+    <t xml:space="preserve">3.59475469589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66155672073364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68660712242126</t>
   </si>
   <si>
     <t xml:space="preserve">3.61980533599854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62398076057434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57387971878052</t>
+    <t xml:space="preserve">3.62398099899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5738799571991</t>
   </si>
   <si>
     <t xml:space="preserve">3.54047846794128</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">3.55300402641296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56970429420471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54882907867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58222985267639</t>
+    <t xml:space="preserve">3.56970405578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54882884025574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58222961425781</t>
   </si>
   <si>
     <t xml:space="preserve">3.51542806625366</t>
@@ -1643,16 +1643,16 @@
     <t xml:space="preserve">3.46532726287842</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48202776908875</t>
+    <t xml:space="preserve">3.48202753067017</t>
   </si>
   <si>
     <t xml:space="preserve">3.52377843856812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53630375862122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59057998657227</t>
+    <t xml:space="preserve">3.53630399703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59058022499084</t>
   </si>
   <si>
     <t xml:space="preserve">3.74923324584961</t>
@@ -1664,22 +1664,22 @@
     <t xml:space="preserve">4.04149007797241</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92876172065735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92458724975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94128775596619</t>
+    <t xml:space="preserve">3.92876243591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9245867729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94128727912903</t>
   </si>
   <si>
     <t xml:space="preserve">3.94963788986206</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98303890228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90371203422546</t>
+    <t xml:space="preserve">3.98303866386414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90371179580688</t>
   </si>
   <si>
     <t xml:space="preserve">3.84108519554138</t>
@@ -1688,22 +1688,22 @@
     <t xml:space="preserve">3.96633791923523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95798826217651</t>
+    <t xml:space="preserve">3.95798802375793</t>
   </si>
   <si>
     <t xml:space="preserve">3.94546270370483</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89536142349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87031126022339</t>
+    <t xml:space="preserve">3.89536190032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87031078338623</t>
   </si>
   <si>
     <t xml:space="preserve">3.79933476448059</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78680896759033</t>
+    <t xml:space="preserve">3.78680920600891</t>
   </si>
   <si>
     <t xml:space="preserve">3.77845931053162</t>
@@ -1712,40 +1712,40 @@
     <t xml:space="preserve">3.75758361816406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72000741958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76593399047852</t>
+    <t xml:space="preserve">3.72000765800476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76593375205994</t>
   </si>
   <si>
     <t xml:space="preserve">3.69078230857849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78263473510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88283681869507</t>
+    <t xml:space="preserve">3.78263449668884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88283658027649</t>
   </si>
   <si>
     <t xml:space="preserve">3.86613583564758</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92041254043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02061462402344</t>
+    <t xml:space="preserve">3.92041206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02061414718628</t>
   </si>
   <si>
     <t xml:space="preserve">4.03731489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0665397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05819034576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12081623077393</t>
+    <t xml:space="preserve">4.06654071807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.058189868927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12081670761108</t>
   </si>
   <si>
     <t xml:space="preserve">4.18344306945801</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">4.13751697540283</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16256761550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24189424514771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23354434967041</t>
+    <t xml:space="preserve">4.16256809234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24189472198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23354387283325</t>
   </si>
   <si>
     <t xml:space="preserve">4.1667423248291</t>
@@ -1775,10 +1775,10 @@
     <t xml:space="preserve">4.12916660308838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07906579971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09159088134766</t>
+    <t xml:space="preserve">4.07906532287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09159135818481</t>
   </si>
   <si>
     <t xml:space="preserve">4.17509269714355</t>
@@ -1790,28 +1790,28 @@
     <t xml:space="preserve">4.04983997344971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08324098587036</t>
+    <t xml:space="preserve">4.0832405090332</t>
   </si>
   <si>
     <t xml:space="preserve">4.05401515960693</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12499141693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2168436050415</t>
+    <t xml:space="preserve">4.12499189376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21684408187866</t>
   </si>
   <si>
     <t xml:space="preserve">4.25024461746216</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30869626998901</t>
+    <t xml:space="preserve">4.3086953163147</t>
   </si>
   <si>
     <t xml:space="preserve">4.40054798126221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37549734115601</t>
+    <t xml:space="preserve">4.37549686431885</t>
   </si>
   <si>
     <t xml:space="preserve">4.36714696884155</t>
@@ -1820,13 +1820,13 @@
     <t xml:space="preserve">4.34209680557251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35879707336426</t>
+    <t xml:space="preserve">4.3587965965271</t>
   </si>
   <si>
     <t xml:space="preserve">4.40889835357666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3253960609436</t>
+    <t xml:space="preserve">4.32539558410645</t>
   </si>
   <si>
     <t xml:space="preserve">4.442298412323</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">4.52580070495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45899963378906</t>
+    <t xml:space="preserve">4.4589991569519</t>
   </si>
   <si>
     <t xml:space="preserve">4.4923996925354</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">4.47569942474365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45064878463745</t>
+    <t xml:space="preserve">4.45064926147461</t>
   </si>
   <si>
     <t xml:space="preserve">4.42559862136841</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">4.46734952926636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55085134506226</t>
+    <t xml:space="preserve">4.5508508682251</t>
   </si>
   <si>
     <t xml:space="preserve">4.4339485168457</t>
@@ -1868,19 +1868,19 @@
     <t xml:space="preserve">4.3838472366333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3504467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39219760894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31704568862915</t>
+    <t xml:space="preserve">4.35044717788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39219808578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31704616546631</t>
   </si>
   <si>
     <t xml:space="preserve">4.30034589767456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29199552536011</t>
+    <t xml:space="preserve">4.29199600219727</t>
   </si>
   <si>
     <t xml:space="preserve">4.28364515304565</t>
@@ -1895,16 +1895,16 @@
     <t xml:space="preserve">3.97051334381104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97886300086975</t>
+    <t xml:space="preserve">3.97886323928833</t>
   </si>
   <si>
     <t xml:space="preserve">4.0331392288208</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10829162597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4172477722168</t>
+    <t xml:space="preserve">4.1082911491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41724824905396</t>
   </si>
   <si>
     <t xml:space="preserve">4.11246681213379</t>
@@ -1913,19 +1913,19 @@
     <t xml:space="preserve">4.01226425170898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82856059074402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80768442153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62815594673157</t>
+    <t xml:space="preserve">3.82856035232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80768465995789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62815570831299</t>
   </si>
   <si>
     <t xml:space="preserve">3.43610143661499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38600039482117</t>
+    <t xml:space="preserve">3.38600015640259</t>
   </si>
   <si>
     <t xml:space="preserve">3.13549470901489</t>
@@ -1940,31 +1940,31 @@
     <t xml:space="preserve">2.9935417175293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23987197875977</t>
+    <t xml:space="preserve">3.23987221717834</t>
   </si>
   <si>
     <t xml:space="preserve">3.31919860839844</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28579807281494</t>
+    <t xml:space="preserve">3.28579831123352</t>
   </si>
   <si>
     <t xml:space="preserve">3.25239729881287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21482110023499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27327299118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15219497680664</t>
+    <t xml:space="preserve">3.21482133865356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27327275276184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1521954536438</t>
   </si>
   <si>
     <t xml:space="preserve">3.19812107086182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18977069854736</t>
+    <t xml:space="preserve">3.18977093696594</t>
   </si>
   <si>
     <t xml:space="preserve">3.22734689712524</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">3.12296962738037</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19394612312317</t>
+    <t xml:space="preserve">3.19394588470459</t>
   </si>
   <si>
     <t xml:space="preserve">3.31084847450256</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">3.28997325897217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3066737651825</t>
+    <t xml:space="preserve">3.30667352676392</t>
   </si>
   <si>
     <t xml:space="preserve">3.37347507476807</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">3.35259962081909</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34424924850464</t>
+    <t xml:space="preserve">3.34424948692322</t>
   </si>
   <si>
     <t xml:space="preserve">3.44862699508667</t>
@@ -2009,25 +2009,25 @@
     <t xml:space="preserve">3.38182544708252</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42357587814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49872803688049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47367739677429</t>
+    <t xml:space="preserve">3.42357611656189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49872779846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47367715835571</t>
   </si>
   <si>
     <t xml:space="preserve">3.52795338630676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55717921257019</t>
+    <t xml:space="preserve">3.55717897415161</t>
   </si>
   <si>
     <t xml:space="preserve">3.61145520210266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66990637779236</t>
+    <t xml:space="preserve">3.66990661621094</t>
   </si>
   <si>
     <t xml:space="preserve">3.49037742614746</t>
@@ -2051,13 +2051,13 @@
     <t xml:space="preserve">3.63233065605164</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76175856590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8786609172821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85361075401306</t>
+    <t xml:space="preserve">3.76175904273987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87866115570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85361051559448</t>
   </si>
   <si>
     <t xml:space="preserve">3.82020998001099</t>
@@ -2066,28 +2066,28 @@
     <t xml:space="preserve">3.64068126678467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69495749473572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64485621452332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65320611000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64903092384338</t>
+    <t xml:space="preserve">3.69495725631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64485573768616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65320634841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64903116226196</t>
   </si>
   <si>
     <t xml:space="preserve">3.60310506820679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73253321647644</t>
+    <t xml:space="preserve">3.73253297805786</t>
   </si>
   <si>
     <t xml:space="preserve">3.72835826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60728025436401</t>
+    <t xml:space="preserve">3.60728001594543</t>
   </si>
   <si>
     <t xml:space="preserve">3.75340819358826</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">3.74505853652954</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66573095321655</t>
+    <t xml:space="preserve">3.66573119163513</t>
   </si>
   <si>
     <t xml:space="preserve">3.59893012046814</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">3.51960301399231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58640480041504</t>
+    <t xml:space="preserve">3.58640503883362</t>
   </si>
   <si>
     <t xml:space="preserve">3.50707769393921</t>
@@ -2135,37 +2135,37 @@
     <t xml:space="preserve">3.33172416687012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24822211265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26492261886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23152160644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18559598922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09374356269836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08121871948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06034302711487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03946757316589</t>
+    <t xml:space="preserve">3.24822235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26492285728455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23152184486389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18559575080872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09374380111694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08121848106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06034278869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03946781158447</t>
   </si>
   <si>
     <t xml:space="preserve">3.00189185142517</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00606656074524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96014070510864</t>
+    <t xml:space="preserve">3.00606679916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96014094352722</t>
   </si>
   <si>
     <t xml:space="preserve">2.82236289978027</t>
@@ -2177,31 +2177,31 @@
     <t xml:space="preserve">2.81818771362305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88916444778442</t>
+    <t xml:space="preserve">2.88916420936584</t>
   </si>
   <si>
     <t xml:space="preserve">2.98101615905762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30249834060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90788698196411</t>
+    <t xml:space="preserve">3.30249857902527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90788674354553</t>
   </si>
   <si>
     <t xml:space="preserve">4.00808954238892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01643896102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95381331443787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93711280822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8744854927063</t>
+    <t xml:space="preserve">4.01643943786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95381307601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93711304664612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87448596954346</t>
   </si>
   <si>
     <t xml:space="preserve">3.84943580627441</t>
@@ -2216,25 +2216,25 @@
     <t xml:space="preserve">3.45280194282532</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20849370956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15421676635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02478933334351</t>
+    <t xml:space="preserve">4.20849323272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15421724319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02478981018066</t>
   </si>
   <si>
     <t xml:space="preserve">4.07071542739868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14169216156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1917929649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15004253387451</t>
+    <t xml:space="preserve">4.14169263839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19179344177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15004205703735</t>
   </si>
   <si>
     <t xml:space="preserve">4.17091751098633</t>
@@ -2246,10 +2246,10 @@
     <t xml:space="preserve">4.59260177612305</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54250049591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60930252075195</t>
+    <t xml:space="preserve">4.5425009727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60930299758911</t>
   </si>
   <si>
     <t xml:space="preserve">4.76525640487671</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">4.66995096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55731821060181</t>
+    <t xml:space="preserve">4.55731773376465</t>
   </si>
   <si>
     <t xml:space="preserve">4.50533294677734</t>
@@ -2267,43 +2267,43 @@
     <t xml:space="preserve">4.51399755477905</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52266120910645</t>
+    <t xml:space="preserve">4.5226616859436</t>
   </si>
   <si>
     <t xml:space="preserve">4.64395904541016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7132716178894</t>
+    <t xml:space="preserve">4.71327209472656</t>
   </si>
   <si>
     <t xml:space="preserve">4.72193574905396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70460796356201</t>
+    <t xml:space="preserve">4.7046070098877</t>
   </si>
   <si>
     <t xml:space="preserve">4.82590532302856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78258466720581</t>
+    <t xml:space="preserve">4.78258419036865</t>
   </si>
   <si>
     <t xml:space="preserve">4.79991245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80857706069946</t>
+    <t xml:space="preserve">4.8085765838623</t>
   </si>
   <si>
     <t xml:space="preserve">4.756591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7392635345459</t>
+    <t xml:space="preserve">4.73926401138306</t>
   </si>
   <si>
     <t xml:space="preserve">4.73059988021851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63529443740845</t>
+    <t xml:space="preserve">4.63529491424561</t>
   </si>
   <si>
     <t xml:space="preserve">4.46201276779175</t>
@@ -2315,13 +2315,13 @@
     <t xml:space="preserve">4.41869211196899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4273567199707</t>
+    <t xml:space="preserve">4.42735624313354</t>
   </si>
   <si>
     <t xml:space="preserve">4.3753719329834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4533486366272</t>
+    <t xml:space="preserve">4.45334815979004</t>
   </si>
   <si>
     <t xml:space="preserve">4.47934055328369</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">4.33205127716064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43601989746094</t>
+    <t xml:space="preserve">4.4360203742981</t>
   </si>
   <si>
     <t xml:space="preserve">4.49666929244995</t>
@@ -2363,19 +2363,19 @@
     <t xml:space="preserve">4.88655376434326</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84323310852051</t>
+    <t xml:space="preserve">4.84323358535767</t>
   </si>
   <si>
     <t xml:space="preserve">4.86056137084961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79124927520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81724071502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92987489700317</t>
+    <t xml:space="preserve">4.79124879837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81724119186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92987442016602</t>
   </si>
   <si>
     <t xml:space="preserve">4.91254615783691</t>
@@ -2390,22 +2390,22 @@
     <t xml:space="preserve">4.95586633682251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97319507598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04250764846802</t>
+    <t xml:space="preserve">4.97319412231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04250812530518</t>
   </si>
   <si>
     <t xml:space="preserve">5.08582782745361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11182069778442</t>
+    <t xml:space="preserve">5.11182022094727</t>
   </si>
   <si>
     <t xml:space="preserve">5.12048435211182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96453046798706</t>
+    <t xml:space="preserve">4.96453094482422</t>
   </si>
   <si>
     <t xml:space="preserve">5.07716417312622</t>
@@ -2417,49 +2417,49 @@
     <t xml:space="preserve">5.17246866226196</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22445392608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12914848327637</t>
+    <t xml:space="preserve">5.22445344924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12914896011353</t>
   </si>
   <si>
     <t xml:space="preserve">5.24178218841553</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37174367904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42372846603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58834600448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56235408782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51903343200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47571325302124</t>
+    <t xml:space="preserve">5.37174320220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42372798919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58834552764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56235361099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51903295516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47571277618408</t>
   </si>
   <si>
     <t xml:space="preserve">5.46704864501953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49304056167603</t>
+    <t xml:space="preserve">5.49304103851318</t>
   </si>
   <si>
     <t xml:space="preserve">5.38040781021118</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50170516967773</t>
+    <t xml:space="preserve">5.50170469284058</t>
   </si>
   <si>
     <t xml:space="preserve">5.60567426681519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57968187332153</t>
+    <t xml:space="preserve">5.57968235015869</t>
   </si>
   <si>
     <t xml:space="preserve">5.55368947982788</t>
@@ -2468,28 +2468,28 @@
     <t xml:space="preserve">5.62300205230713</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73563575744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7269721031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70964336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64033079147339</t>
+    <t xml:space="preserve">5.73563528060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72697162628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70964384078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64033031463623</t>
   </si>
   <si>
     <t xml:space="preserve">5.68365144729614</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78762054443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76162767410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74429988861084</t>
+    <t xml:space="preserve">5.78762006759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76162815093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.744300365448</t>
   </si>
   <si>
     <t xml:space="preserve">5.80494832992554</t>
@@ -2501,13 +2501,13 @@
     <t xml:space="preserve">5.54502582550049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44971990585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30243015289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25910997390747</t>
+    <t xml:space="preserve">5.44972038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30243062973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25911045074463</t>
   </si>
   <si>
     <t xml:space="preserve">5.26777410507202</t>
@@ -2528,199 +2528,205 @@
     <t xml:space="preserve">4.98185873031616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93853807449341</t>
+    <t xml:space="preserve">4.93853855133057</t>
   </si>
   <si>
     <t xml:space="preserve">5.03384351730347</t>
   </si>
   <si>
+    <t xml:space="preserve">5.02517986297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05117177963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99918699264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01651525497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99052333831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05983591079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32842302322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38907146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39773559570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28510236740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19846105575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14647674560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27643823623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36307954788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45838499069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09952831268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25548124313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3334584236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51540517807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28147411346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29880285263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18616914749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1081919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71830749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84826946258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20712566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87788963317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31975841522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44105672836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35441541671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21578979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06850004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10315608978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19846153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27142238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23494148254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18934154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12550067901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29878282546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50854539871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47206449508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68182706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6088662147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65446662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49942493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59062623977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41734409332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49030494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38086366653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3352632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10726022720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8701376914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97957897186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04341983795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9522180557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06165981292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13462066650391</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.02517938613892</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05117130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99918699264526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01651573181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99052286148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05983638763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32842350006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38907146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39773559570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28510284423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19846153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14647722244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27643871307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36307907104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45838499069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09952783584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2554817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33345890045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51540517807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28147411346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29880237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18616914749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685609817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10819244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84826850891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20712566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87788963317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639925003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31975889205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44105625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35441493988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21578931808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06850004196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10315656661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27142238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2349419593811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18934154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12550020217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29878282546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50854539871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47206497192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68182706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60886669158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65446662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49942493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59062623977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41734409332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49030494689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38086366653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3352632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10726022720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8701376914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97957897186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04341983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95221853256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0616602897644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13462066650391</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.09814071655273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05253982543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98869848251343</t>
+    <t xml:space="preserve">5.05253934860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98869895935059</t>
   </si>
   <si>
     <t xml:space="preserve">4.78805685043335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76069593429565</t>
+    <t xml:space="preserve">4.76069641113281</t>
   </si>
   <si>
     <t xml:space="preserve">4.84277725219727</t>
@@ -2732,16 +2738,19 @@
     <t xml:space="preserve">4.71509552001953</t>
   </si>
   <si>
+    <t xml:space="preserve">4.85189771652222</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.93397808074951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88837766647339</t>
+    <t xml:space="preserve">4.88837814331055</t>
   </si>
   <si>
     <t xml:space="preserve">4.83365726470947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72421598434448</t>
+    <t xml:space="preserve">4.72421550750732</t>
   </si>
   <si>
     <t xml:space="preserve">4.91573810577393</t>
@@ -2756,7 +2765,7 @@
     <t xml:space="preserve">5.03429937362671</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16198110580444</t>
+    <t xml:space="preserve">5.16198062896729</t>
   </si>
   <si>
     <t xml:space="preserve">5.1437406539917</t>
@@ -2780,7 +2789,7 @@
     <t xml:space="preserve">5.28054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22582149505615</t>
+    <t xml:space="preserve">5.22582197189331</t>
   </si>
   <si>
     <t xml:space="preserve">5.32614326477051</t>
@@ -2813,34 +2822,34 @@
     <t xml:space="preserve">5.31702280044556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39910364151001</t>
+    <t xml:space="preserve">5.39910411834717</t>
   </si>
   <si>
     <t xml:space="preserve">5.45382452011108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53590536117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64534664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70918798446655</t>
+    <t xml:space="preserve">5.5359058380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64534711837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70918750762939</t>
   </si>
   <si>
     <t xml:space="preserve">5.78214836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73654747009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7730278968811</t>
+    <t xml:space="preserve">5.73654794692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77302837371826</t>
   </si>
   <si>
     <t xml:space="preserve">5.81862878799438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82774877548218</t>
+    <t xml:space="preserve">5.82774925231934</t>
   </si>
   <si>
     <t xml:space="preserve">5.84598922729492</t>
@@ -2849,7 +2858,7 @@
     <t xml:space="preserve">5.86422920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92807054519653</t>
+    <t xml:space="preserve">5.92807006835938</t>
   </si>
   <si>
     <t xml:space="preserve">6.00103092193604</t>
@@ -2867,13 +2876,13 @@
     <t xml:space="preserve">6.0648717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03751134872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15607261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01927137374878</t>
+    <t xml:space="preserve">6.03751087188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15607309341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01927089691162</t>
   </si>
   <si>
     <t xml:space="preserve">6.0739917755127</t>
@@ -2894,10 +2903,10 @@
     <t xml:space="preserve">6.12871217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28375387191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21991395950317</t>
+    <t xml:space="preserve">6.28375434875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21991348266602</t>
   </si>
   <si>
     <t xml:space="preserve">6.20167350769043</t>
@@ -2906,19 +2915,19 @@
     <t xml:space="preserve">6.18343353271484</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1651930809021</t>
+    <t xml:space="preserve">6.16519355773926</t>
   </si>
   <si>
     <t xml:space="preserve">6.24727344512939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38407516479492</t>
+    <t xml:space="preserve">6.38407564163208</t>
   </si>
   <si>
     <t xml:space="preserve">6.4296760559082</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45703649520874</t>
+    <t xml:space="preserve">6.45703601837158</t>
   </si>
   <si>
     <t xml:space="preserve">6.47527647018433</t>
@@ -2930,7 +2939,7 @@
     <t xml:space="preserve">6.42055606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52087688446045</t>
+    <t xml:space="preserve">6.52087736129761</t>
   </si>
   <si>
     <t xml:space="preserve">6.41143608093262</t>
@@ -2951,7 +2960,7 @@
     <t xml:space="preserve">7.06808376312256</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15016460418701</t>
+    <t xml:space="preserve">7.15016508102417</t>
   </si>
   <si>
     <t xml:space="preserve">7.11368417739868</t>
@@ -2963,10 +2972,10 @@
     <t xml:space="preserve">7.28696584701538</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20488548278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26872539520264</t>
+    <t xml:space="preserve">7.20488500595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26872587203979</t>
   </si>
   <si>
     <t xml:space="preserve">7.27784633636475</t>
@@ -2975,7 +2984,7 @@
     <t xml:space="preserve">7.19576501846313</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25048542022705</t>
+    <t xml:space="preserve">7.25048589706421</t>
   </si>
   <si>
     <t xml:space="preserve">7.37816762924194</t>
@@ -2993,7 +3002,7 @@
     <t xml:space="preserve">7.50584840774536</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44200801849365</t>
+    <t xml:space="preserve">7.44200754165649</t>
   </si>
   <si>
     <t xml:space="preserve">7.38728761672974</t>
@@ -3005,7 +3014,7 @@
     <t xml:space="preserve">7.31432676315308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34168720245361</t>
+    <t xml:space="preserve">7.34168672561646</t>
   </si>
   <si>
     <t xml:space="preserve">7.42376804351807</t>
@@ -3014,7 +3023,7 @@
     <t xml:space="preserve">7.45112800598145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46024894714355</t>
+    <t xml:space="preserve">7.4602484703064</t>
   </si>
   <si>
     <t xml:space="preserve">7.49672889709473</t>
@@ -3041,7 +3050,7 @@
     <t xml:space="preserve">5.94631052017212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2563943862915</t>
+    <t xml:space="preserve">6.25639390945435</t>
   </si>
   <si>
     <t xml:space="preserve">6.19255304336548</t>
@@ -3053,7 +3062,7 @@
     <t xml:space="preserve">6.44791650772095</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50263690948486</t>
+    <t xml:space="preserve">6.50263738632202</t>
   </si>
   <si>
     <t xml:space="preserve">6.40231561660767</t>
@@ -3062,7 +3071,7 @@
     <t xml:space="preserve">6.49351692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6029577255249</t>
+    <t xml:space="preserve">6.60295820236206</t>
   </si>
   <si>
     <t xml:space="preserve">6.5299973487854</t>
@@ -3080,7 +3089,7 @@
     <t xml:space="preserve">6.56647729873657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58471775054932</t>
+    <t xml:space="preserve">6.58471727371216</t>
   </si>
   <si>
     <t xml:space="preserve">6.48439693450928</t>
@@ -3636,6 +3645,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.64999961853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5</t>
   </si>
 </sst>
 </file>
@@ -46089,7 +46101,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1620" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46115,7 +46127,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1621" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46141,7 +46153,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1622" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46167,7 +46179,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46193,7 +46205,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1624" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46219,7 +46231,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46245,7 +46257,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46271,7 +46283,7 @@
         <v>6</v>
       </c>
       <c r="G1627" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46297,7 +46309,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1628" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46323,7 +46335,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1629" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46349,7 +46361,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1630" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46375,7 +46387,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1631" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46401,7 +46413,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1632" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46427,7 +46439,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46453,7 +46465,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46479,7 +46491,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1635" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46505,7 +46517,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46531,7 +46543,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1637" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46557,7 +46569,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46583,7 +46595,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1639" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46609,7 +46621,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1640" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46635,7 +46647,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1641" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46661,7 +46673,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1642" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46687,7 +46699,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1643" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46713,7 +46725,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46739,7 +46751,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1645" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46765,7 +46777,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1646" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46791,7 +46803,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1647" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46817,7 +46829,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1648" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46843,7 +46855,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1649" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46869,7 +46881,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46895,7 +46907,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1651" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46921,7 +46933,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1652" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46947,7 +46959,7 @@
         <v>5.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46973,7 +46985,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1654" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46999,7 +47011,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1655" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47025,7 +47037,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1656" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47051,7 +47063,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47077,7 +47089,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1658" t="s">
-        <v>779</v>
+        <v>908</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47103,7 +47115,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1659" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47129,7 +47141,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G1660" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47155,7 +47167,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1661" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47181,7 +47193,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1662" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47207,7 +47219,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1663" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47233,7 +47245,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1664" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47259,7 +47271,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1665" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47285,7 +47297,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47311,7 +47323,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1667" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47337,7 +47349,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1668" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47363,7 +47375,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47389,7 +47401,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G1670" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47415,7 +47427,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1671" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47441,7 +47453,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1672" t="s">
-        <v>779</v>
+        <v>908</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47467,7 +47479,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1673" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47493,7 +47505,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1674" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47519,7 +47531,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1675" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47545,7 +47557,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1676" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47571,7 +47583,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1677" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47597,7 +47609,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1678" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47623,7 +47635,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1679" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47649,7 +47661,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1680" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47675,7 +47687,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1681" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47701,7 +47713,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1682" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47727,7 +47739,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1683" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47753,7 +47765,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1684" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47805,7 +47817,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1686" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47831,7 +47843,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1687" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47857,7 +47869,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47883,7 +47895,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1689" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47909,7 +47921,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47935,7 +47947,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47961,7 +47973,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1692" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47987,7 +47999,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1693" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48013,7 +48025,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48039,7 +48051,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1695" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48065,7 +48077,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1696" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48091,7 +48103,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1697" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48117,7 +48129,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1698" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48143,7 +48155,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1699" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48169,7 +48181,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1700" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48195,7 +48207,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1701" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48221,7 +48233,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48247,7 +48259,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1703" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48273,7 +48285,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1704" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48299,7 +48311,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1705" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48325,7 +48337,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1706" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48351,7 +48363,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48377,7 +48389,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48403,7 +48415,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1709" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48429,7 +48441,7 @@
         <v>6</v>
       </c>
       <c r="G1710" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48455,7 +48467,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1711" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48481,7 +48493,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1712" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48507,7 +48519,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1713" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48533,7 +48545,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1714" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48559,7 +48571,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1715" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48585,7 +48597,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1716" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48611,7 +48623,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48637,7 +48649,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48663,7 +48675,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1719" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48689,7 +48701,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1720" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48715,7 +48727,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1721" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48741,7 +48753,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1722" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48767,7 +48779,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1723" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48793,7 +48805,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48819,7 +48831,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1725" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48845,7 +48857,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1726" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48871,7 +48883,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G1727" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48897,7 +48909,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1728" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48923,7 +48935,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1729" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48949,7 +48961,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48975,7 +48987,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1731" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49001,7 +49013,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1732" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49027,7 +49039,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49053,7 +49065,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1734" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49079,7 +49091,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1735" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49105,7 +49117,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1736" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49131,7 +49143,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1737" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49157,7 +49169,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1738" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49183,7 +49195,7 @@
         <v>6</v>
       </c>
       <c r="G1739" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49209,7 +49221,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1740" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49235,7 +49247,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1741" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49261,7 +49273,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1742" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49287,7 +49299,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1743" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49313,7 +49325,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G1744" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49339,7 +49351,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49365,7 +49377,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1746" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49391,7 +49403,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49417,7 +49429,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1748" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49443,7 +49455,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G1749" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49469,7 +49481,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1750" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49495,7 +49507,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1751" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49521,7 +49533,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1752" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49547,7 +49559,7 @@
         <v>6.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49573,7 +49585,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49599,7 +49611,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1755" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49625,7 +49637,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1756" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49651,7 +49663,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49677,7 +49689,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49703,7 +49715,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49729,7 +49741,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1760" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49755,7 +49767,7 @@
         <v>6.75</v>
       </c>
       <c r="G1761" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49781,7 +49793,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1762" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49807,7 +49819,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49833,7 +49845,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1764" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49859,7 +49871,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1765" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49885,7 +49897,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1766" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49911,7 +49923,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1767" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49937,7 +49949,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1768" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49963,7 +49975,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49989,7 +50001,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1770" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50015,7 +50027,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50041,7 +50053,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1772" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50067,7 +50079,7 @@
         <v>6.75</v>
       </c>
       <c r="G1773" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50093,7 +50105,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1774" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50119,7 +50131,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1775" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50145,7 +50157,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1776" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50171,7 +50183,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1777" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50197,7 +50209,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1778" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50223,7 +50235,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1779" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50249,7 +50261,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1780" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50275,7 +50287,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1781" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50301,7 +50313,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50327,7 +50339,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1783" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50353,7 +50365,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1784" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50379,7 +50391,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50405,7 +50417,7 @@
         <v>7</v>
       </c>
       <c r="G1786" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50431,7 +50443,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1787" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50457,7 +50469,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50483,7 +50495,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1789" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50509,7 +50521,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1790" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50535,7 +50547,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1791" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50561,7 +50573,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1792" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50587,7 +50599,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1793" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50613,7 +50625,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1794" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50639,7 +50651,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1795" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50665,7 +50677,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1796" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50691,7 +50703,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50717,7 +50729,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1798" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50743,7 +50755,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1799" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50769,7 +50781,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1800" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50795,7 +50807,7 @@
         <v>7.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50821,7 +50833,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1802" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50847,7 +50859,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1803" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50873,7 +50885,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1804" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50899,7 +50911,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1805" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50925,7 +50937,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1806" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50951,7 +50963,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50977,7 +50989,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1808" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51003,7 +51015,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1809" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51029,7 +51041,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1810" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51055,7 +51067,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1811" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51081,7 +51093,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1812" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51107,7 +51119,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1813" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51133,7 +51145,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1814" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51159,7 +51171,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1815" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51185,7 +51197,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1816" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51211,7 +51223,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1817" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51237,7 +51249,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1818" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51263,7 +51275,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1819" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51289,7 +51301,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51315,7 +51327,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1821" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51341,7 +51353,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1822" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51367,7 +51379,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1823" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51393,7 +51405,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1824" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51419,7 +51431,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1825" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51445,7 +51457,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1826" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51471,7 +51483,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1827" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51497,7 +51509,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1828" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51523,7 +51535,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1829" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51549,7 +51561,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1830" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51575,7 +51587,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1831" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51601,7 +51613,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1832" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51627,7 +51639,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51653,7 +51665,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51679,7 +51691,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1835" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51705,7 +51717,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1836" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51731,7 +51743,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1837" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51757,7 +51769,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1838" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51783,7 +51795,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1839" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51809,7 +51821,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1840" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51835,7 +51847,7 @@
         <v>6.75</v>
       </c>
       <c r="G1841" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51861,7 +51873,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51887,7 +51899,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G1843" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51913,7 +51925,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1844" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51939,7 +51951,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1845" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51965,7 +51977,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1846" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51991,7 +52003,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1847" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52017,7 +52029,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1848" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52043,7 +52055,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1849" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52069,7 +52081,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1850" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52095,7 +52107,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1851" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52121,7 +52133,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1852" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52147,7 +52159,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1853" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52173,7 +52185,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52199,7 +52211,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52225,7 +52237,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1856" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52251,7 +52263,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1857" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52277,7 +52289,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1858" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52303,7 +52315,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52329,7 +52341,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52355,7 +52367,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1861" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52381,7 +52393,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1862" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52407,7 +52419,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1863" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52433,7 +52445,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1864" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52459,7 +52471,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1865" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52485,7 +52497,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1866" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52511,7 +52523,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1867" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52537,7 +52549,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52563,7 +52575,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1869" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52589,7 +52601,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1870" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52615,7 +52627,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52641,7 +52653,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1872" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52667,7 +52679,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1873" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52693,7 +52705,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52719,7 +52731,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52745,7 +52757,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52771,7 +52783,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1877" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52797,7 +52809,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1878" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52823,7 +52835,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1879" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52849,7 +52861,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1880" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52875,7 +52887,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52901,7 +52913,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52927,7 +52939,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1883" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52953,7 +52965,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1884" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52979,7 +52991,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1885" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53005,7 +53017,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1886" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53031,7 +53043,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1887" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53057,7 +53069,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53083,7 +53095,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1889" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53109,7 +53121,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1890" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53135,7 +53147,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53161,7 +53173,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53187,7 +53199,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1893" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53213,7 +53225,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1894" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53239,7 +53251,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1895" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53265,7 +53277,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53291,7 +53303,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1897" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53317,7 +53329,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53343,7 +53355,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1899" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53369,7 +53381,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1900" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53395,7 +53407,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1901" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53421,7 +53433,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1902" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53447,7 +53459,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1903" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53473,7 +53485,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1904" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53499,7 +53511,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1905" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53525,7 +53537,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1906" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53551,7 +53563,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1907" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53577,7 +53589,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1908" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53603,7 +53615,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53629,7 +53641,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1910" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53655,7 +53667,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53681,7 +53693,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1912" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53707,7 +53719,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G1913" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53733,7 +53745,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1914" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53759,7 +53771,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1915" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53785,7 +53797,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1916" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53811,7 +53823,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1917" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53837,7 +53849,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1918" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53863,7 +53875,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1919" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53889,7 +53901,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53915,7 +53927,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1921" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53941,7 +53953,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1922" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53967,7 +53979,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53993,7 +54005,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1924" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54019,7 +54031,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1925" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54045,7 +54057,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1926" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54071,7 +54083,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54097,7 +54109,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54123,7 +54135,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1929" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54149,7 +54161,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1930" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54175,7 +54187,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54201,7 +54213,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1932" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54227,7 +54239,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1933" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54253,7 +54265,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54279,7 +54291,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1935" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54305,7 +54317,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1936" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54331,7 +54343,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54357,7 +54369,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1938" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54383,7 +54395,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1939" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54409,7 +54421,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1940" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54435,7 +54447,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1941" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54461,7 +54473,7 @@
         <v>7.5</v>
       </c>
       <c r="G1942" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54487,7 +54499,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54513,7 +54525,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1944" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54539,7 +54551,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1945" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54565,7 +54577,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G1946" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54591,7 +54603,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1947" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54617,7 +54629,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1948" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54643,7 +54655,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1949" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54669,7 +54681,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1950" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54695,7 +54707,7 @@
         <v>7.75</v>
       </c>
       <c r="G1951" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54721,7 +54733,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1952" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54747,7 +54759,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1953" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54773,7 +54785,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54799,7 +54811,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G1955" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54825,7 +54837,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54851,7 +54863,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1957" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54877,7 +54889,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54903,7 +54915,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54929,7 +54941,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1960" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54955,7 +54967,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54981,7 +54993,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1962" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55007,7 +55019,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1963" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55033,7 +55045,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55059,7 +55071,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1965" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55085,7 +55097,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1966" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55111,7 +55123,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1967" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55137,7 +55149,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1968" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55163,7 +55175,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1969" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55189,7 +55201,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1970" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55215,7 +55227,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55241,7 +55253,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1972" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55267,7 +55279,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1973" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55293,7 +55305,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1974" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55319,7 +55331,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55345,7 +55357,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1976" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55371,7 +55383,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1977" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55397,7 +55409,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1978" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55423,7 +55435,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1979" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55449,7 +55461,7 @@
         <v>7.75</v>
       </c>
       <c r="G1980" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55475,7 +55487,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1981" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55501,7 +55513,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55527,7 +55539,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55553,7 +55565,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55579,7 +55591,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1985" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55605,7 +55617,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55631,7 +55643,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1987" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55657,7 +55669,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1988" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55683,7 +55695,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1989" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55709,7 +55721,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55735,7 +55747,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1991" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55761,7 +55773,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1992" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55787,7 +55799,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1993" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55813,7 +55825,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55839,7 +55851,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55865,7 +55877,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G1996" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55891,7 +55903,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1997" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55917,7 +55929,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1998" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55943,7 +55955,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1999" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55969,7 +55981,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2000" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55995,7 +56007,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G2001" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56021,7 +56033,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2002" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56047,7 +56059,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56073,7 +56085,7 @@
         <v>8</v>
       </c>
       <c r="G2004" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56099,7 +56111,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2005" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56125,7 +56137,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2006" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56151,7 +56163,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56177,7 +56189,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2008" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56203,7 +56215,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56229,7 +56241,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2010" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56255,7 +56267,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56281,7 +56293,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56307,7 +56319,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2013" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56333,7 +56345,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G2014" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56359,7 +56371,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2015" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56385,7 +56397,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56411,7 +56423,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2017" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56437,7 +56449,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2018" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56463,7 +56475,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G2019" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56489,7 +56501,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2020" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56515,7 +56527,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G2021" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56541,7 +56553,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2022" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56567,7 +56579,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2023" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56593,7 +56605,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2024" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56619,7 +56631,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2025" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56645,7 +56657,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2026" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56671,7 +56683,7 @@
         <v>8</v>
       </c>
       <c r="G2027" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56697,7 +56709,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2028" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56723,7 +56735,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2029" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56749,7 +56761,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2030" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56775,7 +56787,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G2031" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56801,7 +56813,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2032" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56827,7 +56839,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2033" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56853,7 +56865,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2034" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56879,7 +56891,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2035" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56905,7 +56917,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56931,7 +56943,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2037" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56957,7 +56969,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2038" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56983,7 +56995,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G2039" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57009,7 +57021,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2040" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57035,7 +57047,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2041" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57061,7 +57073,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2042" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57087,7 +57099,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2043" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57113,7 +57125,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2044" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57139,7 +57151,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2045" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57165,7 +57177,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G2046" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57191,7 +57203,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2047" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57217,7 +57229,7 @@
         <v>8.25</v>
       </c>
       <c r="G2048" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57243,7 +57255,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2049" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57269,7 +57281,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2050" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57295,7 +57307,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2051" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57321,7 +57333,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2052" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57347,7 +57359,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2053" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57373,7 +57385,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57399,7 +57411,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2055" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57425,7 +57437,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2056" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57451,7 +57463,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2057" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57477,7 +57489,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2058" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57503,7 +57515,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57529,7 +57541,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2060" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57555,7 +57567,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57581,7 +57593,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2062" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57607,7 +57619,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2063" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57633,7 +57645,7 @@
         <v>8.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57659,7 +57671,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2065" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57685,7 +57697,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2066" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57711,7 +57723,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2067" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57737,7 +57749,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2068" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57763,7 +57775,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57789,7 +57801,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2070" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57815,7 +57827,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2071" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57841,7 +57853,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57867,7 +57879,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2073" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57893,7 +57905,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2074" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57919,7 +57931,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2075" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57945,7 +57957,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2076" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57971,7 +57983,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2077" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57997,7 +58009,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2078" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58023,7 +58035,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G2079" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58049,7 +58061,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2080" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58075,7 +58087,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G2081" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58101,7 +58113,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2082" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58127,7 +58139,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58153,7 +58165,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58179,7 +58191,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58205,7 +58217,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G2086" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58231,7 +58243,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2087" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58257,7 +58269,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2088" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58283,7 +58295,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2089" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58309,7 +58321,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2090" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58335,7 +58347,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2091" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58361,7 +58373,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2092" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58387,7 +58399,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2093" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58413,7 +58425,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2094" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58439,7 +58451,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2095" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58465,7 +58477,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2096" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58491,7 +58503,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2097" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58517,7 +58529,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2098" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58543,7 +58555,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G2099" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58569,7 +58581,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2100" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58595,7 +58607,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58621,7 +58633,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58647,7 +58659,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2103" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58673,7 +58685,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2104" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58699,7 +58711,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58725,7 +58737,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58751,7 +58763,7 @@
         <v>9.25</v>
       </c>
       <c r="G2107" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58777,7 +58789,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58803,7 +58815,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2109" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58829,7 +58841,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2110" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58855,7 +58867,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2111" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58881,7 +58893,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2112" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58907,7 +58919,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2113" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58933,7 +58945,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2114" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58959,7 +58971,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2115" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58985,7 +58997,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2116" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59011,7 +59023,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G2117" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59037,7 +59049,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2118" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59063,7 +59075,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G2119" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59089,7 +59101,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G2120" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59115,7 +59127,7 @@
         <v>10</v>
       </c>
       <c r="G2121" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59141,7 +59153,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2122" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59167,7 +59179,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G2123" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59193,7 +59205,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G2124" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59219,7 +59231,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59245,7 +59257,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G2126" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59271,7 +59283,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G2127" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59297,7 +59309,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2128" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59323,7 +59335,7 @@
         <v>9.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59349,7 +59361,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2130" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59375,7 +59387,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G2131" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59401,7 +59413,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G2132" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59427,7 +59439,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59453,7 +59465,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G2134" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59479,7 +59491,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59505,7 +59517,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2136" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59531,7 +59543,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2137" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59557,7 +59569,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2138" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59583,7 +59595,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2139" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59609,7 +59621,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2140" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59635,7 +59647,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2141" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59661,7 +59673,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G2142" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59669,7 +59681,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6494675926</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>121582</v>
@@ -59687,9 +59699,35 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2143" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6494791667</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>186887</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>9.59000015258789</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>9.39999961853027</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>9.59000015258789</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1211">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96161127090454</t>
+    <t xml:space="preserve">4.96161222457886</t>
   </si>
   <si>
     <t xml:space="preserve">CE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00243234634399</t>
+    <t xml:space="preserve">5.00243282318115</t>
   </si>
   <si>
     <t xml:space="preserve">4.93192338943481</t>
@@ -53,31 +53,31 @@
     <t xml:space="preserve">4.75750589370728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71297454833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76492881774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7723503112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82430410385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72039651870728</t>
+    <t xml:space="preserve">4.712975025177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76492834091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77235078811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82430458068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72039699554443</t>
   </si>
   <si>
     <t xml:space="preserve">4.67957496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47547006607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51257991790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13405752182007</t>
+    <t xml:space="preserve">4.47547054290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51257944107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13405895233154</t>
   </si>
   <si>
     <t xml:space="preserve">4.32703018188477</t>
@@ -86,70 +86,70 @@
     <t xml:space="preserve">4.45320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59051132202148</t>
+    <t xml:space="preserve">4.59051179885864</t>
   </si>
   <si>
     <t xml:space="preserve">4.56082344055176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43464946746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5571117401123</t>
+    <t xml:space="preserve">4.4346489906311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55711221694946</t>
   </si>
   <si>
     <t xml:space="preserve">4.55340099334717</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36042833328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20085573196411</t>
+    <t xml:space="preserve">4.36042928695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20085525512695</t>
   </si>
   <si>
     <t xml:space="preserve">4.23796558380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27507591247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95592999458313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78893446922302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14519119262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98561787605286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25281047821045</t>
+    <t xml:space="preserve">4.27507638931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95592975616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78893518447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14519023895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9856173992157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25281000137329</t>
   </si>
   <si>
     <t xml:space="preserve">4.3158974647522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38269472122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49031400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.230544090271</t>
+    <t xml:space="preserve">4.38269519805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49031448364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23054456710815</t>
   </si>
   <si>
     <t xml:space="preserve">4.16745662689209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31218576431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28620910644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11921453475952</t>
+    <t xml:space="preserve">4.3121862411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28620862960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11921405792236</t>
   </si>
   <si>
     <t xml:space="preserve">4.19343423843384</t>
@@ -158,16 +158,16 @@
     <t xml:space="preserve">4.28992033004761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37156200408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56453466415405</t>
+    <t xml:space="preserve">4.3715615272522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56453418731689</t>
   </si>
   <si>
     <t xml:space="preserve">4.63504314422607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62390995025635</t>
+    <t xml:space="preserve">4.62391042709351</t>
   </si>
   <si>
     <t xml:space="preserve">4.57195663452148</t>
@@ -188,43 +188,43 @@
     <t xml:space="preserve">4.72781848907471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58308839797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77977228164673</t>
+    <t xml:space="preserve">4.58308887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77977180480957</t>
   </si>
   <si>
     <t xml:space="preserve">4.71668529510498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60164451599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52742481231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47175979614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46433734893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34187412261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31960821151733</t>
+    <t xml:space="preserve">4.60164403915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52742433547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47175931930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46433639526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34187364578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31960773468018</t>
   </si>
   <si>
     <t xml:space="preserve">4.21941089630127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15261220932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10065841674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34558582305908</t>
+    <t xml:space="preserve">4.15261268615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10065889358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34558534622192</t>
   </si>
   <si>
     <t xml:space="preserve">4.22683334350586</t>
@@ -233,16 +233,16 @@
     <t xml:space="preserve">4.50886917114258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59422254562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61648750305176</t>
+    <t xml:space="preserve">4.59422302246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61648845672607</t>
   </si>
   <si>
     <t xml:space="preserve">4.65359830856323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65731000900269</t>
+    <t xml:space="preserve">4.65730953216553</t>
   </si>
   <si>
     <t xml:space="preserve">4.73152923583984</t>
@@ -251,22 +251,22 @@
     <t xml:space="preserve">4.7537956237793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80946016311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63875436782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50144672393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51629161834717</t>
+    <t xml:space="preserve">4.80946063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63875484466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5014476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51629114151001</t>
   </si>
   <si>
     <t xml:space="preserve">4.48660326004028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44578170776367</t>
+    <t xml:space="preserve">4.44578218460083</t>
   </si>
   <si>
     <t xml:space="preserve">4.34929704666138</t>
@@ -275,34 +275,34 @@
     <t xml:space="preserve">4.6581335067749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57827949523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63912010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69996166229248</t>
+    <t xml:space="preserve">4.57827997207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63912057876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69996118545532</t>
   </si>
   <si>
     <t xml:space="preserve">4.67714643478394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68094873428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96233797073364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96994352340698</t>
+    <t xml:space="preserve">4.68094921112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9623384475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96994304656982</t>
   </si>
   <si>
     <t xml:space="preserve">4.9395227432251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92431259155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93191766738892</t>
+    <t xml:space="preserve">4.92431306838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93191814422607</t>
   </si>
   <si>
     <t xml:space="preserve">4.83685350418091</t>
@@ -311,85 +311,85 @@
     <t xml:space="preserve">4.77221012115479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82924842834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73038196563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89389181137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79502582550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80643367767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69615936279297</t>
+    <t xml:space="preserve">4.82924795150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73038148880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89389228820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79502534866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80643320083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69615888595581</t>
   </si>
   <si>
     <t xml:space="preserve">4.46040010452271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32731151580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39955949783325</t>
+    <t xml:space="preserve">4.32731103897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39955902099609</t>
   </si>
   <si>
     <t xml:space="preserve">4.27407503128052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57067441940308</t>
+    <t xml:space="preserve">4.57067537307739</t>
   </si>
   <si>
     <t xml:space="preserve">4.79122304916382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84065628051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88628673553467</t>
+    <t xml:space="preserve">4.84065580368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88628625869751</t>
   </si>
   <si>
     <t xml:space="preserve">5.00416612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13337993621826</t>
+    <t xml:space="preserve">4.13338088989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14478826522827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12197351455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24365425109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0345139503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8938193321228</t>
+    <t xml:space="preserve">4.12197303771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24365472793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03451347351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89381885528564</t>
   </si>
   <si>
     <t xml:space="preserve">3.7873477935791</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87480664253235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04211950302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14859056472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22083902359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18281364440918</t>
+    <t xml:space="preserve">3.87480640411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04211902618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14859104156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22083950042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18281316757202</t>
   </si>
   <si>
     <t xml:space="preserve">4.3159031867981</t>
@@ -404,76 +404,76 @@
     <t xml:space="preserve">4.46420288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43378257751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35773181915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40716457366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37294149398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19422149658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210136413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19802331924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07253932952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08774995803833</t>
+    <t xml:space="preserve">4.43378210067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35773229598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40716409683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37294101715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19422101974487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210041046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1980242729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07253980636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08774948120117</t>
   </si>
   <si>
     <t xml:space="preserve">4.15999794006348</t>
   </si>
   <si>
-    <t xml:space="preserve">4.091552734375</t>
+    <t xml:space="preserve">4.09155225753784</t>
   </si>
   <si>
     <t xml:space="preserve">4.04972457885742</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05352640151978</t>
+    <t xml:space="preserve">4.05352687835693</t>
   </si>
   <si>
     <t xml:space="preserve">3.92423987388611</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85199117660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84438633918762</t>
+    <t xml:space="preserve">3.85199093818665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84438586235046</t>
   </si>
   <si>
     <t xml:space="preserve">3.72650671005249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72498536109924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86720180511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07634210586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92804217338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396579742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84058380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02690839767456</t>
+    <t xml:space="preserve">3.7249858379364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86720132827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07634258270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92804265022278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396532058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84058332443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02690887451172</t>
   </si>
   <si>
     <t xml:space="preserve">4.11056518554688</t>
@@ -488,10 +488,10 @@
     <t xml:space="preserve">4.20562934875488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99268555641174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99648809432983</t>
+    <t xml:space="preserve">3.99268531799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99648833274841</t>
   </si>
   <si>
     <t xml:space="preserve">3.95466017723083</t>
@@ -500,70 +500,70 @@
     <t xml:space="preserve">3.93944954872131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85959649085999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85579395294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81016278266907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01930379867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8633987903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74171733856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7097749710083</t>
+    <t xml:space="preserve">3.85959553718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85579419136047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81016302108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01930332183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86339926719666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74171662330627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70977520942688</t>
   </si>
   <si>
     <t xml:space="preserve">3.72802758216858</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6580605506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67479157447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70673394203186</t>
+    <t xml:space="preserve">3.65806102752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67479228973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70673298835754</t>
   </si>
   <si>
     <t xml:space="preserve">3.77365875244141</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88241147994995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84818863868713</t>
+    <t xml:space="preserve">3.88241219520569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84818887710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.87860918045044</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8862144947052</t>
+    <t xml:space="preserve">3.88621425628662</t>
   </si>
   <si>
     <t xml:space="preserve">3.83678126335144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95085787773132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90522718429565</t>
+    <t xml:space="preserve">3.95085740089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9052267074585</t>
   </si>
   <si>
     <t xml:space="preserve">4.03071117401123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06493377685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97367286682129</t>
+    <t xml:space="preserve">4.06493425369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97367334365845</t>
   </si>
   <si>
     <t xml:space="preserve">4.02310657501221</t>
@@ -572,43 +572,43 @@
     <t xml:space="preserve">4.01169872283936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93564701080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90142464637756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81776833534241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76909518241882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78886866569519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82157111167908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80255746841431</t>
+    <t xml:space="preserve">3.93564748764038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90142440795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81776857376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7690954208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78886890411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8215708732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80255770683289</t>
   </si>
   <si>
     <t xml:space="preserve">3.89762187004089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01550102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06113243103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00789594650269</t>
+    <t xml:space="preserve">4.01550149917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06113195419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00789642333984</t>
   </si>
   <si>
     <t xml:space="preserve">3.9622654914856</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91663479804993</t>
+    <t xml:space="preserve">3.91663551330566</t>
   </si>
   <si>
     <t xml:space="preserve">3.93184471130371</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">3.94325256347656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10676288604736</t>
+    <t xml:space="preserve">4.10676336288452</t>
   </si>
   <si>
     <t xml:space="preserve">4.35392904281616</t>
@@ -629,55 +629,55 @@
     <t xml:space="preserve">4.29308795928955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38815116882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23604965209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3387188911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40336132049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47941303253174</t>
+    <t xml:space="preserve">4.3881516456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23604917526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33871841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40336227416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47941255569458</t>
   </si>
   <si>
     <t xml:space="preserve">4.34252119064331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46800518035889</t>
+    <t xml:space="preserve">4.46800565719604</t>
   </si>
   <si>
     <t xml:space="preserve">4.48701858520508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31970596313477</t>
+    <t xml:space="preserve">4.31970548629761</t>
   </si>
   <si>
     <t xml:space="preserve">4.30829763412476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48321580886841</t>
+    <t xml:space="preserve">4.48321628570557</t>
   </si>
   <si>
     <t xml:space="preserve">4.49842596054077</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50603103637695</t>
+    <t xml:space="preserve">4.50603055953979</t>
   </si>
   <si>
     <t xml:space="preserve">4.45279502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63531827926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6505274772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74559164047241</t>
+    <t xml:space="preserve">4.6353178024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65052795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74559211730957</t>
   </si>
   <si>
     <t xml:space="preserve">4.7265796661377</t>
@@ -686,16 +686,16 @@
     <t xml:space="preserve">4.69235610961914</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75319719314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55926704406738</t>
+    <t xml:space="preserve">4.75319766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55926656723022</t>
   </si>
   <si>
     <t xml:space="preserve">4.56306982040405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64292287826538</t>
+    <t xml:space="preserve">4.64292335510254</t>
   </si>
   <si>
     <t xml:space="preserve">4.53645181655884</t>
@@ -707,10 +707,10 @@
     <t xml:space="preserve">4.61630535125732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68475103378296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58208274841309</t>
+    <t xml:space="preserve">4.68475151062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58208227157593</t>
   </si>
   <si>
     <t xml:space="preserve">4.59729242324829</t>
@@ -722,16 +722,16 @@
     <t xml:space="preserve">4.57447719573975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5858850479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58968782424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62010812759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59349012374878</t>
+    <t xml:space="preserve">4.58588457107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58968687057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62010765075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59348964691162</t>
   </si>
   <si>
     <t xml:space="preserve">4.65433073043823</t>
@@ -740,37 +740,37 @@
     <t xml:space="preserve">4.77601289749146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8216438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89769458770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9052996635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84445858001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94332504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88248491287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8330512046814</t>
+    <t xml:space="preserve">4.82164335250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89769506454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90530014038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84445905685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94332551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88248443603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83305072784424</t>
   </si>
   <si>
     <t xml:space="preserve">4.87487888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79882764816284</t>
+    <t xml:space="preserve">4.79882860183716</t>
   </si>
   <si>
     <t xml:space="preserve">4.76080274581909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82544565200806</t>
+    <t xml:space="preserve">4.82544612884521</t>
   </si>
   <si>
     <t xml:space="preserve">4.81023550033569</t>
@@ -779,49 +779,49 @@
     <t xml:space="preserve">4.73418474197388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00036382675171</t>
+    <t xml:space="preserve">5.00036334991455</t>
   </si>
   <si>
     <t xml:space="preserve">4.86727428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95853519439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98135042190552</t>
+    <t xml:space="preserve">4.95853614807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98135089874268</t>
   </si>
   <si>
     <t xml:space="preserve">5.0117712020874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01937627792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91290473937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16007137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19117975234985</t>
+    <t xml:space="preserve">5.01937675476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91290426254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16007041931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1911792755127</t>
   </si>
   <si>
     <t xml:space="preserve">5.30394649505615</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21062231063843</t>
+    <t xml:space="preserve">5.21062183380127</t>
   </si>
   <si>
     <t xml:space="preserve">5.3428316116333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37005186080933</t>
+    <t xml:space="preserve">5.37005138397217</t>
   </si>
   <si>
     <t xml:space="preserve">5.35838556289673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38949394226074</t>
+    <t xml:space="preserve">5.3894944190979</t>
   </si>
   <si>
     <t xml:space="preserve">5.28450393676758</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">5.21451044082642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17562532424927</t>
+    <t xml:space="preserve">5.17562484741211</t>
   </si>
   <si>
     <t xml:space="preserve">5.2261757850647</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">5.24950742721558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31950044631958</t>
+    <t xml:space="preserve">5.31950092315674</t>
   </si>
   <si>
     <t xml:space="preserve">5.31561231613159</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">5.44393348693848</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4555983543396</t>
+    <t xml:space="preserve">5.45559883117676</t>
   </si>
   <si>
     <t xml:space="preserve">5.38560581207275</t>
@@ -866,10 +866,10 @@
     <t xml:space="preserve">5.47892999649048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37393999099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40504837036133</t>
+    <t xml:space="preserve">5.37393951416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40504789352417</t>
   </si>
   <si>
     <t xml:space="preserve">5.40893650054932</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">5.64613676071167</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8094539642334</t>
+    <t xml:space="preserve">5.80945348739624</t>
   </si>
   <si>
     <t xml:space="preserve">5.59169721603394</t>
@@ -899,22 +899,22 @@
     <t xml:space="preserve">5.61891651153564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63835954666138</t>
+    <t xml:space="preserve">5.63835906982422</t>
   </si>
   <si>
     <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5800313949585</t>
+    <t xml:space="preserve">5.58003187179565</t>
   </si>
   <si>
     <t xml:space="preserve">5.62280559539795</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54503488540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57614374160767</t>
+    <t xml:space="preserve">5.54503536224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57614326477051</t>
   </si>
   <si>
     <t xml:space="preserve">5.48670721054077</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">5.42449045181274</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53336906433105</t>
+    <t xml:space="preserve">5.53336954116821</t>
   </si>
   <si>
     <t xml:space="preserve">5.63447093963623</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">5.66946744918823</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56836652755737</t>
+    <t xml:space="preserve">5.56836605072021</t>
   </si>
   <si>
     <t xml:space="preserve">5.66169118881226</t>
@@ -947,34 +947,34 @@
     <t xml:space="preserve">5.92611026763916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75890398025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56447792053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70446395874023</t>
+    <t xml:space="preserve">5.75890445709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56447744369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70446491241455</t>
   </si>
   <si>
     <t xml:space="preserve">5.82500886917114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77834701538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69279956817627</t>
+    <t xml:space="preserve">5.77834606170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69279861450195</t>
   </si>
   <si>
     <t xml:space="preserve">5.74723815917969</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65002489089966</t>
+    <t xml:space="preserve">5.65002536773682</t>
   </si>
   <si>
     <t xml:space="preserve">5.64224863052368</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52948141098022</t>
+    <t xml:space="preserve">5.52948093414307</t>
   </si>
   <si>
     <t xml:space="preserve">5.52170372009277</t>
@@ -986,34 +986,34 @@
     <t xml:space="preserve">5.5722541809082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59558629989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6966872215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90277910232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85611724853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83278608322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86389398574829</t>
+    <t xml:space="preserve">5.59558582305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69668769836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9027795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.856116771698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83278560638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86389350891113</t>
   </si>
   <si>
     <t xml:space="preserve">5.80167722702026</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84833908081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84445142745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8950023651123</t>
+    <t xml:space="preserve">5.84834003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84445095062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89500188827515</t>
   </si>
   <si>
     <t xml:space="preserve">5.90666723251343</t>
@@ -1022,34 +1022,34 @@
     <t xml:space="preserve">5.92999887466431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91444492340088</t>
+    <t xml:space="preserve">5.91444540023804</t>
   </si>
   <si>
     <t xml:space="preserve">5.94944143295288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96499538421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81723260879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86778259277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88333654403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83667469024658</t>
+    <t xml:space="preserve">5.96499586105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81723213195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8677830696106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88333606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83667421340942</t>
   </si>
   <si>
     <t xml:space="preserve">5.78223466873169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76279211044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68113327026367</t>
+    <t xml:space="preserve">5.76279258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68113279342651</t>
   </si>
   <si>
     <t xml:space="preserve">5.70835304260254</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">5.87167167663574</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85222864151001</t>
+    <t xml:space="preserve">5.85222816467285</t>
   </si>
   <si>
     <t xml:space="preserve">5.73557233810425</t>
@@ -1067,34 +1067,34 @@
     <t xml:space="preserve">5.91833353042603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60336303710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50614929199219</t>
+    <t xml:space="preserve">5.60336256027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50614976882935</t>
   </si>
   <si>
     <t xml:space="preserve">5.45948791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37782764434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44004535675049</t>
+    <t xml:space="preserve">5.3778281211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44004487991333</t>
   </si>
   <si>
     <t xml:space="preserve">5.5022611618042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56058883666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5839204788208</t>
+    <t xml:space="preserve">5.56058931350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58391952514648</t>
   </si>
   <si>
     <t xml:space="preserve">5.72779560089111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71612977981567</t>
+    <t xml:space="preserve">5.71613025665283</t>
   </si>
   <si>
     <t xml:space="preserve">5.76668071746826</t>
@@ -1109,46 +1109,46 @@
     <t xml:space="preserve">5.84056282043457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5489239692688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52559185028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55670070648193</t>
+    <t xml:space="preserve">5.54892349243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52559232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55670022964478</t>
   </si>
   <si>
     <t xml:space="preserve">5.58780908584595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43615579605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51392698287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93388748168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05054330825806</t>
+    <t xml:space="preserve">5.43615627288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5139274597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93388795852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0505428314209</t>
   </si>
   <si>
     <t xml:space="preserve">6.05832004547119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01165819168091</t>
+    <t xml:space="preserve">6.01165771484375</t>
   </si>
   <si>
     <t xml:space="preserve">6.0038800239563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10498285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08942842483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04276561737061</t>
+    <t xml:space="preserve">6.10498237609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08942794799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04276609420776</t>
   </si>
   <si>
     <t xml:space="preserve">5.9727725982666</t>
@@ -1157,10 +1157,10 @@
     <t xml:space="preserve">5.94166421890259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73168420791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67724514007568</t>
+    <t xml:space="preserve">5.73168468475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67724561691284</t>
   </si>
   <si>
     <t xml:space="preserve">5.88722515106201</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">5.73946142196655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79390001296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77056932449341</t>
+    <t xml:space="preserve">5.79390048980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77056980133057</t>
   </si>
   <si>
     <t xml:space="preserve">5.78612375259399</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">5.70057582855225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65391397476196</t>
+    <t xml:space="preserve">5.6539134979248</t>
   </si>
   <si>
     <t xml:space="preserve">5.49059581756592</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">5.76564836502075</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68568181991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50175666809082</t>
+    <t xml:space="preserve">5.68568134307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50175619125366</t>
   </si>
   <si>
     <t xml:space="preserve">5.46177244186401</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">4.93398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65410232543945</t>
+    <t xml:space="preserve">4.65410184860229</t>
   </si>
   <si>
     <t xml:space="preserve">4.91799449920654</t>
@@ -1238,19 +1238,19 @@
     <t xml:space="preserve">4.87001371383667</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7980432510376</t>
+    <t xml:space="preserve">4.79804372787476</t>
   </si>
   <si>
     <t xml:space="preserve">4.74206590652466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85402011871338</t>
+    <t xml:space="preserve">4.85402059555054</t>
   </si>
   <si>
     <t xml:space="preserve">4.92599058151245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90200138092041</t>
+    <t xml:space="preserve">4.90200090408325</t>
   </si>
   <si>
     <t xml:space="preserve">5.00595855712891</t>
@@ -1274,10 +1274,10 @@
     <t xml:space="preserve">4.95797777175903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02195167541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06993246078491</t>
+    <t xml:space="preserve">5.0219521522522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06993198394775</t>
   </si>
   <si>
     <t xml:space="preserve">5.08592557907104</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">5.18988275527954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10991621017456</t>
+    <t xml:space="preserve">5.1099157333374</t>
   </si>
   <si>
     <t xml:space="preserve">5.11791276931763</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">5.10191965103149</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04594278335571</t>
+    <t xml:space="preserve">5.04594230651855</t>
   </si>
   <si>
     <t xml:space="preserve">4.90999746322632</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89400339126587</t>
+    <t xml:space="preserve">4.89400386810303</t>
   </si>
   <si>
     <t xml:space="preserve">5.07792854309082</t>
@@ -1313,37 +1313,37 @@
     <t xml:space="preserve">4.94198417663574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98996448516846</t>
+    <t xml:space="preserve">4.98996496200562</t>
   </si>
   <si>
     <t xml:space="preserve">4.98196792602539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61411809921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53415107727051</t>
+    <t xml:space="preserve">4.61411762237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53415060043335</t>
   </si>
   <si>
     <t xml:space="preserve">4.4701771736145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44618654251099</t>
+    <t xml:space="preserve">4.44618606567383</t>
   </si>
   <si>
     <t xml:space="preserve">4.45418310165405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47817373275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49416732788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39020919799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42219734191895</t>
+    <t xml:space="preserve">4.47817325592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4941668510437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39020872116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42219638824463</t>
   </si>
   <si>
     <t xml:space="preserve">4.25426435470581</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">4.27825498580933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34222841262817</t>
+    <t xml:space="preserve">4.34222888946533</t>
   </si>
   <si>
     <t xml:space="preserve">4.33423233032227</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">4.66209840774536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67809247970581</t>
+    <t xml:space="preserve">4.67809200286865</t>
   </si>
   <si>
     <t xml:space="preserve">4.70208263397217</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">4.72607231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75006294250488</t>
+    <t xml:space="preserve">4.75006341934204</t>
   </si>
   <si>
     <t xml:space="preserve">4.8220329284668</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">4.48617029190063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55814123153687</t>
+    <t xml:space="preserve">4.55814075469971</t>
   </si>
   <si>
     <t xml:space="preserve">4.31823921203613</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">4.24626779556274</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18229389190674</t>
+    <t xml:space="preserve">4.1822943687439</t>
   </si>
   <si>
     <t xml:space="preserve">4.28625202178955</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">4.11032390594482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07033967971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95438718795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81844329833984</t>
+    <t xml:space="preserve">4.07034063339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95438694953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81844305992126</t>
   </si>
   <si>
     <t xml:space="preserve">3.92240071296692</t>
@@ -1445,13 +1445,13 @@
     <t xml:space="preserve">4.23827171325684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26226234436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13431406021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15030765533447</t>
+    <t xml:space="preserve">4.26226186752319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13431358337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15030717849731</t>
   </si>
   <si>
     <t xml:space="preserve">4.09432983398438</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">4.06234359741211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01436281204224</t>
+    <t xml:space="preserve">4.01436328887939</t>
   </si>
   <si>
     <t xml:space="preserve">4.05434656143188</t>
@@ -1469,25 +1469,25 @@
     <t xml:space="preserve">3.99836921691895</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02235984802246</t>
+    <t xml:space="preserve">4.0223593711853</t>
   </si>
   <si>
     <t xml:space="preserve">4.16630077362061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19828748703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04634952545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11832046508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27025842666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98237586021423</t>
+    <t xml:space="preserve">4.19828701019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04635000228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11832094192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27025890350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98237562179565</t>
   </si>
   <si>
     <t xml:space="preserve">3.96238374710083</t>
@@ -1496,37 +1496,37 @@
     <t xml:space="preserve">3.95038890838623</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91440343856812</t>
+    <t xml:space="preserve">3.91440367698669</t>
   </si>
   <si>
     <t xml:space="preserve">4.03835296630859</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2222785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1023268699646</t>
+    <t xml:space="preserve">4.22227811813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10232734680176</t>
   </si>
   <si>
     <t xml:space="preserve">4.08633327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07833671569824</t>
+    <t xml:space="preserve">4.07833623886108</t>
   </si>
   <si>
     <t xml:space="preserve">4.00636625289917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03035640716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89441180229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97837734222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91840195655823</t>
+    <t xml:space="preserve">4.03035593032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89441204071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9783775806427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91840171813965</t>
   </si>
   <si>
     <t xml:space="preserve">3.87042164802551</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">3.98637437820435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19029092788696</t>
+    <t xml:space="preserve">4.1902904510498</t>
   </si>
   <si>
     <t xml:space="preserve">4.29424858093262</t>
@@ -1556,13 +1556,13 @@
     <t xml:space="preserve">3.910404920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.846431016922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86242461204529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81444406509399</t>
+    <t xml:space="preserve">3.84643149375916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86242437362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81444430351257</t>
   </si>
   <si>
     <t xml:space="preserve">3.77845883369446</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">3.77010869979858</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68243193626404</t>
+    <t xml:space="preserve">3.68243217468262</t>
   </si>
   <si>
     <t xml:space="preserve">3.69913220405579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74088335037231</t>
+    <t xml:space="preserve">3.74088358879089</t>
   </si>
   <si>
     <t xml:space="preserve">3.72418260574341</t>
@@ -1604,13 +1604,13 @@
     <t xml:space="preserve">3.63650584220886</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59475469589233</t>
+    <t xml:space="preserve">3.59475493431091</t>
   </si>
   <si>
     <t xml:space="preserve">3.66155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68660712242126</t>
+    <t xml:space="preserve">3.68660688400269</t>
   </si>
   <si>
     <t xml:space="preserve">3.61980533599854</t>
@@ -1625,10 +1625,10 @@
     <t xml:space="preserve">3.54047846794128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55300402641296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56970405578613</t>
+    <t xml:space="preserve">3.55300378799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56970429420471</t>
   </si>
   <si>
     <t xml:space="preserve">3.54882884025574</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">3.51542806625366</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46532726287842</t>
+    <t xml:space="preserve">3.46532702445984</t>
   </si>
   <si>
     <t xml:space="preserve">3.48202753067017</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52377843856812</t>
+    <t xml:space="preserve">3.52377820014954</t>
   </si>
   <si>
     <t xml:space="preserve">3.53630399703979</t>
@@ -1658,13 +1658,13 @@
     <t xml:space="preserve">3.74923324584961</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97468852996826</t>
+    <t xml:space="preserve">3.97468876838684</t>
   </si>
   <si>
     <t xml:space="preserve">4.04149007797241</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92876243591309</t>
+    <t xml:space="preserve">3.92876219749451</t>
   </si>
   <si>
     <t xml:space="preserve">3.9245867729187</t>
@@ -1673,34 +1673,34 @@
     <t xml:space="preserve">3.94128727912903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94963788986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98303866386414</t>
+    <t xml:space="preserve">3.9496374130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98303890228271</t>
   </si>
   <si>
     <t xml:space="preserve">3.90371179580688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84108519554138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96633791923523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95798802375793</t>
+    <t xml:space="preserve">3.84108543395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96633839607239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95798778533936</t>
   </si>
   <si>
     <t xml:space="preserve">3.94546270370483</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89536190032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87031078338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79933476448059</t>
+    <t xml:space="preserve">3.89536166191101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87031102180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79933500289917</t>
   </si>
   <si>
     <t xml:space="preserve">3.78680920600891</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">3.77845931053162</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75758361816406</t>
+    <t xml:space="preserve">3.75758337974548</t>
   </si>
   <si>
     <t xml:space="preserve">3.72000765800476</t>
@@ -1721,25 +1721,25 @@
     <t xml:space="preserve">3.69078230857849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78263449668884</t>
+    <t xml:space="preserve">3.78263425827026</t>
   </si>
   <si>
     <t xml:space="preserve">3.88283658027649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86613583564758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92041206359863</t>
+    <t xml:space="preserve">3.86613607406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92041182518005</t>
   </si>
   <si>
     <t xml:space="preserve">4.02061414718628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03731489181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06654071807861</t>
+    <t xml:space="preserve">4.03731536865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06654024124146</t>
   </si>
   <si>
     <t xml:space="preserve">4.058189868927</t>
@@ -1760,10 +1760,10 @@
     <t xml:space="preserve">4.13751697540283</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16256809234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24189472198486</t>
+    <t xml:space="preserve">4.16256761550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24189424514771</t>
   </si>
   <si>
     <t xml:space="preserve">4.23354387283325</t>
@@ -1772,13 +1772,13 @@
     <t xml:space="preserve">4.1667423248291</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12916660308838</t>
+    <t xml:space="preserve">4.12916707992554</t>
   </si>
   <si>
     <t xml:space="preserve">4.07906532287598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09159135818481</t>
+    <t xml:space="preserve">4.09159088134766</t>
   </si>
   <si>
     <t xml:space="preserve">4.17509269714355</t>
@@ -1799,16 +1799,16 @@
     <t xml:space="preserve">4.12499189376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21684408187866</t>
+    <t xml:space="preserve">4.2168436050415</t>
   </si>
   <si>
     <t xml:space="preserve">4.25024461746216</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3086953163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40054798126221</t>
+    <t xml:space="preserve">4.30869579315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40054845809937</t>
   </si>
   <si>
     <t xml:space="preserve">4.37549686431885</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">4.52580070495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4589991569519</t>
+    <t xml:space="preserve">4.45899963378906</t>
   </si>
   <si>
     <t xml:space="preserve">4.4923996925354</t>
@@ -1859,19 +1859,19 @@
     <t xml:space="preserve">4.46734952926636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5508508682251</t>
+    <t xml:space="preserve">4.55085134506226</t>
   </si>
   <si>
     <t xml:space="preserve">4.4339485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3838472366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35044717788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39219808578491</t>
+    <t xml:space="preserve">4.38384675979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3504467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39219760894775</t>
   </si>
   <si>
     <t xml:space="preserve">4.31704616546631</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">4.30034589767456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29199600219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28364515304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25859451293945</t>
+    <t xml:space="preserve">4.29199552536011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28364562988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25859498977661</t>
   </si>
   <si>
     <t xml:space="preserve">4.20014381408691</t>
@@ -1895,13 +1895,13 @@
     <t xml:space="preserve">3.97051334381104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97886323928833</t>
+    <t xml:space="preserve">3.97886347770691</t>
   </si>
   <si>
     <t xml:space="preserve">4.0331392288208</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1082911491394</t>
+    <t xml:space="preserve">4.10829162597656</t>
   </si>
   <si>
     <t xml:space="preserve">4.41724824905396</t>
@@ -1913,31 +1913,31 @@
     <t xml:space="preserve">4.01226425170898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82856035232544</t>
+    <t xml:space="preserve">3.8285608291626</t>
   </si>
   <si>
     <t xml:space="preserve">3.80768465995789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62815570831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43610143661499</t>
+    <t xml:space="preserve">3.62815546989441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43610119819641</t>
   </si>
   <si>
     <t xml:space="preserve">3.38600015640259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13549470901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13131976127625</t>
+    <t xml:space="preserve">3.13549494743347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13131952285767</t>
   </si>
   <si>
     <t xml:space="preserve">3.26909756660461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9935417175293</t>
+    <t xml:space="preserve">2.99354195594788</t>
   </si>
   <si>
     <t xml:space="preserve">3.23987221717834</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">3.25239729881287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21482133865356</t>
+    <t xml:space="preserve">3.21482157707214</t>
   </si>
   <si>
     <t xml:space="preserve">3.27327275276184</t>
@@ -1961,19 +1961,19 @@
     <t xml:space="preserve">3.1521954536438</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19812107086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18977093696594</t>
+    <t xml:space="preserve">3.19812083244324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18977069854736</t>
   </si>
   <si>
     <t xml:space="preserve">3.22734689712524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15637016296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20647120475769</t>
+    <t xml:space="preserve">3.15637040138245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20647144317627</t>
   </si>
   <si>
     <t xml:space="preserve">3.12296962738037</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">3.31084847450256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26074767112732</t>
+    <t xml:space="preserve">3.26074743270874</t>
   </si>
   <si>
     <t xml:space="preserve">3.28997325897217</t>
@@ -2027,10 +2027,10 @@
     <t xml:space="preserve">3.61145520210266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66990661621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49037742614746</t>
+    <t xml:space="preserve">3.66990637779236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49037766456604</t>
   </si>
   <si>
     <t xml:space="preserve">3.39435052871704</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">3.39017534255981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43192648887634</t>
+    <t xml:space="preserve">3.43192672729492</t>
   </si>
   <si>
     <t xml:space="preserve">3.49455261230469</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">3.63233065605164</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76175904273987</t>
+    <t xml:space="preserve">3.76175880432129</t>
   </si>
   <si>
     <t xml:space="preserve">3.87866115570068</t>
@@ -2060,10 +2060,10 @@
     <t xml:space="preserve">3.85361051559448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82020998001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64068126678467</t>
+    <t xml:space="preserve">3.82020974159241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64068102836609</t>
   </si>
   <si>
     <t xml:space="preserve">3.69495725631714</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">3.64485573768616</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65320634841919</t>
+    <t xml:space="preserve">3.65320658683777</t>
   </si>
   <si>
     <t xml:space="preserve">3.64903116226196</t>
@@ -2081,13 +2081,13 @@
     <t xml:space="preserve">3.60310506820679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73253297805786</t>
+    <t xml:space="preserve">3.73253273963928</t>
   </si>
   <si>
     <t xml:space="preserve">3.72835826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60728001594543</t>
+    <t xml:space="preserve">3.60728025436401</t>
   </si>
   <si>
     <t xml:space="preserve">3.75340819358826</t>
@@ -2096,25 +2096,25 @@
     <t xml:space="preserve">3.84526062011719</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74505853652954</t>
+    <t xml:space="preserve">3.74505829811096</t>
   </si>
   <si>
     <t xml:space="preserve">3.66573119163513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59893012046814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56552910804749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960301399231</t>
+    <t xml:space="preserve">3.59892988204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56552934646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960325241089</t>
   </si>
   <si>
     <t xml:space="preserve">3.58640503883362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50707769393921</t>
+    <t xml:space="preserve">3.50707793235779</t>
   </si>
   <si>
     <t xml:space="preserve">3.46950244903564</t>
@@ -2135,28 +2135,28 @@
     <t xml:space="preserve">3.33172416687012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24822235107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26492285728455</t>
+    <t xml:space="preserve">3.24822211265564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26492261886597</t>
   </si>
   <si>
     <t xml:space="preserve">3.23152184486389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18559575080872</t>
+    <t xml:space="preserve">3.18559598922729</t>
   </si>
   <si>
     <t xml:space="preserve">3.09374380111694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08121848106384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06034278869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03946781158447</t>
+    <t xml:space="preserve">3.08121871948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06034302711487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03946757316589</t>
   </si>
   <si>
     <t xml:space="preserve">3.00189185142517</t>
@@ -2195,22 +2195,22 @@
     <t xml:space="preserve">4.01643943786621</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95381307601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93711304664612</t>
+    <t xml:space="preserve">3.95381283760071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93711280822754</t>
   </si>
   <si>
     <t xml:space="preserve">3.87448596954346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84943580627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89118647575378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77428364753723</t>
+    <t xml:space="preserve">3.84943604469299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89118623733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77428340911865</t>
   </si>
   <si>
     <t xml:space="preserve">3.45280194282532</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">4.20849323272705</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15421724319458</t>
+    <t xml:space="preserve">4.15421772003174</t>
   </si>
   <si>
     <t xml:space="preserve">4.02478981018066</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">4.66995096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55731773376465</t>
+    <t xml:space="preserve">4.55731821060181</t>
   </si>
   <si>
     <t xml:space="preserve">4.50533294677734</t>
@@ -2291,19 +2291,19 @@
     <t xml:space="preserve">4.79991245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8085765838623</t>
+    <t xml:space="preserve">4.80857706069946</t>
   </si>
   <si>
     <t xml:space="preserve">4.756591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73926401138306</t>
+    <t xml:space="preserve">4.7392635345459</t>
   </si>
   <si>
     <t xml:space="preserve">4.73059988021851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63529491424561</t>
+    <t xml:space="preserve">4.63529443740845</t>
   </si>
   <si>
     <t xml:space="preserve">4.46201276779175</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">4.41869211196899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42735624313354</t>
+    <t xml:space="preserve">4.4273567199707</t>
   </si>
   <si>
     <t xml:space="preserve">4.3753719329834</t>
@@ -2324,10 +2324,10 @@
     <t xml:space="preserve">4.45334815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47934055328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34937953948975</t>
+    <t xml:space="preserve">4.47934103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34937906265259</t>
   </si>
   <si>
     <t xml:space="preserve">4.33205127716064</t>
@@ -2336,16 +2336,16 @@
     <t xml:space="preserve">4.4360203742981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49666929244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39269971847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62663078308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68727922439575</t>
+    <t xml:space="preserve">4.49666881561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3927001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62663125991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68727874755859</t>
   </si>
   <si>
     <t xml:space="preserve">4.65262269973755</t>
@@ -2354,19 +2354,19 @@
     <t xml:space="preserve">4.85189723968506</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92120981216431</t>
+    <t xml:space="preserve">4.92121028900146</t>
   </si>
   <si>
     <t xml:space="preserve">4.89521789550781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88655376434326</t>
+    <t xml:space="preserve">4.8865532875061</t>
   </si>
   <si>
     <t xml:space="preserve">4.84323358535767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86056137084961</t>
+    <t xml:space="preserve">4.86056184768677</t>
   </si>
   <si>
     <t xml:space="preserve">4.79124879837036</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">4.90388154983521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94720220565796</t>
+    <t xml:space="preserve">4.94720268249512</t>
   </si>
   <si>
     <t xml:space="preserve">4.95586633682251</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">4.97319412231445</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04250812530518</t>
+    <t xml:space="preserve">5.04250764846802</t>
   </si>
   <si>
     <t xml:space="preserve">5.08582782745361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11182022094727</t>
+    <t xml:space="preserve">5.11182069778442</t>
   </si>
   <si>
     <t xml:space="preserve">5.12048435211182</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">5.42372798919678</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58834552764893</t>
+    <t xml:space="preserve">5.58834600448608</t>
   </si>
   <si>
     <t xml:space="preserve">5.56235361099243</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">5.50170469284058</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60567426681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57968235015869</t>
+    <t xml:space="preserve">5.60567378997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57968187332153</t>
   </si>
   <si>
     <t xml:space="preserve">5.55368947982788</t>
@@ -2468,16 +2468,16 @@
     <t xml:space="preserve">5.62300205230713</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73563528060913</t>
+    <t xml:space="preserve">5.73563575744629</t>
   </si>
   <si>
     <t xml:space="preserve">5.72697162628174</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70964384078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64033031463623</t>
+    <t xml:space="preserve">5.70964336395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64033079147339</t>
   </si>
   <si>
     <t xml:space="preserve">5.68365144729614</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">5.76162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">5.744300365448</t>
+    <t xml:space="preserve">5.74429988861084</t>
   </si>
   <si>
     <t xml:space="preserve">5.80494832992554</t>
@@ -2498,16 +2498,16 @@
     <t xml:space="preserve">5.85693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54502582550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44972038269043</t>
+    <t xml:space="preserve">5.54502534866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44972085952759</t>
   </si>
   <si>
     <t xml:space="preserve">5.30243062973022</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25911045074463</t>
+    <t xml:space="preserve">5.25910997390747</t>
   </si>
   <si>
     <t xml:space="preserve">5.26777410507202</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">5.18113327026367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18979740142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09449195861816</t>
+    <t xml:space="preserve">5.18979692459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09449243545532</t>
   </si>
   <si>
     <t xml:space="preserve">5.00785112380981</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">4.98185873031616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93853855133057</t>
+    <t xml:space="preserve">4.93853807449341</t>
   </si>
   <si>
     <t xml:space="preserve">5.03384351730347</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02517986297607</t>
+    <t xml:space="preserve">5.02517938613892</t>
   </si>
   <si>
     <t xml:space="preserve">5.05117177963257</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">5.01651525497437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99052333831787</t>
+    <t xml:space="preserve">4.99052286148071</t>
   </si>
   <si>
     <t xml:space="preserve">5.05983591079712</t>
@@ -2558,16 +2558,16 @@
     <t xml:space="preserve">5.38907146453857</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39773559570312</t>
+    <t xml:space="preserve">5.39773607254028</t>
   </si>
   <si>
     <t xml:space="preserve">5.28510236740112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19846105575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14647674560547</t>
+    <t xml:space="preserve">5.19846153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14647722244263</t>
   </si>
   <si>
     <t xml:space="preserve">5.27643823623657</t>
@@ -2576,40 +2576,40 @@
     <t xml:space="preserve">5.36307954788208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45838499069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09952831268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25548124313354</t>
+    <t xml:space="preserve">5.45838451385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09952783584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2554817199707</t>
   </si>
   <si>
     <t xml:space="preserve">6.3334584236145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51540517807007</t>
+    <t xml:space="preserve">6.51540470123291</t>
   </si>
   <si>
     <t xml:space="preserve">6.28147411346436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29880285263062</t>
+    <t xml:space="preserve">6.29880237579346</t>
   </si>
   <si>
     <t xml:space="preserve">6.18616914749146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11685609817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1081919670105</t>
+    <t xml:space="preserve">6.11685657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10819244384766</t>
   </si>
   <si>
     <t xml:space="preserve">5.71830749511719</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84826946258545</t>
+    <t xml:space="preserve">5.84826898574829</t>
   </si>
   <si>
     <t xml:space="preserve">5.20712566375732</t>
@@ -2618,7 +2618,7 @@
     <t xml:space="preserve">4.87788963317871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40639972686768</t>
+    <t xml:space="preserve">5.40639925003052</t>
   </si>
   <si>
     <t xml:space="preserve">5.31975841522217</t>
@@ -2630,18 +2630,15 @@
     <t xml:space="preserve">5.35441541671753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21578979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06850004196167</t>
+    <t xml:space="preserve">5.21578931808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06849956512451</t>
   </si>
   <si>
     <t xml:space="preserve">5.10315608978271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19846153259277</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.27142238616943</t>
   </si>
   <si>
@@ -2711,9 +2708,6 @@
     <t xml:space="preserve">5.13462066650391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02517938613892</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.09814071655273</t>
   </si>
   <si>
@@ -3648,6 +3642,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46000003814697</t>
   </si>
 </sst>
 </file>
@@ -46101,7 +46098,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1620" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46127,7 +46124,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1621" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46153,7 +46150,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1622" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46179,7 +46176,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46205,7 +46202,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1624" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46231,7 +46228,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46257,7 +46254,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46283,7 +46280,7 @@
         <v>6</v>
       </c>
       <c r="G1627" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46309,7 +46306,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1628" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46335,7 +46332,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1629" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46361,7 +46358,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1630" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46387,7 +46384,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1631" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46413,7 +46410,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1632" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46439,7 +46436,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46465,7 +46462,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46491,7 +46488,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1635" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46517,7 +46514,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46543,7 +46540,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1637" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46569,7 +46566,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46595,7 +46592,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1639" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46621,7 +46618,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1640" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46647,7 +46644,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1641" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46673,7 +46670,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1642" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46699,7 +46696,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1643" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46725,7 +46722,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46751,7 +46748,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1645" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46777,7 +46774,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1646" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46803,7 +46800,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1647" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46829,7 +46826,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1648" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46855,7 +46852,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1649" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46881,7 +46878,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46907,7 +46904,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1651" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46933,7 +46930,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1652" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46959,7 +46956,7 @@
         <v>5.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46985,7 +46982,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1654" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47011,7 +47008,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1655" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47037,7 +47034,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1656" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47063,7 +47060,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47089,7 +47086,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1658" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47115,7 +47112,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1659" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47141,7 +47138,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G1660" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47167,7 +47164,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1661" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47193,7 +47190,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1662" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47219,7 +47216,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1663" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47245,7 +47242,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1664" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47271,7 +47268,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1665" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47297,7 +47294,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47323,7 +47320,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1667" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47349,7 +47346,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1668" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47375,7 +47372,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47401,7 +47398,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G1670" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47427,7 +47424,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1671" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47453,7 +47450,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1672" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47479,7 +47476,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1673" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47505,7 +47502,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1674" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47531,7 +47528,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1675" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47557,7 +47554,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1676" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47583,7 +47580,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1677" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47609,7 +47606,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1678" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47635,7 +47632,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1679" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47661,7 +47658,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1680" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47687,7 +47684,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1681" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47713,7 +47710,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1682" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47739,7 +47736,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1683" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47765,7 +47762,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1684" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47817,7 +47814,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1686" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47843,7 +47840,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1687" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47869,7 +47866,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47895,7 +47892,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1689" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47921,7 +47918,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47947,7 +47944,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47973,7 +47970,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1692" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47999,7 +47996,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1693" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48025,7 +48022,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48051,7 +48048,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1695" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48077,7 +48074,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1696" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48103,7 +48100,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1697" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48129,7 +48126,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1698" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48155,7 +48152,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1699" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48181,7 +48178,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1700" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48207,7 +48204,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1701" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48233,7 +48230,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48259,7 +48256,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1703" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48285,7 +48282,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1704" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48311,7 +48308,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1705" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48337,7 +48334,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1706" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48363,7 +48360,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48389,7 +48386,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48415,7 +48412,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1709" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48441,7 +48438,7 @@
         <v>6</v>
       </c>
       <c r="G1710" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48467,7 +48464,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1711" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48493,7 +48490,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1712" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48519,7 +48516,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1713" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48545,7 +48542,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1714" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48571,7 +48568,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1715" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48597,7 +48594,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1716" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48623,7 +48620,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48649,7 +48646,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48675,7 +48672,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1719" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48701,7 +48698,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1720" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48727,7 +48724,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1721" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48753,7 +48750,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1722" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48779,7 +48776,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1723" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48805,7 +48802,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48831,7 +48828,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1725" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48857,7 +48854,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1726" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48883,7 +48880,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G1727" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48909,7 +48906,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1728" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48935,7 +48932,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1729" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48961,7 +48958,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48987,7 +48984,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1731" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49013,7 +49010,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1732" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49039,7 +49036,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49065,7 +49062,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1734" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49091,7 +49088,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1735" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49117,7 +49114,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1736" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49143,7 +49140,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1737" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49169,7 +49166,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1738" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49195,7 +49192,7 @@
         <v>6</v>
       </c>
       <c r="G1739" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49221,7 +49218,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1740" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49247,7 +49244,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1741" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49273,7 +49270,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1742" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49299,7 +49296,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1743" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49325,7 +49322,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G1744" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49351,7 +49348,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49377,7 +49374,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1746" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49403,7 +49400,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49429,7 +49426,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1748" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49455,7 +49452,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G1749" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49481,7 +49478,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1750" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49507,7 +49504,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1751" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49533,7 +49530,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1752" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49559,7 +49556,7 @@
         <v>6.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49585,7 +49582,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49611,7 +49608,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1755" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49637,7 +49634,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1756" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49663,7 +49660,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49689,7 +49686,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49715,7 +49712,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49741,7 +49738,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1760" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49767,7 +49764,7 @@
         <v>6.75</v>
       </c>
       <c r="G1761" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49793,7 +49790,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1762" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49819,7 +49816,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49845,7 +49842,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1764" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49871,7 +49868,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1765" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49897,7 +49894,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1766" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49923,7 +49920,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1767" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49949,7 +49946,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1768" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49975,7 +49972,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50001,7 +49998,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1770" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50027,7 +50024,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50053,7 +50050,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1772" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50079,7 +50076,7 @@
         <v>6.75</v>
       </c>
       <c r="G1773" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50105,7 +50102,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1774" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50131,7 +50128,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1775" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50157,7 +50154,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1776" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50183,7 +50180,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1777" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50209,7 +50206,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1778" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50235,7 +50232,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1779" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50261,7 +50258,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1780" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50287,7 +50284,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1781" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50313,7 +50310,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50339,7 +50336,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1783" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50365,7 +50362,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1784" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50391,7 +50388,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50417,7 +50414,7 @@
         <v>7</v>
       </c>
       <c r="G1786" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50443,7 +50440,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1787" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50469,7 +50466,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50495,7 +50492,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1789" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50521,7 +50518,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1790" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50547,7 +50544,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1791" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50573,7 +50570,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1792" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50599,7 +50596,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1793" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50625,7 +50622,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1794" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50651,7 +50648,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1795" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50677,7 +50674,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1796" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50703,7 +50700,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50729,7 +50726,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1798" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50755,7 +50752,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1799" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50781,7 +50778,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1800" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50807,7 +50804,7 @@
         <v>7.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50833,7 +50830,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1802" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50859,7 +50856,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1803" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50885,7 +50882,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1804" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50911,7 +50908,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1805" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50937,7 +50934,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1806" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50963,7 +50960,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50989,7 +50986,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1808" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51015,7 +51012,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1809" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51041,7 +51038,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1810" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51067,7 +51064,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1811" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51093,7 +51090,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1812" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51119,7 +51116,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1813" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51145,7 +51142,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1814" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51171,7 +51168,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1815" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51197,7 +51194,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1816" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51223,7 +51220,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1817" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51249,7 +51246,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1818" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51275,7 +51272,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1819" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51301,7 +51298,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51327,7 +51324,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1821" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51353,7 +51350,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1822" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51379,7 +51376,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1823" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51405,7 +51402,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1824" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51431,7 +51428,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1825" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51457,7 +51454,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1826" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51483,7 +51480,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1827" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51509,7 +51506,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1828" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51535,7 +51532,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1829" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51561,7 +51558,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1830" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51587,7 +51584,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1831" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51613,7 +51610,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1832" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51639,7 +51636,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51665,7 +51662,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51691,7 +51688,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1835" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51717,7 +51714,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1836" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51743,7 +51740,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1837" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51769,7 +51766,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1838" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51795,7 +51792,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1839" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51821,7 +51818,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1840" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51847,7 +51844,7 @@
         <v>6.75</v>
       </c>
       <c r="G1841" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51873,7 +51870,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51899,7 +51896,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G1843" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51925,7 +51922,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1844" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51951,7 +51948,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1845" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51977,7 +51974,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1846" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52003,7 +52000,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1847" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52029,7 +52026,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1848" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52055,7 +52052,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1849" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52081,7 +52078,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1850" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52107,7 +52104,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1851" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52133,7 +52130,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1852" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52159,7 +52156,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1853" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52185,7 +52182,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52211,7 +52208,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52237,7 +52234,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1856" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52263,7 +52260,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1857" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52289,7 +52286,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1858" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52315,7 +52312,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52341,7 +52338,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52367,7 +52364,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1861" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52393,7 +52390,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1862" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52419,7 +52416,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1863" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52445,7 +52442,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1864" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52471,7 +52468,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1865" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52497,7 +52494,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1866" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52523,7 +52520,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1867" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52549,7 +52546,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52575,7 +52572,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1869" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52601,7 +52598,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1870" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52627,7 +52624,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52653,7 +52650,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1872" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52679,7 +52676,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1873" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52705,7 +52702,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52731,7 +52728,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52757,7 +52754,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52783,7 +52780,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1877" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52809,7 +52806,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1878" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52835,7 +52832,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1879" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52861,7 +52858,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1880" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52887,7 +52884,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52913,7 +52910,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52939,7 +52936,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1883" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52965,7 +52962,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1884" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52991,7 +52988,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1885" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53017,7 +53014,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1886" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53043,7 +53040,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1887" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53069,7 +53066,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53095,7 +53092,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1889" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53121,7 +53118,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1890" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53147,7 +53144,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53173,7 +53170,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53199,7 +53196,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1893" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53225,7 +53222,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1894" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53251,7 +53248,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1895" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53277,7 +53274,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53303,7 +53300,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1897" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53329,7 +53326,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53355,7 +53352,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1899" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53381,7 +53378,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1900" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53407,7 +53404,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1901" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53433,7 +53430,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1902" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53459,7 +53456,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1903" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53485,7 +53482,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1904" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53511,7 +53508,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1905" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53537,7 +53534,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1906" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53563,7 +53560,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1907" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53589,7 +53586,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1908" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53615,7 +53612,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53641,7 +53638,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1910" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53667,7 +53664,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53693,7 +53690,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1912" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53719,7 +53716,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G1913" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53745,7 +53742,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1914" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53771,7 +53768,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1915" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53797,7 +53794,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1916" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53823,7 +53820,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1917" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53849,7 +53846,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1918" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53875,7 +53872,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1919" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53901,7 +53898,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53927,7 +53924,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1921" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53953,7 +53950,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1922" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53979,7 +53976,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54005,7 +54002,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1924" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54031,7 +54028,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1925" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54057,7 +54054,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1926" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54083,7 +54080,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54109,7 +54106,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54135,7 +54132,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1929" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54161,7 +54158,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1930" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54187,7 +54184,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54213,7 +54210,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1932" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54239,7 +54236,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1933" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54265,7 +54262,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54291,7 +54288,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1935" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54317,7 +54314,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1936" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54343,7 +54340,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54369,7 +54366,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1938" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54395,7 +54392,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1939" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54421,7 +54418,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1940" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54447,7 +54444,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1941" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54473,7 +54470,7 @@
         <v>7.5</v>
       </c>
       <c r="G1942" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54499,7 +54496,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54525,7 +54522,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1944" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54551,7 +54548,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1945" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54577,7 +54574,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G1946" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54603,7 +54600,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1947" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54629,7 +54626,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1948" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54655,7 +54652,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1949" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54681,7 +54678,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1950" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54707,7 +54704,7 @@
         <v>7.75</v>
       </c>
       <c r="G1951" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54733,7 +54730,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1952" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54759,7 +54756,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1953" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54785,7 +54782,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54811,7 +54808,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G1955" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54837,7 +54834,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54863,7 +54860,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1957" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54889,7 +54886,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54915,7 +54912,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54941,7 +54938,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1960" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54967,7 +54964,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54993,7 +54990,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1962" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55019,7 +55016,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1963" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55045,7 +55042,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55071,7 +55068,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1965" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55097,7 +55094,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1966" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55123,7 +55120,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1967" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55149,7 +55146,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1968" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55175,7 +55172,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1969" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55201,7 +55198,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1970" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55227,7 +55224,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55253,7 +55250,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1972" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55279,7 +55276,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1973" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55305,7 +55302,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1974" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55331,7 +55328,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55357,7 +55354,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1976" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55383,7 +55380,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1977" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55409,7 +55406,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1978" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55435,7 +55432,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1979" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55461,7 +55458,7 @@
         <v>7.75</v>
       </c>
       <c r="G1980" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55487,7 +55484,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1981" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55513,7 +55510,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55539,7 +55536,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55565,7 +55562,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55591,7 +55588,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1985" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55617,7 +55614,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55643,7 +55640,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1987" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55669,7 +55666,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1988" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55695,7 +55692,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1989" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55721,7 +55718,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55747,7 +55744,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1991" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55773,7 +55770,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1992" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55799,7 +55796,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1993" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55825,7 +55822,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55851,7 +55848,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55877,7 +55874,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G1996" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55903,7 +55900,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1997" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55929,7 +55926,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1998" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55955,7 +55952,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1999" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55981,7 +55978,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2000" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56007,7 +56004,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G2001" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56033,7 +56030,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2002" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56059,7 +56056,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56085,7 +56082,7 @@
         <v>8</v>
       </c>
       <c r="G2004" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56111,7 +56108,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2005" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56137,7 +56134,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2006" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56163,7 +56160,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56189,7 +56186,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2008" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56215,7 +56212,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56241,7 +56238,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2010" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56267,7 +56264,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56293,7 +56290,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56319,7 +56316,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2013" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56345,7 +56342,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G2014" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56371,7 +56368,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2015" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56397,7 +56394,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56423,7 +56420,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2017" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56449,7 +56446,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2018" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56475,7 +56472,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G2019" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56501,7 +56498,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2020" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56527,7 +56524,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G2021" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56553,7 +56550,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2022" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56579,7 +56576,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2023" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56605,7 +56602,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2024" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56631,7 +56628,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2025" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56657,7 +56654,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2026" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56683,7 +56680,7 @@
         <v>8</v>
       </c>
       <c r="G2027" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56709,7 +56706,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2028" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56735,7 +56732,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2029" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56761,7 +56758,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2030" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56787,7 +56784,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G2031" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56813,7 +56810,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2032" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56839,7 +56836,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2033" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56865,7 +56862,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2034" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56891,7 +56888,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2035" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56917,7 +56914,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56943,7 +56940,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2037" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56969,7 +56966,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2038" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56995,7 +56992,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G2039" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57021,7 +57018,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2040" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57047,7 +57044,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2041" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57073,7 +57070,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2042" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57099,7 +57096,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2043" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57125,7 +57122,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2044" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57151,7 +57148,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2045" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57177,7 +57174,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G2046" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57203,7 +57200,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2047" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57229,7 +57226,7 @@
         <v>8.25</v>
       </c>
       <c r="G2048" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57255,7 +57252,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2049" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57281,7 +57278,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2050" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57307,7 +57304,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2051" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57333,7 +57330,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2052" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57359,7 +57356,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2053" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57385,7 +57382,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57411,7 +57408,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2055" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57437,7 +57434,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2056" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57463,7 +57460,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2057" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57489,7 +57486,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2058" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57515,7 +57512,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57541,7 +57538,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2060" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57567,7 +57564,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57593,7 +57590,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2062" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57619,7 +57616,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2063" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57645,7 +57642,7 @@
         <v>8.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57671,7 +57668,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2065" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57697,7 +57694,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2066" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57723,7 +57720,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2067" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57749,7 +57746,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2068" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57775,7 +57772,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57801,7 +57798,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2070" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57827,7 +57824,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2071" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57853,7 +57850,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57879,7 +57876,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2073" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57905,7 +57902,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2074" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57931,7 +57928,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2075" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57957,7 +57954,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2076" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57983,7 +57980,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2077" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58009,7 +58006,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2078" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58035,7 +58032,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G2079" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58061,7 +58058,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2080" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58087,7 +58084,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G2081" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58113,7 +58110,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2082" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58139,7 +58136,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58165,7 +58162,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58191,7 +58188,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58217,7 +58214,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G2086" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58243,7 +58240,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2087" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58269,7 +58266,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2088" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58295,7 +58292,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2089" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58321,7 +58318,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2090" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58347,7 +58344,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2091" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58373,7 +58370,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2092" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58399,7 +58396,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2093" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58425,7 +58422,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2094" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58451,7 +58448,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2095" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58477,7 +58474,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2096" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58503,7 +58500,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2097" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58529,7 +58526,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2098" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58555,7 +58552,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G2099" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58581,7 +58578,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2100" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58607,7 +58604,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58633,7 +58630,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58659,7 +58656,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2103" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58685,7 +58682,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2104" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58711,7 +58708,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58737,7 +58734,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58763,7 +58760,7 @@
         <v>9.25</v>
       </c>
       <c r="G2107" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58789,7 +58786,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58815,7 +58812,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2109" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58841,7 +58838,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2110" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58867,7 +58864,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2111" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58893,7 +58890,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2112" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58919,7 +58916,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2113" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58945,7 +58942,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2114" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58971,7 +58968,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2115" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58997,7 +58994,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2116" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59023,7 +59020,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G2117" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59049,7 +59046,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2118" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59075,7 +59072,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G2119" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59101,7 +59098,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G2120" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59127,7 +59124,7 @@
         <v>10</v>
       </c>
       <c r="G2121" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59153,7 +59150,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2122" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59179,7 +59176,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G2123" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59205,7 +59202,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G2124" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59231,7 +59228,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59257,7 +59254,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G2126" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59283,7 +59280,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G2127" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59309,7 +59306,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2128" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59335,7 +59332,7 @@
         <v>9.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59361,7 +59358,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2130" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59387,7 +59384,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G2131" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59413,7 +59410,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G2132" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59439,7 +59436,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59465,7 +59462,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G2134" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59491,7 +59488,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59517,7 +59514,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2136" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59543,7 +59540,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2137" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59569,7 +59566,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2138" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59595,7 +59592,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2139" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59621,7 +59618,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2140" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59647,7 +59644,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2141" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59673,7 +59670,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G2142" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59699,7 +59696,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2143" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59707,7 +59704,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6494791667</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>186887</v>
@@ -59725,9 +59722,35 @@
         <v>9.5</v>
       </c>
       <c r="G2144" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.649525463</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>79190</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>9.51000022888184</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>9.40999984741211</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>9.46000003814697</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="1213">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96161222457886</t>
+    <t xml:space="preserve">4.96161127090454</t>
   </si>
   <si>
     <t xml:space="preserve">CE.MI</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">4.93192338943481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75750589370728</t>
+    <t xml:space="preserve">4.75750637054443</t>
   </si>
   <si>
     <t xml:space="preserve">4.712975025177</t>
@@ -62,25 +62,25 @@
     <t xml:space="preserve">4.77235078811646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82430458068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72039699554443</t>
+    <t xml:space="preserve">4.82430410385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72039651870728</t>
   </si>
   <si>
     <t xml:space="preserve">4.67957496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47547054290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51257944107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13405895233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32703018188477</t>
+    <t xml:space="preserve">4.47547006607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51257991790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13405752182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32703065872192</t>
   </si>
   <si>
     <t xml:space="preserve">4.45320415496826</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">4.59051179885864</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56082344055176</t>
+    <t xml:space="preserve">4.56082248687744</t>
   </si>
   <si>
     <t xml:space="preserve">4.4346489906311</t>
@@ -98,31 +98,31 @@
     <t xml:space="preserve">4.55711221694946</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55340099334717</t>
+    <t xml:space="preserve">4.55340147018433</t>
   </si>
   <si>
     <t xml:space="preserve">4.36042928695679</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20085525512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23796558380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27507638931274</t>
+    <t xml:space="preserve">4.20085573196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23796606063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27507591247559</t>
   </si>
   <si>
     <t xml:space="preserve">3.95592975616455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78893518447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14519023895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9856173992157</t>
+    <t xml:space="preserve">3.78893446922302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14519166946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98561835289001</t>
   </si>
   <si>
     <t xml:space="preserve">4.25281000137329</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.49031448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23054456710815</t>
+    <t xml:space="preserve">4.230544090271</t>
   </si>
   <si>
     <t xml:space="preserve">4.16745662689209</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">4.3121862411499</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28620862960815</t>
+    <t xml:space="preserve">4.28620958328247</t>
   </si>
   <si>
     <t xml:space="preserve">4.11921405792236</t>
@@ -158,19 +158,19 @@
     <t xml:space="preserve">4.28992033004761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3715615272522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56453418731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63504314422607</t>
+    <t xml:space="preserve">4.37156200408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56453466415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63504266738892</t>
   </si>
   <si>
     <t xml:space="preserve">4.62391042709351</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57195663452148</t>
+    <t xml:space="preserve">4.57195615768433</t>
   </si>
   <si>
     <t xml:space="preserve">4.66473150253296</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">4.75008487701416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81317138671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70184135437012</t>
+    <t xml:space="preserve">4.81317186355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70184087753296</t>
   </si>
   <si>
     <t xml:space="preserve">4.72781848907471</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">4.58308887481689</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77977180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71668529510498</t>
+    <t xml:space="preserve">4.77977228164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71668577194214</t>
   </si>
   <si>
     <t xml:space="preserve">4.60164403915405</t>
@@ -206,25 +206,25 @@
     <t xml:space="preserve">4.47175931930542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46433639526367</t>
+    <t xml:space="preserve">4.46433734893799</t>
   </si>
   <si>
     <t xml:space="preserve">4.34187364578247</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31960773468018</t>
+    <t xml:space="preserve">4.31960821151733</t>
   </si>
   <si>
     <t xml:space="preserve">4.21941089630127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15261268615723</t>
+    <t xml:space="preserve">4.15261316299438</t>
   </si>
   <si>
     <t xml:space="preserve">4.10065889358521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34558534622192</t>
+    <t xml:space="preserve">4.34558486938477</t>
   </si>
   <si>
     <t xml:space="preserve">4.22683334350586</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">4.50886917114258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59422302246094</t>
+    <t xml:space="preserve">4.59422206878662</t>
   </si>
   <si>
     <t xml:space="preserve">4.61648845672607</t>
@@ -251,46 +251,46 @@
     <t xml:space="preserve">4.7537956237793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80946063995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63875484466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5014476776123</t>
+    <t xml:space="preserve">4.80946111679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63875389099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50144720077515</t>
   </si>
   <si>
     <t xml:space="preserve">4.51629114151001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48660326004028</t>
+    <t xml:space="preserve">4.48660373687744</t>
   </si>
   <si>
     <t xml:space="preserve">4.44578218460083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34929704666138</t>
+    <t xml:space="preserve">4.34929656982422</t>
   </si>
   <si>
     <t xml:space="preserve">4.6581335067749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57827997207642</t>
+    <t xml:space="preserve">4.57827949523926</t>
   </si>
   <si>
     <t xml:space="preserve">4.63912057876587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69996118545532</t>
+    <t xml:space="preserve">4.69996213912964</t>
   </si>
   <si>
     <t xml:space="preserve">4.67714643478394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68094921112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9623384475708</t>
+    <t xml:space="preserve">4.68094873428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96233797073364</t>
   </si>
   <si>
     <t xml:space="preserve">4.96994304656982</t>
@@ -299,22 +299,22 @@
     <t xml:space="preserve">4.9395227432251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92431306838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93191814422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83685350418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77221012115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82924795150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73038148880005</t>
+    <t xml:space="preserve">4.92431259155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93191766738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83685398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77221059799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82924842834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73038196563721</t>
   </si>
   <si>
     <t xml:space="preserve">4.89389228820801</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">4.79502534866333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80643320083618</t>
+    <t xml:space="preserve">4.80643367767334</t>
   </si>
   <si>
     <t xml:space="preserve">4.69615888595581</t>
@@ -332,55 +332,55 @@
     <t xml:space="preserve">4.46040010452271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32731103897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39955902099609</t>
+    <t xml:space="preserve">4.32731151580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39955949783325</t>
   </si>
   <si>
     <t xml:space="preserve">4.27407503128052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57067537307739</t>
+    <t xml:space="preserve">4.57067441940308</t>
   </si>
   <si>
     <t xml:space="preserve">4.79122304916382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84065580368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88628625869751</t>
+    <t xml:space="preserve">4.84065628051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88628721237183</t>
   </si>
   <si>
     <t xml:space="preserve">5.00416612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13338088989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14478826522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12197303771973</t>
+    <t xml:space="preserve">4.13338041305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14478874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12197351455688</t>
   </si>
   <si>
     <t xml:space="preserve">4.24365472793579</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03451347351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89381885528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7873477935791</t>
+    <t xml:space="preserve">4.0345139503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89381909370422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78734755516052</t>
   </si>
   <si>
     <t xml:space="preserve">3.87480640411377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04211902618408</t>
+    <t xml:space="preserve">4.04211950302124</t>
   </si>
   <si>
     <t xml:space="preserve">4.14859104156494</t>
@@ -389,10 +389,10 @@
     <t xml:space="preserve">4.22083950042725</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18281316757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3159031867981</t>
+    <t xml:space="preserve">4.18281364440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31590366363525</t>
   </si>
   <si>
     <t xml:space="preserve">4.38054656982422</t>
@@ -404,73 +404,73 @@
     <t xml:space="preserve">4.46420288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43378210067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35773229598999</t>
+    <t xml:space="preserve">4.43378257751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35773134231567</t>
   </si>
   <si>
     <t xml:space="preserve">4.40716409683228</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37294101715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19422101974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210041046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1980242729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07253980636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08774948120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15999794006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09155225753784</t>
+    <t xml:space="preserve">4.37294149398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19422149658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19802379608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07253932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08774995803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15999841690063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09155321121216</t>
   </si>
   <si>
     <t xml:space="preserve">4.04972457885742</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05352687835693</t>
+    <t xml:space="preserve">4.05352640151978</t>
   </si>
   <si>
     <t xml:space="preserve">3.92423987388611</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85199093818665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84438586235046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72650671005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7249858379364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86720132827759</t>
+    <t xml:space="preserve">3.85199117660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84438610076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72650647163391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72498536109924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86720108985901</t>
   </si>
   <si>
     <t xml:space="preserve">4.07634258270264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92804265022278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396532058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84058332443237</t>
+    <t xml:space="preserve">3.92804217338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396555900574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84058356285095</t>
   </si>
   <si>
     <t xml:space="preserve">4.02690887451172</t>
@@ -488,61 +488,61 @@
     <t xml:space="preserve">4.20562934875488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99268531799316</t>
+    <t xml:space="preserve">3.99268555641174</t>
   </si>
   <si>
     <t xml:space="preserve">3.99648833274841</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95466017723083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93944954872131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85959553718567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85579419136047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81016302108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01930332183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86339926719666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74171662330627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70977520942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72802758216858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65806102752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67479228973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70673298835754</t>
+    <t xml:space="preserve">3.95466065406799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93945002555847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85959601402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85579371452332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81016254425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0193042755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8633987903595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74171710014343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7097749710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72802782058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65806031227112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67479157447815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70673394203186</t>
   </si>
   <si>
     <t xml:space="preserve">3.77365875244141</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88241219520569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84818887710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87860918045044</t>
+    <t xml:space="preserve">3.88241124153137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84818840026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87860894203186</t>
   </si>
   <si>
     <t xml:space="preserve">3.88621425628662</t>
@@ -551,22 +551,22 @@
     <t xml:space="preserve">3.83678126335144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95085740089417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9052267074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03071117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06493425369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97367334365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02310657501221</t>
+    <t xml:space="preserve">3.95085787773132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90522718429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03071165084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06493473052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97367286682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02310705184937</t>
   </si>
   <si>
     <t xml:space="preserve">4.01169872283936</t>
@@ -578,22 +578,22 @@
     <t xml:space="preserve">3.90142440795898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81776857376099</t>
+    <t xml:space="preserve">3.81776785850525</t>
   </si>
   <si>
     <t xml:space="preserve">3.7690954208374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78886890411377</t>
+    <t xml:space="preserve">3.78886866569519</t>
   </si>
   <si>
     <t xml:space="preserve">3.8215708732605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80255770683289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89762187004089</t>
+    <t xml:space="preserve">3.80255746841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89762234687805</t>
   </si>
   <si>
     <t xml:space="preserve">4.01550149917603</t>
@@ -602,13 +602,13 @@
     <t xml:space="preserve">4.06113195419312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00789642333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9622654914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91663551330566</t>
+    <t xml:space="preserve">4.00789594650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96226596832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91663503646851</t>
   </si>
   <si>
     <t xml:space="preserve">3.93184471130371</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">3.94325256347656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10676336288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35392904281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42998027801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29308795928955</t>
+    <t xml:space="preserve">4.10676288604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.353928565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42998075485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29308748245239</t>
   </si>
   <si>
     <t xml:space="preserve">4.3881516456604</t>
@@ -638,64 +638,64 @@
     <t xml:space="preserve">4.33871841430664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40336227416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47941255569458</t>
+    <t xml:space="preserve">4.40336179733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4794135093689</t>
   </si>
   <si>
     <t xml:space="preserve">4.34252119064331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46800565719604</t>
+    <t xml:space="preserve">4.46800518035889</t>
   </si>
   <si>
     <t xml:space="preserve">4.48701858520508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31970548629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30829763412476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48321628570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49842596054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50603055953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45279502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6353178024292</t>
+    <t xml:space="preserve">4.31970596313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30829811096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48321580886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49842643737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50603103637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45279550552368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63531827926636</t>
   </si>
   <si>
     <t xml:space="preserve">4.65052795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74559211730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7265796661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69235610961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75319766998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55926656723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56306982040405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64292335510254</t>
+    <t xml:space="preserve">4.74559164047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72658014297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6923565864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75319719314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55926752090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56306934356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64292287826538</t>
   </si>
   <si>
     <t xml:space="preserve">4.53645181655884</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">4.58208227157593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59729242324829</t>
+    <t xml:space="preserve">4.59729337692261</t>
   </si>
   <si>
     <t xml:space="preserve">4.47180843353271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57447719573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58588457107544</t>
+    <t xml:space="preserve">4.57447671890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5858850479126</t>
   </si>
   <si>
     <t xml:space="preserve">4.58968687057495</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">4.65433073043823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77601289749146</t>
+    <t xml:space="preserve">4.7760124206543</t>
   </si>
   <si>
     <t xml:space="preserve">4.82164335250854</t>
@@ -749,25 +749,25 @@
     <t xml:space="preserve">4.90530014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84445905685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94332551956177</t>
+    <t xml:space="preserve">4.84445858001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94332504272461</t>
   </si>
   <si>
     <t xml:space="preserve">4.88248443603516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83305072784424</t>
+    <t xml:space="preserve">4.83305168151855</t>
   </si>
   <si>
     <t xml:space="preserve">4.87487888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79882860183716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76080274581909</t>
+    <t xml:space="preserve">4.798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76080226898193</t>
   </si>
   <si>
     <t xml:space="preserve">4.82544612884521</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">4.81023550033569</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73418474197388</t>
+    <t xml:space="preserve">4.73418426513672</t>
   </si>
   <si>
     <t xml:space="preserve">5.00036334991455</t>
@@ -785,22 +785,22 @@
     <t xml:space="preserve">4.86727428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95853614807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98135089874268</t>
+    <t xml:space="preserve">4.95853519439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98135042190552</t>
   </si>
   <si>
     <t xml:space="preserve">5.0117712020874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01937675476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91290426254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16007041931152</t>
+    <t xml:space="preserve">5.01937627792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91290473937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16007089614868</t>
   </si>
   <si>
     <t xml:space="preserve">5.1911792755127</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">5.3428316116333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37005138397217</t>
+    <t xml:space="preserve">5.37005090713501</t>
   </si>
   <si>
     <t xml:space="preserve">5.35838556289673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3894944190979</t>
+    <t xml:space="preserve">5.38949394226074</t>
   </si>
   <si>
     <t xml:space="preserve">5.28450393676758</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">5.45559883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38560581207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31172370910645</t>
+    <t xml:space="preserve">5.38560628890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3117241859436</t>
   </si>
   <si>
     <t xml:space="preserve">5.3078351020813</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">5.37393951416016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40504789352417</t>
+    <t xml:space="preserve">5.40504741668701</t>
   </si>
   <si>
     <t xml:space="preserve">5.40893650054932</t>
@@ -878,10 +878,10 @@
     <t xml:space="preserve">5.42837905883789</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49448442459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49837303161621</t>
+    <t xml:space="preserve">5.49448490142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49837255477905</t>
   </si>
   <si>
     <t xml:space="preserve">5.46337604522705</t>
@@ -899,19 +899,19 @@
     <t xml:space="preserve">5.61891651153564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63835906982422</t>
+    <t xml:space="preserve">5.63835954666138</t>
   </si>
   <si>
     <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58003187179565</t>
+    <t xml:space="preserve">5.5800313949585</t>
   </si>
   <si>
     <t xml:space="preserve">5.62280559539795</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54503536224365</t>
+    <t xml:space="preserve">5.54503488540649</t>
   </si>
   <si>
     <t xml:space="preserve">5.57614326477051</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">5.42449045181274</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53336954116821</t>
+    <t xml:space="preserve">5.53336906433105</t>
   </si>
   <si>
     <t xml:space="preserve">5.63447093963623</t>
@@ -935,25 +935,25 @@
     <t xml:space="preserve">5.66946744918823</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56836605072021</t>
+    <t xml:space="preserve">5.56836557388306</t>
   </si>
   <si>
     <t xml:space="preserve">5.66169118881226</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75501489639282</t>
+    <t xml:space="preserve">5.75501537322998</t>
   </si>
   <si>
     <t xml:space="preserve">5.92611026763916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75890445709229</t>
+    <t xml:space="preserve">5.75890398025513</t>
   </si>
   <si>
     <t xml:space="preserve">5.56447744369507</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70446491241455</t>
+    <t xml:space="preserve">5.70446443557739</t>
   </si>
   <si>
     <t xml:space="preserve">5.82500886917114</t>
@@ -962,19 +962,19 @@
     <t xml:space="preserve">5.77834606170654</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69279861450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74723815917969</t>
+    <t xml:space="preserve">5.69279909133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74723768234253</t>
   </si>
   <si>
     <t xml:space="preserve">5.65002536773682</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64224863052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52948093414307</t>
+    <t xml:space="preserve">5.64224815368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52948141098022</t>
   </si>
   <si>
     <t xml:space="preserve">5.52170372009277</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">5.69668769836426</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9027795791626</t>
+    <t xml:space="preserve">5.90277910232544</t>
   </si>
   <si>
     <t xml:space="preserve">5.856116771698</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">5.83278560638428</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86389350891113</t>
+    <t xml:space="preserve">5.86389398574829</t>
   </si>
   <si>
     <t xml:space="preserve">5.80167722702026</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84834003448486</t>
+    <t xml:space="preserve">5.84833955764771</t>
   </si>
   <si>
     <t xml:space="preserve">5.84445095062256</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">5.92999887466431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91444540023804</t>
+    <t xml:space="preserve">5.91444492340088</t>
   </si>
   <si>
     <t xml:space="preserve">5.94944143295288</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">5.81723213195801</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8677830696106</t>
+    <t xml:space="preserve">5.86778259277344</t>
   </si>
   <si>
     <t xml:space="preserve">5.88333606719971</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">5.91833353042603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60336256027222</t>
+    <t xml:space="preserve">5.60336303710938</t>
   </si>
   <si>
     <t xml:space="preserve">5.50614976882935</t>
@@ -1088,19 +1088,19 @@
     <t xml:space="preserve">5.56058931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58391952514648</t>
+    <t xml:space="preserve">5.58392000198364</t>
   </si>
   <si>
     <t xml:space="preserve">5.72779560089111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71613025665283</t>
+    <t xml:space="preserve">5.71612977981567</t>
   </si>
   <si>
     <t xml:space="preserve">5.76668071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72001886367798</t>
+    <t xml:space="preserve">5.72001934051514</t>
   </si>
   <si>
     <t xml:space="preserve">5.77445793151855</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">5.84056282043457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54892349243164</t>
+    <t xml:space="preserve">5.5489239692688</t>
   </si>
   <si>
     <t xml:space="preserve">5.52559232711792</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">6.04276609420776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9727725982666</t>
+    <t xml:space="preserve">5.97277307510376</t>
   </si>
   <si>
     <t xml:space="preserve">5.94166421890259</t>
@@ -1160,13 +1160,13 @@
     <t xml:space="preserve">5.73168468475342</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67724561691284</t>
+    <t xml:space="preserve">5.67724514007568</t>
   </si>
   <si>
     <t xml:space="preserve">5.88722515106201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68502187728882</t>
+    <t xml:space="preserve">5.68502235412598</t>
   </si>
   <si>
     <t xml:space="preserve">5.73946142196655</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">5.79390048980713</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77056980133057</t>
+    <t xml:space="preserve">5.77056932449341</t>
   </si>
   <si>
     <t xml:space="preserve">5.78612375259399</t>
@@ -1190,19 +1190,19 @@
     <t xml:space="preserve">5.49059581756592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76564836502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68568134307861</t>
+    <t xml:space="preserve">5.76564788818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68568181991577</t>
   </si>
   <si>
     <t xml:space="preserve">5.50175619125366</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46177244186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31783103942871</t>
+    <t xml:space="preserve">5.46177291870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31783151626587</t>
   </si>
   <si>
     <t xml:space="preserve">5.34981775283813</t>
@@ -1214,19 +1214,19 @@
     <t xml:space="preserve">5.32582759857178</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30983448028564</t>
+    <t xml:space="preserve">5.30983400344849</t>
   </si>
   <si>
     <t xml:space="preserve">5.03794527053833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93398761749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65410184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91799449920654</t>
+    <t xml:space="preserve">4.93398809432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65410232543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91799402236938</t>
   </si>
   <si>
     <t xml:space="preserve">4.83002996444702</t>
@@ -1244,16 +1244,16 @@
     <t xml:space="preserve">4.74206590652466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85402059555054</t>
+    <t xml:space="preserve">4.85402011871338</t>
   </si>
   <si>
     <t xml:space="preserve">4.92599058151245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90200090408325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00595855712891</t>
+    <t xml:space="preserve">4.90200138092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00595903396606</t>
   </si>
   <si>
     <t xml:space="preserve">5.09392261505127</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">5.13390588760376</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18188619613647</t>
+    <t xml:space="preserve">5.18188667297363</t>
   </si>
   <si>
     <t xml:space="preserve">5.05393886566162</t>
@@ -1283,19 +1283,19 @@
     <t xml:space="preserve">5.08592557907104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17388963699341</t>
+    <t xml:space="preserve">5.17388916015625</t>
   </si>
   <si>
     <t xml:space="preserve">5.18988275527954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1099157333374</t>
+    <t xml:space="preserve">5.10991621017456</t>
   </si>
   <si>
     <t xml:space="preserve">5.11791276931763</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10191965103149</t>
+    <t xml:space="preserve">5.10191917419434</t>
   </si>
   <si>
     <t xml:space="preserve">5.04594230651855</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">4.90999746322632</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89400386810303</t>
+    <t xml:space="preserve">4.89400339126587</t>
   </si>
   <si>
     <t xml:space="preserve">5.07792854309082</t>
@@ -1313,28 +1313,28 @@
     <t xml:space="preserve">4.94198417663574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98996496200562</t>
+    <t xml:space="preserve">4.98996448516846</t>
   </si>
   <si>
     <t xml:space="preserve">4.98196792602539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61411762237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53415060043335</t>
+    <t xml:space="preserve">4.61411809921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53415107727051</t>
   </si>
   <si>
     <t xml:space="preserve">4.4701771736145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44618606567383</t>
+    <t xml:space="preserve">4.44618654251099</t>
   </si>
   <si>
     <t xml:space="preserve">4.45418310165405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47817325592041</t>
+    <t xml:space="preserve">4.47817373275757</t>
   </si>
   <si>
     <t xml:space="preserve">4.4941668510437</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">4.39020872116089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42219638824463</t>
+    <t xml:space="preserve">4.42219686508179</t>
   </si>
   <si>
     <t xml:space="preserve">4.25426435470581</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">4.67009496688843</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64610481262207</t>
+    <t xml:space="preserve">4.64610433578491</t>
   </si>
   <si>
     <t xml:space="preserve">4.66209840774536</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">4.70208263397217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72607231140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75006341934204</t>
+    <t xml:space="preserve">4.72607278823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75006294250488</t>
   </si>
   <si>
     <t xml:space="preserve">4.8220329284668</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">4.48617029190063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55814075469971</t>
+    <t xml:space="preserve">4.55814123153687</t>
   </si>
   <si>
     <t xml:space="preserve">4.31823921203613</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">4.24626779556274</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1822943687439</t>
+    <t xml:space="preserve">4.18229389190674</t>
   </si>
   <si>
     <t xml:space="preserve">4.28625202178955</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">4.11032390594482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07034063339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95438694953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81844305992126</t>
+    <t xml:space="preserve">4.07034015655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95438718795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81844329833984</t>
   </si>
   <si>
     <t xml:space="preserve">3.92240071296692</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">4.21428155899048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15830421447754</t>
+    <t xml:space="preserve">4.15830373764038</t>
   </si>
   <si>
     <t xml:space="preserve">4.23027467727661</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">4.26226186752319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13431358337402</t>
+    <t xml:space="preserve">4.13431406021118</t>
   </si>
   <si>
     <t xml:space="preserve">4.15030717849731</t>
@@ -1460,34 +1460,34 @@
     <t xml:space="preserve">4.06234359741211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01436328887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05434656143188</t>
+    <t xml:space="preserve">4.01436281204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05434703826904</t>
   </si>
   <si>
     <t xml:space="preserve">3.99836921691895</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0223593711853</t>
+    <t xml:space="preserve">4.02235984802246</t>
   </si>
   <si>
     <t xml:space="preserve">4.16630077362061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19828701019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04635000228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11832094192505</t>
+    <t xml:space="preserve">4.19828748703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04634952545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11832046508789</t>
   </si>
   <si>
     <t xml:space="preserve">4.27025890350342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98237562179565</t>
+    <t xml:space="preserve">3.98237538337708</t>
   </si>
   <si>
     <t xml:space="preserve">3.96238374710083</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">3.95038890838623</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91440367698669</t>
+    <t xml:space="preserve">3.91440391540527</t>
   </si>
   <si>
     <t xml:space="preserve">4.03835296630859</t>
@@ -1511,22 +1511,22 @@
     <t xml:space="preserve">4.08633327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07833623886108</t>
+    <t xml:space="preserve">4.07833671569824</t>
   </si>
   <si>
     <t xml:space="preserve">4.00636625289917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03035593032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89441204071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9783775806427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91840171813965</t>
+    <t xml:space="preserve">4.03035640716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89441180229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97837734222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91840195655823</t>
   </si>
   <si>
     <t xml:space="preserve">3.87042164802551</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">4.1902904510498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29424858093262</t>
+    <t xml:space="preserve">4.29424810409546</t>
   </si>
   <si>
     <t xml:space="preserve">3.93839359283447</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">3.84643149375916</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86242437362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81444430351257</t>
+    <t xml:space="preserve">3.86242461204529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81444454193115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77845883369446</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">3.77010869979858</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68243217468262</t>
+    <t xml:space="preserve">3.68243193626404</t>
   </si>
   <si>
     <t xml:space="preserve">3.69913220405579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74088358879089</t>
+    <t xml:space="preserve">3.74088335037231</t>
   </si>
   <si>
     <t xml:space="preserve">3.72418260574341</t>
@@ -1604,13 +1604,13 @@
     <t xml:space="preserve">3.63650584220886</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59475493431091</t>
+    <t xml:space="preserve">3.59475469589233</t>
   </si>
   <si>
     <t xml:space="preserve">3.66155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68660688400269</t>
+    <t xml:space="preserve">3.68660712242126</t>
   </si>
   <si>
     <t xml:space="preserve">3.61980533599854</t>
@@ -1625,10 +1625,10 @@
     <t xml:space="preserve">3.54047846794128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55300378799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56970429420471</t>
+    <t xml:space="preserve">3.55300402641296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56970405578613</t>
   </si>
   <si>
     <t xml:space="preserve">3.54882884025574</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">3.51542806625366</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46532702445984</t>
+    <t xml:space="preserve">3.46532726287842</t>
   </si>
   <si>
     <t xml:space="preserve">3.48202753067017</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52377820014954</t>
+    <t xml:space="preserve">3.52377843856812</t>
   </si>
   <si>
     <t xml:space="preserve">3.53630399703979</t>
@@ -1658,13 +1658,13 @@
     <t xml:space="preserve">3.74923324584961</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97468876838684</t>
+    <t xml:space="preserve">3.97468852996826</t>
   </si>
   <si>
     <t xml:space="preserve">4.04149007797241</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92876219749451</t>
+    <t xml:space="preserve">3.92876243591309</t>
   </si>
   <si>
     <t xml:space="preserve">3.9245867729187</t>
@@ -1673,34 +1673,34 @@
     <t xml:space="preserve">3.94128727912903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9496374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98303890228271</t>
+    <t xml:space="preserve">3.94963788986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98303866386414</t>
   </si>
   <si>
     <t xml:space="preserve">3.90371179580688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84108543395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96633839607239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95798778533936</t>
+    <t xml:space="preserve">3.84108519554138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96633791923523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95798802375793</t>
   </si>
   <si>
     <t xml:space="preserve">3.94546270370483</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89536166191101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87031102180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79933500289917</t>
+    <t xml:space="preserve">3.89536190032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87031078338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79933476448059</t>
   </si>
   <si>
     <t xml:space="preserve">3.78680920600891</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">3.77845931053162</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75758337974548</t>
+    <t xml:space="preserve">3.75758361816406</t>
   </si>
   <si>
     <t xml:space="preserve">3.72000765800476</t>
@@ -1721,25 +1721,25 @@
     <t xml:space="preserve">3.69078230857849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78263425827026</t>
+    <t xml:space="preserve">3.78263449668884</t>
   </si>
   <si>
     <t xml:space="preserve">3.88283658027649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86613607406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92041182518005</t>
+    <t xml:space="preserve">3.86613583564758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92041206359863</t>
   </si>
   <si>
     <t xml:space="preserve">4.02061414718628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03731536865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06654024124146</t>
+    <t xml:space="preserve">4.03731489181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06654071807861</t>
   </si>
   <si>
     <t xml:space="preserve">4.058189868927</t>
@@ -1760,10 +1760,10 @@
     <t xml:space="preserve">4.13751697540283</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16256761550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24189424514771</t>
+    <t xml:space="preserve">4.16256809234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24189472198486</t>
   </si>
   <si>
     <t xml:space="preserve">4.23354387283325</t>
@@ -1772,13 +1772,13 @@
     <t xml:space="preserve">4.1667423248291</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12916707992554</t>
+    <t xml:space="preserve">4.12916660308838</t>
   </si>
   <si>
     <t xml:space="preserve">4.07906532287598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09159088134766</t>
+    <t xml:space="preserve">4.09159135818481</t>
   </si>
   <si>
     <t xml:space="preserve">4.17509269714355</t>
@@ -1799,16 +1799,16 @@
     <t xml:space="preserve">4.12499189376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2168436050415</t>
+    <t xml:space="preserve">4.21684408187866</t>
   </si>
   <si>
     <t xml:space="preserve">4.25024461746216</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30869579315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40054845809937</t>
+    <t xml:space="preserve">4.3086953163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40054798126221</t>
   </si>
   <si>
     <t xml:space="preserve">4.37549686431885</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">4.52580070495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45899963378906</t>
+    <t xml:space="preserve">4.4589991569519</t>
   </si>
   <si>
     <t xml:space="preserve">4.4923996925354</t>
@@ -1859,19 +1859,19 @@
     <t xml:space="preserve">4.46734952926636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55085134506226</t>
+    <t xml:space="preserve">4.5508508682251</t>
   </si>
   <si>
     <t xml:space="preserve">4.4339485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38384675979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3504467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39219760894775</t>
+    <t xml:space="preserve">4.3838472366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35044717788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39219808578491</t>
   </si>
   <si>
     <t xml:space="preserve">4.31704616546631</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">4.30034589767456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29199552536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28364562988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25859498977661</t>
+    <t xml:space="preserve">4.29199600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28364515304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25859451293945</t>
   </si>
   <si>
     <t xml:space="preserve">4.20014381408691</t>
@@ -1895,13 +1895,13 @@
     <t xml:space="preserve">3.97051334381104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97886347770691</t>
+    <t xml:space="preserve">3.97886323928833</t>
   </si>
   <si>
     <t xml:space="preserve">4.0331392288208</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10829162597656</t>
+    <t xml:space="preserve">4.1082911491394</t>
   </si>
   <si>
     <t xml:space="preserve">4.41724824905396</t>
@@ -1913,31 +1913,31 @@
     <t xml:space="preserve">4.01226425170898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8285608291626</t>
+    <t xml:space="preserve">3.82856035232544</t>
   </si>
   <si>
     <t xml:space="preserve">3.80768465995789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62815546989441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43610119819641</t>
+    <t xml:space="preserve">3.62815570831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43610143661499</t>
   </si>
   <si>
     <t xml:space="preserve">3.38600015640259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13549494743347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13131952285767</t>
+    <t xml:space="preserve">3.13549470901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13131976127625</t>
   </si>
   <si>
     <t xml:space="preserve">3.26909756660461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99354195594788</t>
+    <t xml:space="preserve">2.9935417175293</t>
   </si>
   <si>
     <t xml:space="preserve">3.23987221717834</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">3.25239729881287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21482157707214</t>
+    <t xml:space="preserve">3.21482133865356</t>
   </si>
   <si>
     <t xml:space="preserve">3.27327275276184</t>
@@ -1961,19 +1961,19 @@
     <t xml:space="preserve">3.1521954536438</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19812083244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18977069854736</t>
+    <t xml:space="preserve">3.19812107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18977093696594</t>
   </si>
   <si>
     <t xml:space="preserve">3.22734689712524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15637040138245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20647144317627</t>
+    <t xml:space="preserve">3.15637016296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20647120475769</t>
   </si>
   <si>
     <t xml:space="preserve">3.12296962738037</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">3.31084847450256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26074743270874</t>
+    <t xml:space="preserve">3.26074767112732</t>
   </si>
   <si>
     <t xml:space="preserve">3.28997325897217</t>
@@ -2027,10 +2027,10 @@
     <t xml:space="preserve">3.61145520210266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66990637779236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49037766456604</t>
+    <t xml:space="preserve">3.66990661621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49037742614746</t>
   </si>
   <si>
     <t xml:space="preserve">3.39435052871704</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">3.39017534255981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43192672729492</t>
+    <t xml:space="preserve">3.43192648887634</t>
   </si>
   <si>
     <t xml:space="preserve">3.49455261230469</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">3.63233065605164</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76175880432129</t>
+    <t xml:space="preserve">3.76175904273987</t>
   </si>
   <si>
     <t xml:space="preserve">3.87866115570068</t>
@@ -2060,10 +2060,10 @@
     <t xml:space="preserve">3.85361051559448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82020974159241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64068102836609</t>
+    <t xml:space="preserve">3.82020998001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64068126678467</t>
   </si>
   <si>
     <t xml:space="preserve">3.69495725631714</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">3.64485573768616</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65320658683777</t>
+    <t xml:space="preserve">3.65320634841919</t>
   </si>
   <si>
     <t xml:space="preserve">3.64903116226196</t>
@@ -2081,13 +2081,13 @@
     <t xml:space="preserve">3.60310506820679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73253273963928</t>
+    <t xml:space="preserve">3.73253297805786</t>
   </si>
   <si>
     <t xml:space="preserve">3.72835826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60728025436401</t>
+    <t xml:space="preserve">3.60728001594543</t>
   </si>
   <si>
     <t xml:space="preserve">3.75340819358826</t>
@@ -2096,25 +2096,25 @@
     <t xml:space="preserve">3.84526062011719</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74505829811096</t>
+    <t xml:space="preserve">3.74505853652954</t>
   </si>
   <si>
     <t xml:space="preserve">3.66573119163513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59892988204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56552934646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960325241089</t>
+    <t xml:space="preserve">3.59893012046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56552910804749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960301399231</t>
   </si>
   <si>
     <t xml:space="preserve">3.58640503883362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50707793235779</t>
+    <t xml:space="preserve">3.50707769393921</t>
   </si>
   <si>
     <t xml:space="preserve">3.46950244903564</t>
@@ -2135,28 +2135,28 @@
     <t xml:space="preserve">3.33172416687012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24822211265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26492261886597</t>
+    <t xml:space="preserve">3.24822235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26492285728455</t>
   </si>
   <si>
     <t xml:space="preserve">3.23152184486389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18559598922729</t>
+    <t xml:space="preserve">3.18559575080872</t>
   </si>
   <si>
     <t xml:space="preserve">3.09374380111694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08121871948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06034302711487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03946757316589</t>
+    <t xml:space="preserve">3.08121848106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06034278869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03946781158447</t>
   </si>
   <si>
     <t xml:space="preserve">3.00189185142517</t>
@@ -2195,22 +2195,22 @@
     <t xml:space="preserve">4.01643943786621</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95381283760071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93711280822754</t>
+    <t xml:space="preserve">3.95381307601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93711304664612</t>
   </si>
   <si>
     <t xml:space="preserve">3.87448596954346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84943604469299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89118623733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77428340911865</t>
+    <t xml:space="preserve">3.84943580627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89118647575378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77428364753723</t>
   </si>
   <si>
     <t xml:space="preserve">3.45280194282532</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">4.20849323272705</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15421772003174</t>
+    <t xml:space="preserve">4.15421724319458</t>
   </si>
   <si>
     <t xml:space="preserve">4.02478981018066</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">4.66995096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55731821060181</t>
+    <t xml:space="preserve">4.55731773376465</t>
   </si>
   <si>
     <t xml:space="preserve">4.50533294677734</t>
@@ -2291,19 +2291,19 @@
     <t xml:space="preserve">4.79991245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80857706069946</t>
+    <t xml:space="preserve">4.8085765838623</t>
   </si>
   <si>
     <t xml:space="preserve">4.756591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7392635345459</t>
+    <t xml:space="preserve">4.73926401138306</t>
   </si>
   <si>
     <t xml:space="preserve">4.73059988021851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63529443740845</t>
+    <t xml:space="preserve">4.63529491424561</t>
   </si>
   <si>
     <t xml:space="preserve">4.46201276779175</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">4.41869211196899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4273567199707</t>
+    <t xml:space="preserve">4.42735624313354</t>
   </si>
   <si>
     <t xml:space="preserve">4.3753719329834</t>
@@ -2324,10 +2324,10 @@
     <t xml:space="preserve">4.45334815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47934103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34937906265259</t>
+    <t xml:space="preserve">4.47934055328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34937953948975</t>
   </si>
   <si>
     <t xml:space="preserve">4.33205127716064</t>
@@ -2336,16 +2336,16 @@
     <t xml:space="preserve">4.4360203742981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49666881561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3927001953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62663125991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68727874755859</t>
+    <t xml:space="preserve">4.49666929244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39269971847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62663078308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68727922439575</t>
   </si>
   <si>
     <t xml:space="preserve">4.65262269973755</t>
@@ -2354,19 +2354,19 @@
     <t xml:space="preserve">4.85189723968506</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92121028900146</t>
+    <t xml:space="preserve">4.92120981216431</t>
   </si>
   <si>
     <t xml:space="preserve">4.89521789550781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8865532875061</t>
+    <t xml:space="preserve">4.88655376434326</t>
   </si>
   <si>
     <t xml:space="preserve">4.84323358535767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86056184768677</t>
+    <t xml:space="preserve">4.86056137084961</t>
   </si>
   <si>
     <t xml:space="preserve">4.79124879837036</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">4.90388154983521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94720268249512</t>
+    <t xml:space="preserve">4.94720220565796</t>
   </si>
   <si>
     <t xml:space="preserve">4.95586633682251</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">4.97319412231445</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04250764846802</t>
+    <t xml:space="preserve">5.04250812530518</t>
   </si>
   <si>
     <t xml:space="preserve">5.08582782745361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11182069778442</t>
+    <t xml:space="preserve">5.11182022094727</t>
   </si>
   <si>
     <t xml:space="preserve">5.12048435211182</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">5.42372798919678</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58834600448608</t>
+    <t xml:space="preserve">5.58834552764893</t>
   </si>
   <si>
     <t xml:space="preserve">5.56235361099243</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">5.50170469284058</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60567378997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57968187332153</t>
+    <t xml:space="preserve">5.60567426681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57968235015869</t>
   </si>
   <si>
     <t xml:space="preserve">5.55368947982788</t>
@@ -2468,16 +2468,16 @@
     <t xml:space="preserve">5.62300205230713</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73563575744629</t>
+    <t xml:space="preserve">5.73563528060913</t>
   </si>
   <si>
     <t xml:space="preserve">5.72697162628174</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70964336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64033079147339</t>
+    <t xml:space="preserve">5.70964384078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64033031463623</t>
   </si>
   <si>
     <t xml:space="preserve">5.68365144729614</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">5.76162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74429988861084</t>
+    <t xml:space="preserve">5.744300365448</t>
   </si>
   <si>
     <t xml:space="preserve">5.80494832992554</t>
@@ -2498,16 +2498,16 @@
     <t xml:space="preserve">5.85693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54502534866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44972085952759</t>
+    <t xml:space="preserve">5.54502582550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44972038269043</t>
   </si>
   <si>
     <t xml:space="preserve">5.30243062973022</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25910997390747</t>
+    <t xml:space="preserve">5.25911045074463</t>
   </si>
   <si>
     <t xml:space="preserve">5.26777410507202</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">5.18113327026367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18979692459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09449243545532</t>
+    <t xml:space="preserve">5.18979740142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09449195861816</t>
   </si>
   <si>
     <t xml:space="preserve">5.00785112380981</t>
@@ -2528,184 +2528,190 @@
     <t xml:space="preserve">4.98185873031616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93853807449341</t>
+    <t xml:space="preserve">4.93853855133057</t>
   </si>
   <si>
     <t xml:space="preserve">5.03384351730347</t>
   </si>
   <si>
+    <t xml:space="preserve">5.02517986297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05117177963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99918699264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01651525497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99052333831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05983591079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32842302322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38907146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39773559570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28510236740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19846105575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14647674560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27643823623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36307954788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45838499069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09952831268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25548124313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3334584236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51540517807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28147411346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29880285263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18616914749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1081919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71830749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84826946258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20712566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87788963317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31975841522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44105672836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35441541671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21578979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06850004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10315608978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19846153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27142238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23494148254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18934154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12550067901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29878282546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50854539871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47206449508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68182706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6088662147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65446662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49942493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59062623977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41734409332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49030494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38086366653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3352632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10726022720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8701376914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97957897186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04341983795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9522180557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06165981292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13462066650391</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.02517938613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05117177963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99918699264526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01651525497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99052286148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05983591079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32842302322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38907146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39773607254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28510236740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19846153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14647722244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27643823623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36307954788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45838451385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09952783584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2554817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3334584236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51540470123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28147411346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29880237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18616914749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10819244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84826898574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20712566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87788963317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639925003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31975841522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44105672836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35441541671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21578931808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06849956512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10315608978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27142238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23494148254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18934154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12550067901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29878282546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50854539871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47206449508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68182706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6088662147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65446662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49942493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59062623977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41734409332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49030494689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38086366653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3352632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10726022720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8701376914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97957897186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04341983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9522180557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06165981292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13462066650391</t>
   </si>
   <si>
     <t xml:space="preserve">5.09814071655273</t>
@@ -46098,7 +46104,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1620" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46124,7 +46130,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1621" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46150,7 +46156,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1622" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46176,7 +46182,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46202,7 +46208,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1624" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46228,7 +46234,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46254,7 +46260,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46280,7 +46286,7 @@
         <v>6</v>
       </c>
       <c r="G1627" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46306,7 +46312,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1628" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46332,7 +46338,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1629" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46358,7 +46364,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1630" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46384,7 +46390,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1631" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46410,7 +46416,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1632" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46436,7 +46442,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46462,7 +46468,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46488,7 +46494,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1635" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46514,7 +46520,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46540,7 +46546,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1637" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46566,7 +46572,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46592,7 +46598,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1639" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46618,7 +46624,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1640" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46644,7 +46650,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1641" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46670,7 +46676,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1642" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46696,7 +46702,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1643" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46722,7 +46728,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46748,7 +46754,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1645" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46774,7 +46780,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1646" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46800,7 +46806,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1647" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46826,7 +46832,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1648" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46852,7 +46858,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1649" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46878,7 +46884,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46904,7 +46910,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1651" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46930,7 +46936,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1652" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46956,7 +46962,7 @@
         <v>5.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46982,7 +46988,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1654" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47008,7 +47014,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1655" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47034,7 +47040,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1656" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47060,7 +47066,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47086,7 +47092,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1658" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47112,7 +47118,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1659" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47138,7 +47144,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G1660" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47164,7 +47170,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1661" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47190,7 +47196,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1662" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47216,7 +47222,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1663" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47242,7 +47248,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1664" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47268,7 +47274,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1665" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47294,7 +47300,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47320,7 +47326,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1667" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47346,7 +47352,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1668" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47372,7 +47378,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47398,7 +47404,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G1670" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47424,7 +47430,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1671" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47450,7 +47456,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1672" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47476,7 +47482,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1673" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47502,7 +47508,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1674" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47528,7 +47534,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1675" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47554,7 +47560,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1676" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47580,7 +47586,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1677" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47606,7 +47612,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1678" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47632,7 +47638,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1679" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47658,7 +47664,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1680" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47684,7 +47690,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1681" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47710,7 +47716,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1682" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47736,7 +47742,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1683" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47762,7 +47768,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1684" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47814,7 +47820,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1686" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47840,7 +47846,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1687" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47866,7 +47872,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47892,7 +47898,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1689" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47918,7 +47924,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47944,7 +47950,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47970,7 +47976,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1692" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47996,7 +48002,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1693" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48022,7 +48028,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48048,7 +48054,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1695" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48074,7 +48080,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1696" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48100,7 +48106,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1697" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48126,7 +48132,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1698" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48152,7 +48158,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1699" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48178,7 +48184,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1700" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48204,7 +48210,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1701" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48230,7 +48236,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48256,7 +48262,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1703" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48282,7 +48288,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1704" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48308,7 +48314,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1705" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48334,7 +48340,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1706" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48360,7 +48366,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48386,7 +48392,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48412,7 +48418,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1709" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48438,7 +48444,7 @@
         <v>6</v>
       </c>
       <c r="G1710" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48464,7 +48470,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1711" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48490,7 +48496,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1712" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48516,7 +48522,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1713" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48542,7 +48548,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1714" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48568,7 +48574,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1715" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48594,7 +48600,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1716" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48620,7 +48626,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48646,7 +48652,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48672,7 +48678,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1719" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48698,7 +48704,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1720" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48724,7 +48730,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1721" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48750,7 +48756,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1722" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48776,7 +48782,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1723" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48802,7 +48808,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48828,7 +48834,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1725" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48854,7 +48860,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1726" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48880,7 +48886,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G1727" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48906,7 +48912,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1728" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48932,7 +48938,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1729" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48958,7 +48964,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48984,7 +48990,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1731" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49010,7 +49016,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1732" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49036,7 +49042,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49062,7 +49068,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1734" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49088,7 +49094,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1735" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49114,7 +49120,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1736" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49140,7 +49146,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1737" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49166,7 +49172,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1738" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49192,7 +49198,7 @@
         <v>6</v>
       </c>
       <c r="G1739" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49218,7 +49224,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1740" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49244,7 +49250,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1741" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49270,7 +49276,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1742" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49296,7 +49302,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1743" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49322,7 +49328,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G1744" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49348,7 +49354,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49374,7 +49380,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1746" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49400,7 +49406,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49426,7 +49432,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1748" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49452,7 +49458,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G1749" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49478,7 +49484,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1750" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49504,7 +49510,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1751" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49530,7 +49536,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1752" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49556,7 +49562,7 @@
         <v>6.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49582,7 +49588,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49608,7 +49614,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1755" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49634,7 +49640,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1756" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49660,7 +49666,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49686,7 +49692,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49712,7 +49718,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49738,7 +49744,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1760" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49764,7 +49770,7 @@
         <v>6.75</v>
       </c>
       <c r="G1761" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49790,7 +49796,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1762" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49816,7 +49822,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49842,7 +49848,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1764" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49868,7 +49874,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1765" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49894,7 +49900,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1766" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49920,7 +49926,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1767" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49946,7 +49952,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1768" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49972,7 +49978,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49998,7 +50004,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1770" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50024,7 +50030,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50050,7 +50056,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1772" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50076,7 +50082,7 @@
         <v>6.75</v>
       </c>
       <c r="G1773" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50102,7 +50108,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1774" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50128,7 +50134,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1775" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50154,7 +50160,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1776" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50180,7 +50186,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1777" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50206,7 +50212,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1778" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50232,7 +50238,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1779" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50258,7 +50264,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1780" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50284,7 +50290,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1781" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50310,7 +50316,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50336,7 +50342,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1783" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50362,7 +50368,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1784" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50388,7 +50394,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50414,7 +50420,7 @@
         <v>7</v>
       </c>
       <c r="G1786" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50440,7 +50446,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1787" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50466,7 +50472,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50492,7 +50498,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1789" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50518,7 +50524,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1790" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50544,7 +50550,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1791" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50570,7 +50576,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1792" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50596,7 +50602,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1793" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50622,7 +50628,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1794" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50648,7 +50654,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1795" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50674,7 +50680,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1796" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50700,7 +50706,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50726,7 +50732,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1798" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50752,7 +50758,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1799" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50778,7 +50784,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1800" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50804,7 +50810,7 @@
         <v>7.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50830,7 +50836,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1802" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50856,7 +50862,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1803" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50882,7 +50888,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1804" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50908,7 +50914,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1805" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50934,7 +50940,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1806" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50960,7 +50966,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50986,7 +50992,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1808" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51012,7 +51018,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1809" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51038,7 +51044,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1810" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51064,7 +51070,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1811" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51090,7 +51096,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1812" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51116,7 +51122,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1813" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51142,7 +51148,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1814" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51168,7 +51174,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1815" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51194,7 +51200,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1816" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51220,7 +51226,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1817" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51246,7 +51252,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1818" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51272,7 +51278,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1819" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51298,7 +51304,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51324,7 +51330,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1821" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51350,7 +51356,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1822" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51376,7 +51382,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1823" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51402,7 +51408,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1824" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51428,7 +51434,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1825" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51454,7 +51460,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1826" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51480,7 +51486,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1827" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51506,7 +51512,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1828" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51532,7 +51538,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1829" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51558,7 +51564,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1830" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51584,7 +51590,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1831" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51610,7 +51616,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1832" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51636,7 +51642,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51662,7 +51668,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51688,7 +51694,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1835" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51714,7 +51720,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1836" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51740,7 +51746,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1837" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51766,7 +51772,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1838" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51792,7 +51798,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1839" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51818,7 +51824,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1840" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51844,7 +51850,7 @@
         <v>6.75</v>
       </c>
       <c r="G1841" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51870,7 +51876,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51896,7 +51902,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G1843" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51922,7 +51928,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1844" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51948,7 +51954,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1845" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51974,7 +51980,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1846" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52000,7 +52006,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1847" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52026,7 +52032,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1848" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52052,7 +52058,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1849" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52078,7 +52084,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1850" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52104,7 +52110,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1851" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52130,7 +52136,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1852" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52156,7 +52162,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1853" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52182,7 +52188,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52208,7 +52214,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52234,7 +52240,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1856" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52260,7 +52266,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1857" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52286,7 +52292,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1858" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52312,7 +52318,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52338,7 +52344,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52364,7 +52370,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1861" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52390,7 +52396,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1862" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52416,7 +52422,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1863" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52442,7 +52448,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1864" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52468,7 +52474,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1865" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52494,7 +52500,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1866" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52520,7 +52526,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1867" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52546,7 +52552,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52572,7 +52578,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1869" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52598,7 +52604,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1870" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52624,7 +52630,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52650,7 +52656,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1872" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52676,7 +52682,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1873" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52702,7 +52708,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52728,7 +52734,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52754,7 +52760,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52780,7 +52786,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1877" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52806,7 +52812,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1878" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52832,7 +52838,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1879" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52858,7 +52864,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1880" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52884,7 +52890,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52910,7 +52916,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52936,7 +52942,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1883" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52962,7 +52968,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1884" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52988,7 +52994,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1885" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53014,7 +53020,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1886" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53040,7 +53046,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1887" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53066,7 +53072,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53092,7 +53098,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1889" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53118,7 +53124,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1890" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53144,7 +53150,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53170,7 +53176,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53196,7 +53202,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1893" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53222,7 +53228,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1894" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53248,7 +53254,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1895" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53274,7 +53280,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53300,7 +53306,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1897" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53326,7 +53332,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53352,7 +53358,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1899" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53378,7 +53384,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1900" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53404,7 +53410,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1901" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53430,7 +53436,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1902" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53456,7 +53462,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1903" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53482,7 +53488,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1904" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53508,7 +53514,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1905" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53534,7 +53540,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1906" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53560,7 +53566,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1907" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53586,7 +53592,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1908" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53612,7 +53618,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53638,7 +53644,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1910" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53664,7 +53670,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53690,7 +53696,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1912" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53716,7 +53722,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G1913" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53742,7 +53748,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1914" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53768,7 +53774,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1915" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53794,7 +53800,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1916" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53820,7 +53826,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1917" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53846,7 +53852,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1918" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53872,7 +53878,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1919" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53898,7 +53904,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53924,7 +53930,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1921" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53950,7 +53956,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1922" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53976,7 +53982,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54002,7 +54008,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1924" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54028,7 +54034,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1925" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54054,7 +54060,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1926" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54080,7 +54086,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54106,7 +54112,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54132,7 +54138,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1929" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54158,7 +54164,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1930" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54184,7 +54190,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54210,7 +54216,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1932" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54236,7 +54242,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1933" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54262,7 +54268,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54288,7 +54294,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1935" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54314,7 +54320,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1936" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54340,7 +54346,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54366,7 +54372,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1938" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54392,7 +54398,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1939" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54418,7 +54424,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1940" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54444,7 +54450,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1941" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54470,7 +54476,7 @@
         <v>7.5</v>
       </c>
       <c r="G1942" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54496,7 +54502,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54522,7 +54528,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1944" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54548,7 +54554,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1945" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54574,7 +54580,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G1946" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54600,7 +54606,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1947" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54626,7 +54632,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1948" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54652,7 +54658,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1949" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54678,7 +54684,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1950" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54704,7 +54710,7 @@
         <v>7.75</v>
       </c>
       <c r="G1951" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54730,7 +54736,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1952" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54756,7 +54762,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1953" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54782,7 +54788,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54808,7 +54814,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G1955" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54834,7 +54840,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54860,7 +54866,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1957" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54886,7 +54892,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54912,7 +54918,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54938,7 +54944,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1960" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54964,7 +54970,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54990,7 +54996,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1962" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55016,7 +55022,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1963" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55042,7 +55048,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55068,7 +55074,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1965" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55094,7 +55100,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1966" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55120,7 +55126,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1967" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55146,7 +55152,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1968" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55172,7 +55178,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1969" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55198,7 +55204,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1970" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55224,7 +55230,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55250,7 +55256,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1972" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55276,7 +55282,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1973" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55302,7 +55308,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1974" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55328,7 +55334,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55354,7 +55360,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1976" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55380,7 +55386,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1977" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55406,7 +55412,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1978" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55432,7 +55438,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1979" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55458,7 +55464,7 @@
         <v>7.75</v>
       </c>
       <c r="G1980" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55484,7 +55490,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1981" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55510,7 +55516,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55536,7 +55542,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55562,7 +55568,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55588,7 +55594,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1985" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55614,7 +55620,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55640,7 +55646,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1987" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55666,7 +55672,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1988" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55692,7 +55698,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1989" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55718,7 +55724,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55744,7 +55750,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1991" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55770,7 +55776,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1992" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55796,7 +55802,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1993" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55822,7 +55828,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55848,7 +55854,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55874,7 +55880,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G1996" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55900,7 +55906,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1997" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55926,7 +55932,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1998" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55952,7 +55958,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1999" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55978,7 +55984,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2000" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56004,7 +56010,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G2001" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56030,7 +56036,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2002" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56056,7 +56062,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56082,7 +56088,7 @@
         <v>8</v>
       </c>
       <c r="G2004" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56108,7 +56114,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2005" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56134,7 +56140,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2006" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56160,7 +56166,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56186,7 +56192,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2008" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56212,7 +56218,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56238,7 +56244,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2010" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56264,7 +56270,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56290,7 +56296,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56316,7 +56322,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2013" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56342,7 +56348,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G2014" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56368,7 +56374,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2015" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56394,7 +56400,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56420,7 +56426,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2017" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56446,7 +56452,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2018" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56472,7 +56478,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G2019" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56498,7 +56504,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2020" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56524,7 +56530,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G2021" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56550,7 +56556,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2022" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56576,7 +56582,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2023" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56602,7 +56608,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2024" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56628,7 +56634,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2025" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56654,7 +56660,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2026" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56680,7 +56686,7 @@
         <v>8</v>
       </c>
       <c r="G2027" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56706,7 +56712,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2028" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56732,7 +56738,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2029" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56758,7 +56764,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2030" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56784,7 +56790,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G2031" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56810,7 +56816,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2032" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56836,7 +56842,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2033" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56862,7 +56868,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2034" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56888,7 +56894,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2035" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56914,7 +56920,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56940,7 +56946,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2037" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56966,7 +56972,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2038" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56992,7 +56998,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G2039" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57018,7 +57024,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2040" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57044,7 +57050,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2041" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57070,7 +57076,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2042" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57096,7 +57102,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2043" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57122,7 +57128,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2044" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57148,7 +57154,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2045" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57174,7 +57180,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G2046" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57200,7 +57206,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2047" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57226,7 +57232,7 @@
         <v>8.25</v>
       </c>
       <c r="G2048" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57252,7 +57258,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2049" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57278,7 +57284,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2050" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57304,7 +57310,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2051" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57330,7 +57336,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2052" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57356,7 +57362,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2053" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57382,7 +57388,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57408,7 +57414,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2055" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57434,7 +57440,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2056" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57460,7 +57466,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2057" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57486,7 +57492,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2058" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57512,7 +57518,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57538,7 +57544,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2060" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57564,7 +57570,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57590,7 +57596,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2062" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57616,7 +57622,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2063" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57642,7 +57648,7 @@
         <v>8.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57668,7 +57674,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2065" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57694,7 +57700,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2066" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57720,7 +57726,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2067" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57746,7 +57752,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2068" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57772,7 +57778,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57798,7 +57804,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2070" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57824,7 +57830,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2071" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57850,7 +57856,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57876,7 +57882,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2073" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57902,7 +57908,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2074" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57928,7 +57934,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2075" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57954,7 +57960,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2076" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57980,7 +57986,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2077" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58006,7 +58012,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2078" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58032,7 +58038,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G2079" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58058,7 +58064,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2080" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58084,7 +58090,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G2081" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58110,7 +58116,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2082" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58136,7 +58142,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58162,7 +58168,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58188,7 +58194,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58214,7 +58220,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G2086" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58240,7 +58246,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2087" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58266,7 +58272,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2088" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58292,7 +58298,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2089" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58318,7 +58324,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2090" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58344,7 +58350,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2091" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58370,7 +58376,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2092" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58396,7 +58402,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2093" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58422,7 +58428,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2094" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58448,7 +58454,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2095" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58474,7 +58480,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2096" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58500,7 +58506,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2097" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58526,7 +58532,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2098" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58552,7 +58558,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G2099" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58578,7 +58584,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2100" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58604,7 +58610,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58630,7 +58636,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58656,7 +58662,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2103" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58682,7 +58688,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2104" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58708,7 +58714,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58734,7 +58740,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58760,7 +58766,7 @@
         <v>9.25</v>
       </c>
       <c r="G2107" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58786,7 +58792,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58812,7 +58818,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2109" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58838,7 +58844,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2110" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58864,7 +58870,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2111" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58890,7 +58896,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2112" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58916,7 +58922,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2113" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58942,7 +58948,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2114" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58968,7 +58974,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2115" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58994,7 +59000,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2116" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59020,7 +59026,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G2117" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59046,7 +59052,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2118" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59072,7 +59078,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G2119" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59098,7 +59104,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G2120" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59124,7 +59130,7 @@
         <v>10</v>
       </c>
       <c r="G2121" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59150,7 +59156,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2122" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59176,7 +59182,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G2123" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59202,7 +59208,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G2124" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59228,7 +59234,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59254,7 +59260,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G2126" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59280,7 +59286,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G2127" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59306,7 +59312,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2128" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59332,7 +59338,7 @@
         <v>9.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59358,7 +59364,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2130" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59384,7 +59390,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G2131" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59410,7 +59416,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G2132" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59436,7 +59442,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59462,7 +59468,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G2134" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59488,7 +59494,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59514,7 +59520,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2136" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59540,7 +59546,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2137" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59566,7 +59572,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2138" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59592,7 +59598,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2139" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59618,7 +59624,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2140" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59644,7 +59650,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2141" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59670,7 +59676,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G2142" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59696,7 +59702,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2143" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59722,7 +59728,7 @@
         <v>9.5</v>
       </c>
       <c r="G2144" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59748,7 +59754,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>

--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="1214">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,58 +38,58 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96161127090454</t>
+    <t xml:space="preserve">4.96161222457886</t>
   </si>
   <si>
     <t xml:space="preserve">CE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00243282318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93192338943481</t>
+    <t xml:space="preserve">5.00243234634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93192291259766</t>
   </si>
   <si>
     <t xml:space="preserve">4.75750637054443</t>
   </si>
   <si>
-    <t xml:space="preserve">4.712975025177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76492834091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77235078811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82430410385132</t>
+    <t xml:space="preserve">4.71297359466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76492786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7723503112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82430458068848</t>
   </si>
   <si>
     <t xml:space="preserve">4.72039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67957496643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47547006607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51257991790771</t>
+    <t xml:space="preserve">4.67957544326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4754695892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51258039474487</t>
   </si>
   <si>
     <t xml:space="preserve">4.13405752182007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32703065872192</t>
+    <t xml:space="preserve">4.32703018188477</t>
   </si>
   <si>
     <t xml:space="preserve">4.45320415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59051179885864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56082248687744</t>
+    <t xml:space="preserve">4.59051132202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56082344055176</t>
   </si>
   <si>
     <t xml:space="preserve">4.4346489906311</t>
@@ -101,40 +101,40 @@
     <t xml:space="preserve">4.55340147018433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36042928695679</t>
+    <t xml:space="preserve">4.36042976379395</t>
   </si>
   <si>
     <t xml:space="preserve">4.20085573196411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23796606063843</t>
+    <t xml:space="preserve">4.23796558380127</t>
   </si>
   <si>
     <t xml:space="preserve">4.27507591247559</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95592975616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78893446922302</t>
+    <t xml:space="preserve">3.95592951774597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7889347076416</t>
   </si>
   <si>
     <t xml:space="preserve">4.14519166946411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98561835289001</t>
+    <t xml:space="preserve">3.98561763763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.25281000137329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3158974647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38269519805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49031448364258</t>
+    <t xml:space="preserve">4.31589698791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38269567489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49031400680542</t>
   </si>
   <si>
     <t xml:space="preserve">4.230544090271</t>
@@ -143,19 +143,19 @@
     <t xml:space="preserve">4.16745662689209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3121862411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28620958328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11921405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19343423843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28992033004761</t>
+    <t xml:space="preserve">4.31218576431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28620910644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11921358108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.193434715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28991985321045</t>
   </si>
   <si>
     <t xml:space="preserve">4.37156200408936</t>
@@ -167,40 +167,40 @@
     <t xml:space="preserve">4.63504266738892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62391042709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57195615768433</t>
+    <t xml:space="preserve">4.62390947341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57195568084717</t>
   </si>
   <si>
     <t xml:space="preserve">4.66473150253296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75008487701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81317186355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70184087753296</t>
+    <t xml:space="preserve">4.750084400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81317138671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70184183120728</t>
   </si>
   <si>
     <t xml:space="preserve">4.72781848907471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58308887481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77977228164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71668577194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60164403915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52742433547974</t>
+    <t xml:space="preserve">4.58308935165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77977275848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7166862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60164451599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52742385864258</t>
   </si>
   <si>
     <t xml:space="preserve">4.47175931930542</t>
@@ -209,22 +209,22 @@
     <t xml:space="preserve">4.46433734893799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34187364578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31960821151733</t>
+    <t xml:space="preserve">4.34187459945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31960868835449</t>
   </si>
   <si>
     <t xml:space="preserve">4.21941089630127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15261316299438</t>
+    <t xml:space="preserve">4.15261268615723</t>
   </si>
   <si>
     <t xml:space="preserve">4.10065889358521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34558486938477</t>
+    <t xml:space="preserve">4.34558534622192</t>
   </si>
   <si>
     <t xml:space="preserve">4.22683334350586</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve">4.50886917114258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59422206878662</t>
+    <t xml:space="preserve">4.59422254562378</t>
   </si>
   <si>
     <t xml:space="preserve">4.61648845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65359830856323</t>
+    <t xml:space="preserve">4.65359783172607</t>
   </si>
   <si>
     <t xml:space="preserve">4.65730953216553</t>
@@ -251,37 +251,37 @@
     <t xml:space="preserve">4.7537956237793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80946111679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63875389099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50144720077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51629114151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48660373687744</t>
+    <t xml:space="preserve">4.80946016311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63875436782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5014476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51629161834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48660326004028</t>
   </si>
   <si>
     <t xml:space="preserve">4.44578218460083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34929656982422</t>
+    <t xml:space="preserve">4.34929609298706</t>
   </si>
   <si>
     <t xml:space="preserve">4.6581335067749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57827949523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63912057876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69996213912964</t>
+    <t xml:space="preserve">4.57827997207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63911962509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69996118545532</t>
   </si>
   <si>
     <t xml:space="preserve">4.67714643478394</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">4.83685398101807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77221059799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82924842834473</t>
+    <t xml:space="preserve">4.77221012115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82924795150757</t>
   </si>
   <si>
     <t xml:space="preserve">4.73038196563721</t>
@@ -320,19 +320,19 @@
     <t xml:space="preserve">4.89389228820801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79502534866333</t>
+    <t xml:space="preserve">4.79502487182617</t>
   </si>
   <si>
     <t xml:space="preserve">4.80643367767334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69615888595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46040010452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32731151580811</t>
+    <t xml:space="preserve">4.69615840911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46039962768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32731103897095</t>
   </si>
   <si>
     <t xml:space="preserve">4.39955949783325</t>
@@ -341,76 +341,76 @@
     <t xml:space="preserve">4.27407503128052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57067441940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79122304916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84065628051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88628721237183</t>
+    <t xml:space="preserve">4.57067489624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79122257232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84065580368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88628673553467</t>
   </si>
   <si>
     <t xml:space="preserve">5.00416612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13338041305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14478874206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12197351455688</t>
+    <t xml:space="preserve">4.13337993621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14478826522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12197303771973</t>
   </si>
   <si>
     <t xml:space="preserve">4.24365472793579</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0345139503479</t>
+    <t xml:space="preserve">4.03451347351074</t>
   </si>
   <si>
     <t xml:space="preserve">3.89381909370422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78734755516052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87480640411377</t>
+    <t xml:space="preserve">3.78734803199768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480688095093</t>
   </si>
   <si>
     <t xml:space="preserve">4.04211950302124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14859104156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22083950042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18281364440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31590366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38054656982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36533641815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46420288085938</t>
+    <t xml:space="preserve">4.14859056472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22083902359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18281316757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3159031867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38054704666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3653359413147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46420240402222</t>
   </si>
   <si>
     <t xml:space="preserve">4.43378257751465</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35773134231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40716409683228</t>
+    <t xml:space="preserve">4.35773181915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40716457366943</t>
   </si>
   <si>
     <t xml:space="preserve">4.37294149398804</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">4.19422149658203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31210136413574</t>
+    <t xml:space="preserve">4.31210088729858</t>
   </si>
   <si>
     <t xml:space="preserve">4.19802379608154</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07253932952881</t>
+    <t xml:space="preserve">4.07254028320312</t>
   </si>
   <si>
     <t xml:space="preserve">4.08774995803833</t>
@@ -434,40 +434,40 @@
     <t xml:space="preserve">4.15999841690063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09155321121216</t>
+    <t xml:space="preserve">4.09155225753784</t>
   </si>
   <si>
     <t xml:space="preserve">4.04972457885742</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05352640151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92423987388611</t>
+    <t xml:space="preserve">4.05352687835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92423963546753</t>
   </si>
   <si>
     <t xml:space="preserve">3.85199117660522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84438610076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72650647163391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72498536109924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86720108985901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07634258270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92804217338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396555900574</t>
+    <t xml:space="preserve">3.84438562393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72650694847107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72498559951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86720132827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07634210586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92804312705994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396579742432</t>
   </si>
   <si>
     <t xml:space="preserve">3.84058356285095</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">4.11056518554688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09535455703735</t>
+    <t xml:space="preserve">4.09535503387451</t>
   </si>
   <si>
     <t xml:space="preserve">4.17520809173584</t>
@@ -488,112 +488,112 @@
     <t xml:space="preserve">4.20562934875488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99268555641174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99648833274841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95466065406799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93945002555847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85959601402283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85579371452332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81016254425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0193042755127</t>
+    <t xml:space="preserve">3.99268507957458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99648857116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95466041564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93944931030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85959577560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85579419136047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81016325950623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01930332183838</t>
   </si>
   <si>
     <t xml:space="preserve">3.8633987903595</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74171710014343</t>
+    <t xml:space="preserve">3.74171733856201</t>
   </si>
   <si>
     <t xml:space="preserve">3.7097749710083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72802782058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65806031227112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67479157447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70673394203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77365875244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88241124153137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84818840026855</t>
+    <t xml:space="preserve">3.72802758216858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6580605506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67479181289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7067334651947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77365851402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88241195678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84818863868713</t>
   </si>
   <si>
     <t xml:space="preserve">3.87860894203186</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88621425628662</t>
+    <t xml:space="preserve">3.88621401786804</t>
   </si>
   <si>
     <t xml:space="preserve">3.83678126335144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95085787773132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90522718429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03071165084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06493473052979</t>
+    <t xml:space="preserve">3.95085740089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90522694587708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03071117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06493425369263</t>
   </si>
   <si>
     <t xml:space="preserve">3.97367286682129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02310705184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01169872283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93564748764038</t>
+    <t xml:space="preserve">4.02310657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0116982460022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9356472492218</t>
   </si>
   <si>
     <t xml:space="preserve">3.90142440795898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81776785850525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7690954208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78886866569519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8215708732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80255746841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89762234687805</t>
+    <t xml:space="preserve">3.81776809692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76909565925598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78886842727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82157015800476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80255770683289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89762187004089</t>
   </si>
   <si>
     <t xml:space="preserve">4.01550149917603</t>
@@ -605,16 +605,16 @@
     <t xml:space="preserve">4.00789594650269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96226596832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91663503646851</t>
+    <t xml:space="preserve">3.96226572990417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91663455963135</t>
   </si>
   <si>
     <t xml:space="preserve">3.93184471130371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94325256347656</t>
+    <t xml:space="preserve">3.94325232505798</t>
   </si>
   <si>
     <t xml:space="preserve">4.10676288604736</t>
@@ -623,10 +623,10 @@
     <t xml:space="preserve">4.353928565979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42998075485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29308748245239</t>
+    <t xml:space="preserve">4.42998027801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29308795928955</t>
   </si>
   <si>
     <t xml:space="preserve">4.3881516456604</t>
@@ -638,37 +638,37 @@
     <t xml:space="preserve">4.33871841430664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40336179733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4794135093689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34252119064331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46800518035889</t>
+    <t xml:space="preserve">4.40336227416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47941303253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34252071380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46800565719604</t>
   </si>
   <si>
     <t xml:space="preserve">4.48701858520508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31970596313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30829811096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48321580886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49842643737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50603103637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45279550552368</t>
+    <t xml:space="preserve">4.31970548629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30829763412476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48321533203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49842596054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50603151321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45279502868652</t>
   </si>
   <si>
     <t xml:space="preserve">4.63531827926636</t>
@@ -677,70 +677,70 @@
     <t xml:space="preserve">4.65052795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74559164047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72658014297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6923565864563</t>
+    <t xml:space="preserve">4.74559211730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7265796661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69235706329346</t>
   </si>
   <si>
     <t xml:space="preserve">4.75319719314575</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55926752090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56306934356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64292287826538</t>
+    <t xml:space="preserve">4.55926656723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56307029724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64292335510254</t>
   </si>
   <si>
     <t xml:space="preserve">4.53645181655884</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5516619682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61630535125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68475151062012</t>
+    <t xml:space="preserve">4.55166149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61630582809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68475103378296</t>
   </si>
   <si>
     <t xml:space="preserve">4.58208227157593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59729337692261</t>
+    <t xml:space="preserve">4.59729242324829</t>
   </si>
   <si>
     <t xml:space="preserve">4.47180843353271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57447671890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5858850479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58968687057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62010765075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59348964691162</t>
+    <t xml:space="preserve">4.5744776725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58588457107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58968734741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62010812759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59349012374878</t>
   </si>
   <si>
     <t xml:space="preserve">4.65433073043823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7760124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82164335250854</t>
+    <t xml:space="preserve">4.77601289749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8216438293457</t>
   </si>
   <si>
     <t xml:space="preserve">4.89769506454468</t>
@@ -752,10 +752,10 @@
     <t xml:space="preserve">4.84445858001709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94332504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88248443603516</t>
+    <t xml:space="preserve">4.94332551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.882483959198</t>
   </si>
   <si>
     <t xml:space="preserve">4.83305168151855</t>
@@ -764,25 +764,25 @@
     <t xml:space="preserve">4.87487888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76080226898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82544612884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81023550033569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73418426513672</t>
+    <t xml:space="preserve">4.79882860183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76080274581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82544565200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81023502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73418474197388</t>
   </si>
   <si>
     <t xml:space="preserve">5.00036334991455</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86727428436279</t>
+    <t xml:space="preserve">4.86727380752563</t>
   </si>
   <si>
     <t xml:space="preserve">4.95853519439697</t>
@@ -800,22 +800,22 @@
     <t xml:space="preserve">4.91290473937988</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16007089614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1911792755127</t>
+    <t xml:space="preserve">5.16007041931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19117975234985</t>
   </si>
   <si>
     <t xml:space="preserve">5.30394649505615</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21062183380127</t>
+    <t xml:space="preserve">5.21062231063843</t>
   </si>
   <si>
     <t xml:space="preserve">5.3428316116333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37005090713501</t>
+    <t xml:space="preserve">5.37005186080933</t>
   </si>
   <si>
     <t xml:space="preserve">5.35838556289673</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">5.38949394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28450393676758</t>
+    <t xml:space="preserve">5.28450441360474</t>
   </si>
   <si>
     <t xml:space="preserve">5.21451044082642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17562484741211</t>
+    <t xml:space="preserve">5.17562532424927</t>
   </si>
   <si>
     <t xml:space="preserve">5.2261757850647</t>
@@ -842,19 +842,19 @@
     <t xml:space="preserve">5.31950092315674</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31561231613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44393348693848</t>
+    <t xml:space="preserve">5.31561183929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44393396377563</t>
   </si>
   <si>
     <t xml:space="preserve">5.45559883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38560628890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3117241859436</t>
+    <t xml:space="preserve">5.38560581207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31172370910645</t>
   </si>
   <si>
     <t xml:space="preserve">5.3078351020813</t>
@@ -866,10 +866,10 @@
     <t xml:space="preserve">5.47892999649048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37393951416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40504741668701</t>
+    <t xml:space="preserve">5.37393999099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40504789352417</t>
   </si>
   <si>
     <t xml:space="preserve">5.40893650054932</t>
@@ -878,19 +878,19 @@
     <t xml:space="preserve">5.42837905883789</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49448490142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49837255477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46337604522705</t>
+    <t xml:space="preserve">5.49448442459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49837303161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46337652206421</t>
   </si>
   <si>
     <t xml:space="preserve">5.64613676071167</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80945348739624</t>
+    <t xml:space="preserve">5.8094539642334</t>
   </si>
   <si>
     <t xml:space="preserve">5.59169721603394</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5800313949585</t>
+    <t xml:space="preserve">5.58003187179565</t>
   </si>
   <si>
     <t xml:space="preserve">5.62280559539795</t>
@@ -914,16 +914,16 @@
     <t xml:space="preserve">5.54503488540649</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57614326477051</t>
+    <t xml:space="preserve">5.57614374160767</t>
   </si>
   <si>
     <t xml:space="preserve">5.48670721054077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42449045181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53336906433105</t>
+    <t xml:space="preserve">5.4244909286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53336954116821</t>
   </si>
   <si>
     <t xml:space="preserve">5.63447093963623</t>
@@ -932,16 +932,16 @@
     <t xml:space="preserve">5.59947395324707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66946744918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56836557388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66169118881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75501537322998</t>
+    <t xml:space="preserve">5.66946792602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56836605072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6616907119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75501489639282</t>
   </si>
   <si>
     <t xml:space="preserve">5.92611026763916</t>
@@ -959,19 +959,19 @@
     <t xml:space="preserve">5.82500886917114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77834606170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69279909133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74723768234253</t>
+    <t xml:space="preserve">5.7783465385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69279956817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74723815917969</t>
   </si>
   <si>
     <t xml:space="preserve">5.65002536773682</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64224815368652</t>
+    <t xml:space="preserve">5.64224863052368</t>
   </si>
   <si>
     <t xml:space="preserve">5.52948141098022</t>
@@ -980,16 +980,16 @@
     <t xml:space="preserve">5.52170372009277</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53725814819336</t>
+    <t xml:space="preserve">5.5372576713562</t>
   </si>
   <si>
     <t xml:space="preserve">5.5722541809082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59558582305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69668769836426</t>
+    <t xml:space="preserve">5.59558629989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6966872215271</t>
   </si>
   <si>
     <t xml:space="preserve">5.90277910232544</t>
@@ -1004,13 +1004,13 @@
     <t xml:space="preserve">5.86389398574829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80167722702026</t>
+    <t xml:space="preserve">5.80167770385742</t>
   </si>
   <si>
     <t xml:space="preserve">5.84833955764771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84445095062256</t>
+    <t xml:space="preserve">5.84445142745972</t>
   </si>
   <si>
     <t xml:space="preserve">5.89500188827515</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">5.91444492340088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94944143295288</t>
+    <t xml:space="preserve">5.94944095611572</t>
   </si>
   <si>
     <t xml:space="preserve">5.96499586105347</t>
@@ -1037,13 +1037,13 @@
     <t xml:space="preserve">5.86778259277344</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88333606719971</t>
+    <t xml:space="preserve">5.88333654403687</t>
   </si>
   <si>
     <t xml:space="preserve">5.83667421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78223466873169</t>
+    <t xml:space="preserve">5.78223514556885</t>
   </si>
   <si>
     <t xml:space="preserve">5.76279258728027</t>
@@ -1058,19 +1058,19 @@
     <t xml:space="preserve">5.87167167663574</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85222816467285</t>
+    <t xml:space="preserve">5.85222864151001</t>
   </si>
   <si>
     <t xml:space="preserve">5.73557233810425</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91833353042603</t>
+    <t xml:space="preserve">5.91833400726318</t>
   </si>
   <si>
     <t xml:space="preserve">5.60336303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50614976882935</t>
+    <t xml:space="preserve">5.50614929199219</t>
   </si>
   <si>
     <t xml:space="preserve">5.45948791503906</t>
@@ -1079,13 +1079,13 @@
     <t xml:space="preserve">5.3778281211853</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44004487991333</t>
+    <t xml:space="preserve">5.44004535675049</t>
   </si>
   <si>
     <t xml:space="preserve">5.5022611618042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56058931350708</t>
+    <t xml:space="preserve">5.56058883666992</t>
   </si>
   <si>
     <t xml:space="preserve">5.58392000198364</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">5.76668071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72001934051514</t>
+    <t xml:space="preserve">5.72001838684082</t>
   </si>
   <si>
     <t xml:space="preserve">5.77445793151855</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">5.5489239692688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52559232711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55670022964478</t>
+    <t xml:space="preserve">5.52559185028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55670070648193</t>
   </si>
   <si>
     <t xml:space="preserve">5.58780908584595</t>
@@ -1124,19 +1124,19 @@
     <t xml:space="preserve">5.43615627288818</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5139274597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93388795852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0505428314209</t>
+    <t xml:space="preserve">5.51392698287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93388748168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05054330825806</t>
   </si>
   <si>
     <t xml:space="preserve">6.05832004547119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01165771484375</t>
+    <t xml:space="preserve">6.01165819168091</t>
   </si>
   <si>
     <t xml:space="preserve">6.0038800239563</t>
@@ -1145,19 +1145,19 @@
     <t xml:space="preserve">6.10498237609863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08942794799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04276609420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97277307510376</t>
+    <t xml:space="preserve">6.08942842483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04276561737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9727725982666</t>
   </si>
   <si>
     <t xml:space="preserve">5.94166421890259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73168468475342</t>
+    <t xml:space="preserve">5.73168420791626</t>
   </si>
   <si>
     <t xml:space="preserve">5.67724514007568</t>
@@ -1166,13 +1166,13 @@
     <t xml:space="preserve">5.88722515106201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68502235412598</t>
+    <t xml:space="preserve">5.68502187728882</t>
   </si>
   <si>
     <t xml:space="preserve">5.73946142196655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79390048980713</t>
+    <t xml:space="preserve">5.79390001296997</t>
   </si>
   <si>
     <t xml:space="preserve">5.77056932449341</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">5.78612375259399</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70057582855225</t>
+    <t xml:space="preserve">5.70057535171509</t>
   </si>
   <si>
     <t xml:space="preserve">5.6539134979248</t>
@@ -1199,13 +1199,13 @@
     <t xml:space="preserve">5.50175619125366</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46177291870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31783151626587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34981775283813</t>
+    <t xml:space="preserve">5.46177244186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31783103942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34981822967529</t>
   </si>
   <si>
     <t xml:space="preserve">5.36581182479858</t>
@@ -1214,22 +1214,22 @@
     <t xml:space="preserve">5.32582759857178</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30983400344849</t>
+    <t xml:space="preserve">5.30983448028564</t>
   </si>
   <si>
     <t xml:space="preserve">5.03794527053833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93398809432983</t>
+    <t xml:space="preserve">4.93398761749268</t>
   </si>
   <si>
     <t xml:space="preserve">4.65410232543945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91799402236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83002996444702</t>
+    <t xml:space="preserve">4.91799449920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83003044128418</t>
   </si>
   <si>
     <t xml:space="preserve">4.99796199798584</t>
@@ -1241,19 +1241,19 @@
     <t xml:space="preserve">4.79804372787476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74206590652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85402011871338</t>
+    <t xml:space="preserve">4.7420654296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85402059555054</t>
   </si>
   <si>
     <t xml:space="preserve">4.92599058151245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90200138092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00595903396606</t>
+    <t xml:space="preserve">4.90200090408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00595855712891</t>
   </si>
   <si>
     <t xml:space="preserve">5.09392261505127</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">5.13390588760376</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18188667297363</t>
+    <t xml:space="preserve">5.18188619613647</t>
   </si>
   <si>
     <t xml:space="preserve">5.05393886566162</t>
@@ -1274,37 +1274,37 @@
     <t xml:space="preserve">4.95797777175903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0219521522522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06993198394775</t>
+    <t xml:space="preserve">5.02195167541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06993246078491</t>
   </si>
   <si>
     <t xml:space="preserve">5.08592557907104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17388916015625</t>
+    <t xml:space="preserve">5.17389011383057</t>
   </si>
   <si>
     <t xml:space="preserve">5.18988275527954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10991621017456</t>
+    <t xml:space="preserve">5.1099157333374</t>
   </si>
   <si>
     <t xml:space="preserve">5.11791276931763</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10191917419434</t>
+    <t xml:space="preserve">5.10191965103149</t>
   </si>
   <si>
     <t xml:space="preserve">5.04594230651855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90999746322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89400339126587</t>
+    <t xml:space="preserve">4.90999698638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89400386810303</t>
   </si>
   <si>
     <t xml:space="preserve">5.07792854309082</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">4.94198417663574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98996448516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98196792602539</t>
+    <t xml:space="preserve">4.98996496200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98196744918823</t>
   </si>
   <si>
     <t xml:space="preserve">4.61411809921265</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">4.4941668510437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39020872116089</t>
+    <t xml:space="preserve">4.39020919799805</t>
   </si>
   <si>
     <t xml:space="preserve">4.42219686508179</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">4.25426435470581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27825498580933</t>
+    <t xml:space="preserve">4.27825546264648</t>
   </si>
   <si>
     <t xml:space="preserve">4.34222888946533</t>
@@ -1364,13 +1364,13 @@
     <t xml:space="preserve">4.67009496688843</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64610433578491</t>
+    <t xml:space="preserve">4.64610481262207</t>
   </si>
   <si>
     <t xml:space="preserve">4.66209840774536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67809200286865</t>
+    <t xml:space="preserve">4.67809247970581</t>
   </si>
   <si>
     <t xml:space="preserve">4.70208263397217</t>
@@ -1382,40 +1382,40 @@
     <t xml:space="preserve">4.75006294250488</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8220329284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81403684616089</t>
+    <t xml:space="preserve">4.82203340530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81403636932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.71007871627808</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52615404129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48617029190063</t>
+    <t xml:space="preserve">4.52615356445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48617076873779</t>
   </si>
   <si>
     <t xml:space="preserve">4.55814123153687</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31823921203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24626779556274</t>
+    <t xml:space="preserve">4.31823873519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2462682723999</t>
   </si>
   <si>
     <t xml:space="preserve">4.18229389190674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28625202178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35822248458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20628452301025</t>
+    <t xml:space="preserve">4.28625154495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35822200775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20628499984741</t>
   </si>
   <si>
     <t xml:space="preserve">4.11032390594482</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">4.07034015655518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95438718795776</t>
+    <t xml:space="preserve">3.95438694953918</t>
   </si>
   <si>
     <t xml:space="preserve">3.81844329833984</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">4.21428155899048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15830373764038</t>
+    <t xml:space="preserve">4.15830421447754</t>
   </si>
   <si>
     <t xml:space="preserve">4.23027467727661</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">4.01436281204224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05434703826904</t>
+    <t xml:space="preserve">4.05434608459473</t>
   </si>
   <si>
     <t xml:space="preserve">3.99836921691895</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">4.02235984802246</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16630077362061</t>
+    <t xml:space="preserve">4.16630125045776</t>
   </si>
   <si>
     <t xml:space="preserve">4.19828748703003</t>
@@ -1484,85 +1484,85 @@
     <t xml:space="preserve">4.11832046508789</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27025890350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98237538337708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96238374710083</t>
+    <t xml:space="preserve">4.27025842666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98237586021423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96238398551941</t>
   </si>
   <si>
     <t xml:space="preserve">3.95038890838623</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91440391540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03835296630859</t>
+    <t xml:space="preserve">3.91440367698669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03835344314575</t>
   </si>
   <si>
     <t xml:space="preserve">4.22227811813354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10232734680176</t>
+    <t xml:space="preserve">4.1023268699646</t>
   </si>
   <si>
     <t xml:space="preserve">4.08633327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07833671569824</t>
+    <t xml:space="preserve">4.07833623886108</t>
   </si>
   <si>
     <t xml:space="preserve">4.00636625289917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03035640716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89441180229187</t>
+    <t xml:space="preserve">4.03035593032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89441204071045</t>
   </si>
   <si>
     <t xml:space="preserve">3.97837734222412</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91840195655823</t>
+    <t xml:space="preserve">3.91840219497681</t>
   </si>
   <si>
     <t xml:space="preserve">3.87042164802551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98637437820435</t>
+    <t xml:space="preserve">3.98637461662292</t>
   </si>
   <si>
     <t xml:space="preserve">4.1902904510498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29424810409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93839359283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97038102149963</t>
+    <t xml:space="preserve">4.29424858093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93839406967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97038125991821</t>
   </si>
   <si>
     <t xml:space="preserve">4.17429733276367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95838522911072</t>
+    <t xml:space="preserve">3.95838499069214</t>
   </si>
   <si>
     <t xml:space="preserve">3.910404920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84643149375916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86242461204529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81444454193115</t>
+    <t xml:space="preserve">3.84643125534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86242437362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81444430351257</t>
   </si>
   <si>
     <t xml:space="preserve">3.77845883369446</t>
@@ -3651,6 +3651,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.46000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56999969482422</t>
   </si>
 </sst>
 </file>
@@ -59736,7 +59739,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.649525463</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>79190</v>
@@ -59757,6 +59760,32 @@
         <v>1212</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6494560185</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>155959</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>9.60000038146973</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>9.38000011444092</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>9.46000003814697</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>9.56999969482422</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96161222457886</t>
+    <t xml:space="preserve">4.96161127090454</t>
   </si>
   <si>
     <t xml:space="preserve">CE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00243282318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93192338943481</t>
+    <t xml:space="preserve">5.00243186950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93192386627197</t>
   </si>
   <si>
     <t xml:space="preserve">4.75750637054443</t>
@@ -56,22 +56,22 @@
     <t xml:space="preserve">4.71297407150269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76492834091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7723503112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82430505752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72039604187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67957496643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47547006607056</t>
+    <t xml:space="preserve">4.76492881774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77235078811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82430410385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72039651870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67957544326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47547054290771</t>
   </si>
   <si>
     <t xml:space="preserve">4.51257991790771</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">4.13405799865723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32702970504761</t>
+    <t xml:space="preserve">4.32703018188477</t>
   </si>
   <si>
     <t xml:space="preserve">4.45320415496826</t>
@@ -92,40 +92,40 @@
     <t xml:space="preserve">4.5608229637146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43464946746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5571117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55340099334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36042928695679</t>
+    <t xml:space="preserve">4.43464851379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55711221694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55340147018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36042976379395</t>
   </si>
   <si>
     <t xml:space="preserve">4.20085573196411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23796606063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27507638931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95592975616455</t>
+    <t xml:space="preserve">4.23796653747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27507591247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95592999458313</t>
   </si>
   <si>
     <t xml:space="preserve">3.78893494606018</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14519071578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98561811447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25281047821045</t>
+    <t xml:space="preserve">4.14519119262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98561763763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25281000137329</t>
   </si>
   <si>
     <t xml:space="preserve">4.31589698791504</t>
@@ -134,10 +134,10 @@
     <t xml:space="preserve">4.38269472122192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49031496047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23054361343384</t>
+    <t xml:space="preserve">4.49031448364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.230544090271</t>
   </si>
   <si>
     <t xml:space="preserve">4.16745662689209</t>
@@ -149,28 +149,28 @@
     <t xml:space="preserve">4.28620910644531</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11921453475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19343423843384</t>
+    <t xml:space="preserve">4.11921358108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19343376159668</t>
   </si>
   <si>
     <t xml:space="preserve">4.28991985321045</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37156248092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56453371047974</t>
+    <t xml:space="preserve">4.37156200408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56453466415405</t>
   </si>
   <si>
     <t xml:space="preserve">4.63504314422607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62390995025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57195615768433</t>
+    <t xml:space="preserve">4.62391042709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57195663452148</t>
   </si>
   <si>
     <t xml:space="preserve">4.6647310256958</t>
@@ -179,16 +179,16 @@
     <t xml:space="preserve">4.750084400177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81317138671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70184183120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72781848907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58308887481689</t>
+    <t xml:space="preserve">4.81317186355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70184135437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72781801223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58308982849121</t>
   </si>
   <si>
     <t xml:space="preserve">4.77977275848389</t>
@@ -197,91 +197,91 @@
     <t xml:space="preserve">4.71668481826782</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60164356231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52742481231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47175979614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46433687210083</t>
+    <t xml:space="preserve">4.60164403915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52742433547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47175884246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46433734893799</t>
   </si>
   <si>
     <t xml:space="preserve">4.34187364578247</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31960821151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21941137313843</t>
+    <t xml:space="preserve">4.31960868835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21941041946411</t>
   </si>
   <si>
     <t xml:space="preserve">4.15261316299438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10065937042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34558439254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22683334350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50886869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59422302246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61648750305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65359783172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65730857849121</t>
+    <t xml:space="preserve">4.10065889358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34558486938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22683382034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50886917114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59422206878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61648845672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65359878540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65730953216553</t>
   </si>
   <si>
     <t xml:space="preserve">4.73152923583984</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7537956237793</t>
+    <t xml:space="preserve">4.75379514694214</t>
   </si>
   <si>
     <t xml:space="preserve">4.80946063995361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63875389099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50144672393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51629114151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48660278320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44578123092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3492956161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65813302993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57827997207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63912105560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69996118545532</t>
+    <t xml:space="preserve">4.63875436782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50144815444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51629161834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48660326004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44578170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34929609298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6581335067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57827949523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63912057876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69996166229248</t>
   </si>
   <si>
     <t xml:space="preserve">4.67714595794678</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">4.68094921112061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9623384475708</t>
+    <t xml:space="preserve">4.96233797073364</t>
   </si>
   <si>
     <t xml:space="preserve">4.96994304656982</t>
@@ -302,13 +302,13 @@
     <t xml:space="preserve">4.92431259155273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93191719055176</t>
+    <t xml:space="preserve">4.93191766738892</t>
   </si>
   <si>
     <t xml:space="preserve">4.83685350418091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77220964431763</t>
+    <t xml:space="preserve">4.77221059799194</t>
   </si>
   <si>
     <t xml:space="preserve">4.82924842834473</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">4.73038148880005</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89389181137085</t>
+    <t xml:space="preserve">4.89389228820801</t>
   </si>
   <si>
     <t xml:space="preserve">4.79502534866333</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">4.80643320083618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69615888595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46040058135986</t>
+    <t xml:space="preserve">4.69615936279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46040010452271</t>
   </si>
   <si>
     <t xml:space="preserve">4.32731103897095</t>
@@ -338,31 +338,31 @@
     <t xml:space="preserve">4.39955949783325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27407455444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57067537307739</t>
+    <t xml:space="preserve">4.27407503128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57067489624023</t>
   </si>
   <si>
     <t xml:space="preserve">4.79122304916382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84065628051758</t>
+    <t xml:space="preserve">4.84065532684326</t>
   </si>
   <si>
     <t xml:space="preserve">4.88628721237183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00416612625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13337993621826</t>
+    <t xml:space="preserve">5.00416564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13338088989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14478826522827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12197351455688</t>
+    <t xml:space="preserve">4.12197256088257</t>
   </si>
   <si>
     <t xml:space="preserve">4.24365472793579</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">3.8938193321228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7873477935791</t>
+    <t xml:space="preserve">3.78734827041626</t>
   </si>
   <si>
     <t xml:space="preserve">3.87480640411377</t>
@@ -383,10 +383,10 @@
     <t xml:space="preserve">4.04211950302124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14859056472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2208399772644</t>
+    <t xml:space="preserve">4.14859104156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22083902359009</t>
   </si>
   <si>
     <t xml:space="preserve">4.18281364440918</t>
@@ -395,88 +395,88 @@
     <t xml:space="preserve">4.31590366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38054704666138</t>
+    <t xml:space="preserve">4.38054656982422</t>
   </si>
   <si>
     <t xml:space="preserve">4.36533641815186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46420288085938</t>
+    <t xml:space="preserve">4.46420240402222</t>
   </si>
   <si>
     <t xml:space="preserve">4.43378257751465</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35773181915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40716409683228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37294149398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19422054290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210041046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1980242729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07253885269165</t>
+    <t xml:space="preserve">4.35773134231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40716505050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3729419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19422149658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19802331924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07253980636597</t>
   </si>
   <si>
     <t xml:space="preserve">4.08774995803833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15999794006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09155225753784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04972410202026</t>
+    <t xml:space="preserve">4.15999841690063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.091552734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04972457885742</t>
   </si>
   <si>
     <t xml:space="preserve">4.05352687835693</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92423987388611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85199117660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84438633918762</t>
+    <t xml:space="preserve">3.92423915863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85199165344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84438586235046</t>
   </si>
   <si>
     <t xml:space="preserve">3.72650718688965</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72498536109924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86720108985901</t>
+    <t xml:space="preserve">3.72498607635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86720156669617</t>
   </si>
   <si>
     <t xml:space="preserve">4.07634210586548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92804217338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396532058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84058332443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02690887451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11056566238403</t>
+    <t xml:space="preserve">3.9280424118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396555900574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84058380126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02690839767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11056518554688</t>
   </si>
   <si>
     <t xml:space="preserve">4.09535503387451</t>
@@ -485,46 +485,46 @@
     <t xml:space="preserve">4.17520809173584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20562934875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99268579483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99648857116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95465993881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93945002555847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85959577560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85579395294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8101634979248</t>
+    <t xml:space="preserve">4.20562887191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99268555641174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99648833274841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95465970039368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93944954872131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85959601402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85579347610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81016373634338</t>
   </si>
   <si>
     <t xml:space="preserve">4.01930332183838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86339926719666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74171710014343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70977568626404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72802758216858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65806078910828</t>
+    <t xml:space="preserve">3.8633987903595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74171686172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70977544784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72802805900574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65806031227112</t>
   </si>
   <si>
     <t xml:space="preserve">3.67479205131531</t>
@@ -533,28 +533,28 @@
     <t xml:space="preserve">3.70673370361328</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77365827560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88241219520569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84818863868713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87860870361328</t>
+    <t xml:space="preserve">3.77365851402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88241171836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84818840026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87860894203186</t>
   </si>
   <si>
     <t xml:space="preserve">3.8862144947052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83678102493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95085859298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90522742271423</t>
+    <t xml:space="preserve">3.8367805480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95085740089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90522718429565</t>
   </si>
   <si>
     <t xml:space="preserve">4.03071165084839</t>
@@ -563,85 +563,85 @@
     <t xml:space="preserve">4.06493473052979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97367286682129</t>
+    <t xml:space="preserve">3.97367262840271</t>
   </si>
   <si>
     <t xml:space="preserve">4.02310657501221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0116982460022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93564748764038</t>
+    <t xml:space="preserve">4.01169919967651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93564772605896</t>
   </si>
   <si>
     <t xml:space="preserve">3.90142416954041</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81776833534241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76909518241882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78886818885803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82157015800476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80255746841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89762210845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01550102233887</t>
+    <t xml:space="preserve">3.81776762008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76909565925598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78886842727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8215708732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80255818367004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89762187004089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01550149917603</t>
   </si>
   <si>
     <t xml:space="preserve">4.06113195419312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00789642333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96226525306702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91663503646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93184518814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94325280189514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10676240921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35392808914185</t>
+    <t xml:space="preserve">4.00789594650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9622654914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91663432121277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93184471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9432520866394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10676336288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35392904281616</t>
   </si>
   <si>
     <t xml:space="preserve">4.42997980117798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29308748245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38815116882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23604917526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33871793746948</t>
+    <t xml:space="preserve">4.29308795928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3881516456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23604965209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33871841430664</t>
   </si>
   <si>
     <t xml:space="preserve">4.40336227416992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4794135093689</t>
+    <t xml:space="preserve">4.47941303253174</t>
   </si>
   <si>
     <t xml:space="preserve">4.34252119064331</t>
@@ -653,10 +653,10 @@
     <t xml:space="preserve">4.48701810836792</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31970548629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30829811096191</t>
+    <t xml:space="preserve">4.31970596313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30829858779907</t>
   </si>
   <si>
     <t xml:space="preserve">4.48321580886841</t>
@@ -677,19 +677,19 @@
     <t xml:space="preserve">4.65052843093872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74559211730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72657918930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69235610961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75319719314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55926656723022</t>
+    <t xml:space="preserve">4.74559164047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7265796661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69235706329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75319766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55926609039307</t>
   </si>
   <si>
     <t xml:space="preserve">4.56306934356689</t>
@@ -698,67 +698,67 @@
     <t xml:space="preserve">4.64292335510254</t>
   </si>
   <si>
-    <t xml:space="preserve">4.536452293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55166149139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61630535125732</t>
+    <t xml:space="preserve">4.53645181655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5516619682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61630582809448</t>
   </si>
   <si>
     <t xml:space="preserve">4.68475151062012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58208274841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59729242324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47180843353271</t>
+    <t xml:space="preserve">4.58208179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59729290008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47180795669556</t>
   </si>
   <si>
     <t xml:space="preserve">4.57447719573975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58588457107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58968734741211</t>
+    <t xml:space="preserve">4.5858850479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58968782424927</t>
   </si>
   <si>
     <t xml:space="preserve">4.62010717391968</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59348964691162</t>
+    <t xml:space="preserve">4.59349012374878</t>
   </si>
   <si>
     <t xml:space="preserve">4.65433073043823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77601289749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8216438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89769458770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90529918670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84445905685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94332551956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88248443603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83305025100708</t>
+    <t xml:space="preserve">4.77601385116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82164335250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89769506454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90530014038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84445858001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94332504272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88248491287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83305072784424</t>
   </si>
   <si>
     <t xml:space="preserve">4.87487888336182</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">4.79882764816284</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76080274581909</t>
+    <t xml:space="preserve">4.76080226898193</t>
   </si>
   <si>
     <t xml:space="preserve">4.82544565200806</t>
@@ -776,46 +776,46 @@
     <t xml:space="preserve">4.81023597717285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73418426513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00036382675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86727428436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95853567123413</t>
+    <t xml:space="preserve">4.73418521881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00036334991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86727380752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95853614807129</t>
   </si>
   <si>
     <t xml:space="preserve">4.98135137557983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0117712020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01937627792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91290473937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16007137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1911792755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30394697189331</t>
+    <t xml:space="preserve">5.01177167892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01937675476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91290521621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16007089614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19117975234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30394649505615</t>
   </si>
   <si>
     <t xml:space="preserve">5.21062183380127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3428316116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37005138397217</t>
+    <t xml:space="preserve">5.34283208847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37005186080933</t>
   </si>
   <si>
     <t xml:space="preserve">5.35838603973389</t>
@@ -824,34 +824,34 @@
     <t xml:space="preserve">5.38949394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28450393676758</t>
+    <t xml:space="preserve">5.28450345993042</t>
   </si>
   <si>
     <t xml:space="preserve">5.21451044082642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17562580108643</t>
+    <t xml:space="preserve">5.17562532424927</t>
   </si>
   <si>
     <t xml:space="preserve">5.2261757850647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24950742721558</t>
+    <t xml:space="preserve">5.24950695037842</t>
   </si>
   <si>
     <t xml:space="preserve">5.31950092315674</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31561183929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44393301010132</t>
+    <t xml:space="preserve">5.31561279296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44393348693848</t>
   </si>
   <si>
     <t xml:space="preserve">5.45559883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38560581207275</t>
+    <t xml:space="preserve">5.3856053352356</t>
   </si>
   <si>
     <t xml:space="preserve">5.31172370910645</t>
@@ -860,10 +860,10 @@
     <t xml:space="preserve">5.3078351020813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28839206695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47892999649048</t>
+    <t xml:space="preserve">5.28839254379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47893047332764</t>
   </si>
   <si>
     <t xml:space="preserve">5.37393999099731</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">5.40504789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40893650054932</t>
+    <t xml:space="preserve">5.40893697738647</t>
   </si>
   <si>
     <t xml:space="preserve">5.42837905883789</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49448394775391</t>
+    <t xml:space="preserve">5.49448442459106</t>
   </si>
   <si>
     <t xml:space="preserve">5.49837255477905</t>
@@ -887,28 +887,28 @@
     <t xml:space="preserve">5.46337604522705</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64613676071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8094539642334</t>
+    <t xml:space="preserve">5.64613723754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80945444107056</t>
   </si>
   <si>
     <t xml:space="preserve">5.59169721603394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6189169883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63836002349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63058280944824</t>
+    <t xml:space="preserve">5.61891746520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63835954666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
     <t xml:space="preserve">5.58003187179565</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62280559539795</t>
+    <t xml:space="preserve">5.62280607223511</t>
   </si>
   <si>
     <t xml:space="preserve">5.54503488540649</t>
@@ -917,52 +917,52 @@
     <t xml:space="preserve">5.57614326477051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48670721054077</t>
+    <t xml:space="preserve">5.48670673370361</t>
   </si>
   <si>
     <t xml:space="preserve">5.42449045181274</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53336906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63447093963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59947395324707</t>
+    <t xml:space="preserve">5.53336954116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63447141647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59947443008423</t>
   </si>
   <si>
     <t xml:space="preserve">5.66946744918823</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56836605072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6616907119751</t>
+    <t xml:space="preserve">5.56836557388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66169166564941</t>
   </si>
   <si>
     <t xml:space="preserve">5.75501489639282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.926109790802</t>
+    <t xml:space="preserve">5.92611074447632</t>
   </si>
   <si>
     <t xml:space="preserve">5.75890350341797</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56447792053223</t>
+    <t xml:space="preserve">5.56447744369507</t>
   </si>
   <si>
     <t xml:space="preserve">5.70446443557739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82500839233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77834606170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69279956817627</t>
+    <t xml:space="preserve">5.82500886917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7783465385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69279909133911</t>
   </si>
   <si>
     <t xml:space="preserve">5.74723863601685</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">5.64224863052368</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52948141098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52170419692993</t>
+    <t xml:space="preserve">5.52948093414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52170372009277</t>
   </si>
   <si>
     <t xml:space="preserve">5.53725814819336</t>
@@ -992,28 +992,28 @@
     <t xml:space="preserve">5.6966872215271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90278005599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85611724853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83278560638428</t>
+    <t xml:space="preserve">5.9027795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.856116771698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83278608322144</t>
   </si>
   <si>
     <t xml:space="preserve">5.86389350891113</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80167818069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84834051132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84445142745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89500188827515</t>
+    <t xml:space="preserve">5.80167722702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84833955764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84445095062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89500141143799</t>
   </si>
   <si>
     <t xml:space="preserve">5.90666818618774</t>
@@ -1022,28 +1022,28 @@
     <t xml:space="preserve">5.92999887466431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91444444656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94944190979004</t>
+    <t xml:space="preserve">5.91444492340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94944143295288</t>
   </si>
   <si>
     <t xml:space="preserve">5.96499586105347</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81723117828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86778259277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88333702087402</t>
+    <t xml:space="preserve">5.81723165512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86778211593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88333654403687</t>
   </si>
   <si>
     <t xml:space="preserve">5.83667421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78223514556885</t>
+    <t xml:space="preserve">5.78223466873169</t>
   </si>
   <si>
     <t xml:space="preserve">5.76279211044312</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">5.68113327026367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70835256576538</t>
+    <t xml:space="preserve">5.7083535194397</t>
   </si>
   <si>
     <t xml:space="preserve">5.87167119979858</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">5.91833353042603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60336256027222</t>
+    <t xml:space="preserve">5.60336303710938</t>
   </si>
   <si>
     <t xml:space="preserve">5.50614929199219</t>
@@ -1082,31 +1082,31 @@
     <t xml:space="preserve">5.44004487991333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5022611618042</t>
+    <t xml:space="preserve">5.50226068496704</t>
   </si>
   <si>
     <t xml:space="preserve">5.56058931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5839204788208</t>
+    <t xml:space="preserve">5.58391952514648</t>
   </si>
   <si>
     <t xml:space="preserve">5.72779560089111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71612930297852</t>
+    <t xml:space="preserve">5.71613025665283</t>
   </si>
   <si>
     <t xml:space="preserve">5.76668071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72001838684082</t>
+    <t xml:space="preserve">5.72001886367798</t>
   </si>
   <si>
     <t xml:space="preserve">5.77445793151855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84056329727173</t>
+    <t xml:space="preserve">5.84056234359741</t>
   </si>
   <si>
     <t xml:space="preserve">5.54892349243164</t>
@@ -1115,37 +1115,37 @@
     <t xml:space="preserve">5.52559232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55670070648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58780908584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43615627288818</t>
+    <t xml:space="preserve">5.55670022964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58780860900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43615674972534</t>
   </si>
   <si>
     <t xml:space="preserve">5.51392650604248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93388700485229</t>
+    <t xml:space="preserve">5.93388795852661</t>
   </si>
   <si>
     <t xml:space="preserve">6.05054330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05832052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01165866851807</t>
+    <t xml:space="preserve">6.05832004547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01165819168091</t>
   </si>
   <si>
     <t xml:space="preserve">6.00388097763062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10498237609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08942794799805</t>
+    <t xml:space="preserve">6.10498189926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08942842483521</t>
   </si>
   <si>
     <t xml:space="preserve">6.04276609420776</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">5.94166469573975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73168420791626</t>
+    <t xml:space="preserve">5.7316837310791</t>
   </si>
   <si>
     <t xml:space="preserve">5.67724466323853</t>
@@ -1169,25 +1169,25 @@
     <t xml:space="preserve">5.68502187728882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73946189880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79390048980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77056932449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78612375259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7005763053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6539134979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49059534072876</t>
+    <t xml:space="preserve">5.73946142196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79390001296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77056980133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78612327575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70057582855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65391397476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49059581756592</t>
   </si>
   <si>
     <t xml:space="preserve">5.76564836502075</t>
@@ -1196,19 +1196,19 @@
     <t xml:space="preserve">5.68568134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50175619125366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46177196502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31783103942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34981775283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36581182479858</t>
+    <t xml:space="preserve">5.50175666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46177244186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31783151626587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34981822967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36581134796143</t>
   </si>
   <si>
     <t xml:space="preserve">5.32582759857178</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">5.03794527053833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93398761749268</t>
+    <t xml:space="preserve">4.93398809432983</t>
   </si>
   <si>
     <t xml:space="preserve">4.65410184860229</t>
@@ -1229,70 +1229,70 @@
     <t xml:space="preserve">4.91799449920654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83002996444702</t>
+    <t xml:space="preserve">4.83003044128418</t>
   </si>
   <si>
     <t xml:space="preserve">4.99796152114868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87001371383667</t>
+    <t xml:space="preserve">4.87001419067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.7980432510376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74206638336182</t>
+    <t xml:space="preserve">4.74206590652466</t>
   </si>
   <si>
     <t xml:space="preserve">4.85402059555054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92599105834961</t>
+    <t xml:space="preserve">4.92599058151245</t>
   </si>
   <si>
     <t xml:space="preserve">4.90200042724609</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00595855712891</t>
+    <t xml:space="preserve">5.00595808029175</t>
   </si>
   <si>
     <t xml:space="preserve">5.09392213821411</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13390636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18188619613647</t>
+    <t xml:space="preserve">5.13390588760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18188667297363</t>
   </si>
   <si>
     <t xml:space="preserve">5.05393886566162</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06193542480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95797777175903</t>
+    <t xml:space="preserve">5.06193590164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95797824859619</t>
   </si>
   <si>
     <t xml:space="preserve">5.02195262908936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06993198394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0859260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17388963699341</t>
+    <t xml:space="preserve">5.06993246078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08592557907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17388916015625</t>
   </si>
   <si>
     <t xml:space="preserve">5.1898832321167</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1099157333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11791276931763</t>
+    <t xml:space="preserve">5.10991621017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11791229248047</t>
   </si>
   <si>
     <t xml:space="preserve">5.10191917419434</t>
@@ -1307,19 +1307,19 @@
     <t xml:space="preserve">4.89400386810303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07792854309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94198417663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98996496200562</t>
+    <t xml:space="preserve">5.07792901992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9419846534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98996448516846</t>
   </si>
   <si>
     <t xml:space="preserve">4.98196792602539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61411762237549</t>
+    <t xml:space="preserve">4.61411809921265</t>
   </si>
   <si>
     <t xml:space="preserve">4.53415060043335</t>
@@ -1328,64 +1328,64 @@
     <t xml:space="preserve">4.4701771736145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44618654251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45418357849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47817325592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4941668510437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39020872116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42219591140747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25426483154297</t>
+    <t xml:space="preserve">4.44618701934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45418310165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47817373275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49416732788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39020919799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42219638824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25426530838013</t>
   </si>
   <si>
     <t xml:space="preserve">4.27825498580933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34222888946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33423233032227</t>
+    <t xml:space="preserve">4.34222841262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33423185348511</t>
   </si>
   <si>
     <t xml:space="preserve">4.54214763641357</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67009496688843</t>
+    <t xml:space="preserve">4.67009544372559</t>
   </si>
   <si>
     <t xml:space="preserve">4.64610528945923</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66209840774536</t>
+    <t xml:space="preserve">4.66209888458252</t>
   </si>
   <si>
     <t xml:space="preserve">4.67809200286865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70208215713501</t>
+    <t xml:space="preserve">4.70208263397217</t>
   </si>
   <si>
     <t xml:space="preserve">4.72607231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75006341934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8220329284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81403684616089</t>
+    <t xml:space="preserve">4.75006294250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82203340530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81403589248657</t>
   </si>
   <si>
     <t xml:space="preserve">4.71007871627808</t>
@@ -1394,13 +1394,13 @@
     <t xml:space="preserve">4.52615404129028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48617029190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55814075469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31823873519897</t>
+    <t xml:space="preserve">4.48617076873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55814123153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31823921203613</t>
   </si>
   <si>
     <t xml:space="preserve">4.24626779556274</t>
@@ -1421,43 +1421,43 @@
     <t xml:space="preserve">4.11032342910767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07034063339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95438694953918</t>
+    <t xml:space="preserve">4.07034015655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95438718795776</t>
   </si>
   <si>
     <t xml:space="preserve">3.81844258308411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92240023612976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21428108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15830421447754</t>
+    <t xml:space="preserve">3.92240047454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21428155899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15830373764038</t>
   </si>
   <si>
     <t xml:space="preserve">4.23027467727661</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23827171325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26226186752319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13431358337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15030670166016</t>
+    <t xml:space="preserve">4.23827123641968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26226139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13431406021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15030717849731</t>
   </si>
   <si>
     <t xml:space="preserve">4.09433031082153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06234359741211</t>
+    <t xml:space="preserve">4.06234312057495</t>
   </si>
   <si>
     <t xml:space="preserve">4.01436281204224</t>
@@ -1466,34 +1466,34 @@
     <t xml:space="preserve">4.05434656143188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99836921691895</t>
+    <t xml:space="preserve">3.99836945533752</t>
   </si>
   <si>
     <t xml:space="preserve">4.0223593711853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16630077362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19828748703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04634952545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11832046508789</t>
+    <t xml:space="preserve">4.16630125045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19828796386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04635000228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11831998825073</t>
   </si>
   <si>
     <t xml:space="preserve">4.27025890350342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98237562179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96238374710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95038890838623</t>
+    <t xml:space="preserve">3.98237586021423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96238446235657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95038866996765</t>
   </si>
   <si>
     <t xml:space="preserve">3.91440367698669</t>
@@ -1505,61 +1505,61 @@
     <t xml:space="preserve">4.22227764129639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10232734680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08633327484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07833623886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00636625289917</t>
+    <t xml:space="preserve">4.10232639312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08633375167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07833671569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00636672973633</t>
   </si>
   <si>
     <t xml:space="preserve">4.03035593032837</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89441204071045</t>
+    <t xml:space="preserve">3.89441180229187</t>
   </si>
   <si>
     <t xml:space="preserve">3.9783775806427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91840171813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87042164802551</t>
+    <t xml:space="preserve">3.91840219497681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87042188644409</t>
   </si>
   <si>
     <t xml:space="preserve">3.98637437820435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19029092788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29424905776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93839359283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97038102149963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17429733276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95838522911072</t>
+    <t xml:space="preserve">4.1902904510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29424810409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93839406967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97038078308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17429780960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9583854675293</t>
   </si>
   <si>
     <t xml:space="preserve">3.910404920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84643149375916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86242437362671</t>
+    <t xml:space="preserve">3.846431016922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86242461204529</t>
   </si>
   <si>
     <t xml:space="preserve">3.81444430351257</t>
@@ -1571,31 +1571,31 @@
     <t xml:space="preserve">3.79098415374756</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79515957832336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77010869979858</t>
+    <t xml:space="preserve">3.79515933990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77010893821716</t>
   </si>
   <si>
     <t xml:space="preserve">3.68243169784546</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69913220405579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74088358879089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72418260574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71583223342896</t>
+    <t xml:space="preserve">3.69913196563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74088335037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72418308258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71583247184753</t>
   </si>
   <si>
     <t xml:space="preserve">3.73670768737793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.657381772995</t>
+    <t xml:space="preserve">3.65738153457642</t>
   </si>
   <si>
     <t xml:space="preserve">3.67408180236816</t>
@@ -1607,13 +1607,13 @@
     <t xml:space="preserve">3.59475493431091</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66155672073364</t>
+    <t xml:space="preserve">3.66155695915222</t>
   </si>
   <si>
     <t xml:space="preserve">3.68660688400269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61980533599854</t>
+    <t xml:space="preserve">3.61980557441711</t>
   </si>
   <si>
     <t xml:space="preserve">3.62398052215576</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">3.56970453262329</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54882907867432</t>
+    <t xml:space="preserve">3.5488293170929</t>
   </si>
   <si>
     <t xml:space="preserve">3.58222961425781</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">3.51542806625366</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46532678604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48202729225159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52377796173096</t>
+    <t xml:space="preserve">3.46532702445984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48202776908875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52377820014954</t>
   </si>
   <si>
     <t xml:space="preserve">3.53630352020264</t>
@@ -1655,58 +1655,58 @@
     <t xml:space="preserve">3.59057998657227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74923324584961</t>
+    <t xml:space="preserve">3.74923348426819</t>
   </si>
   <si>
     <t xml:space="preserve">3.97468876838684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04149007797241</t>
+    <t xml:space="preserve">4.04149055480957</t>
   </si>
   <si>
     <t xml:space="preserve">3.92876219749451</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9245867729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94128727912903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94963788986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98303890228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90371179580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84108591079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96633839607239</t>
+    <t xml:space="preserve">3.92458701133728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94128799438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94963812828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98303842544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90371203422546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84108543395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96633815765381</t>
   </si>
   <si>
     <t xml:space="preserve">3.95798778533936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94546270370483</t>
+    <t xml:space="preserve">3.94546294212341</t>
   </si>
   <si>
     <t xml:space="preserve">3.89536166191101</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87031149864197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79933500289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78680920600891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75758337974548</t>
+    <t xml:space="preserve">3.87031102180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79933476448059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78680896759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75758385658264</t>
   </si>
   <si>
     <t xml:space="preserve">3.72000765800476</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">3.76593422889709</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69078230857849</t>
+    <t xml:space="preserve">3.69078183174133</t>
   </si>
   <si>
     <t xml:space="preserve">3.78263425827026</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88283658027649</t>
+    <t xml:space="preserve">3.88283634185791</t>
   </si>
   <si>
     <t xml:space="preserve">3.86613607406616</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">3.92041182518005</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02061414718628</t>
+    <t xml:space="preserve">4.02061462402344</t>
   </si>
   <si>
     <t xml:space="preserve">4.03731489181519</t>
@@ -1745,16 +1745,16 @@
     <t xml:space="preserve">4.12081670761108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18344306945801</t>
+    <t xml:space="preserve">4.18344354629517</t>
   </si>
   <si>
     <t xml:space="preserve">4.3337459564209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26694488525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13751697540283</t>
+    <t xml:space="preserve">4.26694536209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13751745223999</t>
   </si>
   <si>
     <t xml:space="preserve">4.16256761550903</t>
@@ -1763,19 +1763,19 @@
     <t xml:space="preserve">4.24189424514771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23354387283325</t>
+    <t xml:space="preserve">4.23354434967041</t>
   </si>
   <si>
     <t xml:space="preserve">4.16674280166626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12916707992554</t>
+    <t xml:space="preserve">4.12916660308838</t>
   </si>
   <si>
     <t xml:space="preserve">4.07906579971313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09159088134766</t>
+    <t xml:space="preserve">4.09159135818481</t>
   </si>
   <si>
     <t xml:space="preserve">4.17509269714355</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">4.07489061355591</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04983997344971</t>
+    <t xml:space="preserve">4.04983949661255</t>
   </si>
   <si>
     <t xml:space="preserve">4.0832405090332</t>
@@ -1793,16 +1793,16 @@
     <t xml:space="preserve">4.05401515960693</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12499189376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2168436050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25024461746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30869579315186</t>
+    <t xml:space="preserve">4.12499141693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21684408187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25024509429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3086953163147</t>
   </si>
   <si>
     <t xml:space="preserve">4.40054798126221</t>
@@ -1811,22 +1811,22 @@
     <t xml:space="preserve">4.37549734115601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36714696884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34209680557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3587965965271</t>
+    <t xml:space="preserve">4.36714744567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34209632873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35879707336426</t>
   </si>
   <si>
     <t xml:space="preserve">4.40889835357666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32539558410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44229888916016</t>
+    <t xml:space="preserve">4.3253960609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44229936599731</t>
   </si>
   <si>
     <t xml:space="preserve">4.52580070495605</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">4.49240016937256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50909996032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.567551612854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47569942474365</t>
+    <t xml:space="preserve">4.50910043716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56755113601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47569990158081</t>
   </si>
   <si>
     <t xml:space="preserve">4.45064926147461</t>
@@ -1853,43 +1853,43 @@
     <t xml:space="preserve">4.42559862136841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46734952926636</t>
+    <t xml:space="preserve">4.4673490524292</t>
   </si>
   <si>
     <t xml:space="preserve">4.55085134506226</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4339485168457</t>
+    <t xml:space="preserve">4.43394804000854</t>
   </si>
   <si>
     <t xml:space="preserve">4.3838472366333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3504467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39219760894775</t>
+    <t xml:space="preserve">4.35044717788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39219808578491</t>
   </si>
   <si>
     <t xml:space="preserve">4.31704616546631</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3003454208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29199552536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28364562988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25859498977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20014381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97051382064819</t>
+    <t xml:space="preserve">4.30034589767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29199504852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28364515304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25859451293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20014333724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97051310539246</t>
   </si>
   <si>
     <t xml:space="preserve">3.97886347770691</t>
@@ -1898,19 +1898,19 @@
     <t xml:space="preserve">4.0331392288208</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10829162597656</t>
+    <t xml:space="preserve">4.1082911491394</t>
   </si>
   <si>
     <t xml:space="preserve">4.41724824905396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11246681213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01226425170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82856035232544</t>
+    <t xml:space="preserve">4.11246633529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01226377487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82856011390686</t>
   </si>
   <si>
     <t xml:space="preserve">3.80768465995789</t>
@@ -1919,16 +1919,16 @@
     <t xml:space="preserve">3.62815523147583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43610119819641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38600015640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13549494743347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13131952285767</t>
+    <t xml:space="preserve">3.43610143661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38600039482117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13549470901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13131976127625</t>
   </si>
   <si>
     <t xml:space="preserve">3.26909780502319</t>
@@ -1940,13 +1940,13 @@
     <t xml:space="preserve">3.23987221717834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31919860839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28579831123352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25239729881287</t>
+    <t xml:space="preserve">3.31919884681702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28579807281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25239706039429</t>
   </si>
   <si>
     <t xml:space="preserve">3.21482157707214</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">3.15219521522522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19812107086182</t>
+    <t xml:space="preserve">3.19812083244324</t>
   </si>
   <si>
     <t xml:space="preserve">3.18977069854736</t>
@@ -1976,13 +1976,13 @@
     <t xml:space="preserve">3.12296938896179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19394588470459</t>
+    <t xml:space="preserve">3.19394612312317</t>
   </si>
   <si>
     <t xml:space="preserve">3.31084847450256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26074719429016</t>
+    <t xml:space="preserve">3.26074743270874</t>
   </si>
   <si>
     <t xml:space="preserve">3.28997325897217</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">3.34424948692322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44862699508667</t>
+    <t xml:space="preserve">3.44862675666809</t>
   </si>
   <si>
     <t xml:space="preserve">3.38182544708252</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">3.42357611656189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49872779846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47367715835571</t>
+    <t xml:space="preserve">3.49872803688049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47367739677429</t>
   </si>
   <si>
     <t xml:space="preserve">3.52795314788818</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">3.61145520210266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66990637779236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49037766456604</t>
+    <t xml:space="preserve">3.66990661621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49037742614746</t>
   </si>
   <si>
     <t xml:space="preserve">3.39435052871704</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">3.39017534255981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43192672729492</t>
+    <t xml:space="preserve">3.43192648887634</t>
   </si>
   <si>
     <t xml:space="preserve">3.49455261230469</t>
@@ -2045,31 +2045,31 @@
     <t xml:space="preserve">3.61563014984131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63233065605164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76175880432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87866115570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85361099243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82020974159241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64068102836609</t>
+    <t xml:space="preserve">3.63233041763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76175904273987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87866139411926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85361075401306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82020950317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64068126678467</t>
   </si>
   <si>
     <t xml:space="preserve">3.69495725631714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64485621452332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65320658683777</t>
+    <t xml:space="preserve">3.64485597610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65320634841919</t>
   </si>
   <si>
     <t xml:space="preserve">3.64903116226196</t>
@@ -2078,40 +2078,40 @@
     <t xml:space="preserve">3.60310506820679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73253273963928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72835779190063</t>
+    <t xml:space="preserve">3.7325325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72835755348206</t>
   </si>
   <si>
     <t xml:space="preserve">3.60728025436401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75340867042542</t>
+    <t xml:space="preserve">3.75340843200684</t>
   </si>
   <si>
     <t xml:space="preserve">3.84526062011719</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74505829811096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66573166847229</t>
+    <t xml:space="preserve">3.74505853652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66573143005371</t>
   </si>
   <si>
     <t xml:space="preserve">3.59892988204956</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56552958488464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960349082947</t>
+    <t xml:space="preserve">3.56552934646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960325241089</t>
   </si>
   <si>
     <t xml:space="preserve">3.58640480041504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50707793235779</t>
+    <t xml:space="preserve">3.50707769393921</t>
   </si>
   <si>
     <t xml:space="preserve">3.46950244903564</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">3.51125288009644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41522598266602</t>
+    <t xml:space="preserve">3.41522574424744</t>
   </si>
   <si>
     <t xml:space="preserve">3.40270042419434</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">3.33172416687012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24822211265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26492238044739</t>
+    <t xml:space="preserve">3.24822235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26492261886597</t>
   </si>
   <si>
     <t xml:space="preserve">3.23152184486389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18559598922729</t>
+    <t xml:space="preserve">3.18559575080872</t>
   </si>
   <si>
     <t xml:space="preserve">3.09374380111694</t>
@@ -2150,13 +2150,13 @@
     <t xml:space="preserve">3.08121871948242</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06034302711487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03946757316589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00189185142517</t>
+    <t xml:space="preserve">3.06034278869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03946781158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00189161300659</t>
   </si>
   <si>
     <t xml:space="preserve">3.00606679916382</t>
@@ -2168,31 +2168,31 @@
     <t xml:space="preserve">2.82236289978027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70546007156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81818795204163</t>
+    <t xml:space="preserve">2.7054603099823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81818771362305</t>
   </si>
   <si>
     <t xml:space="preserve">2.88916420936584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98101615905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30249834060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90788674354553</t>
+    <t xml:space="preserve">2.9810163974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30249810218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90788698196411</t>
   </si>
   <si>
     <t xml:space="preserve">4.00808906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01643943786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95381283760071</t>
+    <t xml:space="preserve">4.01643896102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95381331443787</t>
   </si>
   <si>
     <t xml:space="preserve">3.93711233139038</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">3.84943604469299</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89118623733521</t>
+    <t xml:space="preserve">3.89118671417236</t>
   </si>
   <si>
     <t xml:space="preserve">3.77428388595581</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">4.20849323272705</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15421772003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02478981018066</t>
+    <t xml:space="preserve">4.15421724319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02478933334351</t>
   </si>
   <si>
     <t xml:space="preserve">4.07071590423584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14169263839722</t>
+    <t xml:space="preserve">4.14169216156006</t>
   </si>
   <si>
     <t xml:space="preserve">4.1917929649353</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">4.15004205703735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17091751098633</t>
+    <t xml:space="preserve">4.17091798782349</t>
   </si>
   <si>
     <t xml:space="preserve">4.15839242935181</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">4.54250144958496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60930252075195</t>
+    <t xml:space="preserve">4.60930204391479</t>
   </si>
   <si>
     <t xml:space="preserve">4.76525640487671</t>

--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1220">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,79 +50,79 @@
     <t xml:space="preserve">4.93192338943481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75750637054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71297454833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76492881774902</t>
+    <t xml:space="preserve">4.75750589370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.712975025177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76492834091187</t>
   </si>
   <si>
     <t xml:space="preserve">4.77235078811646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82430362701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72039699554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67957544326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4754695892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51258087158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13405799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32703018188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4532036781311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59051132202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5608229637146</t>
+    <t xml:space="preserve">4.82430458068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72039651870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67957496643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47547006607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51258039474487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13405847549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32703065872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45320415496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5905122756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56082344055176</t>
   </si>
   <si>
     <t xml:space="preserve">4.4346489906311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55711221694946</t>
+    <t xml:space="preserve">4.5571117401123</t>
   </si>
   <si>
     <t xml:space="preserve">4.55340147018433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36042928695679</t>
+    <t xml:space="preserve">4.36042881011963</t>
   </si>
   <si>
     <t xml:space="preserve">4.20085573196411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23796558380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27507591247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95592951774597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78893423080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14519166946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98561787605286</t>
+    <t xml:space="preserve">4.23796606063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27507638931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95592999458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7889347076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14519119262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9856173992157</t>
   </si>
   <si>
     <t xml:space="preserve">4.25281000137329</t>
@@ -134,43 +134,43 @@
     <t xml:space="preserve">4.38269519805908</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49031448364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23054361343384</t>
+    <t xml:space="preserve">4.49031400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.230544090271</t>
   </si>
   <si>
     <t xml:space="preserve">4.16745710372925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3121862411499</t>
+    <t xml:space="preserve">4.31218576431274</t>
   </si>
   <si>
     <t xml:space="preserve">4.28620910644531</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11921358108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.193434715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28991985321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37156248092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56453466415405</t>
+    <t xml:space="preserve">4.11921405792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19343423843384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28992033004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37156200408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56453418731689</t>
   </si>
   <si>
     <t xml:space="preserve">4.63504314422607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62391042709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57195615768433</t>
+    <t xml:space="preserve">4.62390995025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57195663452148</t>
   </si>
   <si>
     <t xml:space="preserve">4.66473150253296</t>
@@ -179,112 +179,112 @@
     <t xml:space="preserve">4.75008487701416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81317186355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70184135437012</t>
+    <t xml:space="preserve">4.81317138671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70184183120728</t>
   </si>
   <si>
     <t xml:space="preserve">4.72781848907471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58308887481689</t>
+    <t xml:space="preserve">4.58308935165405</t>
   </si>
   <si>
     <t xml:space="preserve">4.77977275848389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7166862487793</t>
+    <t xml:space="preserve">4.71668577194214</t>
   </si>
   <si>
     <t xml:space="preserve">4.60164451599121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52742481231689</t>
+    <t xml:space="preserve">4.52742385864258</t>
   </si>
   <si>
     <t xml:space="preserve">4.47175931930542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46433734893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34187364578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31960821151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21941089630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15261363983154</t>
+    <t xml:space="preserve">4.46433687210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34187412261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31960868835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21941041946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15261268615723</t>
   </si>
   <si>
     <t xml:space="preserve">4.10065889358521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34558534622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2268328666687</t>
+    <t xml:space="preserve">4.34558486938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22683382034302</t>
   </si>
   <si>
     <t xml:space="preserve">4.50886917114258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59422254562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61648845672607</t>
+    <t xml:space="preserve">4.59422302246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61648750305176</t>
   </si>
   <si>
     <t xml:space="preserve">4.65359830856323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65730905532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.731529712677</t>
+    <t xml:space="preserve">4.65730953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73153018951416</t>
   </si>
   <si>
     <t xml:space="preserve">4.75379514694214</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80946111679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63875436782837</t>
+    <t xml:space="preserve">4.80946016311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63875484466553</t>
   </si>
   <si>
     <t xml:space="preserve">4.5014476776123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51629161834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48660373687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44578218460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34929609298706</t>
+    <t xml:space="preserve">4.51629114151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48660278320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44578123092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3492956161499</t>
   </si>
   <si>
     <t xml:space="preserve">4.6581335067749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57827949523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63912057876587</t>
+    <t xml:space="preserve">4.57827997207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63912010192871</t>
   </si>
   <si>
     <t xml:space="preserve">4.69996166229248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67714691162109</t>
+    <t xml:space="preserve">4.67714595794678</t>
   </si>
   <si>
     <t xml:space="preserve">4.68094873428345</t>
@@ -293,16 +293,16 @@
     <t xml:space="preserve">4.9623384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96994304656982</t>
+    <t xml:space="preserve">4.96994256973267</t>
   </si>
   <si>
     <t xml:space="preserve">4.9395227432251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92431259155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93191766738892</t>
+    <t xml:space="preserve">4.92431211471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93191719055176</t>
   </si>
   <si>
     <t xml:space="preserve">4.83685398101807</t>
@@ -311,43 +311,43 @@
     <t xml:space="preserve">4.77221012115479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82924842834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73038196563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89389181137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79502534866333</t>
+    <t xml:space="preserve">4.82924890518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73038148880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89389228820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79502487182617</t>
   </si>
   <si>
     <t xml:space="preserve">4.80643367767334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69615840911865</t>
+    <t xml:space="preserve">4.69615936279297</t>
   </si>
   <si>
     <t xml:space="preserve">4.46040010452271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32731151580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39955949783325</t>
+    <t xml:space="preserve">4.32731056213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39955902099609</t>
   </si>
   <si>
     <t xml:space="preserve">4.27407503128052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57067441940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79122352600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84065628051758</t>
+    <t xml:space="preserve">4.57067489624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79122304916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84065675735474</t>
   </si>
   <si>
     <t xml:space="preserve">4.88628673553467</t>
@@ -356,37 +356,37 @@
     <t xml:space="preserve">5.00416612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13337993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14478874206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12197303771973</t>
+    <t xml:space="preserve">4.13338041305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14478826522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12197256088257</t>
   </si>
   <si>
     <t xml:space="preserve">4.24365425109863</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03451347351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89381909370422</t>
+    <t xml:space="preserve">4.0345139503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8938193321228</t>
   </si>
   <si>
     <t xml:space="preserve">3.78734755516052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87480640411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04211950302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14859056472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22083902359009</t>
+    <t xml:space="preserve">3.87480616569519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04211902618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14859008789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22083950042725</t>
   </si>
   <si>
     <t xml:space="preserve">4.18281364440918</t>
@@ -395,10 +395,10 @@
     <t xml:space="preserve">4.31590366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38054656982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36533546447754</t>
+    <t xml:space="preserve">4.38054752349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36533641815186</t>
   </si>
   <si>
     <t xml:space="preserve">4.46420240402222</t>
@@ -410,16 +410,16 @@
     <t xml:space="preserve">4.35773134231567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40716457366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37294149398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19422101974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210088729858</t>
+    <t xml:space="preserve">4.40716505050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3729419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19422149658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210136413574</t>
   </si>
   <si>
     <t xml:space="preserve">4.19802379608154</t>
@@ -428,37 +428,37 @@
     <t xml:space="preserve">4.07253932952881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08774995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15999841690063</t>
+    <t xml:space="preserve">4.08774948120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15999794006348</t>
   </si>
   <si>
     <t xml:space="preserve">4.09155225753784</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04972410202026</t>
+    <t xml:space="preserve">4.04972457885742</t>
   </si>
   <si>
     <t xml:space="preserve">4.05352687835693</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92424011230469</t>
+    <t xml:space="preserve">3.92423987388611</t>
   </si>
   <si>
     <t xml:space="preserve">3.85199117660522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84438610076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72650647163391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72498536109924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86720180511475</t>
+    <t xml:space="preserve">3.84438633918762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72650671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72498607635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86720132827759</t>
   </si>
   <si>
     <t xml:space="preserve">4.07634210586548</t>
@@ -470,22 +470,22 @@
     <t xml:space="preserve">3.81396579742432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84058427810669</t>
+    <t xml:space="preserve">3.84058380126953</t>
   </si>
   <si>
     <t xml:space="preserve">4.02690887451172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11056518554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09535455703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17520809173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20562887191772</t>
+    <t xml:space="preserve">4.11056470870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09535503387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.175208568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20562934875488</t>
   </si>
   <si>
     <t xml:space="preserve">3.99268555641174</t>
@@ -494,31 +494,31 @@
     <t xml:space="preserve">3.99648857116699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95466041564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93945026397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85959625244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85579419136047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81016325950623</t>
+    <t xml:space="preserve">3.95466017723083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93945002555847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85959601402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85579395294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81016278266907</t>
   </si>
   <si>
     <t xml:space="preserve">4.01930379867554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8633987903595</t>
+    <t xml:space="preserve">3.86339926719666</t>
   </si>
   <si>
     <t xml:space="preserve">3.74171686172485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7097749710083</t>
+    <t xml:space="preserve">3.70977544784546</t>
   </si>
   <si>
     <t xml:space="preserve">3.72802782058716</t>
@@ -530,31 +530,31 @@
     <t xml:space="preserve">3.67479181289673</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7067334651947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77365851402283</t>
+    <t xml:space="preserve">3.70673370361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77365875244141</t>
   </si>
   <si>
     <t xml:space="preserve">3.88241147994995</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84818816184998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87860894203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88621401786804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83678126335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95085740089417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90522742271423</t>
+    <t xml:space="preserve">3.84818863868713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87860870361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8862144947052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83678078651428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95085787773132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90522766113281</t>
   </si>
   <si>
     <t xml:space="preserve">4.03071117401123</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">4.06493377685547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97367238998413</t>
+    <t xml:space="preserve">3.97367286682129</t>
   </si>
   <si>
     <t xml:space="preserve">4.02310657501221</t>
@@ -572,52 +572,52 @@
     <t xml:space="preserve">4.01169872283936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9356472492218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90142488479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81776809692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76909518241882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78886890411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82157063484192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80255818367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89762210845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01550149917603</t>
+    <t xml:space="preserve">3.93564748764038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90142464637756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81776833534241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76909565925598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78886866569519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82157111167908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80255794525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89762187004089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01550102233887</t>
   </si>
   <si>
     <t xml:space="preserve">4.06113195419312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00789594650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96226572990417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91663503646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93184518814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94325232505798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10676288604736</t>
+    <t xml:space="preserve">4.00789642333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9622654914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91663479804993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93184471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94325256347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10676240921021</t>
   </si>
   <si>
     <t xml:space="preserve">4.35392904281616</t>
@@ -632,16 +632,16 @@
     <t xml:space="preserve">4.3881516456604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23604965209961</t>
+    <t xml:space="preserve">4.23605012893677</t>
   </si>
   <si>
     <t xml:space="preserve">4.33871841430664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40336179733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47941303253174</t>
+    <t xml:space="preserve">4.40336227416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47941255569458</t>
   </si>
   <si>
     <t xml:space="preserve">4.34252119064331</t>
@@ -650,19 +650,19 @@
     <t xml:space="preserve">4.46800518035889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48701810836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31970596313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30829811096191</t>
+    <t xml:space="preserve">4.48701858520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31970548629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30829763412476</t>
   </si>
   <si>
     <t xml:space="preserve">4.48321533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49842643737793</t>
+    <t xml:space="preserve">4.49842596054077</t>
   </si>
   <si>
     <t xml:space="preserve">4.50603151321411</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">4.45279502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63531827926636</t>
+    <t xml:space="preserve">4.6353178024292</t>
   </si>
   <si>
     <t xml:space="preserve">4.65052795410156</t>
@@ -686,22 +686,22 @@
     <t xml:space="preserve">4.6923565864563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75319671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55926704406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56306934356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64292287826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53645181655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55166149139404</t>
+    <t xml:space="preserve">4.75319766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55926656723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56306982040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6429238319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53645133972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5516619682312</t>
   </si>
   <si>
     <t xml:space="preserve">4.61630535125732</t>
@@ -713,13 +713,13 @@
     <t xml:space="preserve">4.58208227157593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59729290008545</t>
+    <t xml:space="preserve">4.59729194641113</t>
   </si>
   <si>
     <t xml:space="preserve">4.47180843353271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57447719573975</t>
+    <t xml:space="preserve">4.57447671890259</t>
   </si>
   <si>
     <t xml:space="preserve">4.58588457107544</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">4.58968734741211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62010812759399</t>
+    <t xml:space="preserve">4.62010765075684</t>
   </si>
   <si>
     <t xml:space="preserve">4.59348964691162</t>
@@ -743,34 +743,34 @@
     <t xml:space="preserve">4.8216438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89769506454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90530014038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84445858001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94332456588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88248491287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83305168151855</t>
+    <t xml:space="preserve">4.89769458770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90529918670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84445905685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94332551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88248443603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8330512046814</t>
   </si>
   <si>
     <t xml:space="preserve">4.87487888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79882764816284</t>
+    <t xml:space="preserve">4.79882860183716</t>
   </si>
   <si>
     <t xml:space="preserve">4.76080274581909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82544612884521</t>
+    <t xml:space="preserve">4.82544565200806</t>
   </si>
   <si>
     <t xml:space="preserve">4.81023550033569</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">4.73418474197388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00036287307739</t>
+    <t xml:space="preserve">5.00036334991455</t>
   </si>
   <si>
     <t xml:space="preserve">4.86727428436279</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">4.95853519439697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98135089874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01177167892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01937675476074</t>
+    <t xml:space="preserve">4.98135042190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0117712020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01937627792358</t>
   </si>
   <si>
     <t xml:space="preserve">4.91290473937988</t>
@@ -803,28 +803,28 @@
     <t xml:space="preserve">5.16007137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1911792755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30394697189331</t>
+    <t xml:space="preserve">5.19117975234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30394649505615</t>
   </si>
   <si>
     <t xml:space="preserve">5.21062183380127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3428316116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37005138397217</t>
+    <t xml:space="preserve">5.34283208847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37005186080933</t>
   </si>
   <si>
     <t xml:space="preserve">5.35838556289673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38949394226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28450393676758</t>
+    <t xml:space="preserve">5.3894944190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28450345993042</t>
   </si>
   <si>
     <t xml:space="preserve">5.21451044082642</t>
@@ -839,13 +839,13 @@
     <t xml:space="preserve">5.24950742721558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31950092315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31561136245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44393348693848</t>
+    <t xml:space="preserve">5.31950044631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31561231613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44393301010132</t>
   </si>
   <si>
     <t xml:space="preserve">5.45559883117676</t>
@@ -857,10 +857,10 @@
     <t xml:space="preserve">5.31172370910645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30783557891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28839254379272</t>
+    <t xml:space="preserve">5.3078351020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28839302062988</t>
   </si>
   <si>
     <t xml:space="preserve">5.47892999649048</t>
@@ -869,22 +869,22 @@
     <t xml:space="preserve">5.37394046783447</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40504789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40893650054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42837953567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49448442459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49837303161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46337604522705</t>
+    <t xml:space="preserve">5.40504837036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40893697738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42837905883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49448394775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49837255477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46337556838989</t>
   </si>
   <si>
     <t xml:space="preserve">5.64613676071167</t>
@@ -899,28 +899,28 @@
     <t xml:space="preserve">5.6189169883728</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63835954666138</t>
+    <t xml:space="preserve">5.63836002349854</t>
   </si>
   <si>
     <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58003234863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62280559539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54503488540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57614374160767</t>
+    <t xml:space="preserve">5.58003187179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62280511856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54503536224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57614326477051</t>
   </si>
   <si>
     <t xml:space="preserve">5.48670721054077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4244909286499</t>
+    <t xml:space="preserve">5.42449045181274</t>
   </si>
   <si>
     <t xml:space="preserve">5.53336954116821</t>
@@ -929,13 +929,13 @@
     <t xml:space="preserve">5.63447093963623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59947395324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66946792602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56836557388306</t>
+    <t xml:space="preserve">5.59947443008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66946744918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56836605072021</t>
   </si>
   <si>
     <t xml:space="preserve">5.6616907119751</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">5.82500839233398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77834606170654</t>
+    <t xml:space="preserve">5.7783465385437</t>
   </si>
   <si>
     <t xml:space="preserve">5.69279909133911</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">5.74723815917969</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65002536773682</t>
+    <t xml:space="preserve">5.65002489089966</t>
   </si>
   <si>
     <t xml:space="preserve">5.64224815368652</t>
@@ -983,37 +983,37 @@
     <t xml:space="preserve">5.5372576713562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5722541809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59558629989624</t>
+    <t xml:space="preserve">5.57225465774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59558582305908</t>
   </si>
   <si>
     <t xml:space="preserve">5.6966872215271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9027795791626</t>
+    <t xml:space="preserve">5.90277910232544</t>
   </si>
   <si>
     <t xml:space="preserve">5.856116771698</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83278512954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86389446258545</t>
+    <t xml:space="preserve">5.83278608322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86389398574829</t>
   </si>
   <si>
     <t xml:space="preserve">5.80167770385742</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84834051132202</t>
+    <t xml:space="preserve">5.84834003448486</t>
   </si>
   <si>
     <t xml:space="preserve">5.84445095062256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89500188827515</t>
+    <t xml:space="preserve">5.8950023651123</t>
   </si>
   <si>
     <t xml:space="preserve">5.90666723251343</t>
@@ -1022,16 +1022,16 @@
     <t xml:space="preserve">5.92999887466431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91444492340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94944095611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96499633789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81723165512085</t>
+    <t xml:space="preserve">5.91444540023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94944143295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96499586105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81723260879517</t>
   </si>
   <si>
     <t xml:space="preserve">5.86778259277344</t>
@@ -1040,37 +1040,37 @@
     <t xml:space="preserve">5.88333654403687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83667421340942</t>
+    <t xml:space="preserve">5.83667469024658</t>
   </si>
   <si>
     <t xml:space="preserve">5.78223514556885</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76279163360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68113327026367</t>
+    <t xml:space="preserve">5.76279211044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68113374710083</t>
   </si>
   <si>
     <t xml:space="preserve">5.70835256576538</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87167167663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85222864151001</t>
+    <t xml:space="preserve">5.87167119979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85222816467285</t>
   </si>
   <si>
     <t xml:space="preserve">5.73557281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91833400726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60336303710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50614929199219</t>
+    <t xml:space="preserve">5.91833305358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60336256027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50614976882935</t>
   </si>
   <si>
     <t xml:space="preserve">5.4594874382019</t>
@@ -1082,49 +1082,49 @@
     <t xml:space="preserve">5.44004487991333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50226068496704</t>
+    <t xml:space="preserve">5.5022611618042</t>
   </si>
   <si>
     <t xml:space="preserve">5.56058883666992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58392000198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72779560089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71612977981567</t>
+    <t xml:space="preserve">5.5839204788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72779512405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71613025665283</t>
   </si>
   <si>
     <t xml:space="preserve">5.76668071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72001838684082</t>
+    <t xml:space="preserve">5.72001886367798</t>
   </si>
   <si>
     <t xml:space="preserve">5.77445840835571</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84056282043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5489239692688</t>
+    <t xml:space="preserve">5.84056234359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54892349243164</t>
   </si>
   <si>
     <t xml:space="preserve">5.52559232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55670070648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58780860900879</t>
+    <t xml:space="preserve">5.55670022964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58780908584595</t>
   </si>
   <si>
     <t xml:space="preserve">5.43615627288818</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51392698287964</t>
+    <t xml:space="preserve">5.51392650604248</t>
   </si>
   <si>
     <t xml:space="preserve">5.93388795852661</t>
@@ -1133,16 +1133,16 @@
     <t xml:space="preserve">6.05054330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05832004547119</t>
+    <t xml:space="preserve">6.05832052230835</t>
   </si>
   <si>
     <t xml:space="preserve">6.01165819168091</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00388050079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10498237609863</t>
+    <t xml:space="preserve">6.0038800239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10498285293579</t>
   </si>
   <si>
     <t xml:space="preserve">6.08942794799805</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">5.9727725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94166421890259</t>
+    <t xml:space="preserve">5.94166374206543</t>
   </si>
   <si>
     <t xml:space="preserve">5.73168468475342</t>
@@ -1163,31 +1163,31 @@
     <t xml:space="preserve">5.67724514007568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88722467422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68502235412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73946189880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79390048980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77056932449341</t>
+    <t xml:space="preserve">5.88722515106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68502187728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73946142196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79390001296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77056980133057</t>
   </si>
   <si>
     <t xml:space="preserve">5.78612375259399</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70057582855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65391302108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49059629440308</t>
+    <t xml:space="preserve">5.7005763053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6539134979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49059581756592</t>
   </si>
   <si>
     <t xml:space="preserve">5.76564836502075</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">5.68568134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5017557144165</t>
+    <t xml:space="preserve">5.50175619125366</t>
   </si>
   <si>
     <t xml:space="preserve">5.46177244186401</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31783103942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34981822967529</t>
+    <t xml:space="preserve">5.31783151626587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34981775283813</t>
   </si>
   <si>
     <t xml:space="preserve">5.36581182479858</t>
@@ -1214,46 +1214,46 @@
     <t xml:space="preserve">5.32582759857178</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30983448028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03794574737549</t>
+    <t xml:space="preserve">5.30983400344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03794527053833</t>
   </si>
   <si>
     <t xml:space="preserve">4.93398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65410232543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91799449920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83003044128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99796199798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87001371383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79804372787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7420654296875</t>
+    <t xml:space="preserve">4.65410280227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91799402236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83002996444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99796152114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87001419067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7980432510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74206590652466</t>
   </si>
   <si>
     <t xml:space="preserve">4.85402059555054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92599105834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90200090408325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00595855712891</t>
+    <t xml:space="preserve">4.92599058151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90200138092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00595903396606</t>
   </si>
   <si>
     <t xml:space="preserve">5.09392261505127</t>
@@ -1265,34 +1265,34 @@
     <t xml:space="preserve">5.18188667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05393886566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06193590164185</t>
+    <t xml:space="preserve">5.05393934249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06193542480469</t>
   </si>
   <si>
     <t xml:space="preserve">4.95797777175903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02195167541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06993246078491</t>
+    <t xml:space="preserve">5.0219521522522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06993198394775</t>
   </si>
   <si>
     <t xml:space="preserve">5.08592557907104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17389011383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18988275527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1099157333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11791229248047</t>
+    <t xml:space="preserve">5.17388916015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1898832321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10991621017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11791276931763</t>
   </si>
   <si>
     <t xml:space="preserve">5.10191917419434</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">5.04594230651855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90999698638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89400386810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07792854309082</t>
+    <t xml:space="preserve">4.90999746322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89400339126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07792901992798</t>
   </si>
   <si>
     <t xml:space="preserve">4.94198417663574</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">4.4701771736145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44618701934814</t>
+    <t xml:space="preserve">4.44618654251099</t>
   </si>
   <si>
     <t xml:space="preserve">4.45418357849121</t>
@@ -1343,16 +1343,16 @@
     <t xml:space="preserve">4.39020919799805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42219638824463</t>
+    <t xml:space="preserve">4.42219686508179</t>
   </si>
   <si>
     <t xml:space="preserve">4.25426483154297</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27825546264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34222936630249</t>
+    <t xml:space="preserve">4.27825498580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34222888946533</t>
   </si>
   <si>
     <t xml:space="preserve">4.33423233032227</t>
@@ -1361,10 +1361,10 @@
     <t xml:space="preserve">4.54214715957642</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67009496688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64610481262207</t>
+    <t xml:space="preserve">4.67009544372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64610433578491</t>
   </si>
   <si>
     <t xml:space="preserve">4.66209840774536</t>
@@ -1379,22 +1379,22 @@
     <t xml:space="preserve">4.72607278823853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75006294250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82203388214111</t>
+    <t xml:space="preserve">4.75006246566772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82203340530396</t>
   </si>
   <si>
     <t xml:space="preserve">4.81403684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71007919311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52615356445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48617076873779</t>
+    <t xml:space="preserve">4.71007871627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52615404129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48617029190063</t>
   </si>
   <si>
     <t xml:space="preserve">4.55814123153687</t>
@@ -1403,31 +1403,31 @@
     <t xml:space="preserve">4.31823873519897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2462682723999</t>
+    <t xml:space="preserve">4.24626779556274</t>
   </si>
   <si>
     <t xml:space="preserve">4.18229389190674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28625154495239</t>
+    <t xml:space="preserve">4.28625202178955</t>
   </si>
   <si>
     <t xml:space="preserve">4.35822248458862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20628499984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11032390594482</t>
+    <t xml:space="preserve">4.20628452301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11032342910767</t>
   </si>
   <si>
     <t xml:space="preserve">4.07034015655518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95438694953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81844282150269</t>
+    <t xml:space="preserve">3.95438742637634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81844329833984</t>
   </si>
   <si>
     <t xml:space="preserve">3.92240071296692</t>
@@ -1436,25 +1436,25 @@
     <t xml:space="preserve">4.21428155899048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15830421447754</t>
+    <t xml:space="preserve">4.15830373764038</t>
   </si>
   <si>
     <t xml:space="preserve">4.23027467727661</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23827171325684</t>
+    <t xml:space="preserve">4.23827219009399</t>
   </si>
   <si>
     <t xml:space="preserve">4.26226139068604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13431406021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15030670166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09433031082153</t>
+    <t xml:space="preserve">4.13431358337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15030717849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09432983398438</t>
   </si>
   <si>
     <t xml:space="preserve">4.06234312057495</t>
@@ -1463,10 +1463,10 @@
     <t xml:space="preserve">4.01436281204224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05434608459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99836921691895</t>
+    <t xml:space="preserve">4.05434703826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99836874008179</t>
   </si>
   <si>
     <t xml:space="preserve">4.02235984802246</t>
@@ -1484,19 +1484,19 @@
     <t xml:space="preserve">4.11832046508789</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27025842666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98237586021423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96238398551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95038843154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91440367698669</t>
+    <t xml:space="preserve">4.27025890350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98237538337708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96238422393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95038890838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91440391540527</t>
   </si>
   <si>
     <t xml:space="preserve">4.03835344314575</t>
@@ -1505,103 +1505,103 @@
     <t xml:space="preserve">4.22227811813354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1023268699646</t>
+    <t xml:space="preserve">4.10232734680176</t>
   </si>
   <si>
     <t xml:space="preserve">4.08633327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07833623886108</t>
+    <t xml:space="preserve">4.07833671569824</t>
   </si>
   <si>
     <t xml:space="preserve">4.00636625289917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03035593032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89441156387329</t>
+    <t xml:space="preserve">4.03035640716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89441132545471</t>
   </si>
   <si>
     <t xml:space="preserve">3.97837734222412</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91840219497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87042212486267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98637461662292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1902904510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29424858093262</t>
+    <t xml:space="preserve">3.91840243339539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87042164802551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98637437820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19029092788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29424810409546</t>
   </si>
   <si>
     <t xml:space="preserve">3.93839406967163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97038078308105</t>
+    <t xml:space="preserve">3.97038102149963</t>
   </si>
   <si>
     <t xml:space="preserve">4.17429733276367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95838499069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.910404920578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84643125534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86242437362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81444430351257</t>
+    <t xml:space="preserve">3.95838522911072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91040444374084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.846431016922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86242461204529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81444454193115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77845883369446</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79098415374756</t>
+    <t xml:space="preserve">3.79098463058472</t>
   </si>
   <si>
     <t xml:space="preserve">3.79515957832336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77010846138</t>
+    <t xml:space="preserve">3.77010869979858</t>
   </si>
   <si>
     <t xml:space="preserve">3.68243193626404</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69913196563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74088311195374</t>
+    <t xml:space="preserve">3.69913220405579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74088335037231</t>
   </si>
   <si>
     <t xml:space="preserve">3.72418260574341</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71583247184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73670792579651</t>
+    <t xml:space="preserve">3.71583223342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73670816421509</t>
   </si>
   <si>
     <t xml:space="preserve">3.65738129615784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67408156394958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63650608062744</t>
+    <t xml:space="preserve">3.67408132553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63650584220886</t>
   </si>
   <si>
     <t xml:space="preserve">3.59475469589233</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">3.55300402641296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56970429420471</t>
+    <t xml:space="preserve">3.56970405578613</t>
   </si>
   <si>
     <t xml:space="preserve">3.54882884025574</t>
@@ -1649,28 +1649,28 @@
     <t xml:space="preserve">3.52377843856812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53630375862122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59057998657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74923348426819</t>
+    <t xml:space="preserve">3.53630399703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59058022499084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74923324584961</t>
   </si>
   <si>
     <t xml:space="preserve">3.97468852996826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04149055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92876195907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92458724975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94128775596619</t>
+    <t xml:space="preserve">4.04149007797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92876243591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9245867729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94128727912903</t>
   </si>
   <si>
     <t xml:space="preserve">3.94963788986206</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">3.98303866386414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90371227264404</t>
+    <t xml:space="preserve">3.90371179580688</t>
   </si>
   <si>
     <t xml:space="preserve">3.84108519554138</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">3.89536190032959</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87031126022339</t>
+    <t xml:space="preserve">3.87031078338623</t>
   </si>
   <si>
     <t xml:space="preserve">3.79933476448059</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78680896759033</t>
+    <t xml:space="preserve">3.78680920600891</t>
   </si>
   <si>
     <t xml:space="preserve">3.77845931053162</t>
@@ -1712,10 +1712,10 @@
     <t xml:space="preserve">3.75758361816406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72000741958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76593399047852</t>
+    <t xml:space="preserve">3.72000765800476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76593375205994</t>
   </si>
   <si>
     <t xml:space="preserve">3.69078230857849</t>
@@ -1730,28 +1730,28 @@
     <t xml:space="preserve">3.86613583564758</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92041254043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02061462402344</t>
+    <t xml:space="preserve">3.92041206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02061414718628</t>
   </si>
   <si>
     <t xml:space="preserve">4.03731489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06654024124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05819034576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12081623077393</t>
+    <t xml:space="preserve">4.06654071807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.058189868927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12081670761108</t>
   </si>
   <si>
     <t xml:space="preserve">4.18344306945801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3337459564209</t>
+    <t xml:space="preserve">4.33374643325806</t>
   </si>
   <si>
     <t xml:space="preserve">4.26694488525391</t>
@@ -1763,19 +1763,19 @@
     <t xml:space="preserve">4.16256809234619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24189424514771</t>
+    <t xml:space="preserve">4.24189472198486</t>
   </si>
   <si>
     <t xml:space="preserve">4.23354387283325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16674280166626</t>
+    <t xml:space="preserve">4.1667423248291</t>
   </si>
   <si>
     <t xml:space="preserve">4.12916660308838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07906579971313</t>
+    <t xml:space="preserve">4.07906532287598</t>
   </si>
   <si>
     <t xml:space="preserve">4.09159135818481</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">4.05401515960693</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12499141693115</t>
+    <t xml:space="preserve">4.12499189376831</t>
   </si>
   <si>
     <t xml:space="preserve">4.21684408187866</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">4.25024461746216</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30869579315186</t>
+    <t xml:space="preserve">4.3086953163147</t>
   </si>
   <si>
     <t xml:space="preserve">4.40054798126221</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">4.40889835357666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3253960609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44229888916016</t>
+    <t xml:space="preserve">4.32539558410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.442298412323</t>
   </si>
   <si>
     <t xml:space="preserve">4.52580070495605</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">4.47569942474365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45064878463745</t>
+    <t xml:space="preserve">4.45064926147461</t>
   </si>
   <si>
     <t xml:space="preserve">4.42559862136841</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">4.46734952926636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55085134506226</t>
+    <t xml:space="preserve">4.5508508682251</t>
   </si>
   <si>
     <t xml:space="preserve">4.4339485168457</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">4.3838472366333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3504467010498</t>
+    <t xml:space="preserve">4.35044717788696</t>
   </si>
   <si>
     <t xml:space="preserve">4.39219808578491</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">4.28364515304565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25859403610229</t>
+    <t xml:space="preserve">4.25859451293945</t>
   </si>
   <si>
     <t xml:space="preserve">4.20014381408691</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">3.97051334381104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97886276245117</t>
+    <t xml:space="preserve">3.97886323928833</t>
   </si>
   <si>
     <t xml:space="preserve">4.0331392288208</t>
@@ -1919,13 +1919,13 @@
     <t xml:space="preserve">3.80768465995789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62815594673157</t>
+    <t xml:space="preserve">3.62815570831299</t>
   </si>
   <si>
     <t xml:space="preserve">3.43610143661499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38600039482117</t>
+    <t xml:space="preserve">3.38600015640259</t>
   </si>
   <si>
     <t xml:space="preserve">3.13549470901489</t>
@@ -1940,25 +1940,25 @@
     <t xml:space="preserve">2.9935417175293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23987197875977</t>
+    <t xml:space="preserve">3.23987221717834</t>
   </si>
   <si>
     <t xml:space="preserve">3.31919860839844</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28579807281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25239753723145</t>
+    <t xml:space="preserve">3.28579831123352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25239729881287</t>
   </si>
   <si>
     <t xml:space="preserve">3.21482133865356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27327299118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15219521522522</t>
+    <t xml:space="preserve">3.27327275276184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1521954536438</t>
   </si>
   <si>
     <t xml:space="preserve">3.19812107086182</t>
@@ -1976,13 +1976,13 @@
     <t xml:space="preserve">3.20647120475769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12296938896179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19394612312317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31084871292114</t>
+    <t xml:space="preserve">3.12296962738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19394588470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31084847450256</t>
   </si>
   <si>
     <t xml:space="preserve">3.26074767112732</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">3.35259962081909</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34424924850464</t>
+    <t xml:space="preserve">3.34424948692322</t>
   </si>
   <si>
     <t xml:space="preserve">3.44862699508667</t>
@@ -2009,25 +2009,25 @@
     <t xml:space="preserve">3.38182544708252</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42357587814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49872803688049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47367739677429</t>
+    <t xml:space="preserve">3.42357611656189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49872779846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47367715835571</t>
   </si>
   <si>
     <t xml:space="preserve">3.52795338630676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55717921257019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61145496368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66990637779236</t>
+    <t xml:space="preserve">3.55717897415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61145520210266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66990661621094</t>
   </si>
   <si>
     <t xml:space="preserve">3.49037742614746</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">3.39017534255981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43192625045776</t>
+    <t xml:space="preserve">3.43192648887634</t>
   </si>
   <si>
     <t xml:space="preserve">3.49455261230469</t>
@@ -2051,10 +2051,10 @@
     <t xml:space="preserve">3.63233065605164</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76175880432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87866067886353</t>
+    <t xml:space="preserve">3.76175904273987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87866115570068</t>
   </si>
   <si>
     <t xml:space="preserve">3.85361051559448</t>
@@ -2066,22 +2066,22 @@
     <t xml:space="preserve">3.64068126678467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69495749473572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64485597610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65320611000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64903092384338</t>
+    <t xml:space="preserve">3.69495725631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64485573768616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65320634841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64903116226196</t>
   </si>
   <si>
     <t xml:space="preserve">3.60310506820679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73253321647644</t>
+    <t xml:space="preserve">3.73253297805786</t>
   </si>
   <si>
     <t xml:space="preserve">3.72835826873779</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">3.74505853652954</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66573095321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59892988204956</t>
+    <t xml:space="preserve">3.66573119163513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59893012046814</t>
   </si>
   <si>
     <t xml:space="preserve">3.56552910804749</t>
@@ -2141,55 +2141,55 @@
     <t xml:space="preserve">3.26492285728455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23152160644531</t>
+    <t xml:space="preserve">3.23152184486389</t>
   </si>
   <si>
     <t xml:space="preserve">3.18559575080872</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09374356269836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08121871948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06034302711487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03946757316589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00189208984375</t>
+    <t xml:space="preserve">3.09374380111694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08121848106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06034278869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03946781158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00189185142517</t>
   </si>
   <si>
     <t xml:space="preserve">3.00606679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96014070510864</t>
+    <t xml:space="preserve">2.96014094352722</t>
   </si>
   <si>
     <t xml:space="preserve">2.82236289978027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7054603099823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81818795204163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88916444778442</t>
+    <t xml:space="preserve">2.70546007156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81818771362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88916420936584</t>
   </si>
   <si>
     <t xml:space="preserve">2.98101615905762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30249834060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90788722038269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00808906555176</t>
+    <t xml:space="preserve">3.30249857902527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90788674354553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00808954238892</t>
   </si>
   <si>
     <t xml:space="preserve">4.01643943786621</t>
@@ -2201,13 +2201,13 @@
     <t xml:space="preserve">3.93711304664612</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8744854927063</t>
+    <t xml:space="preserve">3.87448596954346</t>
   </si>
   <si>
     <t xml:space="preserve">3.84943580627441</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89118599891663</t>
+    <t xml:space="preserve">3.89118647575378</t>
   </si>
   <si>
     <t xml:space="preserve">3.77428364753723</t>
@@ -2228,13 +2228,13 @@
     <t xml:space="preserve">4.07071542739868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14169216156006</t>
+    <t xml:space="preserve">4.14169263839722</t>
   </si>
   <si>
     <t xml:space="preserve">4.19179344177246</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15004253387451</t>
+    <t xml:space="preserve">4.15004205703735</t>
   </si>
   <si>
     <t xml:space="preserve">4.17091751098633</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">4.5425009727478</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60930252075195</t>
+    <t xml:space="preserve">4.60930299758911</t>
   </si>
   <si>
     <t xml:space="preserve">4.76525640487671</t>
@@ -2264,13 +2264,13 @@
     <t xml:space="preserve">4.50533294677734</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51399707794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52266120910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.643958568573</t>
+    <t xml:space="preserve">4.51399755477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5226616859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64395904541016</t>
   </si>
   <si>
     <t xml:space="preserve">4.71327209472656</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">4.72193574905396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70460748672485</t>
+    <t xml:space="preserve">4.7046070098877</t>
   </si>
   <si>
     <t xml:space="preserve">4.82590532302856</t>
@@ -2288,16 +2288,16 @@
     <t xml:space="preserve">4.78258419036865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79991292953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80857706069946</t>
+    <t xml:space="preserve">4.79991245269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8085765838623</t>
   </si>
   <si>
     <t xml:space="preserve">4.756591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7392635345459</t>
+    <t xml:space="preserve">4.73926401138306</t>
   </si>
   <si>
     <t xml:space="preserve">4.73059988021851</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">4.44468450546265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41869163513184</t>
+    <t xml:space="preserve">4.41869211196899</t>
   </si>
   <si>
     <t xml:space="preserve">4.42735624313354</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">4.3753719329834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4533486366272</t>
+    <t xml:space="preserve">4.45334815979004</t>
   </si>
   <si>
     <t xml:space="preserve">4.47934055328369</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">4.79124879837036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81724071502686</t>
+    <t xml:space="preserve">4.81724119186401</t>
   </si>
   <si>
     <t xml:space="preserve">4.92987442016602</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">4.91254615783691</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90388202667236</t>
+    <t xml:space="preserve">4.90388154983521</t>
   </si>
   <si>
     <t xml:space="preserve">4.94720220565796</t>
@@ -2390,10 +2390,10 @@
     <t xml:space="preserve">4.95586633682251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97319459915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04250764846802</t>
+    <t xml:space="preserve">4.97319412231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04250812530518</t>
   </si>
   <si>
     <t xml:space="preserve">5.08582782745361</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">5.12048435211182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96453046798706</t>
+    <t xml:space="preserve">4.96453094482422</t>
   </si>
   <si>
     <t xml:space="preserve">5.07716417312622</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">5.22445344924927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12914848327637</t>
+    <t xml:space="preserve">5.12914896011353</t>
   </si>
   <si>
     <t xml:space="preserve">5.24178218841553</t>
@@ -2429,16 +2429,16 @@
     <t xml:space="preserve">5.37174320220947</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42372846603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58834600448608</t>
+    <t xml:space="preserve">5.42372798919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58834552764893</t>
   </si>
   <si>
     <t xml:space="preserve">5.56235361099243</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51903343200684</t>
+    <t xml:space="preserve">5.51903295516968</t>
   </si>
   <si>
     <t xml:space="preserve">5.47571277618408</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">5.60567426681519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57968187332153</t>
+    <t xml:space="preserve">5.57968235015869</t>
   </si>
   <si>
     <t xml:space="preserve">5.55368947982788</t>
@@ -2468,16 +2468,16 @@
     <t xml:space="preserve">5.62300205230713</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73563575744629</t>
+    <t xml:space="preserve">5.73563528060913</t>
   </si>
   <si>
     <t xml:space="preserve">5.72697162628174</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70964336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64033079147339</t>
+    <t xml:space="preserve">5.70964384078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64033031463623</t>
   </si>
   <si>
     <t xml:space="preserve">5.68365144729614</t>
@@ -2495,19 +2495,19 @@
     <t xml:space="preserve">5.80494832992554</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85693311691284</t>
+    <t xml:space="preserve">5.85693359375</t>
   </si>
   <si>
     <t xml:space="preserve">5.54502582550049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44971990585327</t>
+    <t xml:space="preserve">5.44972038269043</t>
   </si>
   <si>
     <t xml:space="preserve">5.30243062973022</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25910997390747</t>
+    <t xml:space="preserve">5.25911045074463</t>
   </si>
   <si>
     <t xml:space="preserve">5.26777410507202</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">5.05983591079712</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32842350006104</t>
+    <t xml:space="preserve">5.32842302322388</t>
   </si>
   <si>
     <t xml:space="preserve">5.38907146453857</t>
@@ -2564,91 +2564,94 @@
     <t xml:space="preserve">5.28510236740112</t>
   </si>
   <si>
+    <t xml:space="preserve">5.19846105575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14647674560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27643823623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36307954788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45838499069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09952831268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25548124313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3334584236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51540517807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28147411346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29880285263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18616914749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1081919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71830749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84826946258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20712566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87788963317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31975841522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44105672836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35441541671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21578979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06850004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10315608978271</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.19846153259277</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14647674560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27643871307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36307907104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45838499069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09952831268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2554817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3334584236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51540517807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28147411346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29880285263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18616914749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1081919670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84826898574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20712566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87788963317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639972686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31975889205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44105672836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35441493988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21578979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06850004196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10315656661987</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.27142238616943</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2349419593811</t>
+    <t xml:space="preserve">5.23494148254395</t>
   </si>
   <si>
     <t xml:space="preserve">5.18934154510498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12550020217896</t>
+    <t xml:space="preserve">5.12550067901611</t>
   </si>
   <si>
     <t xml:space="preserve">5.29878282546997</t>
@@ -2657,13 +2660,13 @@
     <t xml:space="preserve">5.50854539871216</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47206497192383</t>
+    <t xml:space="preserve">5.47206449508667</t>
   </si>
   <si>
     <t xml:space="preserve">5.68182706832886</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60886669158936</t>
+    <t xml:space="preserve">5.6088662147522</t>
   </si>
   <si>
     <t xml:space="preserve">5.65446662902832</t>
@@ -2699,10 +2702,10 @@
     <t xml:space="preserve">5.04341983795166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95221853256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0616602897644</t>
+    <t xml:space="preserve">4.9522180557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06165981292725</t>
   </si>
   <si>
     <t xml:space="preserve">5.13462066650391</t>
@@ -2714,16 +2717,16 @@
     <t xml:space="preserve">5.09814071655273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05253982543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98869848251343</t>
+    <t xml:space="preserve">5.05253934860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98869895935059</t>
   </si>
   <si>
     <t xml:space="preserve">4.78805685043335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76069593429565</t>
+    <t xml:space="preserve">4.76069641113281</t>
   </si>
   <si>
     <t xml:space="preserve">4.84277725219727</t>
@@ -2735,16 +2738,19 @@
     <t xml:space="preserve">4.71509552001953</t>
   </si>
   <si>
+    <t xml:space="preserve">4.85189771652222</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.93397808074951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88837766647339</t>
+    <t xml:space="preserve">4.88837814331055</t>
   </si>
   <si>
     <t xml:space="preserve">4.83365726470947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72421598434448</t>
+    <t xml:space="preserve">4.72421550750732</t>
   </si>
   <si>
     <t xml:space="preserve">4.91573810577393</t>
@@ -2759,7 +2765,7 @@
     <t xml:space="preserve">5.03429937362671</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16198110580444</t>
+    <t xml:space="preserve">5.16198062896729</t>
   </si>
   <si>
     <t xml:space="preserve">5.1437406539917</t>
@@ -2774,9 +2780,6 @@
     <t xml:space="preserve">5.36262321472168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37174367904663</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.21670150756836</t>
   </si>
   <si>
@@ -2786,7 +2789,7 @@
     <t xml:space="preserve">5.28054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22582149505615</t>
+    <t xml:space="preserve">5.22582197189331</t>
   </si>
   <si>
     <t xml:space="preserve">5.32614326477051</t>
@@ -2819,34 +2822,34 @@
     <t xml:space="preserve">5.31702280044556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39910364151001</t>
+    <t xml:space="preserve">5.39910411834717</t>
   </si>
   <si>
     <t xml:space="preserve">5.45382452011108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53590536117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64534664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70918798446655</t>
+    <t xml:space="preserve">5.5359058380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64534711837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70918750762939</t>
   </si>
   <si>
     <t xml:space="preserve">5.78214836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73654747009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7730278968811</t>
+    <t xml:space="preserve">5.73654794692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77302837371826</t>
   </si>
   <si>
     <t xml:space="preserve">5.81862878799438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82774877548218</t>
+    <t xml:space="preserve">5.82774925231934</t>
   </si>
   <si>
     <t xml:space="preserve">5.84598922729492</t>
@@ -2855,7 +2858,7 @@
     <t xml:space="preserve">5.86422920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92807054519653</t>
+    <t xml:space="preserve">5.92807006835938</t>
   </si>
   <si>
     <t xml:space="preserve">6.00103092193604</t>
@@ -2873,13 +2876,13 @@
     <t xml:space="preserve">6.0648717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03751134872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15607261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01927137374878</t>
+    <t xml:space="preserve">6.03751087188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15607309341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01927089691162</t>
   </si>
   <si>
     <t xml:space="preserve">6.0739917755127</t>
@@ -2900,10 +2903,10 @@
     <t xml:space="preserve">6.12871217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28375387191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21991395950317</t>
+    <t xml:space="preserve">6.28375434875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21991348266602</t>
   </si>
   <si>
     <t xml:space="preserve">6.20167350769043</t>
@@ -2912,19 +2915,19 @@
     <t xml:space="preserve">6.18343353271484</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1651930809021</t>
+    <t xml:space="preserve">6.16519355773926</t>
   </si>
   <si>
     <t xml:space="preserve">6.24727344512939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38407516479492</t>
+    <t xml:space="preserve">6.38407564163208</t>
   </si>
   <si>
     <t xml:space="preserve">6.4296760559082</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45703649520874</t>
+    <t xml:space="preserve">6.45703601837158</t>
   </si>
   <si>
     <t xml:space="preserve">6.47527647018433</t>
@@ -2936,7 +2939,7 @@
     <t xml:space="preserve">6.42055606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52087688446045</t>
+    <t xml:space="preserve">6.52087736129761</t>
   </si>
   <si>
     <t xml:space="preserve">6.41143608093262</t>
@@ -2957,7 +2960,7 @@
     <t xml:space="preserve">7.06808376312256</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15016460418701</t>
+    <t xml:space="preserve">7.15016508102417</t>
   </si>
   <si>
     <t xml:space="preserve">7.11368417739868</t>
@@ -2969,10 +2972,10 @@
     <t xml:space="preserve">7.28696584701538</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20488548278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26872539520264</t>
+    <t xml:space="preserve">7.20488500595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26872587203979</t>
   </si>
   <si>
     <t xml:space="preserve">7.27784633636475</t>
@@ -2981,7 +2984,7 @@
     <t xml:space="preserve">7.19576501846313</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25048542022705</t>
+    <t xml:space="preserve">7.25048589706421</t>
   </si>
   <si>
     <t xml:space="preserve">7.37816762924194</t>
@@ -2999,7 +3002,7 @@
     <t xml:space="preserve">7.50584840774536</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44200801849365</t>
+    <t xml:space="preserve">7.44200754165649</t>
   </si>
   <si>
     <t xml:space="preserve">7.38728761672974</t>
@@ -3011,7 +3014,7 @@
     <t xml:space="preserve">7.31432676315308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34168720245361</t>
+    <t xml:space="preserve">7.34168672561646</t>
   </si>
   <si>
     <t xml:space="preserve">7.42376804351807</t>
@@ -3020,7 +3023,7 @@
     <t xml:space="preserve">7.45112800598145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46024894714355</t>
+    <t xml:space="preserve">7.4602484703064</t>
   </si>
   <si>
     <t xml:space="preserve">7.49672889709473</t>
@@ -3047,7 +3050,7 @@
     <t xml:space="preserve">5.94631052017212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2563943862915</t>
+    <t xml:space="preserve">6.25639390945435</t>
   </si>
   <si>
     <t xml:space="preserve">6.19255304336548</t>
@@ -3059,7 +3062,7 @@
     <t xml:space="preserve">6.44791650772095</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50263690948486</t>
+    <t xml:space="preserve">6.50263738632202</t>
   </si>
   <si>
     <t xml:space="preserve">6.40231561660767</t>
@@ -3068,7 +3071,7 @@
     <t xml:space="preserve">6.49351692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6029577255249</t>
+    <t xml:space="preserve">6.60295820236206</t>
   </si>
   <si>
     <t xml:space="preserve">6.5299973487854</t>
@@ -3086,7 +3089,7 @@
     <t xml:space="preserve">6.56647729873657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58471775054932</t>
+    <t xml:space="preserve">6.58471727371216</t>
   </si>
   <si>
     <t xml:space="preserve">6.48439693450928</t>
@@ -3666,6 +3669,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.11999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93000030517578</t>
   </si>
 </sst>
 </file>
@@ -46119,7 +46125,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1620" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46145,7 +46151,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1621" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46171,7 +46177,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1622" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46197,7 +46203,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46223,7 +46229,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1624" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46249,7 +46255,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46275,7 +46281,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46301,7 +46307,7 @@
         <v>6</v>
       </c>
       <c r="G1627" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46327,7 +46333,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1628" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46353,7 +46359,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1629" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46379,7 +46385,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1630" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46405,7 +46411,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1631" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46431,7 +46437,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1632" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46457,7 +46463,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46483,7 +46489,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46509,7 +46515,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1635" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46535,7 +46541,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46561,7 +46567,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1637" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46587,7 +46593,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46613,7 +46619,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1639" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46639,7 +46645,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1640" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46665,7 +46671,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1641" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46691,7 +46697,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1642" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46717,7 +46723,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1643" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46743,7 +46749,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46769,7 +46775,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1645" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46795,7 +46801,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1646" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46821,7 +46827,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1647" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46847,7 +46853,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1648" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46873,7 +46879,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1649" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46899,7 +46905,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46925,7 +46931,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1651" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46951,7 +46957,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1652" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46977,7 +46983,7 @@
         <v>5.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47003,7 +47009,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1654" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47029,7 +47035,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1655" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47055,7 +47061,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1656" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47081,7 +47087,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47107,7 +47113,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1658" t="s">
-        <v>779</v>
+        <v>908</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47133,7 +47139,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1659" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47159,7 +47165,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G1660" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47185,7 +47191,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1661" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47211,7 +47217,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1662" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47237,7 +47243,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1663" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47263,7 +47269,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1664" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47289,7 +47295,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1665" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47315,7 +47321,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47341,7 +47347,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1667" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47367,7 +47373,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1668" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47393,7 +47399,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47419,7 +47425,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G1670" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47445,7 +47451,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1671" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47471,7 +47477,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1672" t="s">
-        <v>779</v>
+        <v>908</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47497,7 +47503,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1673" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47523,7 +47529,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1674" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47549,7 +47555,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1675" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47575,7 +47581,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1676" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47601,7 +47607,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1677" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47627,7 +47633,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1678" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47653,7 +47659,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1679" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47679,7 +47685,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1680" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47705,7 +47711,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1681" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47731,7 +47737,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1682" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47757,7 +47763,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1683" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47783,7 +47789,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1684" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47809,7 +47815,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G1685" t="s">
-        <v>920</v>
+        <v>804</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47835,7 +47841,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1686" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47861,7 +47867,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1687" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47887,7 +47893,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47913,7 +47919,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1689" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47939,7 +47945,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47965,7 +47971,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47991,7 +47997,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1692" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48017,7 +48023,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1693" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48043,7 +48049,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48069,7 +48075,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1695" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48095,7 +48101,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1696" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48121,7 +48127,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1697" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48147,7 +48153,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1698" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48173,7 +48179,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1699" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48199,7 +48205,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1700" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48225,7 +48231,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1701" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48251,7 +48257,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48277,7 +48283,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1703" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48303,7 +48309,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1704" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48329,7 +48335,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1705" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48355,7 +48361,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1706" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48381,7 +48387,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48407,7 +48413,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48433,7 +48439,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1709" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48459,7 +48465,7 @@
         <v>6</v>
       </c>
       <c r="G1710" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48485,7 +48491,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1711" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48511,7 +48517,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1712" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48537,7 +48543,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1713" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48563,7 +48569,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1714" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48589,7 +48595,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1715" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48615,7 +48621,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1716" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48641,7 +48647,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48667,7 +48673,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48693,7 +48699,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1719" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48719,7 +48725,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1720" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48745,7 +48751,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1721" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48771,7 +48777,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1722" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48797,7 +48803,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1723" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48823,7 +48829,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48849,7 +48855,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1725" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48875,7 +48881,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1726" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48901,7 +48907,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G1727" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48927,7 +48933,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1728" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48953,7 +48959,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1729" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48979,7 +48985,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49005,7 +49011,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1731" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49031,7 +49037,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1732" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49057,7 +49063,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49083,7 +49089,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1734" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49109,7 +49115,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1735" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49135,7 +49141,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1736" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49161,7 +49167,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1737" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49187,7 +49193,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1738" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49213,7 +49219,7 @@
         <v>6</v>
       </c>
       <c r="G1739" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49239,7 +49245,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1740" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49265,7 +49271,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1741" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49291,7 +49297,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1742" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49317,7 +49323,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1743" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49343,7 +49349,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G1744" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49369,7 +49375,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49395,7 +49401,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1746" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49421,7 +49427,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49447,7 +49453,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1748" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49473,7 +49479,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G1749" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49499,7 +49505,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1750" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49525,7 +49531,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1751" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49551,7 +49557,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1752" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49577,7 +49583,7 @@
         <v>6.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49603,7 +49609,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49629,7 +49635,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1755" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49655,7 +49661,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1756" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49681,7 +49687,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49707,7 +49713,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49733,7 +49739,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49759,7 +49765,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1760" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49785,7 +49791,7 @@
         <v>6.75</v>
       </c>
       <c r="G1761" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49811,7 +49817,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1762" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49837,7 +49843,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49863,7 +49869,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1764" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49889,7 +49895,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1765" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49915,7 +49921,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1766" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49941,7 +49947,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1767" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49967,7 +49973,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1768" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49993,7 +49999,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50019,7 +50025,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1770" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50045,7 +50051,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50071,7 +50077,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1772" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50097,7 +50103,7 @@
         <v>6.75</v>
       </c>
       <c r="G1773" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50123,7 +50129,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1774" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50149,7 +50155,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1775" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50175,7 +50181,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1776" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50201,7 +50207,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1777" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50227,7 +50233,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1778" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50253,7 +50259,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1779" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50279,7 +50285,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1780" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50305,7 +50311,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1781" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50331,7 +50337,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50357,7 +50363,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1783" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50383,7 +50389,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1784" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50409,7 +50415,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50435,7 +50441,7 @@
         <v>7</v>
       </c>
       <c r="G1786" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50461,7 +50467,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1787" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50487,7 +50493,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50513,7 +50519,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1789" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50539,7 +50545,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1790" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50565,7 +50571,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1791" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50591,7 +50597,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1792" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50617,7 +50623,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1793" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50643,7 +50649,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1794" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50669,7 +50675,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1795" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50695,7 +50701,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1796" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50721,7 +50727,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50747,7 +50753,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1798" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50773,7 +50779,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1799" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50799,7 +50805,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1800" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50825,7 +50831,7 @@
         <v>7.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50851,7 +50857,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1802" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50877,7 +50883,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1803" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50903,7 +50909,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1804" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50929,7 +50935,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1805" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50955,7 +50961,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1806" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50981,7 +50987,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51007,7 +51013,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1808" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51033,7 +51039,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1809" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51059,7 +51065,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1810" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51085,7 +51091,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1811" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51111,7 +51117,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1812" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51137,7 +51143,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1813" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51163,7 +51169,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1814" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51189,7 +51195,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1815" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51215,7 +51221,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1816" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51241,7 +51247,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1817" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51267,7 +51273,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1818" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51293,7 +51299,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1819" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51319,7 +51325,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51345,7 +51351,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1821" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51371,7 +51377,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1822" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51397,7 +51403,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1823" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51423,7 +51429,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1824" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51449,7 +51455,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1825" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51475,7 +51481,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1826" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51501,7 +51507,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1827" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51527,7 +51533,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1828" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51553,7 +51559,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1829" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51579,7 +51585,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1830" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51605,7 +51611,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1831" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51631,7 +51637,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1832" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51657,7 +51663,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51683,7 +51689,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51709,7 +51715,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1835" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51735,7 +51741,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1836" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51761,7 +51767,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1837" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51787,7 +51793,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1838" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51813,7 +51819,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1839" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51839,7 +51845,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1840" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51865,7 +51871,7 @@
         <v>6.75</v>
       </c>
       <c r="G1841" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51891,7 +51897,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51917,7 +51923,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G1843" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51943,7 +51949,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1844" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51969,7 +51975,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1845" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51995,7 +52001,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1846" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52021,7 +52027,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1847" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52047,7 +52053,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1848" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52073,7 +52079,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1849" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52099,7 +52105,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1850" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52125,7 +52131,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1851" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52151,7 +52157,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1852" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52177,7 +52183,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1853" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52203,7 +52209,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52229,7 +52235,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52255,7 +52261,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1856" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52281,7 +52287,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1857" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52307,7 +52313,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1858" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52333,7 +52339,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52359,7 +52365,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52385,7 +52391,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1861" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52411,7 +52417,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1862" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52437,7 +52443,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1863" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52463,7 +52469,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1864" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52489,7 +52495,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1865" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52515,7 +52521,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1866" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52541,7 +52547,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1867" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52567,7 +52573,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52593,7 +52599,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1869" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52619,7 +52625,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1870" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52645,7 +52651,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52671,7 +52677,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1872" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52697,7 +52703,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1873" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52723,7 +52729,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52749,7 +52755,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52775,7 +52781,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52801,7 +52807,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1877" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52827,7 +52833,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1878" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52853,7 +52859,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1879" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52879,7 +52885,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1880" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52905,7 +52911,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52931,7 +52937,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52957,7 +52963,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1883" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52983,7 +52989,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1884" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53009,7 +53015,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1885" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53035,7 +53041,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1886" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53061,7 +53067,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1887" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53087,7 +53093,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53113,7 +53119,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1889" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53139,7 +53145,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1890" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53165,7 +53171,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53191,7 +53197,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53217,7 +53223,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1893" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53243,7 +53249,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1894" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53269,7 +53275,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1895" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53295,7 +53301,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53321,7 +53327,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1897" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53347,7 +53353,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53373,7 +53379,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1899" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53399,7 +53405,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1900" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53425,7 +53431,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1901" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53451,7 +53457,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1902" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53477,7 +53483,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1903" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53503,7 +53509,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1904" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53529,7 +53535,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1905" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53555,7 +53561,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1906" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53581,7 +53587,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1907" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53607,7 +53613,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1908" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53633,7 +53639,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53659,7 +53665,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1910" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53685,7 +53691,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53711,7 +53717,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1912" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53737,7 +53743,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G1913" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53763,7 +53769,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1914" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53789,7 +53795,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1915" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53815,7 +53821,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1916" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53841,7 +53847,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1917" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53867,7 +53873,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1918" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53893,7 +53899,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1919" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53919,7 +53925,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53945,7 +53951,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1921" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53971,7 +53977,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1922" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53997,7 +54003,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54023,7 +54029,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1924" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54049,7 +54055,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1925" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54075,7 +54081,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1926" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54101,7 +54107,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54127,7 +54133,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54153,7 +54159,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1929" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54179,7 +54185,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1930" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54205,7 +54211,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54231,7 +54237,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1932" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54257,7 +54263,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1933" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54283,7 +54289,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54309,7 +54315,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1935" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54335,7 +54341,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1936" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54361,7 +54367,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54387,7 +54393,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1938" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54413,7 +54419,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1939" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54439,7 +54445,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1940" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54465,7 +54471,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1941" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54491,7 +54497,7 @@
         <v>7.5</v>
       </c>
       <c r="G1942" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54517,7 +54523,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54543,7 +54549,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1944" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54569,7 +54575,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1945" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54595,7 +54601,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G1946" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54621,7 +54627,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1947" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54647,7 +54653,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1948" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54673,7 +54679,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1949" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54699,7 +54705,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1950" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54725,7 +54731,7 @@
         <v>7.75</v>
       </c>
       <c r="G1951" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54751,7 +54757,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1952" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54777,7 +54783,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1953" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54803,7 +54809,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54829,7 +54835,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G1955" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54855,7 +54861,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54881,7 +54887,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1957" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54907,7 +54913,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54933,7 +54939,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54959,7 +54965,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1960" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54985,7 +54991,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55011,7 +55017,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1962" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55037,7 +55043,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1963" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55063,7 +55069,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55089,7 +55095,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1965" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55115,7 +55121,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1966" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55141,7 +55147,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1967" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55167,7 +55173,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1968" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55193,7 +55199,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1969" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55219,7 +55225,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1970" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55245,7 +55251,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55271,7 +55277,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1972" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55297,7 +55303,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1973" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55323,7 +55329,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1974" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55349,7 +55355,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55375,7 +55381,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1976" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55401,7 +55407,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1977" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55427,7 +55433,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1978" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55453,7 +55459,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1979" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55479,7 +55485,7 @@
         <v>7.75</v>
       </c>
       <c r="G1980" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55505,7 +55511,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1981" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55531,7 +55537,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55557,7 +55563,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55583,7 +55589,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55609,7 +55615,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1985" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55635,7 +55641,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55661,7 +55667,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1987" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55687,7 +55693,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1988" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55713,7 +55719,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1989" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55739,7 +55745,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55765,7 +55771,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1991" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55791,7 +55797,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1992" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55817,7 +55823,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1993" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55843,7 +55849,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55869,7 +55875,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55895,7 +55901,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G1996" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55921,7 +55927,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1997" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55947,7 +55953,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1998" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55973,7 +55979,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1999" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55999,7 +56005,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2000" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56025,7 +56031,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G2001" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56051,7 +56057,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2002" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56077,7 +56083,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56103,7 +56109,7 @@
         <v>8</v>
       </c>
       <c r="G2004" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56129,7 +56135,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2005" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56155,7 +56161,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2006" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56181,7 +56187,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56207,7 +56213,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2008" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56233,7 +56239,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56259,7 +56265,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2010" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56285,7 +56291,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56311,7 +56317,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56337,7 +56343,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2013" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56363,7 +56369,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G2014" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56389,7 +56395,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2015" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56415,7 +56421,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56441,7 +56447,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2017" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56467,7 +56473,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2018" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56493,7 +56499,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G2019" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56519,7 +56525,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2020" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56545,7 +56551,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G2021" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56571,7 +56577,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2022" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56597,7 +56603,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2023" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56623,7 +56629,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2024" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56649,7 +56655,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2025" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56675,7 +56681,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2026" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56701,7 +56707,7 @@
         <v>8</v>
       </c>
       <c r="G2027" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56727,7 +56733,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2028" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56753,7 +56759,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2029" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56779,7 +56785,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2030" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56805,7 +56811,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G2031" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56831,7 +56837,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2032" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56857,7 +56863,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2033" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56883,7 +56889,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2034" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56909,7 +56915,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2035" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56935,7 +56941,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56961,7 +56967,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2037" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56987,7 +56993,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2038" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57013,7 +57019,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G2039" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57039,7 +57045,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2040" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57065,7 +57071,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2041" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57091,7 +57097,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2042" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57117,7 +57123,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2043" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57143,7 +57149,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2044" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57169,7 +57175,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2045" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57195,7 +57201,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G2046" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57221,7 +57227,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2047" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57247,7 +57253,7 @@
         <v>8.25</v>
       </c>
       <c r="G2048" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57273,7 +57279,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2049" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57299,7 +57305,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2050" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57325,7 +57331,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2051" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57351,7 +57357,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2052" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57377,7 +57383,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2053" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57403,7 +57409,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57429,7 +57435,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2055" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57455,7 +57461,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2056" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57481,7 +57487,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2057" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57507,7 +57513,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2058" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57533,7 +57539,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57559,7 +57565,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2060" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57585,7 +57591,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57611,7 +57617,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2062" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57637,7 +57643,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2063" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57663,7 +57669,7 @@
         <v>8.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57689,7 +57695,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2065" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57715,7 +57721,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2066" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57741,7 +57747,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2067" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57767,7 +57773,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2068" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57793,7 +57799,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57819,7 +57825,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2070" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57845,7 +57851,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2071" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57871,7 +57877,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57897,7 +57903,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2073" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57923,7 +57929,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2074" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57949,7 +57955,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2075" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57975,7 +57981,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2076" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58001,7 +58007,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2077" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58027,7 +58033,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2078" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58053,7 +58059,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G2079" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58079,7 +58085,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2080" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58105,7 +58111,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G2081" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58131,7 +58137,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2082" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58157,7 +58163,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58183,7 +58189,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58209,7 +58215,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58235,7 +58241,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G2086" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58261,7 +58267,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2087" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58287,7 +58293,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2088" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58313,7 +58319,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2089" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58339,7 +58345,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2090" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58365,7 +58371,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2091" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58391,7 +58397,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2092" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58417,7 +58423,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2093" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58443,7 +58449,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2094" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58469,7 +58475,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2095" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58495,7 +58501,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2096" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58521,7 +58527,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2097" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58547,7 +58553,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2098" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58573,7 +58579,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G2099" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58599,7 +58605,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2100" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58625,7 +58631,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58651,7 +58657,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58677,7 +58683,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2103" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58703,7 +58709,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2104" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58729,7 +58735,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58755,7 +58761,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58781,7 +58787,7 @@
         <v>9.25</v>
       </c>
       <c r="G2107" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58807,7 +58813,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58833,7 +58839,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2109" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58859,7 +58865,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2110" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58885,7 +58891,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2111" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58911,7 +58917,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2112" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58937,7 +58943,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2113" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58963,7 +58969,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2114" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58989,7 +58995,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2115" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59015,7 +59021,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2116" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59041,7 +59047,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G2117" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59067,7 +59073,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2118" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59093,7 +59099,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G2119" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59119,7 +59125,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G2120" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59145,7 +59151,7 @@
         <v>10</v>
       </c>
       <c r="G2121" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59171,7 +59177,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2122" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59197,7 +59203,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G2123" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59223,7 +59229,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G2124" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59249,7 +59255,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59275,7 +59281,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G2126" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59301,7 +59307,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G2127" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59327,7 +59333,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2128" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59353,7 +59359,7 @@
         <v>9.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59379,7 +59385,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2130" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59405,7 +59411,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G2131" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59431,7 +59437,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G2132" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59457,7 +59463,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59483,7 +59489,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G2134" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59509,7 +59515,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59535,7 +59541,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2136" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59561,7 +59567,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2137" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59587,7 +59593,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2138" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59613,7 +59619,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2139" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59639,7 +59645,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2140" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59665,7 +59671,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2141" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59691,7 +59697,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G2142" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59717,7 +59723,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2143" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59743,7 +59749,7 @@
         <v>9.5</v>
       </c>
       <c r="G2144" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59769,7 +59775,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59795,7 +59801,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2146" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59821,7 +59827,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2147" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59847,7 +59853,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2148" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59873,7 +59879,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G2149" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59899,7 +59905,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2150" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59907,7 +59913,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6493518519</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>169244</v>
@@ -59925,9 +59931,35 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G2151" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6493171296</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>362941</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>9.17000007629395</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>8.73999977111816</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>9.11999988555908</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>8.93000030517578</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1223">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">CE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00243186950684</t>
+    <t xml:space="preserve">5.00243282318115</t>
   </si>
   <si>
     <t xml:space="preserve">4.93192338943481</t>
@@ -53,16 +53,16 @@
     <t xml:space="preserve">4.75750637054443</t>
   </si>
   <si>
-    <t xml:space="preserve">4.712975025177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76492834091187</t>
+    <t xml:space="preserve">4.71297454833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76492881774902</t>
   </si>
   <si>
     <t xml:space="preserve">4.7723503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82430505752563</t>
+    <t xml:space="preserve">4.82430410385132</t>
   </si>
   <si>
     <t xml:space="preserve">4.72039651870728</t>
@@ -71,67 +71,67 @@
     <t xml:space="preserve">4.67957496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47547006607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51257991790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13405752182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32702970504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45320415496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59051132202148</t>
+    <t xml:space="preserve">4.47547054290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51257944107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13405799865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32703018188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45320463180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59051179885864</t>
   </si>
   <si>
     <t xml:space="preserve">4.5608229637146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43464946746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55711269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55340194702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36042881011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20085620880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23796653747559</t>
+    <t xml:space="preserve">4.4346489906311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5571117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55340147018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36042928695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20085525512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23796606063843</t>
   </si>
   <si>
     <t xml:space="preserve">4.27507638931274</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95592999458313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78893423080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14519071578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98561763763428</t>
+    <t xml:space="preserve">3.95592927932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78893446922302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14519119262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98561787605286</t>
   </si>
   <si>
     <t xml:space="preserve">4.25281047821045</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3158974647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38269567489624</t>
+    <t xml:space="preserve">4.31589698791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38269519805908</t>
   </si>
   <si>
     <t xml:space="preserve">4.49031400680542</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">4.230544090271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16745662689209</t>
+    <t xml:space="preserve">4.16745710372925</t>
   </si>
   <si>
     <t xml:space="preserve">4.3121862411499</t>
@@ -152,55 +152,55 @@
     <t xml:space="preserve">4.11921405792236</t>
   </si>
   <si>
-    <t xml:space="preserve">4.193434715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28992033004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37156200408936</t>
+    <t xml:space="preserve">4.19343423843384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28991985321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3715615272522</t>
   </si>
   <si>
     <t xml:space="preserve">4.56453418731689</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63504362106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62391090393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57195663452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6647310256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.750084400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81317090988159</t>
+    <t xml:space="preserve">4.63504314422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62390995025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57195615768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66473197937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75008487701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81317186355591</t>
   </si>
   <si>
     <t xml:space="preserve">4.70184135437012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72781896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58308935165405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77977228164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71668577194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60164451599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52742481231689</t>
+    <t xml:space="preserve">4.72781848907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58308887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77977180480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71668529510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60164403915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52742433547974</t>
   </si>
   <si>
     <t xml:space="preserve">4.47175931930542</t>
@@ -212,79 +212,79 @@
     <t xml:space="preserve">4.34187364578247</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31960773468018</t>
+    <t xml:space="preserve">4.31960821151733</t>
   </si>
   <si>
     <t xml:space="preserve">4.21941089630127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15261220932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10065937042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34558534622192</t>
+    <t xml:space="preserve">4.15261268615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10065841674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34558486938477</t>
   </si>
   <si>
     <t xml:space="preserve">4.2268328666687</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50886917114258</t>
+    <t xml:space="preserve">4.50886869430542</t>
   </si>
   <si>
     <t xml:space="preserve">4.59422254562378</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61648893356323</t>
+    <t xml:space="preserve">4.61648797988892</t>
   </si>
   <si>
     <t xml:space="preserve">4.65359830856323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65730953216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73153018951416</t>
+    <t xml:space="preserve">4.65730905532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73152923583984</t>
   </si>
   <si>
     <t xml:space="preserve">4.7537956237793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80946016311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63875484466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5014476776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51629161834717</t>
+    <t xml:space="preserve">4.80946063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63875436782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50144720077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51629114151001</t>
   </si>
   <si>
     <t xml:space="preserve">4.48660326004028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44578170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34929609298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65813302993774</t>
+    <t xml:space="preserve">4.44578218460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34929704666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6581335067749</t>
   </si>
   <si>
     <t xml:space="preserve">4.57827949523926</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63912105560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69996118545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67714595794678</t>
+    <t xml:space="preserve">4.63912057876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69996166229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67714643478394</t>
   </si>
   <si>
     <t xml:space="preserve">4.68094873428345</t>
@@ -302,34 +302,34 @@
     <t xml:space="preserve">4.92431259155273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93191719055176</t>
+    <t xml:space="preserve">4.93191766738892</t>
   </si>
   <si>
     <t xml:space="preserve">4.83685350418091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77221012115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82924890518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73038244247437</t>
+    <t xml:space="preserve">4.77221059799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82924842834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73038196563721</t>
   </si>
   <si>
     <t xml:space="preserve">4.89389228820801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79502487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80643320083618</t>
+    <t xml:space="preserve">4.79502534866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80643367767334</t>
   </si>
   <si>
     <t xml:space="preserve">4.69615888595581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46040058135986</t>
+    <t xml:space="preserve">4.46040010452271</t>
   </si>
   <si>
     <t xml:space="preserve">4.32731103897095</t>
@@ -344,40 +344,40 @@
     <t xml:space="preserve">4.57067489624023</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79122257232666</t>
+    <t xml:space="preserve">4.79122304916382</t>
   </si>
   <si>
     <t xml:space="preserve">4.84065628051758</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88628768920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00416660308838</t>
+    <t xml:space="preserve">4.88628721237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00416612625122</t>
   </si>
   <si>
     <t xml:space="preserve">4.13338041305542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14478778839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12197303771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24365425109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03451347351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8938193321228</t>
+    <t xml:space="preserve">4.14478874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12197351455688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24365472793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0345139503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89381909370422</t>
   </si>
   <si>
     <t xml:space="preserve">3.78734755516052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87480640411377</t>
+    <t xml:space="preserve">3.87480592727661</t>
   </si>
   <si>
     <t xml:space="preserve">4.04211950302124</t>
@@ -389,61 +389,61 @@
     <t xml:space="preserve">4.22083950042725</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18281412124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3159031867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38054704666138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36533641815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46420288085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43378210067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35773181915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40716457366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37294149398804</t>
+    <t xml:space="preserve">4.18281364440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31590366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38054656982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3653359413147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46420240402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43378257751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35773134231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40716409683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3729419708252</t>
   </si>
   <si>
     <t xml:space="preserve">4.19422101974487</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31210041046143</t>
+    <t xml:space="preserve">4.31210088729858</t>
   </si>
   <si>
     <t xml:space="preserve">4.1980242729187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07253980636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08774995803833</t>
+    <t xml:space="preserve">4.07253932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08774948120117</t>
   </si>
   <si>
     <t xml:space="preserve">4.15999841690063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09155178070068</t>
+    <t xml:space="preserve">4.091552734375</t>
   </si>
   <si>
     <t xml:space="preserve">4.04972410202026</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05352687835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92423939704895</t>
+    <t xml:space="preserve">4.05352592468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92423987388611</t>
   </si>
   <si>
     <t xml:space="preserve">3.85199117660522</t>
@@ -452,109 +452,109 @@
     <t xml:space="preserve">3.84438633918762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72650623321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7249858379364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86720108985901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07634162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92804169654846</t>
+    <t xml:space="preserve">3.72650694847107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72498536109924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86720156669617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07634210586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92804217338562</t>
   </si>
   <si>
     <t xml:space="preserve">3.81396555900574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84058380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02690839767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11056566238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09535503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.175208568573</t>
+    <t xml:space="preserve">3.84058356285095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02690887451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11056470870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09535455703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17520809173584</t>
   </si>
   <si>
     <t xml:space="preserve">4.20562934875488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99268627166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99648809432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95466041564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93945002555847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85959625244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85579395294189</t>
+    <t xml:space="preserve">3.99268531799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99648833274841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95466017723083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93944954872131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85959649085999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85579419136047</t>
   </si>
   <si>
     <t xml:space="preserve">3.81016302108765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01930284500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86339926719666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74171662330627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7097749710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72802734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65806102752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67479181289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70673298835754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77365827560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88241124153137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84818863868713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87860870361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8862144947052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83678150177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9508581161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90522694587708</t>
+    <t xml:space="preserve">4.01930379867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8633987903595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74171710014343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70977544784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72802782058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65806078910828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67479157447815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70673394203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77365851402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88241171836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84818840026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87860894203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88621425628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83678126335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95085787773132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90522718429565</t>
   </si>
   <si>
     <t xml:space="preserve">4.03071165084839</t>
@@ -572,100 +572,100 @@
     <t xml:space="preserve">4.01169872283936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93564748764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90142416954041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81776833534241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76909518241882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78886818885803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82157063484192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80255794525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89762163162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01550149917603</t>
+    <t xml:space="preserve">3.93564701080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90142440795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81776785850525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76909494400024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78886866569519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8215708732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80255746841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89762234687805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01550102233887</t>
   </si>
   <si>
     <t xml:space="preserve">4.06113195419312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00789642333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96226620674133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91663455963135</t>
+    <t xml:space="preserve">4.00789594650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96226596832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91663503646851</t>
   </si>
   <si>
     <t xml:space="preserve">3.93184471130371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94325232505798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10676240921021</t>
+    <t xml:space="preserve">3.94325256347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10676288604736</t>
   </si>
   <si>
     <t xml:space="preserve">4.353928565979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42997980117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29308795928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38815212249756</t>
+    <t xml:space="preserve">4.42998027801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29308748245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38815116882324</t>
   </si>
   <si>
     <t xml:space="preserve">4.23604917526245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33871793746948</t>
+    <t xml:space="preserve">4.33871841430664</t>
   </si>
   <si>
     <t xml:space="preserve">4.40336179733276</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47941303253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34252166748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46800518035889</t>
+    <t xml:space="preserve">4.4794135093689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34252119064331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46800470352173</t>
   </si>
   <si>
     <t xml:space="preserve">4.48701810836792</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31970643997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30829763412476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48321533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49842596054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50603151321411</t>
+    <t xml:space="preserve">4.31970596313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30829811096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48321580886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49842643737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50603103637695</t>
   </si>
   <si>
     <t xml:space="preserve">4.45279550552368</t>
@@ -680,49 +680,49 @@
     <t xml:space="preserve">4.74559211730957</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72658061981201</t>
+    <t xml:space="preserve">4.72658014297485</t>
   </si>
   <si>
     <t xml:space="preserve">4.6923565864563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75319766998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55926704406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56306934356689</t>
+    <t xml:space="preserve">4.75319719314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55926752090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56306886672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.64292287826538</t>
   </si>
   <si>
-    <t xml:space="preserve">4.536452293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55166244506836</t>
+    <t xml:space="preserve">4.53645181655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5516619682312</t>
   </si>
   <si>
     <t xml:space="preserve">4.61630535125732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68475151062012</t>
+    <t xml:space="preserve">4.68475198745728</t>
   </si>
   <si>
     <t xml:space="preserve">4.58208227157593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59729242324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47180795669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57447719573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58588457107544</t>
+    <t xml:space="preserve">4.59729337692261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47180891036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57447671890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5858850479126</t>
   </si>
   <si>
     <t xml:space="preserve">4.58968687057495</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">4.59348964691162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65433120727539</t>
+    <t xml:space="preserve">4.65433073043823</t>
   </si>
   <si>
     <t xml:space="preserve">4.7760124206543</t>
@@ -743,25 +743,25 @@
     <t xml:space="preserve">4.82164335250854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89769411087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90529918670654</t>
+    <t xml:space="preserve">4.89769506454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90530014038086</t>
   </si>
   <si>
     <t xml:space="preserve">4.84445905685425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94332599639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88248443603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8330512046814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87487888336182</t>
+    <t xml:space="preserve">4.94332504272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88248491287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83305168151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87487840652466</t>
   </si>
   <si>
     <t xml:space="preserve">4.798828125</t>
@@ -773,22 +773,22 @@
     <t xml:space="preserve">4.82544612884521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81023550033569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73418474197388</t>
+    <t xml:space="preserve">4.81023597717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73418426513672</t>
   </si>
   <si>
     <t xml:space="preserve">5.00036334991455</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86727380752563</t>
+    <t xml:space="preserve">4.86727428436279</t>
   </si>
   <si>
     <t xml:space="preserve">4.95853567123413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98135137557983</t>
+    <t xml:space="preserve">4.98135089874268</t>
   </si>
   <si>
     <t xml:space="preserve">5.0117712020874</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">5.01937675476074</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91290426254272</t>
+    <t xml:space="preserve">4.91290473937988</t>
   </si>
   <si>
     <t xml:space="preserve">5.16007137298584</t>
@@ -806,37 +806,37 @@
     <t xml:space="preserve">5.1911792755127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30394697189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21062231063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3428316116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37005186080933</t>
+    <t xml:space="preserve">5.30394649505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21062183380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34283208847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37005138397217</t>
   </si>
   <si>
     <t xml:space="preserve">5.35838556289673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38949394226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28450393676758</t>
+    <t xml:space="preserve">5.3894944190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28450345993042</t>
   </si>
   <si>
     <t xml:space="preserve">5.21451044082642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17562580108643</t>
+    <t xml:space="preserve">5.17562532424927</t>
   </si>
   <si>
     <t xml:space="preserve">5.2261757850647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24950695037842</t>
+    <t xml:space="preserve">5.24950742721558</t>
   </si>
   <si>
     <t xml:space="preserve">5.31950044631958</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">5.44393348693848</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4555983543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38560628890991</t>
+    <t xml:space="preserve">5.45559883117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38560581207275</t>
   </si>
   <si>
     <t xml:space="preserve">5.31172370910645</t>
@@ -860,13 +860,13 @@
     <t xml:space="preserve">5.3078351020813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28839206695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47893047332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37394046783447</t>
+    <t xml:space="preserve">5.28839254379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47892999649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37393951416016</t>
   </si>
   <si>
     <t xml:space="preserve">5.40504789352417</t>
@@ -875,22 +875,22 @@
     <t xml:space="preserve">5.40893650054932</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42837953567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49448394775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49837303161621</t>
+    <t xml:space="preserve">5.42837905883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49448442459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49837255477905</t>
   </si>
   <si>
     <t xml:space="preserve">5.46337604522705</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64613676071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80945444107056</t>
+    <t xml:space="preserve">5.64613723754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8094539642334</t>
   </si>
   <si>
     <t xml:space="preserve">5.59169721603394</t>
@@ -905,37 +905,37 @@
     <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58003187179565</t>
+    <t xml:space="preserve">5.5800313949585</t>
   </si>
   <si>
     <t xml:space="preserve">5.62280559539795</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54503488540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57614278793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48670673370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42449045181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53336954116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63447093963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59947395324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66946792602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56836605072021</t>
+    <t xml:space="preserve">5.54503440856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57614326477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48670721054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4244909286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53336906433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63447141647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59947443008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66946744918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56836557388306</t>
   </si>
   <si>
     <t xml:space="preserve">5.6616907119751</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">5.70446443557739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82500839233398</t>
+    <t xml:space="preserve">5.82500886917114</t>
   </si>
   <si>
     <t xml:space="preserve">5.7783465385437</t>
@@ -965,61 +965,61 @@
     <t xml:space="preserve">5.69279909133911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74723863601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65002489089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64224815368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52948141098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52170419692993</t>
+    <t xml:space="preserve">5.74723768234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65002536773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64224767684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52948093414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52170372009277</t>
   </si>
   <si>
     <t xml:space="preserve">5.53725814819336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57225465774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59558629989624</t>
+    <t xml:space="preserve">5.5722541809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59558582305908</t>
   </si>
   <si>
     <t xml:space="preserve">5.69668769836426</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9027795791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85611724853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83278608322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86389350891113</t>
+    <t xml:space="preserve">5.90277910232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.856116771698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83278560638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86389446258545</t>
   </si>
   <si>
     <t xml:space="preserve">5.80167770385742</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84834051132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84445142745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8950023651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90666770935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92999839782715</t>
+    <t xml:space="preserve">5.84833955764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84445095062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89500188827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90666723251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92999887466431</t>
   </si>
   <si>
     <t xml:space="preserve">5.91444492340088</t>
@@ -1028,46 +1028,46 @@
     <t xml:space="preserve">5.94944143295288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96499490737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81723165512085</t>
+    <t xml:space="preserve">5.96499586105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81723213195801</t>
   </si>
   <si>
     <t xml:space="preserve">5.86778259277344</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88333654403687</t>
+    <t xml:space="preserve">5.88333606719971</t>
   </si>
   <si>
     <t xml:space="preserve">5.83667421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78223466873169</t>
+    <t xml:space="preserve">5.78223514556885</t>
   </si>
   <si>
     <t xml:space="preserve">5.76279211044312</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68113279342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70835256576538</t>
+    <t xml:space="preserve">5.68113327026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70835304260254</t>
   </si>
   <si>
     <t xml:space="preserve">5.87167119979858</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85222864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73557281494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91833353042603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60336256027222</t>
+    <t xml:space="preserve">5.85222816467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73557233810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91833305358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60336303710938</t>
   </si>
   <si>
     <t xml:space="preserve">5.50614976882935</t>
@@ -1076,22 +1076,22 @@
     <t xml:space="preserve">5.4594874382019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37782907485962</t>
+    <t xml:space="preserve">5.37782859802246</t>
   </si>
   <si>
     <t xml:space="preserve">5.44004487991333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50226068496704</t>
+    <t xml:space="preserve">5.5022611618042</t>
   </si>
   <si>
     <t xml:space="preserve">5.56058931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58392000198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72779607772827</t>
+    <t xml:space="preserve">5.5839204788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72779560089111</t>
   </si>
   <si>
     <t xml:space="preserve">5.71612977981567</t>
@@ -1100,22 +1100,22 @@
     <t xml:space="preserve">5.76668071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72001886367798</t>
+    <t xml:space="preserve">5.72001934051514</t>
   </si>
   <si>
     <t xml:space="preserve">5.77445793151855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84056329727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54892349243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52559280395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55670070648193</t>
+    <t xml:space="preserve">5.84056282043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54892444610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52559232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55670022964478</t>
   </si>
   <si>
     <t xml:space="preserve">5.58780908584595</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">5.51392698287964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93388700485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05054330825806</t>
+    <t xml:space="preserve">5.93388748168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0505428314209</t>
   </si>
   <si>
     <t xml:space="preserve">6.05832004547119</t>
@@ -1145,19 +1145,19 @@
     <t xml:space="preserve">6.10498237609863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08942842483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04276657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9727725982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94166469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73168420791626</t>
+    <t xml:space="preserve">6.08942794799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04276609420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97277307510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94166421890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73168468475342</t>
   </si>
   <si>
     <t xml:space="preserve">5.67724466323853</t>
@@ -1166,22 +1166,22 @@
     <t xml:space="preserve">5.88722515106201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68502187728882</t>
+    <t xml:space="preserve">5.68502235412598</t>
   </si>
   <si>
     <t xml:space="preserve">5.73946094512939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79390048980713</t>
+    <t xml:space="preserve">5.79390096664429</t>
   </si>
   <si>
     <t xml:space="preserve">5.77056932449341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78612327575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7005763053894</t>
+    <t xml:space="preserve">5.78612375259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70057582855225</t>
   </si>
   <si>
     <t xml:space="preserve">5.6539134979248</t>
@@ -1190,31 +1190,31 @@
     <t xml:space="preserve">5.49059581756592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76564884185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68568086624146</t>
+    <t xml:space="preserve">5.76564836502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68568134307861</t>
   </si>
   <si>
     <t xml:space="preserve">5.50175619125366</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46177196502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31783103942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34981822967529</t>
+    <t xml:space="preserve">5.46177244186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31783151626587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34981775283813</t>
   </si>
   <si>
     <t xml:space="preserve">5.36581182479858</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32582807540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30983448028564</t>
+    <t xml:space="preserve">5.32582759857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30983400344849</t>
   </si>
   <si>
     <t xml:space="preserve">5.03794527053833</t>
@@ -1223,16 +1223,16 @@
     <t xml:space="preserve">4.93398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65410184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91799449920654</t>
+    <t xml:space="preserve">4.65410280227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91799402236938</t>
   </si>
   <si>
     <t xml:space="preserve">4.83002996444702</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99796199798584</t>
+    <t xml:space="preserve">4.99796152114868</t>
   </si>
   <si>
     <t xml:space="preserve">4.87001419067383</t>
@@ -1241,37 +1241,37 @@
     <t xml:space="preserve">4.7980432510376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74206638336182</t>
+    <t xml:space="preserve">4.74206590652466</t>
   </si>
   <si>
     <t xml:space="preserve">4.85402059555054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92599105834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90200090408325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00595855712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09392213821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13390636444092</t>
+    <t xml:space="preserve">4.92599058151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90200138092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00595903396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09392261505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13390588760376</t>
   </si>
   <si>
     <t xml:space="preserve">5.18188667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05393886566162</t>
+    <t xml:space="preserve">5.05393934249878</t>
   </si>
   <si>
     <t xml:space="preserve">5.06193542480469</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95797729492188</t>
+    <t xml:space="preserve">4.95797777175903</t>
   </si>
   <si>
     <t xml:space="preserve">5.0219521522522</t>
@@ -1280,22 +1280,22 @@
     <t xml:space="preserve">5.06993198394775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0859260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17389011383057</t>
+    <t xml:space="preserve">5.08592557907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17388916015625</t>
   </si>
   <si>
     <t xml:space="preserve">5.1898832321167</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10991525650024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11791229248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10191965103149</t>
+    <t xml:space="preserve">5.10991621017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11791276931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10191917419434</t>
   </si>
   <si>
     <t xml:space="preserve">5.04594230651855</t>
@@ -1304,22 +1304,22 @@
     <t xml:space="preserve">4.90999746322632</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89400386810303</t>
+    <t xml:space="preserve">4.89400339126587</t>
   </si>
   <si>
     <t xml:space="preserve">5.07792901992798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94198369979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98996496200562</t>
+    <t xml:space="preserve">4.94198417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98996448516846</t>
   </si>
   <si>
     <t xml:space="preserve">4.98196792602539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61411762237549</t>
+    <t xml:space="preserve">4.61411809921265</t>
   </si>
   <si>
     <t xml:space="preserve">4.53415060043335</t>
@@ -1334,16 +1334,16 @@
     <t xml:space="preserve">4.45418357849121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47817325592041</t>
+    <t xml:space="preserve">4.47817373275757</t>
   </si>
   <si>
     <t xml:space="preserve">4.4941668510437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39020967483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42219638824463</t>
+    <t xml:space="preserve">4.39020919799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42219686508179</t>
   </si>
   <si>
     <t xml:space="preserve">4.25426483154297</t>
@@ -1355,37 +1355,37 @@
     <t xml:space="preserve">4.34222888946533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33423185348511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54214763641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67009496688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64610528945923</t>
+    <t xml:space="preserve">4.33423233032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54214715957642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67009544372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64610433578491</t>
   </si>
   <si>
     <t xml:space="preserve">4.66209840774536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67809152603149</t>
+    <t xml:space="preserve">4.67809200286865</t>
   </si>
   <si>
     <t xml:space="preserve">4.70208263397217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72607231140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75006294250488</t>
+    <t xml:space="preserve">4.72607278823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75006246566772</t>
   </si>
   <si>
     <t xml:space="preserve">4.82203340530396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81403636932373</t>
+    <t xml:space="preserve">4.81403684616089</t>
   </si>
   <si>
     <t xml:space="preserve">4.71007871627808</t>
@@ -1394,19 +1394,19 @@
     <t xml:space="preserve">4.52615404129028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48616981506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55814075469971</t>
+    <t xml:space="preserve">4.48617029190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55814123153687</t>
   </si>
   <si>
     <t xml:space="preserve">4.31823873519897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2462682723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1822943687439</t>
+    <t xml:space="preserve">4.24626779556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18229389190674</t>
   </si>
   <si>
     <t xml:space="preserve">4.28625202178955</t>
@@ -1418,16 +1418,16 @@
     <t xml:space="preserve">4.20628452301025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11032390594482</t>
+    <t xml:space="preserve">4.11032342910767</t>
   </si>
   <si>
     <t xml:space="preserve">4.07034015655518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95438694953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81844258308411</t>
+    <t xml:space="preserve">3.95438742637634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81844329833984</t>
   </si>
   <si>
     <t xml:space="preserve">3.92240071296692</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">4.15830373764038</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23027420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23827171325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26226186752319</t>
+    <t xml:space="preserve">4.23027467727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23827219009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26226139068604</t>
   </si>
   <si>
     <t xml:space="preserve">4.13431358337402</t>
@@ -1454,22 +1454,22 @@
     <t xml:space="preserve">4.15030717849731</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09433031082153</t>
+    <t xml:space="preserve">4.09432983398438</t>
   </si>
   <si>
     <t xml:space="preserve">4.06234312057495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01436328887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05434608459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99836921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0223593711853</t>
+    <t xml:space="preserve">4.01436281204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05434703826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99836874008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02235984802246</t>
   </si>
   <si>
     <t xml:space="preserve">4.16630077362061</t>
@@ -1478,31 +1478,31 @@
     <t xml:space="preserve">4.19828748703003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04634952545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11832094192505</t>
+    <t xml:space="preserve">4.0463490486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11832046508789</t>
   </si>
   <si>
     <t xml:space="preserve">4.27025890350342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98237562179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96238374710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95038938522339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91440367698669</t>
+    <t xml:space="preserve">3.98237538337708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96238422393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95038890838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91440391540527</t>
   </si>
   <si>
     <t xml:space="preserve">4.03835344314575</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22227764129639</t>
+    <t xml:space="preserve">4.22227811813354</t>
   </si>
   <si>
     <t xml:space="preserve">4.10232734680176</t>
@@ -1511,25 +1511,25 @@
     <t xml:space="preserve">4.08633327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07833623886108</t>
+    <t xml:space="preserve">4.07833671569824</t>
   </si>
   <si>
     <t xml:space="preserve">4.00636625289917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03035593032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89441156387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97837710380554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91840171813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87042140960693</t>
+    <t xml:space="preserve">4.03035640716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89441132545471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97837734222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91840243339539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87042164802551</t>
   </si>
   <si>
     <t xml:space="preserve">3.98637437820435</t>
@@ -1538,37 +1538,37 @@
     <t xml:space="preserve">4.19029092788696</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29424905776978</t>
+    <t xml:space="preserve">4.29424810409546</t>
   </si>
   <si>
     <t xml:space="preserve">3.93839406967163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97038054466248</t>
+    <t xml:space="preserve">3.97038102149963</t>
   </si>
   <si>
     <t xml:space="preserve">4.17429733276367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95838570594788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.910404920578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84643149375916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86242485046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81444430351257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77845859527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79098415374756</t>
+    <t xml:space="preserve">3.95838522911072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91040444374084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.846431016922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86242461204529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81444454193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77845883369446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79098463058472</t>
   </si>
   <si>
     <t xml:space="preserve">3.79515957832336</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">3.77010869979858</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68243169784546</t>
+    <t xml:space="preserve">3.68243193626404</t>
   </si>
   <si>
     <t xml:space="preserve">3.69913220405579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74088358879089</t>
+    <t xml:space="preserve">3.74088335037231</t>
   </si>
   <si>
     <t xml:space="preserve">3.72418260574341</t>
@@ -1592,46 +1592,46 @@
     <t xml:space="preserve">3.71583223342896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73670768737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.657381772995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67408180236816</t>
+    <t xml:space="preserve">3.73670816421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65738129615784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67408132553101</t>
   </si>
   <si>
     <t xml:space="preserve">3.63650584220886</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59475493431091</t>
+    <t xml:space="preserve">3.59475469589233</t>
   </si>
   <si>
     <t xml:space="preserve">3.66155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68660688400269</t>
+    <t xml:space="preserve">3.68660712242126</t>
   </si>
   <si>
     <t xml:space="preserve">3.61980533599854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62398052215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57387971878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54047870635986</t>
+    <t xml:space="preserve">3.62398099899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5738799571991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54047846794128</t>
   </si>
   <si>
     <t xml:space="preserve">3.55300402641296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56970453262329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54882907867432</t>
+    <t xml:space="preserve">3.56970405578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54882884025574</t>
   </si>
   <si>
     <t xml:space="preserve">3.58222961425781</t>
@@ -1640,31 +1640,31 @@
     <t xml:space="preserve">3.51542806625366</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46532678604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48202729225159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52377796173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53630352020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59057998657227</t>
+    <t xml:space="preserve">3.46532726287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48202753067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52377843856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53630399703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59058022499084</t>
   </si>
   <si>
     <t xml:space="preserve">3.74923324584961</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97468876838684</t>
+    <t xml:space="preserve">3.97468852996826</t>
   </si>
   <si>
     <t xml:space="preserve">4.04149007797241</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92876219749451</t>
+    <t xml:space="preserve">3.92876243591309</t>
   </si>
   <si>
     <t xml:space="preserve">3.9245867729187</t>
@@ -1676,61 +1676,61 @@
     <t xml:space="preserve">3.94963788986206</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98303890228271</t>
+    <t xml:space="preserve">3.98303866386414</t>
   </si>
   <si>
     <t xml:space="preserve">3.90371179580688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84108591079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96633839607239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95798778533936</t>
+    <t xml:space="preserve">3.84108519554138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96633791923523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95798802375793</t>
   </si>
   <si>
     <t xml:space="preserve">3.94546270370483</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89536166191101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87031149864197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79933500289917</t>
+    <t xml:space="preserve">3.89536190032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87031078338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79933476448059</t>
   </si>
   <si>
     <t xml:space="preserve">3.78680920600891</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77845883369446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75758337974548</t>
+    <t xml:space="preserve">3.77845931053162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75758361816406</t>
   </si>
   <si>
     <t xml:space="preserve">3.72000765800476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76593422889709</t>
+    <t xml:space="preserve">3.76593375205994</t>
   </si>
   <si>
     <t xml:space="preserve">3.69078230857849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78263425827026</t>
+    <t xml:space="preserve">3.78263449668884</t>
   </si>
   <si>
     <t xml:space="preserve">3.88283658027649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86613607406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92041182518005</t>
+    <t xml:space="preserve">3.86613583564758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92041206359863</t>
   </si>
   <si>
     <t xml:space="preserve">4.02061414718628</t>
@@ -1739,10 +1739,10 @@
     <t xml:space="preserve">4.03731489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06654024124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05819034576416</t>
+    <t xml:space="preserve">4.06654071807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.058189868927</t>
   </si>
   <si>
     <t xml:space="preserve">4.12081670761108</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">4.18344306945801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3337459564209</t>
+    <t xml:space="preserve">4.33374643325806</t>
   </si>
   <si>
     <t xml:space="preserve">4.26694488525391</t>
@@ -1760,25 +1760,25 @@
     <t xml:space="preserve">4.13751697540283</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16256761550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24189424514771</t>
+    <t xml:space="preserve">4.16256809234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24189472198486</t>
   </si>
   <si>
     <t xml:space="preserve">4.23354387283325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16674280166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12916707992554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07906579971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09159088134766</t>
+    <t xml:space="preserve">4.1667423248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12916660308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07906532287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09159135818481</t>
   </si>
   <si>
     <t xml:space="preserve">4.17509269714355</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">4.12499189376831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2168436050415</t>
+    <t xml:space="preserve">4.21684408187866</t>
   </si>
   <si>
     <t xml:space="preserve">4.25024461746216</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30869579315186</t>
+    <t xml:space="preserve">4.3086953163147</t>
   </si>
   <si>
     <t xml:space="preserve">4.40054798126221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37549734115601</t>
+    <t xml:space="preserve">4.37549686431885</t>
   </si>
   <si>
     <t xml:space="preserve">4.36714696884155</t>
@@ -1829,19 +1829,19 @@
     <t xml:space="preserve">4.32539558410645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44229888916016</t>
+    <t xml:space="preserve">4.442298412323</t>
   </si>
   <si>
     <t xml:space="preserve">4.52580070495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45899963378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49240016937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50909996032715</t>
+    <t xml:space="preserve">4.4589991569519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4923996925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50910043716431</t>
   </si>
   <si>
     <t xml:space="preserve">4.567551612854</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">4.46734952926636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55085134506226</t>
+    <t xml:space="preserve">4.5508508682251</t>
   </si>
   <si>
     <t xml:space="preserve">4.4339485168457</t>
@@ -1868,40 +1868,40 @@
     <t xml:space="preserve">4.3838472366333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3504467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39219760894775</t>
+    <t xml:space="preserve">4.35044717788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39219808578491</t>
   </si>
   <si>
     <t xml:space="preserve">4.31704616546631</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3003454208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29199552536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28364562988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25859498977661</t>
+    <t xml:space="preserve">4.30034589767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29199600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28364515304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25859451293945</t>
   </si>
   <si>
     <t xml:space="preserve">4.20014381408691</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97051382064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97886347770691</t>
+    <t xml:space="preserve">3.97051334381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97886323928833</t>
   </si>
   <si>
     <t xml:space="preserve">4.0331392288208</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10829162597656</t>
+    <t xml:space="preserve">4.1082911491394</t>
   </si>
   <si>
     <t xml:space="preserve">4.41724824905396</t>
@@ -1919,22 +1919,22 @@
     <t xml:space="preserve">3.80768465995789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62815523147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43610119819641</t>
+    <t xml:space="preserve">3.62815570831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43610143661499</t>
   </si>
   <si>
     <t xml:space="preserve">3.38600015640259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13549494743347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13131952285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26909780502319</t>
+    <t xml:space="preserve">3.13549470901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13131976127625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26909756660461</t>
   </si>
   <si>
     <t xml:space="preserve">2.9935417175293</t>
@@ -1952,19 +1952,19 @@
     <t xml:space="preserve">3.25239729881287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21482157707214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27327299118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15219521522522</t>
+    <t xml:space="preserve">3.21482133865356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27327275276184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1521954536438</t>
   </si>
   <si>
     <t xml:space="preserve">3.19812107086182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18977069854736</t>
+    <t xml:space="preserve">3.18977093696594</t>
   </si>
   <si>
     <t xml:space="preserve">3.22734689712524</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">3.20647120475769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12296938896179</t>
+    <t xml:space="preserve">3.12296962738037</t>
   </si>
   <si>
     <t xml:space="preserve">3.19394588470459</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">3.31084847450256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26074719429016</t>
+    <t xml:space="preserve">3.26074767112732</t>
   </si>
   <si>
     <t xml:space="preserve">3.28997325897217</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">3.37347507476807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35259938240051</t>
+    <t xml:space="preserve">3.35259962081909</t>
   </si>
   <si>
     <t xml:space="preserve">3.34424948692322</t>
@@ -2018,19 +2018,19 @@
     <t xml:space="preserve">3.47367715835571</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52795314788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55717945098877</t>
+    <t xml:space="preserve">3.52795338630676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55717897415161</t>
   </si>
   <si>
     <t xml:space="preserve">3.61145520210266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66990637779236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49037766456604</t>
+    <t xml:space="preserve">3.66990661621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49037742614746</t>
   </si>
   <si>
     <t xml:space="preserve">3.39435052871704</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">3.39017534255981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43192672729492</t>
+    <t xml:space="preserve">3.43192648887634</t>
   </si>
   <si>
     <t xml:space="preserve">3.49455261230469</t>
@@ -2051,28 +2051,28 @@
     <t xml:space="preserve">3.63233065605164</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76175880432129</t>
+    <t xml:space="preserve">3.76175904273987</t>
   </si>
   <si>
     <t xml:space="preserve">3.87866115570068</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85361099243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82020974159241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64068102836609</t>
+    <t xml:space="preserve">3.85361051559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82020998001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64068126678467</t>
   </si>
   <si>
     <t xml:space="preserve">3.69495725631714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64485621452332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65320658683777</t>
+    <t xml:space="preserve">3.64485573768616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65320634841919</t>
   </si>
   <si>
     <t xml:space="preserve">3.64903116226196</t>
@@ -2081,40 +2081,40 @@
     <t xml:space="preserve">3.60310506820679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73253273963928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72835779190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60728025436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75340867042542</t>
+    <t xml:space="preserve">3.73253297805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72835826873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60728001594543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75340819358826</t>
   </si>
   <si>
     <t xml:space="preserve">3.84526062011719</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74505829811096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66573166847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59892988204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56552958488464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960349082947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58640480041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50707793235779</t>
+    <t xml:space="preserve">3.74505853652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66573119163513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59893012046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56552910804749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960301399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58640503883362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50707769393921</t>
   </si>
   <si>
     <t xml:space="preserve">3.46950244903564</t>
@@ -2135,28 +2135,28 @@
     <t xml:space="preserve">3.33172416687012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24822211265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26492238044739</t>
+    <t xml:space="preserve">3.24822235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26492285728455</t>
   </si>
   <si>
     <t xml:space="preserve">3.23152184486389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18559598922729</t>
+    <t xml:space="preserve">3.18559575080872</t>
   </si>
   <si>
     <t xml:space="preserve">3.09374380111694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08121871948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06034302711487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03946757316589</t>
+    <t xml:space="preserve">3.08121848106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06034278869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03946781158447</t>
   </si>
   <si>
     <t xml:space="preserve">3.00189185142517</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">3.00606679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96014070510864</t>
+    <t xml:space="preserve">2.96014094352722</t>
   </si>
   <si>
     <t xml:space="preserve">2.82236289978027</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">2.70546007156372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81818795204163</t>
+    <t xml:space="preserve">2.81818771362305</t>
   </si>
   <si>
     <t xml:space="preserve">2.88916420936584</t>
@@ -2183,34 +2183,34 @@
     <t xml:space="preserve">2.98101615905762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30249834060669</t>
+    <t xml:space="preserve">3.30249857902527</t>
   </si>
   <si>
     <t xml:space="preserve">3.90788674354553</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00808906555176</t>
+    <t xml:space="preserve">4.00808954238892</t>
   </si>
   <si>
     <t xml:space="preserve">4.01643943786621</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95381283760071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93711233139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87448620796204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84943604469299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89118623733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77428388595581</t>
+    <t xml:space="preserve">3.95381307601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93711304664612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87448596954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84943580627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89118647575378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77428364753723</t>
   </si>
   <si>
     <t xml:space="preserve">3.45280194282532</t>
@@ -2219,19 +2219,19 @@
     <t xml:space="preserve">4.20849323272705</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15421772003174</t>
+    <t xml:space="preserve">4.15421724319458</t>
   </si>
   <si>
     <t xml:space="preserve">4.02478981018066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07071590423584</t>
+    <t xml:space="preserve">4.07071542739868</t>
   </si>
   <si>
     <t xml:space="preserve">4.14169263839722</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1917929649353</t>
+    <t xml:space="preserve">4.19179344177246</t>
   </si>
   <si>
     <t xml:space="preserve">4.15004205703735</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">4.15839242935181</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59260225296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54250144958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60930252075195</t>
+    <t xml:space="preserve">4.59260177612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5425009727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60930299758911</t>
   </si>
   <si>
     <t xml:space="preserve">4.76525640487671</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">4.66995096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55731821060181</t>
+    <t xml:space="preserve">4.55731773376465</t>
   </si>
   <si>
     <t xml:space="preserve">4.50533294677734</t>
@@ -2291,19 +2291,19 @@
     <t xml:space="preserve">4.79991245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80857706069946</t>
+    <t xml:space="preserve">4.8085765838623</t>
   </si>
   <si>
     <t xml:space="preserve">4.756591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7392635345459</t>
+    <t xml:space="preserve">4.73926401138306</t>
   </si>
   <si>
     <t xml:space="preserve">4.73059988021851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63529443740845</t>
+    <t xml:space="preserve">4.63529491424561</t>
   </si>
   <si>
     <t xml:space="preserve">4.46201276779175</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">4.41869211196899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4273567199707</t>
+    <t xml:space="preserve">4.42735624313354</t>
   </si>
   <si>
     <t xml:space="preserve">4.3753719329834</t>
@@ -2324,10 +2324,10 @@
     <t xml:space="preserve">4.45334815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47934103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34937906265259</t>
+    <t xml:space="preserve">4.47934055328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34937953948975</t>
   </si>
   <si>
     <t xml:space="preserve">4.33205127716064</t>
@@ -2336,16 +2336,16 @@
     <t xml:space="preserve">4.4360203742981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49666881561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3927001953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62663125991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68727874755859</t>
+    <t xml:space="preserve">4.49666929244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39269971847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62663078308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68727922439575</t>
   </si>
   <si>
     <t xml:space="preserve">4.65262269973755</t>
@@ -2354,19 +2354,19 @@
     <t xml:space="preserve">4.85189723968506</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92121028900146</t>
+    <t xml:space="preserve">4.92120981216431</t>
   </si>
   <si>
     <t xml:space="preserve">4.89521789550781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8865532875061</t>
+    <t xml:space="preserve">4.88655376434326</t>
   </si>
   <si>
     <t xml:space="preserve">4.84323358535767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86056184768677</t>
+    <t xml:space="preserve">4.86056137084961</t>
   </si>
   <si>
     <t xml:space="preserve">4.79124879837036</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">4.90388154983521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94720268249512</t>
+    <t xml:space="preserve">4.94720220565796</t>
   </si>
   <si>
     <t xml:space="preserve">4.95586633682251</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">4.97319412231445</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04250764846802</t>
+    <t xml:space="preserve">5.04250812530518</t>
   </si>
   <si>
     <t xml:space="preserve">5.08582782745361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11182069778442</t>
+    <t xml:space="preserve">5.11182022094727</t>
   </si>
   <si>
     <t xml:space="preserve">5.12048435211182</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">5.42372798919678</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58834600448608</t>
+    <t xml:space="preserve">5.58834552764893</t>
   </si>
   <si>
     <t xml:space="preserve">5.56235361099243</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">5.50170469284058</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60567378997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57968187332153</t>
+    <t xml:space="preserve">5.60567426681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57968235015869</t>
   </si>
   <si>
     <t xml:space="preserve">5.55368947982788</t>
@@ -2468,16 +2468,16 @@
     <t xml:space="preserve">5.62300205230713</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73563575744629</t>
+    <t xml:space="preserve">5.73563528060913</t>
   </si>
   <si>
     <t xml:space="preserve">5.72697162628174</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70964336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64033079147339</t>
+    <t xml:space="preserve">5.70964384078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64033031463623</t>
   </si>
   <si>
     <t xml:space="preserve">5.68365144729614</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">5.76162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74429988861084</t>
+    <t xml:space="preserve">5.744300365448</t>
   </si>
   <si>
     <t xml:space="preserve">5.80494832992554</t>
@@ -2498,16 +2498,16 @@
     <t xml:space="preserve">5.85693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54502534866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44972085952759</t>
+    <t xml:space="preserve">5.54502582550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44972038269043</t>
   </si>
   <si>
     <t xml:space="preserve">5.30243062973022</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25910997390747</t>
+    <t xml:space="preserve">5.25911045074463</t>
   </si>
   <si>
     <t xml:space="preserve">5.26777410507202</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">5.18113327026367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18979692459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09449243545532</t>
+    <t xml:space="preserve">5.18979740142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09449195861816</t>
   </si>
   <si>
     <t xml:space="preserve">5.00785112380981</t>
@@ -2528,186 +2528,192 @@
     <t xml:space="preserve">4.98185873031616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93853807449341</t>
+    <t xml:space="preserve">4.93853855133057</t>
   </si>
   <si>
     <t xml:space="preserve">5.03384351730347</t>
   </si>
   <si>
+    <t xml:space="preserve">5.02517986297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05117177963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99918699264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01651525497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99052333831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05983591079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32842302322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38907146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39773559570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28510236740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19846105575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14647674560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27643823623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36307954788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45838499069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09952831268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25548124313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3334584236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51540517807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28147411346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29880285263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18616914749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1081919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71830749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84826946258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20712566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87788963317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31975841522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44105672836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35441541671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21578979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06850004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10315608978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19846153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27142238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23494148254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18934154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12550067901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29878282546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50854539871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47206449508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68182706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6088662147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65446662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49942493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59062623977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41734409332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49030494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38086366653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3352632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10726022720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8701376914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97957897186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04341983795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9522180557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06165981292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13462066650391</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.02517938613892</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05117177963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99918699264526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01651525497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99052286148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05983591079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32842302322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38907146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39773607254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28510236740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19846153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14647722244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27643823623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36307954788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45838451385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09952783584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2554817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3334584236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51540470123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28147411346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29880237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18616914749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10819244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84826898574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20712566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87788963317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639925003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31975841522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44105672836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35441541671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21578931808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06849956512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10315608978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27142238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23494148254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18934154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12550067901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29878282546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50854539871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47206449508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68182706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6088662147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65446662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49942493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59062623977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41734409332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49030494689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38086366653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3352632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10726022720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8701376914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97957897186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04341983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9522180557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06165981292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13462066650391</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.09814071655273</t>
   </si>
   <si>
@@ -3672,6 +3678,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.3100004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35000038146973</t>
   </si>
 </sst>
 </file>
@@ -46125,7 +46134,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1620" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46151,7 +46160,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1621" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46177,7 +46186,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1622" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46203,7 +46212,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46229,7 +46238,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1624" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46255,7 +46264,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46281,7 +46290,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46307,7 +46316,7 @@
         <v>6</v>
       </c>
       <c r="G1627" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46333,7 +46342,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1628" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46359,7 +46368,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1629" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46385,7 +46394,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1630" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46411,7 +46420,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1631" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46437,7 +46446,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1632" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46463,7 +46472,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46489,7 +46498,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46515,7 +46524,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1635" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46541,7 +46550,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46567,7 +46576,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1637" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46593,7 +46602,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46619,7 +46628,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1639" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46645,7 +46654,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1640" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46671,7 +46680,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1641" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46697,7 +46706,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1642" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46723,7 +46732,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1643" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46749,7 +46758,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46775,7 +46784,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1645" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46801,7 +46810,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1646" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46827,7 +46836,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1647" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46853,7 +46862,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1648" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46879,7 +46888,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1649" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46905,7 +46914,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46931,7 +46940,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1651" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46957,7 +46966,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1652" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46983,7 +46992,7 @@
         <v>5.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47009,7 +47018,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1654" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47035,7 +47044,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1655" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47061,7 +47070,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1656" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47087,7 +47096,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47113,7 +47122,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1658" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47139,7 +47148,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1659" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47165,7 +47174,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G1660" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47191,7 +47200,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1661" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47217,7 +47226,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1662" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47243,7 +47252,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1663" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47269,7 +47278,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1664" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47295,7 +47304,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1665" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47321,7 +47330,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47347,7 +47356,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1667" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47373,7 +47382,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1668" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47399,7 +47408,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47425,7 +47434,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G1670" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47451,7 +47460,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1671" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47477,7 +47486,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1672" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47503,7 +47512,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1673" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47529,7 +47538,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1674" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47555,7 +47564,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1675" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47581,7 +47590,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1676" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47607,7 +47616,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1677" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47633,7 +47642,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1678" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47659,7 +47668,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1679" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47685,7 +47694,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1680" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47711,7 +47720,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1681" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47737,7 +47746,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1682" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47763,7 +47772,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1683" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47789,7 +47798,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1684" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47841,7 +47850,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1686" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47867,7 +47876,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1687" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47893,7 +47902,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47919,7 +47928,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1689" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47945,7 +47954,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47971,7 +47980,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47997,7 +48006,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1692" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48023,7 +48032,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1693" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48049,7 +48058,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48075,7 +48084,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1695" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48101,7 +48110,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1696" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48127,7 +48136,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1697" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48153,7 +48162,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1698" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48179,7 +48188,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1699" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48205,7 +48214,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1700" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48231,7 +48240,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1701" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48257,7 +48266,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48283,7 +48292,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1703" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48309,7 +48318,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1704" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48335,7 +48344,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1705" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48361,7 +48370,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1706" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48387,7 +48396,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48413,7 +48422,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48439,7 +48448,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1709" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48465,7 +48474,7 @@
         <v>6</v>
       </c>
       <c r="G1710" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48491,7 +48500,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1711" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48517,7 +48526,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1712" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48543,7 +48552,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1713" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48569,7 +48578,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1714" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48595,7 +48604,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1715" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48621,7 +48630,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1716" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48647,7 +48656,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48673,7 +48682,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48699,7 +48708,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1719" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48725,7 +48734,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1720" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48751,7 +48760,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1721" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48777,7 +48786,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1722" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48803,7 +48812,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1723" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48829,7 +48838,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48855,7 +48864,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1725" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48881,7 +48890,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1726" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48907,7 +48916,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G1727" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48933,7 +48942,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1728" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48959,7 +48968,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1729" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48985,7 +48994,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49011,7 +49020,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1731" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49037,7 +49046,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1732" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49063,7 +49072,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49089,7 +49098,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1734" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49115,7 +49124,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1735" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49141,7 +49150,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1736" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49167,7 +49176,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1737" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49193,7 +49202,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1738" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49219,7 +49228,7 @@
         <v>6</v>
       </c>
       <c r="G1739" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49245,7 +49254,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1740" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49271,7 +49280,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1741" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49297,7 +49306,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1742" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49323,7 +49332,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1743" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49349,7 +49358,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G1744" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49375,7 +49384,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49401,7 +49410,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1746" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49427,7 +49436,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49453,7 +49462,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1748" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49479,7 +49488,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G1749" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49505,7 +49514,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1750" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49531,7 +49540,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1751" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49557,7 +49566,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1752" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49583,7 +49592,7 @@
         <v>6.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49609,7 +49618,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49635,7 +49644,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1755" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49661,7 +49670,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1756" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49687,7 +49696,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49713,7 +49722,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49739,7 +49748,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49765,7 +49774,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1760" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49791,7 +49800,7 @@
         <v>6.75</v>
       </c>
       <c r="G1761" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49817,7 +49826,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1762" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49843,7 +49852,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49869,7 +49878,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1764" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49895,7 +49904,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1765" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49921,7 +49930,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1766" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49947,7 +49956,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1767" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49973,7 +49982,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1768" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49999,7 +50008,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50025,7 +50034,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1770" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50051,7 +50060,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50077,7 +50086,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1772" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50103,7 +50112,7 @@
         <v>6.75</v>
       </c>
       <c r="G1773" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50129,7 +50138,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1774" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50155,7 +50164,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1775" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50181,7 +50190,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1776" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50207,7 +50216,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1777" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50233,7 +50242,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1778" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50259,7 +50268,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1779" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50285,7 +50294,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1780" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50311,7 +50320,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1781" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50337,7 +50346,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50363,7 +50372,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1783" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50389,7 +50398,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1784" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50415,7 +50424,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50441,7 +50450,7 @@
         <v>7</v>
       </c>
       <c r="G1786" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50467,7 +50476,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1787" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50493,7 +50502,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50519,7 +50528,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1789" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50545,7 +50554,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1790" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50571,7 +50580,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1791" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50597,7 +50606,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1792" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50623,7 +50632,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1793" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50649,7 +50658,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1794" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50675,7 +50684,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1795" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50701,7 +50710,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1796" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50727,7 +50736,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50753,7 +50762,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1798" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50779,7 +50788,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1799" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50805,7 +50814,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1800" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50831,7 +50840,7 @@
         <v>7.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50857,7 +50866,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1802" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50883,7 +50892,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1803" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50909,7 +50918,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1804" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50935,7 +50944,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1805" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50961,7 +50970,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1806" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50987,7 +50996,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51013,7 +51022,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1808" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51039,7 +51048,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1809" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51065,7 +51074,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1810" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51091,7 +51100,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1811" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51117,7 +51126,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1812" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51143,7 +51152,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1813" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51169,7 +51178,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1814" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51195,7 +51204,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1815" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51221,7 +51230,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1816" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51247,7 +51256,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1817" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51273,7 +51282,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1818" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51299,7 +51308,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1819" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51325,7 +51334,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51351,7 +51360,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1821" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51377,7 +51386,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1822" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51403,7 +51412,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1823" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51429,7 +51438,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1824" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51455,7 +51464,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1825" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51481,7 +51490,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1826" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51507,7 +51516,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1827" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51533,7 +51542,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1828" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51559,7 +51568,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1829" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51585,7 +51594,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1830" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51611,7 +51620,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1831" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51637,7 +51646,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1832" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51663,7 +51672,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51689,7 +51698,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51715,7 +51724,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1835" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51741,7 +51750,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1836" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51767,7 +51776,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1837" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51793,7 +51802,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1838" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51819,7 +51828,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1839" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51845,7 +51854,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1840" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51871,7 +51880,7 @@
         <v>6.75</v>
       </c>
       <c r="G1841" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51897,7 +51906,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51923,7 +51932,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G1843" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51949,7 +51958,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1844" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51975,7 +51984,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1845" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52001,7 +52010,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1846" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52027,7 +52036,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1847" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52053,7 +52062,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1848" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52079,7 +52088,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1849" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52105,7 +52114,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1850" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52131,7 +52140,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1851" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52157,7 +52166,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1852" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52183,7 +52192,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1853" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52209,7 +52218,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52235,7 +52244,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52261,7 +52270,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1856" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52287,7 +52296,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1857" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52313,7 +52322,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1858" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52339,7 +52348,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52365,7 +52374,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52391,7 +52400,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1861" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52417,7 +52426,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1862" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52443,7 +52452,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1863" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52469,7 +52478,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1864" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52495,7 +52504,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1865" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52521,7 +52530,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1866" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52547,7 +52556,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1867" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52573,7 +52582,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52599,7 +52608,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1869" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52625,7 +52634,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1870" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52651,7 +52660,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52677,7 +52686,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1872" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52703,7 +52712,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1873" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52729,7 +52738,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52755,7 +52764,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52781,7 +52790,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52807,7 +52816,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1877" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52833,7 +52842,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1878" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52859,7 +52868,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1879" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52885,7 +52894,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1880" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52911,7 +52920,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52937,7 +52946,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52963,7 +52972,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1883" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52989,7 +52998,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1884" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53015,7 +53024,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1885" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53041,7 +53050,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1886" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53067,7 +53076,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1887" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53093,7 +53102,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53119,7 +53128,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1889" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53145,7 +53154,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1890" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53171,7 +53180,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53197,7 +53206,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53223,7 +53232,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1893" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53249,7 +53258,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1894" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53275,7 +53284,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1895" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53301,7 +53310,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53327,7 +53336,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1897" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53353,7 +53362,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53379,7 +53388,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1899" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53405,7 +53414,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1900" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53431,7 +53440,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1901" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53457,7 +53466,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1902" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53483,7 +53492,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1903" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53509,7 +53518,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1904" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53535,7 +53544,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1905" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53561,7 +53570,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1906" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53587,7 +53596,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1907" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53613,7 +53622,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1908" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53639,7 +53648,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53665,7 +53674,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1910" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53691,7 +53700,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53717,7 +53726,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1912" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53743,7 +53752,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G1913" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53769,7 +53778,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1914" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53795,7 +53804,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1915" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53821,7 +53830,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1916" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53847,7 +53856,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1917" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53873,7 +53882,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1918" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53899,7 +53908,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1919" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53925,7 +53934,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53951,7 +53960,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1921" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53977,7 +53986,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1922" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54003,7 +54012,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54029,7 +54038,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1924" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54055,7 +54064,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1925" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54081,7 +54090,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1926" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54107,7 +54116,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54133,7 +54142,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54159,7 +54168,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1929" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54185,7 +54194,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1930" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54211,7 +54220,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54237,7 +54246,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1932" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54263,7 +54272,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1933" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54289,7 +54298,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54315,7 +54324,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1935" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54341,7 +54350,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1936" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54367,7 +54376,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54393,7 +54402,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1938" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54419,7 +54428,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1939" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54445,7 +54454,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1940" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54471,7 +54480,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1941" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54497,7 +54506,7 @@
         <v>7.5</v>
       </c>
       <c r="G1942" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54523,7 +54532,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54549,7 +54558,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1944" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54575,7 +54584,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1945" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54601,7 +54610,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G1946" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54627,7 +54636,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1947" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54653,7 +54662,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1948" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54679,7 +54688,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1949" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54705,7 +54714,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1950" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54731,7 +54740,7 @@
         <v>7.75</v>
       </c>
       <c r="G1951" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54757,7 +54766,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1952" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54783,7 +54792,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1953" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54809,7 +54818,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54835,7 +54844,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G1955" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54861,7 +54870,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54887,7 +54896,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1957" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54913,7 +54922,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54939,7 +54948,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54965,7 +54974,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1960" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54991,7 +55000,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55017,7 +55026,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1962" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55043,7 +55052,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1963" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55069,7 +55078,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55095,7 +55104,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1965" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55121,7 +55130,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1966" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55147,7 +55156,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1967" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55173,7 +55182,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1968" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55199,7 +55208,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1969" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55225,7 +55234,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1970" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55251,7 +55260,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55277,7 +55286,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1972" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55303,7 +55312,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1973" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55329,7 +55338,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1974" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55355,7 +55364,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55381,7 +55390,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1976" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55407,7 +55416,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1977" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55433,7 +55442,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1978" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55459,7 +55468,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1979" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55485,7 +55494,7 @@
         <v>7.75</v>
       </c>
       <c r="G1980" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55511,7 +55520,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1981" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55537,7 +55546,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55563,7 +55572,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55589,7 +55598,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55615,7 +55624,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1985" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55641,7 +55650,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55667,7 +55676,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1987" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55693,7 +55702,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1988" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55719,7 +55728,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1989" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55745,7 +55754,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55771,7 +55780,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1991" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55797,7 +55806,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1992" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55823,7 +55832,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1993" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55849,7 +55858,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55875,7 +55884,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55901,7 +55910,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G1996" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55927,7 +55936,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1997" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55953,7 +55962,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1998" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55979,7 +55988,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1999" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56005,7 +56014,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2000" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56031,7 +56040,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G2001" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56057,7 +56066,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2002" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56083,7 +56092,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56109,7 +56118,7 @@
         <v>8</v>
       </c>
       <c r="G2004" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56135,7 +56144,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2005" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56161,7 +56170,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2006" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56187,7 +56196,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56213,7 +56222,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2008" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56239,7 +56248,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56265,7 +56274,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2010" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56291,7 +56300,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56317,7 +56326,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56343,7 +56352,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2013" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56369,7 +56378,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G2014" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56395,7 +56404,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2015" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56421,7 +56430,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56447,7 +56456,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2017" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56473,7 +56482,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2018" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56499,7 +56508,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G2019" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56525,7 +56534,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2020" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56551,7 +56560,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G2021" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56577,7 +56586,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2022" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56603,7 +56612,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2023" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56629,7 +56638,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2024" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56655,7 +56664,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2025" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56681,7 +56690,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2026" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56707,7 +56716,7 @@
         <v>8</v>
       </c>
       <c r="G2027" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56733,7 +56742,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2028" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56759,7 +56768,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2029" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56785,7 +56794,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2030" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56811,7 +56820,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G2031" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56837,7 +56846,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2032" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56863,7 +56872,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2033" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56889,7 +56898,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2034" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56915,7 +56924,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2035" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56941,7 +56950,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56967,7 +56976,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2037" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56993,7 +57002,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2038" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57019,7 +57028,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G2039" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57045,7 +57054,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2040" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57071,7 +57080,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2041" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57097,7 +57106,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2042" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57123,7 +57132,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2043" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57149,7 +57158,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2044" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57175,7 +57184,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2045" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57201,7 +57210,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G2046" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57227,7 +57236,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2047" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57253,7 +57262,7 @@
         <v>8.25</v>
       </c>
       <c r="G2048" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57279,7 +57288,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2049" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57305,7 +57314,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2050" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57331,7 +57340,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2051" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57357,7 +57366,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2052" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57383,7 +57392,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2053" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57409,7 +57418,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57435,7 +57444,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2055" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57461,7 +57470,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2056" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57487,7 +57496,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2057" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57513,7 +57522,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2058" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57539,7 +57548,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57565,7 +57574,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2060" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57591,7 +57600,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57617,7 +57626,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2062" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57643,7 +57652,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2063" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57669,7 +57678,7 @@
         <v>8.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57695,7 +57704,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2065" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57721,7 +57730,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2066" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57747,7 +57756,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2067" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57773,7 +57782,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2068" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57799,7 +57808,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57825,7 +57834,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2070" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57851,7 +57860,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2071" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57877,7 +57886,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57903,7 +57912,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2073" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57929,7 +57938,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2074" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57955,7 +57964,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2075" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57981,7 +57990,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2076" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58007,7 +58016,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2077" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58033,7 +58042,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2078" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58059,7 +58068,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G2079" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58085,7 +58094,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2080" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58111,7 +58120,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G2081" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58137,7 +58146,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2082" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58163,7 +58172,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58189,7 +58198,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58215,7 +58224,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58241,7 +58250,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G2086" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58267,7 +58276,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2087" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58293,7 +58302,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2088" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58319,7 +58328,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2089" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58345,7 +58354,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2090" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58371,7 +58380,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2091" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58397,7 +58406,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2092" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58423,7 +58432,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2093" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58449,7 +58458,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2094" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58475,7 +58484,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2095" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58501,7 +58510,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2096" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58527,7 +58536,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2097" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58553,7 +58562,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2098" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58579,7 +58588,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G2099" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58605,7 +58614,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2100" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58631,7 +58640,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58657,7 +58666,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58683,7 +58692,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2103" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58709,7 +58718,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2104" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58735,7 +58744,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58761,7 +58770,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58787,7 +58796,7 @@
         <v>9.25</v>
       </c>
       <c r="G2107" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58813,7 +58822,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58839,7 +58848,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2109" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58865,7 +58874,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2110" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58891,7 +58900,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2111" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58917,7 +58926,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2112" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58943,7 +58952,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2113" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58969,7 +58978,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2114" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58995,7 +59004,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2115" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59021,7 +59030,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2116" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59047,7 +59056,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G2117" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59073,7 +59082,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2118" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59099,7 +59108,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G2119" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59125,7 +59134,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G2120" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59151,7 +59160,7 @@
         <v>10</v>
       </c>
       <c r="G2121" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59177,7 +59186,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2122" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59203,7 +59212,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G2123" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59229,7 +59238,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G2124" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59255,7 +59264,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59281,7 +59290,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G2126" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59307,7 +59316,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G2127" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59333,7 +59342,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2128" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59359,7 +59368,7 @@
         <v>9.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59385,7 +59394,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2130" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59411,7 +59420,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G2131" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59437,7 +59446,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G2132" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59463,7 +59472,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59489,7 +59498,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G2134" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59515,7 +59524,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59541,7 +59550,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2136" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59567,7 +59576,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2137" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59593,7 +59602,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2138" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59619,7 +59628,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2139" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59645,7 +59654,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2140" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59671,7 +59680,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2141" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59697,7 +59706,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G2142" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59723,7 +59732,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2143" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59749,7 +59758,7 @@
         <v>9.5</v>
       </c>
       <c r="G2144" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59775,7 +59784,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59801,7 +59810,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2146" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59827,7 +59836,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2147" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59853,7 +59862,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2148" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59879,7 +59888,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G2149" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59905,7 +59914,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2150" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59931,7 +59940,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G2151" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59957,7 +59966,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2152" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59983,7 +59992,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2153" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59991,13 +60000,13 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6494328704</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>139260</v>
       </c>
       <c r="C2154" t="n">
-        <v>9.28999996185303</v>
+        <v>9.3100004196167</v>
       </c>
       <c r="D2154" t="n">
         <v>9.09000015258789</v>
@@ -60009,9 +60018,35 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2154" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6494444444</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>120542</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>9.47999954223633</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>9.18000030517578</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>9.36999988555908</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>9.35000038146973</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1222">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">5.00243282318115</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93192338943481</t>
+    <t xml:space="preserve">4.93192386627197</t>
   </si>
   <si>
     <t xml:space="preserve">4.75750637054443</t>
@@ -56,25 +56,25 @@
     <t xml:space="preserve">4.71297454833984</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76492881774902</t>
+    <t xml:space="preserve">4.76492834091187</t>
   </si>
   <si>
     <t xml:space="preserve">4.7723503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82430410385132</t>
+    <t xml:space="preserve">4.82430458068848</t>
   </si>
   <si>
     <t xml:space="preserve">4.72039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67957496643066</t>
+    <t xml:space="preserve">4.67957592010498</t>
   </si>
   <si>
     <t xml:space="preserve">4.47547054290771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51257944107056</t>
+    <t xml:space="preserve">4.51258039474487</t>
   </si>
   <si>
     <t xml:space="preserve">4.13405799865723</t>
@@ -83,19 +83,19 @@
     <t xml:space="preserve">4.32703018188477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45320463180542</t>
+    <t xml:space="preserve">4.4532036781311</t>
   </si>
   <si>
     <t xml:space="preserve">4.59051179885864</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5608229637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4346489906311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5571117401123</t>
+    <t xml:space="preserve">4.56082344055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43464946746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55711221694946</t>
   </si>
   <si>
     <t xml:space="preserve">4.55340147018433</t>
@@ -104,28 +104,28 @@
     <t xml:space="preserve">4.36042928695679</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20085525512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23796606063843</t>
+    <t xml:space="preserve">4.20085573196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23796510696411</t>
   </si>
   <si>
     <t xml:space="preserve">4.27507638931274</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95592927932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78893446922302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14519119262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98561787605286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25281047821045</t>
+    <t xml:space="preserve">3.95592951774597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78893423080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14519071578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9856173992157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25280952453613</t>
   </si>
   <si>
     <t xml:space="preserve">4.31589698791504</t>
@@ -134,10 +134,10 @@
     <t xml:space="preserve">4.38269519805908</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49031400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.230544090271</t>
+    <t xml:space="preserve">4.49031448364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23054361343384</t>
   </si>
   <si>
     <t xml:space="preserve">4.16745710372925</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">4.3121862411499</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28620958328247</t>
+    <t xml:space="preserve">4.28620862960815</t>
   </si>
   <si>
     <t xml:space="preserve">4.11921405792236</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19343423843384</t>
+    <t xml:space="preserve">4.193434715271</t>
   </si>
   <si>
     <t xml:space="preserve">4.28991985321045</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3715615272522</t>
+    <t xml:space="preserve">4.37156200408936</t>
   </si>
   <si>
     <t xml:space="preserve">4.56453418731689</t>
@@ -167,37 +167,37 @@
     <t xml:space="preserve">4.63504314422607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62390995025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57195615768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66473197937012</t>
+    <t xml:space="preserve">4.62391090393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57195663452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66473150253296</t>
   </si>
   <si>
     <t xml:space="preserve">4.75008487701416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81317186355591</t>
+    <t xml:space="preserve">4.81317138671875</t>
   </si>
   <si>
     <t xml:space="preserve">4.70184135437012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72781848907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58308887481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77977180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71668529510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60164403915405</t>
+    <t xml:space="preserve">4.72781896591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58308935165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77977228164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71668577194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60164451599121</t>
   </si>
   <si>
     <t xml:space="preserve">4.52742433547974</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">4.46433734893799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34187364578247</t>
+    <t xml:space="preserve">4.34187412261963</t>
   </si>
   <si>
     <t xml:space="preserve">4.31960821151733</t>
@@ -221,40 +221,40 @@
     <t xml:space="preserve">4.15261268615723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10065841674805</t>
+    <t xml:space="preserve">4.10065937042236</t>
   </si>
   <si>
     <t xml:space="preserve">4.34558486938477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2268328666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50886869430542</t>
+    <t xml:space="preserve">4.22683382034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50886917114258</t>
   </si>
   <si>
     <t xml:space="preserve">4.59422254562378</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61648797988892</t>
+    <t xml:space="preserve">4.61648845672607</t>
   </si>
   <si>
     <t xml:space="preserve">4.65359830856323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65730905532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73152923583984</t>
+    <t xml:space="preserve">4.65730953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.731529712677</t>
   </si>
   <si>
     <t xml:space="preserve">4.7537956237793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80946063995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63875436782837</t>
+    <t xml:space="preserve">4.8094596862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63875532150269</t>
   </si>
   <si>
     <t xml:space="preserve">4.50144720077515</t>
@@ -266,13 +266,13 @@
     <t xml:space="preserve">4.48660326004028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44578218460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34929704666138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6581335067749</t>
+    <t xml:space="preserve">4.44578170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34929609298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65813302993774</t>
   </si>
   <si>
     <t xml:space="preserve">4.57827949523926</t>
@@ -281,25 +281,25 @@
     <t xml:space="preserve">4.63912057876587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69996166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67714643478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68094873428345</t>
+    <t xml:space="preserve">4.69996118545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67714595794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68094921112061</t>
   </si>
   <si>
     <t xml:space="preserve">4.96233797073364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96994304656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9395227432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92431259155273</t>
+    <t xml:space="preserve">4.96994256973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93952322006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92431306838989</t>
   </si>
   <si>
     <t xml:space="preserve">4.93191766738892</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">4.83685350418091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77221059799194</t>
+    <t xml:space="preserve">4.77221012115479</t>
   </si>
   <si>
     <t xml:space="preserve">4.82924842834473</t>
@@ -317,13 +317,13 @@
     <t xml:space="preserve">4.73038196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89389228820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79502534866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80643367767334</t>
+    <t xml:space="preserve">4.89389133453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79502582550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80643320083618</t>
   </si>
   <si>
     <t xml:space="preserve">4.69615888595581</t>
@@ -347,40 +347,40 @@
     <t xml:space="preserve">4.79122304916382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84065628051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88628721237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00416612625122</t>
+    <t xml:space="preserve">4.84065580368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88628673553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00416564941406</t>
   </si>
   <si>
     <t xml:space="preserve">4.13338041305542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14478874206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12197351455688</t>
+    <t xml:space="preserve">4.14478826522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12197256088257</t>
   </si>
   <si>
     <t xml:space="preserve">4.24365472793579</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0345139503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89381909370422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78734755516052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87480592727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04211950302124</t>
+    <t xml:space="preserve">4.03451347351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89381980895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78734827041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480640411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04211902618408</t>
   </si>
   <si>
     <t xml:space="preserve">4.14859056472778</t>
@@ -395,43 +395,43 @@
     <t xml:space="preserve">4.31590366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38054656982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3653359413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46420240402222</t>
+    <t xml:space="preserve">4.38054704666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36533689498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46420288085938</t>
   </si>
   <si>
     <t xml:space="preserve">4.43378257751465</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35773134231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40716409683228</t>
+    <t xml:space="preserve">4.35773086547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40716457366943</t>
   </si>
   <si>
     <t xml:space="preserve">4.3729419708252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19422101974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210088729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1980242729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07253932952881</t>
+    <t xml:space="preserve">4.19422149658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19802379608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07253980636597</t>
   </si>
   <si>
     <t xml:space="preserve">4.08774948120117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15999841690063</t>
+    <t xml:space="preserve">4.15999889373779</t>
   </si>
   <si>
     <t xml:space="preserve">4.091552734375</t>
@@ -440,10 +440,10 @@
     <t xml:space="preserve">4.04972410202026</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05352592468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92423987388611</t>
+    <t xml:space="preserve">4.05352640151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92423963546753</t>
   </si>
   <si>
     <t xml:space="preserve">3.85199117660522</t>
@@ -452,10 +452,10 @@
     <t xml:space="preserve">3.84438633918762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72650694847107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72498536109924</t>
+    <t xml:space="preserve">3.72650647163391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72498512268066</t>
   </si>
   <si>
     <t xml:space="preserve">3.86720156669617</t>
@@ -464,79 +464,79 @@
     <t xml:space="preserve">4.07634210586548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92804217338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396555900574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84058356285095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02690887451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11056470870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09535455703735</t>
+    <t xml:space="preserve">3.9280424118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396508216858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84058380126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02690839767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11056566238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09535503387451</t>
   </si>
   <si>
     <t xml:space="preserve">4.17520809173584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20562934875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99268531799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99648833274841</t>
+    <t xml:space="preserve">4.20562887191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99268555641174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99648880958557</t>
   </si>
   <si>
     <t xml:space="preserve">3.95466017723083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93944954872131</t>
+    <t xml:space="preserve">3.93945002555847</t>
   </si>
   <si>
     <t xml:space="preserve">3.85959649085999</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85579419136047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81016302108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01930379867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8633987903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74171710014343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70977544784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72802782058716</t>
+    <t xml:space="preserve">3.85579347610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81016325950623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01930284500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86339831352234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74171733856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7097749710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72802805900574</t>
   </si>
   <si>
     <t xml:space="preserve">3.65806078910828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67479157447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70673394203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77365851402283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88241171836853</t>
+    <t xml:space="preserve">3.67479228973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70673370361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77365803718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88241124153137</t>
   </si>
   <si>
     <t xml:space="preserve">3.84818840026855</t>
@@ -548,55 +548,55 @@
     <t xml:space="preserve">3.88621425628662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83678126335144</t>
+    <t xml:space="preserve">3.83678102493286</t>
   </si>
   <si>
     <t xml:space="preserve">3.95085787773132</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90522718429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03071165084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06493473052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97367238998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02310657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01169872283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93564701080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90142440795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81776785850525</t>
+    <t xml:space="preserve">3.9052267074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03071212768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06493425369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97367310523987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02310609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01169919967651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93564772605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90142512321472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81776809692383</t>
   </si>
   <si>
     <t xml:space="preserve">3.76909494400024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78886866569519</t>
+    <t xml:space="preserve">3.78886842727661</t>
   </si>
   <si>
     <t xml:space="preserve">3.8215708732605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80255746841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89762234687805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01550102233887</t>
+    <t xml:space="preserve">3.80255770683289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89762187004089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01550149917603</t>
   </si>
   <si>
     <t xml:space="preserve">4.06113195419312</t>
@@ -605,10 +605,10 @@
     <t xml:space="preserve">4.00789594650269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96226596832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91663503646851</t>
+    <t xml:space="preserve">3.9622654914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91663432121277</t>
   </si>
   <si>
     <t xml:space="preserve">3.93184471130371</t>
@@ -623,37 +623,37 @@
     <t xml:space="preserve">4.353928565979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42998027801514</t>
+    <t xml:space="preserve">4.42997980117798</t>
   </si>
   <si>
     <t xml:space="preserve">4.29308748245239</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38815116882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23604917526245</t>
+    <t xml:space="preserve">4.3881516456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23604965209961</t>
   </si>
   <si>
     <t xml:space="preserve">4.33871841430664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40336179733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4794135093689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34252119064331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46800470352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48701810836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31970596313477</t>
+    <t xml:space="preserve">4.40336227416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47941303253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34252023696899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46800565719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48701858520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31970548629761</t>
   </si>
   <si>
     <t xml:space="preserve">4.30829811096191</t>
@@ -662,40 +662,40 @@
     <t xml:space="preserve">4.48321580886841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49842643737793</t>
+    <t xml:space="preserve">4.49842596054077</t>
   </si>
   <si>
     <t xml:space="preserve">4.50603103637695</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45279550552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63531827926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65052795410156</t>
+    <t xml:space="preserve">4.45279502868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6353178024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65052843093872</t>
   </si>
   <si>
     <t xml:space="preserve">4.74559211730957</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72658014297485</t>
+    <t xml:space="preserve">4.7265796661377</t>
   </si>
   <si>
     <t xml:space="preserve">4.6923565864563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75319719314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55926752090454</t>
+    <t xml:space="preserve">4.75319814682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55926656723022</t>
   </si>
   <si>
     <t xml:space="preserve">4.56306886672974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64292287826538</t>
+    <t xml:space="preserve">4.64292335510254</t>
   </si>
   <si>
     <t xml:space="preserve">4.53645181655884</t>
@@ -707,25 +707,25 @@
     <t xml:space="preserve">4.61630535125732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68475198745728</t>
+    <t xml:space="preserve">4.68475151062012</t>
   </si>
   <si>
     <t xml:space="preserve">4.58208227157593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59729337692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47180891036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57447671890259</t>
+    <t xml:space="preserve">4.59729242324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47180795669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57447719573975</t>
   </si>
   <si>
     <t xml:space="preserve">4.5858850479126</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58968687057495</t>
+    <t xml:space="preserve">4.58968734741211</t>
   </si>
   <si>
     <t xml:space="preserve">4.62010765075684</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">4.59348964691162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65433073043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7760124206543</t>
+    <t xml:space="preserve">4.65433120727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77601289749146</t>
   </si>
   <si>
     <t xml:space="preserve">4.82164335250854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89769506454468</t>
+    <t xml:space="preserve">4.89769458770752</t>
   </si>
   <si>
     <t xml:space="preserve">4.90530014038086</t>
@@ -752,25 +752,25 @@
     <t xml:space="preserve">4.84445905685425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94332504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88248491287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83305168151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87487840652466</t>
+    <t xml:space="preserve">4.94332551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88248443603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8330512046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87487936019897</t>
   </si>
   <si>
     <t xml:space="preserve">4.798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76080226898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82544612884521</t>
+    <t xml:space="preserve">4.76080322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82544565200806</t>
   </si>
   <si>
     <t xml:space="preserve">4.81023597717285</t>
@@ -782,19 +782,19 @@
     <t xml:space="preserve">5.00036334991455</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86727428436279</t>
+    <t xml:space="preserve">4.86727476119995</t>
   </si>
   <si>
     <t xml:space="preserve">4.95853567123413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98135089874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0117712020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01937675476074</t>
+    <t xml:space="preserve">4.98135137557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01177167892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01937627792358</t>
   </si>
   <si>
     <t xml:space="preserve">4.91290473937988</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">5.16007137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1911792755127</t>
+    <t xml:space="preserve">5.19117975234985</t>
   </si>
   <si>
     <t xml:space="preserve">5.30394649505615</t>
@@ -815,25 +815,25 @@
     <t xml:space="preserve">5.34283208847046</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37005138397217</t>
+    <t xml:space="preserve">5.37005186080933</t>
   </si>
   <si>
     <t xml:space="preserve">5.35838556289673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3894944190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28450345993042</t>
+    <t xml:space="preserve">5.38949394226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28450393676758</t>
   </si>
   <si>
     <t xml:space="preserve">5.21451044082642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17562532424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2261757850647</t>
+    <t xml:space="preserve">5.17562580108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22617626190186</t>
   </si>
   <si>
     <t xml:space="preserve">5.24950742721558</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">5.45559883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38560581207275</t>
+    <t xml:space="preserve">5.3856053352356</t>
   </si>
   <si>
     <t xml:space="preserve">5.31172370910645</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">5.47892999649048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37393951416016</t>
+    <t xml:space="preserve">5.37393999099731</t>
   </si>
   <si>
     <t xml:space="preserve">5.40504789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40893650054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42837905883789</t>
+    <t xml:space="preserve">5.40893697738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42837953567505</t>
   </si>
   <si>
     <t xml:space="preserve">5.49448442459106</t>
@@ -884,10 +884,10 @@
     <t xml:space="preserve">5.49837255477905</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46337604522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64613723754883</t>
+    <t xml:space="preserve">5.46337652206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64613676071167</t>
   </si>
   <si>
     <t xml:space="preserve">5.8094539642334</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">5.59169721603394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6189169883728</t>
+    <t xml:space="preserve">5.61891651153564</t>
   </si>
   <si>
     <t xml:space="preserve">5.63835954666138</t>
@@ -905,49 +905,49 @@
     <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5800313949585</t>
+    <t xml:space="preserve">5.58003234863281</t>
   </si>
   <si>
     <t xml:space="preserve">5.62280559539795</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54503440856934</t>
+    <t xml:space="preserve">5.54503488540649</t>
   </si>
   <si>
     <t xml:space="preserve">5.57614326477051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48670721054077</t>
+    <t xml:space="preserve">5.48670673370361</t>
   </si>
   <si>
     <t xml:space="preserve">5.4244909286499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53336906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63447141647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59947443008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66946744918823</t>
+    <t xml:space="preserve">5.53336954116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63447093963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59947395324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66946792602539</t>
   </si>
   <si>
     <t xml:space="preserve">5.56836557388306</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6616907119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75501537322998</t>
+    <t xml:space="preserve">5.66169118881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75501489639282</t>
   </si>
   <si>
     <t xml:space="preserve">5.92611026763916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75890350341797</t>
+    <t xml:space="preserve">5.75890398025513</t>
   </si>
   <si>
     <t xml:space="preserve">5.56447792053223</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">5.69279909133911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74723768234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65002536773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64224767684937</t>
+    <t xml:space="preserve">5.74723863601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6500244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64224863052368</t>
   </si>
   <si>
     <t xml:space="preserve">5.52948093414307</t>
@@ -980,34 +980,34 @@
     <t xml:space="preserve">5.52170372009277</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53725814819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5722541809082</t>
+    <t xml:space="preserve">5.5372576713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57225513458252</t>
   </si>
   <si>
     <t xml:space="preserve">5.59558582305908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69668769836426</t>
+    <t xml:space="preserve">5.6966872215271</t>
   </si>
   <si>
     <t xml:space="preserve">5.90277910232544</t>
   </si>
   <si>
-    <t xml:space="preserve">5.856116771698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83278560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86389446258545</t>
+    <t xml:space="preserve">5.85611724853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83278608322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86389350891113</t>
   </si>
   <si>
     <t xml:space="preserve">5.80167770385742</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84833955764771</t>
+    <t xml:space="preserve">5.84834003448486</t>
   </si>
   <si>
     <t xml:space="preserve">5.84445095062256</t>
@@ -1016,34 +1016,34 @@
     <t xml:space="preserve">5.89500188827515</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90666723251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92999887466431</t>
+    <t xml:space="preserve">5.90666770935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92999839782715</t>
   </si>
   <si>
     <t xml:space="preserve">5.91444492340088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94944143295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96499586105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81723213195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86778259277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88333606719971</t>
+    <t xml:space="preserve">5.94944095611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96499538421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81723117828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86778211593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88333654403687</t>
   </si>
   <si>
     <t xml:space="preserve">5.83667421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78223514556885</t>
+    <t xml:space="preserve">5.78223466873169</t>
   </si>
   <si>
     <t xml:space="preserve">5.76279211044312</t>
@@ -1058,67 +1058,67 @@
     <t xml:space="preserve">5.87167119979858</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85222816467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73557233810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91833305358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60336303710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50614976882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4594874382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37782859802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44004487991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5022611618042</t>
+    <t xml:space="preserve">5.85222864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73557281494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91833353042603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60336256027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5061502456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45948791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3778281211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44004440307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50226068496704</t>
   </si>
   <si>
     <t xml:space="preserve">5.56058931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5839204788208</t>
+    <t xml:space="preserve">5.58392000198364</t>
   </si>
   <si>
     <t xml:space="preserve">5.72779560089111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71612977981567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76668071746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72001934051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77445793151855</t>
+    <t xml:space="preserve">5.71613025665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7666802406311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72001838684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77445840835571</t>
   </si>
   <si>
     <t xml:space="preserve">5.84056282043457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54892444610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52559232711792</t>
+    <t xml:space="preserve">5.5489239692688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52559280395508</t>
   </si>
   <si>
     <t xml:space="preserve">5.55670022964478</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58780908584595</t>
+    <t xml:space="preserve">5.58780860900879</t>
   </si>
   <si>
     <t xml:space="preserve">5.43615627288818</t>
@@ -1133,19 +1133,19 @@
     <t xml:space="preserve">6.0505428314209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05832004547119</t>
+    <t xml:space="preserve">6.05832052230835</t>
   </si>
   <si>
     <t xml:space="preserve">6.01165771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00388050079346</t>
+    <t xml:space="preserve">6.00388097763062</t>
   </si>
   <si>
     <t xml:space="preserve">6.10498237609863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08942794799805</t>
+    <t xml:space="preserve">6.08942842483521</t>
   </si>
   <si>
     <t xml:space="preserve">6.04276609420776</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">5.97277307510376</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94166421890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73168468475342</t>
+    <t xml:space="preserve">5.94166469573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7316837310791</t>
   </si>
   <si>
     <t xml:space="preserve">5.67724466323853</t>
@@ -1166,22 +1166,22 @@
     <t xml:space="preserve">5.88722515106201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68502235412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73946094512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79390096664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77056932449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78612375259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70057582855225</t>
+    <t xml:space="preserve">5.68502187728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73946142196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79390048980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77056980133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78612279891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70057535171509</t>
   </si>
   <si>
     <t xml:space="preserve">5.6539134979248</t>
@@ -1190,31 +1190,31 @@
     <t xml:space="preserve">5.49059581756592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76564836502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68568134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50175619125366</t>
+    <t xml:space="preserve">5.76564884185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68568086624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50175666809082</t>
   </si>
   <si>
     <t xml:space="preserve">5.46177244186401</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31783151626587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34981775283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36581182479858</t>
+    <t xml:space="preserve">5.31783103942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34981870651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36581134796143</t>
   </si>
   <si>
     <t xml:space="preserve">5.32582759857178</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30983400344849</t>
+    <t xml:space="preserve">5.30983448028564</t>
   </si>
   <si>
     <t xml:space="preserve">5.03794527053833</t>
@@ -1223,19 +1223,19 @@
     <t xml:space="preserve">4.93398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65410280227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91799402236938</t>
+    <t xml:space="preserve">4.65410137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91799449920654</t>
   </si>
   <si>
     <t xml:space="preserve">4.83002996444702</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99796152114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87001419067383</t>
+    <t xml:space="preserve">4.99796199798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87001466751099</t>
   </si>
   <si>
     <t xml:space="preserve">4.7980432510376</t>
@@ -1250,22 +1250,22 @@
     <t xml:space="preserve">4.92599058151245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90200138092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00595903396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09392261505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13390588760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18188667297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05393934249878</t>
+    <t xml:space="preserve">4.90200090408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00595855712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09392213821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13390636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18188714981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05393886566162</t>
   </si>
   <si>
     <t xml:space="preserve">5.06193542480469</t>
@@ -1283,16 +1283,16 @@
     <t xml:space="preserve">5.08592557907104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17388916015625</t>
+    <t xml:space="preserve">5.17388963699341</t>
   </si>
   <si>
     <t xml:space="preserve">5.1898832321167</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10991621017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11791276931763</t>
+    <t xml:space="preserve">5.1099157333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11791229248047</t>
   </si>
   <si>
     <t xml:space="preserve">5.10191917419434</t>
@@ -1301,10 +1301,10 @@
     <t xml:space="preserve">5.04594230651855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90999746322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89400339126587</t>
+    <t xml:space="preserve">4.90999698638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89400386810303</t>
   </si>
   <si>
     <t xml:space="preserve">5.07792901992798</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">4.94198417663574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98996448516846</t>
+    <t xml:space="preserve">4.98996496200562</t>
   </si>
   <si>
     <t xml:space="preserve">4.98196792602539</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">4.61411809921265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53415060043335</t>
+    <t xml:space="preserve">4.53415012359619</t>
   </si>
   <si>
     <t xml:space="preserve">4.4701771736145</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">4.44618654251099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45418357849121</t>
+    <t xml:space="preserve">4.45418310165405</t>
   </si>
   <si>
     <t xml:space="preserve">4.47817373275757</t>
@@ -1340,31 +1340,31 @@
     <t xml:space="preserve">4.4941668510437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39020919799805</t>
+    <t xml:space="preserve">4.39020967483521</t>
   </si>
   <si>
     <t xml:space="preserve">4.42219686508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25426483154297</t>
+    <t xml:space="preserve">4.25426530838013</t>
   </si>
   <si>
     <t xml:space="preserve">4.27825498580933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34222888946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33423233032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54214715957642</t>
+    <t xml:space="preserve">4.34222841262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33423185348511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54214763641357</t>
   </si>
   <si>
     <t xml:space="preserve">4.67009544372559</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64610433578491</t>
+    <t xml:space="preserve">4.64610528945923</t>
   </si>
   <si>
     <t xml:space="preserve">4.66209840774536</t>
@@ -1376,16 +1376,16 @@
     <t xml:space="preserve">4.70208263397217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72607278823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75006246566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82203340530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81403684616089</t>
+    <t xml:space="preserve">4.72607231140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75006294250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82203388214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81403636932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.71007871627808</t>
@@ -1400,10 +1400,10 @@
     <t xml:space="preserve">4.55814123153687</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31823873519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24626779556274</t>
+    <t xml:space="preserve">4.31823921203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2462682723999</t>
   </si>
   <si>
     <t xml:space="preserve">4.18229389190674</t>
@@ -1418,19 +1418,19 @@
     <t xml:space="preserve">4.20628452301025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11032342910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07034015655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95438742637634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81844329833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92240071296692</t>
+    <t xml:space="preserve">4.11032390594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07033967971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95438718795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81844258308411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92240047454834</t>
   </si>
   <si>
     <t xml:space="preserve">4.21428155899048</t>
@@ -1439,22 +1439,22 @@
     <t xml:space="preserve">4.15830373764038</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23027467727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23827219009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26226139068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13431358337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15030717849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09432983398438</t>
+    <t xml:space="preserve">4.23027420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23827123641968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26226186752319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13431406021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15030765533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09433031082153</t>
   </si>
   <si>
     <t xml:space="preserve">4.06234312057495</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">4.01436281204224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05434703826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99836874008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02235984802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16630077362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19828748703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0463490486145</t>
+    <t xml:space="preserve">4.05434656143188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99836945533752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0223593711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16630125045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19828796386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04635000228882</t>
   </si>
   <si>
     <t xml:space="preserve">4.11832046508789</t>
@@ -1490,52 +1490,52 @@
     <t xml:space="preserve">3.98237538337708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96238422393799</t>
+    <t xml:space="preserve">3.96238398551941</t>
   </si>
   <si>
     <t xml:space="preserve">3.95038890838623</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91440391540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03835344314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22227811813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10232734680176</t>
+    <t xml:space="preserve">3.91440367698669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03835296630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22227764129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1023268699646</t>
   </si>
   <si>
     <t xml:space="preserve">4.08633327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07833671569824</t>
+    <t xml:space="preserve">4.07833623886108</t>
   </si>
   <si>
     <t xml:space="preserve">4.00636625289917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03035640716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89441132545471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97837734222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91840243339539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87042164802551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98637437820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19029092788696</t>
+    <t xml:space="preserve">4.03035593032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89441180229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97837710380554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91840171813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87042140960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98637390136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1902904510498</t>
   </si>
   <si>
     <t xml:space="preserve">4.29424810409546</t>
@@ -1544,238 +1544,238 @@
     <t xml:space="preserve">3.93839406967163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97038102149963</t>
+    <t xml:space="preserve">3.97038078308105</t>
   </si>
   <si>
     <t xml:space="preserve">4.17429733276367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95838522911072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91040444374084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.846431016922</t>
+    <t xml:space="preserve">3.95838570594788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.910404920578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84643149375916</t>
   </si>
   <si>
     <t xml:space="preserve">3.86242461204529</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81444454193115</t>
+    <t xml:space="preserve">3.81444430351257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77845859527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79098415374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79515933990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77010893821716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68243169784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69913196563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74088335037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72418308258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71583247184753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73670768737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65738153457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67408180236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63650584220886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59475493431091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66155695915222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68660688400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61980557441711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62398052215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57387971878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54047870635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55300402641296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56970453262329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5488293170929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58222961425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51542806625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46532702445984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48202776908875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52377820014954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53630352020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59057998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74923348426819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97468876838684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04149055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92876219749451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92458701133728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94128799438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94963812828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98303842544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90371203422546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84108543395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96633815765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95798778533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94546294212341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89536166191101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87031102180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79933476448059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78680896759033</t>
   </si>
   <si>
     <t xml:space="preserve">3.77845883369446</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79098463058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79515957832336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77010869979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68243193626404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69913220405579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74088335037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72418260574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71583223342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73670816421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65738129615784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67408132553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63650584220886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59475469589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66155672073364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68660712242126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61980533599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62398099899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5738799571991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54047846794128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55300402641296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56970405578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54882884025574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58222961425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51542806625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46532726287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48202753067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52377843856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53630399703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59058022499084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74923324584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97468852996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04149007797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92876243591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9245867729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94128727912903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94963788986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98303866386414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90371179580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84108519554138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96633791923523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95798802375793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94546270370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89536190032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87031078338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79933476448059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78680920600891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77845931053162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75758361816406</t>
+    <t xml:space="preserve">3.75758385658264</t>
   </si>
   <si>
     <t xml:space="preserve">3.72000765800476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76593375205994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69078230857849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78263449668884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88283658027649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86613583564758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92041206359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02061414718628</t>
+    <t xml:space="preserve">3.76593422889709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69078183174133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78263425827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88283634185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86613607406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92041182518005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02061462402344</t>
   </si>
   <si>
     <t xml:space="preserve">4.03731489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06654071807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.058189868927</t>
+    <t xml:space="preserve">4.06654024124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05819034576416</t>
   </si>
   <si>
     <t xml:space="preserve">4.12081670761108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18344306945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33374643325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26694488525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13751697540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16256809234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24189472198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23354387283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1667423248291</t>
+    <t xml:space="preserve">4.18344354629517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3337459564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26694536209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13751745223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16256761550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24189424514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23354434967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16674280166626</t>
   </si>
   <si>
     <t xml:space="preserve">4.12916660308838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07906532287598</t>
+    <t xml:space="preserve">4.07906579971313</t>
   </si>
   <si>
     <t xml:space="preserve">4.09159135818481</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">4.07489061355591</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04983997344971</t>
+    <t xml:space="preserve">4.04983949661255</t>
   </si>
   <si>
     <t xml:space="preserve">4.0832405090332</t>
@@ -1796,13 +1796,13 @@
     <t xml:space="preserve">4.05401515960693</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12499189376831</t>
+    <t xml:space="preserve">4.12499141693115</t>
   </si>
   <si>
     <t xml:space="preserve">4.21684408187866</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25024461746216</t>
+    <t xml:space="preserve">4.25024509429932</t>
   </si>
   <si>
     <t xml:space="preserve">4.3086953163147</t>
@@ -1811,43 +1811,43 @@
     <t xml:space="preserve">4.40054798126221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37549686431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36714696884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34209680557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3587965965271</t>
+    <t xml:space="preserve">4.37549734115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36714744567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34209632873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35879707336426</t>
   </si>
   <si>
     <t xml:space="preserve">4.40889835357666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32539558410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.442298412323</t>
+    <t xml:space="preserve">4.3253960609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44229936599731</t>
   </si>
   <si>
     <t xml:space="preserve">4.52580070495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4589991569519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4923996925354</t>
+    <t xml:space="preserve">4.45899963378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49240016937256</t>
   </si>
   <si>
     <t xml:space="preserve">4.50910043716431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.567551612854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47569942474365</t>
+    <t xml:space="preserve">4.56755113601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47569990158081</t>
   </si>
   <si>
     <t xml:space="preserve">4.45064926147461</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">4.42559862136841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46734952926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5508508682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4339485168457</t>
+    <t xml:space="preserve">4.4673490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55085134506226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43394804000854</t>
   </si>
   <si>
     <t xml:space="preserve">4.3838472366333</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">4.30034589767456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29199600219727</t>
+    <t xml:space="preserve">4.29199504852295</t>
   </si>
   <si>
     <t xml:space="preserve">4.28364515304565</t>
@@ -1889,13 +1889,13 @@
     <t xml:space="preserve">4.25859451293945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20014381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97051334381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97886323928833</t>
+    <t xml:space="preserve">4.20014333724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97051310539246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97886347770691</t>
   </si>
   <si>
     <t xml:space="preserve">4.0331392288208</t>
@@ -1907,25 +1907,25 @@
     <t xml:space="preserve">4.41724824905396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11246681213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01226425170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82856035232544</t>
+    <t xml:space="preserve">4.11246633529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01226377487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82856011390686</t>
   </si>
   <si>
     <t xml:space="preserve">3.80768465995789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62815570831299</t>
+    <t xml:space="preserve">3.62815523147583</t>
   </si>
   <si>
     <t xml:space="preserve">3.43610143661499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38600015640259</t>
+    <t xml:space="preserve">3.38600039482117</t>
   </si>
   <si>
     <t xml:space="preserve">3.13549470901489</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">3.13131976127625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26909756660461</t>
+    <t xml:space="preserve">3.26909780502319</t>
   </si>
   <si>
     <t xml:space="preserve">2.9935417175293</t>
@@ -1943,28 +1943,28 @@
     <t xml:space="preserve">3.23987221717834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31919860839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28579831123352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25239729881287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21482133865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27327275276184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1521954536438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19812107086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18977093696594</t>
+    <t xml:space="preserve">3.31919884681702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28579807281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25239706039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21482157707214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27327299118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15219521522522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19812083244324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18977069854736</t>
   </si>
   <si>
     <t xml:space="preserve">3.22734689712524</t>
@@ -1976,16 +1976,16 @@
     <t xml:space="preserve">3.20647120475769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12296962738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19394588470459</t>
+    <t xml:space="preserve">3.12296938896179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19394612312317</t>
   </si>
   <si>
     <t xml:space="preserve">3.31084847450256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26074767112732</t>
+    <t xml:space="preserve">3.26074743270874</t>
   </si>
   <si>
     <t xml:space="preserve">3.28997325897217</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">3.37347507476807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35259962081909</t>
+    <t xml:space="preserve">3.35259938240051</t>
   </si>
   <si>
     <t xml:space="preserve">3.34424948692322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44862699508667</t>
+    <t xml:space="preserve">3.44862675666809</t>
   </si>
   <si>
     <t xml:space="preserve">3.38182544708252</t>
@@ -2012,16 +2012,16 @@
     <t xml:space="preserve">3.42357611656189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49872779846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47367715835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52795338630676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55717897415161</t>
+    <t xml:space="preserve">3.49872803688049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47367739677429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52795314788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55717945098877</t>
   </si>
   <si>
     <t xml:space="preserve">3.61145520210266</t>
@@ -2048,19 +2048,19 @@
     <t xml:space="preserve">3.61563014984131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63233065605164</t>
+    <t xml:space="preserve">3.63233041763306</t>
   </si>
   <si>
     <t xml:space="preserve">3.76175904273987</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87866115570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85361051559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82020998001099</t>
+    <t xml:space="preserve">3.87866139411926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85361075401306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82020950317383</t>
   </si>
   <si>
     <t xml:space="preserve">3.64068126678467</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">3.69495725631714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64485573768616</t>
+    <t xml:space="preserve">3.64485597610474</t>
   </si>
   <si>
     <t xml:space="preserve">3.65320634841919</t>
@@ -2081,16 +2081,16 @@
     <t xml:space="preserve">3.60310506820679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73253297805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72835826873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60728001594543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75340819358826</t>
+    <t xml:space="preserve">3.7325325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72835755348206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60728025436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75340843200684</t>
   </si>
   <si>
     <t xml:space="preserve">3.84526062011719</t>
@@ -2099,19 +2099,19 @@
     <t xml:space="preserve">3.74505853652954</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66573119163513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59893012046814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56552910804749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960301399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58640503883362</t>
+    <t xml:space="preserve">3.66573143005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59892988204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56552934646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960325241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58640480041504</t>
   </si>
   <si>
     <t xml:space="preserve">3.50707769393921</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">3.51125288009644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41522598266602</t>
+    <t xml:space="preserve">3.41522574424744</t>
   </si>
   <si>
     <t xml:space="preserve">3.40270042419434</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">3.24822235107422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26492285728455</t>
+    <t xml:space="preserve">3.26492261886597</t>
   </si>
   <si>
     <t xml:space="preserve">3.23152184486389</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">3.09374380111694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08121848106384</t>
+    <t xml:space="preserve">3.08121871948242</t>
   </si>
   <si>
     <t xml:space="preserve">3.06034278869629</t>
@@ -2159,19 +2159,19 @@
     <t xml:space="preserve">3.03946781158447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00189185142517</t>
+    <t xml:space="preserve">3.00189161300659</t>
   </si>
   <si>
     <t xml:space="preserve">3.00606679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96014094352722</t>
+    <t xml:space="preserve">2.96014070510864</t>
   </si>
   <si>
     <t xml:space="preserve">2.82236289978027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70546007156372</t>
+    <t xml:space="preserve">2.7054603099823</t>
   </si>
   <si>
     <t xml:space="preserve">2.81818771362305</t>
@@ -2180,37 +2180,37 @@
     <t xml:space="preserve">2.88916420936584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98101615905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30249857902527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90788674354553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00808954238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01643943786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95381307601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93711304664612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87448596954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84943580627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89118647575378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77428364753723</t>
+    <t xml:space="preserve">2.9810163974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30249810218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90788698196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00808906555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01643896102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95381331443787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93711233139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87448620796204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84943604469299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89118671417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77428388595581</t>
   </si>
   <si>
     <t xml:space="preserve">3.45280194282532</t>
@@ -2222,34 +2222,34 @@
     <t xml:space="preserve">4.15421724319458</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02478981018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07071542739868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14169263839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19179344177246</t>
+    <t xml:space="preserve">4.02478933334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07071590423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14169216156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1917929649353</t>
   </si>
   <si>
     <t xml:space="preserve">4.15004205703735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17091751098633</t>
+    <t xml:space="preserve">4.17091798782349</t>
   </si>
   <si>
     <t xml:space="preserve">4.15839242935181</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59260177612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5425009727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60930299758911</t>
+    <t xml:space="preserve">4.59260225296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54250144958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60930204391479</t>
   </si>
   <si>
     <t xml:space="preserve">4.76525640487671</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">4.66995096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55731773376465</t>
+    <t xml:space="preserve">4.55731821060181</t>
   </si>
   <si>
     <t xml:space="preserve">4.50533294677734</t>
@@ -2291,19 +2291,19 @@
     <t xml:space="preserve">4.79991245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8085765838623</t>
+    <t xml:space="preserve">4.80857706069946</t>
   </si>
   <si>
     <t xml:space="preserve">4.756591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73926401138306</t>
+    <t xml:space="preserve">4.7392635345459</t>
   </si>
   <si>
     <t xml:space="preserve">4.73059988021851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63529491424561</t>
+    <t xml:space="preserve">4.63529443740845</t>
   </si>
   <si>
     <t xml:space="preserve">4.46201276779175</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">4.41869211196899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42735624313354</t>
+    <t xml:space="preserve">4.4273567199707</t>
   </si>
   <si>
     <t xml:space="preserve">4.3753719329834</t>
@@ -2324,10 +2324,10 @@
     <t xml:space="preserve">4.45334815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47934055328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34937953948975</t>
+    <t xml:space="preserve">4.47934103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34937906265259</t>
   </si>
   <si>
     <t xml:space="preserve">4.33205127716064</t>
@@ -2336,16 +2336,16 @@
     <t xml:space="preserve">4.4360203742981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49666929244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39269971847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62663078308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68727922439575</t>
+    <t xml:space="preserve">4.49666881561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3927001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62663125991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68727874755859</t>
   </si>
   <si>
     <t xml:space="preserve">4.65262269973755</t>
@@ -2354,19 +2354,19 @@
     <t xml:space="preserve">4.85189723968506</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92120981216431</t>
+    <t xml:space="preserve">4.92121028900146</t>
   </si>
   <si>
     <t xml:space="preserve">4.89521789550781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88655376434326</t>
+    <t xml:space="preserve">4.8865532875061</t>
   </si>
   <si>
     <t xml:space="preserve">4.84323358535767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86056137084961</t>
+    <t xml:space="preserve">4.86056184768677</t>
   </si>
   <si>
     <t xml:space="preserve">4.79124879837036</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">4.90388154983521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94720220565796</t>
+    <t xml:space="preserve">4.94720268249512</t>
   </si>
   <si>
     <t xml:space="preserve">4.95586633682251</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">4.97319412231445</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04250812530518</t>
+    <t xml:space="preserve">5.04250764846802</t>
   </si>
   <si>
     <t xml:space="preserve">5.08582782745361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11182022094727</t>
+    <t xml:space="preserve">5.11182069778442</t>
   </si>
   <si>
     <t xml:space="preserve">5.12048435211182</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">5.42372798919678</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58834552764893</t>
+    <t xml:space="preserve">5.58834600448608</t>
   </si>
   <si>
     <t xml:space="preserve">5.56235361099243</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">5.50170469284058</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60567426681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57968235015869</t>
+    <t xml:space="preserve">5.60567378997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57968187332153</t>
   </si>
   <si>
     <t xml:space="preserve">5.55368947982788</t>
@@ -2468,16 +2468,16 @@
     <t xml:space="preserve">5.62300205230713</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73563528060913</t>
+    <t xml:space="preserve">5.73563575744629</t>
   </si>
   <si>
     <t xml:space="preserve">5.72697162628174</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70964384078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64033031463623</t>
+    <t xml:space="preserve">5.70964336395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64033079147339</t>
   </si>
   <si>
     <t xml:space="preserve">5.68365144729614</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">5.76162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">5.744300365448</t>
+    <t xml:space="preserve">5.74429988861084</t>
   </si>
   <si>
     <t xml:space="preserve">5.80494832992554</t>
@@ -2498,16 +2498,16 @@
     <t xml:space="preserve">5.85693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54502582550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44972038269043</t>
+    <t xml:space="preserve">5.54502534866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44972085952759</t>
   </si>
   <si>
     <t xml:space="preserve">5.30243062973022</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25911045074463</t>
+    <t xml:space="preserve">5.25910997390747</t>
   </si>
   <si>
     <t xml:space="preserve">5.26777410507202</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">5.18113327026367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18979740142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09449195861816</t>
+    <t xml:space="preserve">5.18979692459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09449243545532</t>
   </si>
   <si>
     <t xml:space="preserve">5.00785112380981</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">4.98185873031616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93853855133057</t>
+    <t xml:space="preserve">4.93853807449341</t>
   </si>
   <si>
     <t xml:space="preserve">5.03384351730347</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02517986297607</t>
+    <t xml:space="preserve">5.02517938613892</t>
   </si>
   <si>
     <t xml:space="preserve">5.05117177963257</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">5.01651525497437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99052333831787</t>
+    <t xml:space="preserve">4.99052286148071</t>
   </si>
   <si>
     <t xml:space="preserve">5.05983591079712</t>
@@ -2558,16 +2558,16 @@
     <t xml:space="preserve">5.38907146453857</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39773559570312</t>
+    <t xml:space="preserve">5.39773607254028</t>
   </si>
   <si>
     <t xml:space="preserve">5.28510236740112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19846105575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14647674560547</t>
+    <t xml:space="preserve">5.19846153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14647722244263</t>
   </si>
   <si>
     <t xml:space="preserve">5.27643823623657</t>
@@ -2576,40 +2576,40 @@
     <t xml:space="preserve">5.36307954788208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45838499069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09952831268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25548124313354</t>
+    <t xml:space="preserve">5.45838451385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09952783584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2554817199707</t>
   </si>
   <si>
     <t xml:space="preserve">6.3334584236145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51540517807007</t>
+    <t xml:space="preserve">6.51540470123291</t>
   </si>
   <si>
     <t xml:space="preserve">6.28147411346436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29880285263062</t>
+    <t xml:space="preserve">6.29880237579346</t>
   </si>
   <si>
     <t xml:space="preserve">6.18616914749146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11685609817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1081919670105</t>
+    <t xml:space="preserve">6.11685657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10819244384766</t>
   </si>
   <si>
     <t xml:space="preserve">5.71830749511719</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84826946258545</t>
+    <t xml:space="preserve">5.84826898574829</t>
   </si>
   <si>
     <t xml:space="preserve">5.20712566375732</t>
@@ -2618,7 +2618,7 @@
     <t xml:space="preserve">4.87788963317871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40639972686768</t>
+    <t xml:space="preserve">5.40639925003052</t>
   </si>
   <si>
     <t xml:space="preserve">5.31975841522217</t>
@@ -2630,18 +2630,15 @@
     <t xml:space="preserve">5.35441541671753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21578979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06850004196167</t>
+    <t xml:space="preserve">5.21578931808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06849956512451</t>
   </si>
   <si>
     <t xml:space="preserve">5.10315608978271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19846153259277</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.27142238616943</t>
   </si>
   <si>
@@ -2711,9 +2708,6 @@
     <t xml:space="preserve">5.13462066650391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02517938613892</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.09814071655273</t>
   </si>
   <si>
@@ -3681,6 +3675,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.35000038146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38000011444092</t>
   </si>
 </sst>
 </file>
@@ -46134,7 +46131,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1620" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46160,7 +46157,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1621" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46186,7 +46183,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1622" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46212,7 +46209,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46238,7 +46235,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1624" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46264,7 +46261,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46290,7 +46287,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46316,7 +46313,7 @@
         <v>6</v>
       </c>
       <c r="G1627" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46342,7 +46339,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1628" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46368,7 +46365,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1629" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46394,7 +46391,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1630" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46420,7 +46417,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1631" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46446,7 +46443,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1632" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46472,7 +46469,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46498,7 +46495,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46524,7 +46521,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1635" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46550,7 +46547,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46576,7 +46573,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1637" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46602,7 +46599,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46628,7 +46625,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1639" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46654,7 +46651,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1640" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46680,7 +46677,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1641" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46706,7 +46703,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1642" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46732,7 +46729,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1643" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46758,7 +46755,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46784,7 +46781,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1645" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46810,7 +46807,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1646" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46836,7 +46833,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1647" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46862,7 +46859,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1648" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46888,7 +46885,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1649" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46914,7 +46911,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46940,7 +46937,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1651" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46966,7 +46963,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1652" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46992,7 +46989,7 @@
         <v>5.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47018,7 +47015,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1654" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47044,7 +47041,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1655" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47070,7 +47067,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1656" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47096,7 +47093,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47122,7 +47119,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1658" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47148,7 +47145,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1659" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47174,7 +47171,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G1660" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47200,7 +47197,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1661" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47226,7 +47223,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1662" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47252,7 +47249,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1663" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47278,7 +47275,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1664" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47304,7 +47301,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1665" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47330,7 +47327,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47356,7 +47353,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1667" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47382,7 +47379,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1668" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47408,7 +47405,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47434,7 +47431,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G1670" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47460,7 +47457,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1671" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47486,7 +47483,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1672" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47512,7 +47509,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1673" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47538,7 +47535,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1674" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47564,7 +47561,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1675" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47590,7 +47587,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1676" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47616,7 +47613,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1677" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47642,7 +47639,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1678" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47668,7 +47665,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1679" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47694,7 +47691,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1680" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47720,7 +47717,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1681" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47746,7 +47743,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1682" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47772,7 +47769,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1683" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47798,7 +47795,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1684" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47850,7 +47847,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1686" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47876,7 +47873,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1687" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47902,7 +47899,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47928,7 +47925,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1689" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47954,7 +47951,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47980,7 +47977,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48006,7 +48003,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1692" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48032,7 +48029,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1693" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48058,7 +48055,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48084,7 +48081,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1695" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48110,7 +48107,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1696" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48136,7 +48133,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1697" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48162,7 +48159,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1698" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48188,7 +48185,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1699" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48214,7 +48211,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1700" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48240,7 +48237,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1701" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48266,7 +48263,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48292,7 +48289,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1703" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48318,7 +48315,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1704" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48344,7 +48341,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1705" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48370,7 +48367,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1706" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48396,7 +48393,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48422,7 +48419,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48448,7 +48445,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1709" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48474,7 +48471,7 @@
         <v>6</v>
       </c>
       <c r="G1710" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48500,7 +48497,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1711" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48526,7 +48523,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1712" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48552,7 +48549,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1713" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48578,7 +48575,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1714" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48604,7 +48601,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1715" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48630,7 +48627,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1716" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48656,7 +48653,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48682,7 +48679,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48708,7 +48705,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1719" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48734,7 +48731,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1720" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48760,7 +48757,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1721" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48786,7 +48783,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1722" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48812,7 +48809,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1723" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48838,7 +48835,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48864,7 +48861,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1725" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48890,7 +48887,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1726" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48916,7 +48913,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G1727" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48942,7 +48939,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1728" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48968,7 +48965,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1729" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48994,7 +48991,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49020,7 +49017,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1731" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49046,7 +49043,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1732" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49072,7 +49069,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49098,7 +49095,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1734" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49124,7 +49121,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1735" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49150,7 +49147,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1736" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49176,7 +49173,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1737" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49202,7 +49199,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1738" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49228,7 +49225,7 @@
         <v>6</v>
       </c>
       <c r="G1739" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49254,7 +49251,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1740" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49280,7 +49277,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1741" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49306,7 +49303,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1742" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49332,7 +49329,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1743" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49358,7 +49355,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G1744" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49384,7 +49381,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49410,7 +49407,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1746" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49436,7 +49433,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49462,7 +49459,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1748" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49488,7 +49485,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G1749" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49514,7 +49511,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1750" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49540,7 +49537,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1751" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49566,7 +49563,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1752" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49592,7 +49589,7 @@
         <v>6.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49618,7 +49615,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49644,7 +49641,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1755" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49670,7 +49667,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1756" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49696,7 +49693,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49722,7 +49719,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49748,7 +49745,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49774,7 +49771,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1760" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49800,7 +49797,7 @@
         <v>6.75</v>
       </c>
       <c r="G1761" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49826,7 +49823,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1762" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49852,7 +49849,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49878,7 +49875,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1764" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49904,7 +49901,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1765" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49930,7 +49927,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1766" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49956,7 +49953,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1767" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49982,7 +49979,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1768" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50008,7 +50005,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50034,7 +50031,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1770" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50060,7 +50057,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50086,7 +50083,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1772" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50112,7 +50109,7 @@
         <v>6.75</v>
       </c>
       <c r="G1773" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50138,7 +50135,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1774" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50164,7 +50161,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1775" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50190,7 +50187,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1776" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50216,7 +50213,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1777" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50242,7 +50239,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1778" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50268,7 +50265,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1779" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50294,7 +50291,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1780" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50320,7 +50317,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1781" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50346,7 +50343,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50372,7 +50369,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1783" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50398,7 +50395,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1784" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50424,7 +50421,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50450,7 +50447,7 @@
         <v>7</v>
       </c>
       <c r="G1786" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50476,7 +50473,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1787" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50502,7 +50499,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50528,7 +50525,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1789" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50554,7 +50551,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1790" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50580,7 +50577,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1791" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50606,7 +50603,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1792" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50632,7 +50629,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1793" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50658,7 +50655,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1794" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50684,7 +50681,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1795" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50710,7 +50707,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1796" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50736,7 +50733,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50762,7 +50759,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1798" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50788,7 +50785,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1799" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50814,7 +50811,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1800" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50840,7 +50837,7 @@
         <v>7.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50866,7 +50863,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1802" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50892,7 +50889,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1803" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50918,7 +50915,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1804" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50944,7 +50941,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1805" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50970,7 +50967,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1806" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50996,7 +50993,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51022,7 +51019,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1808" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51048,7 +51045,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1809" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51074,7 +51071,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1810" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51100,7 +51097,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1811" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51126,7 +51123,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1812" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51152,7 +51149,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1813" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51178,7 +51175,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1814" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51204,7 +51201,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1815" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51230,7 +51227,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1816" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51256,7 +51253,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1817" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51282,7 +51279,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1818" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51308,7 +51305,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1819" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51334,7 +51331,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51360,7 +51357,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1821" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51386,7 +51383,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1822" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51412,7 +51409,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1823" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51438,7 +51435,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1824" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51464,7 +51461,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1825" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51490,7 +51487,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1826" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51516,7 +51513,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1827" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51542,7 +51539,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1828" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51568,7 +51565,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1829" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51594,7 +51591,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1830" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51620,7 +51617,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1831" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51646,7 +51643,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1832" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51672,7 +51669,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51698,7 +51695,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51724,7 +51721,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1835" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51750,7 +51747,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1836" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51776,7 +51773,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1837" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51802,7 +51799,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1838" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51828,7 +51825,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1839" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51854,7 +51851,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1840" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51880,7 +51877,7 @@
         <v>6.75</v>
       </c>
       <c r="G1841" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51906,7 +51903,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51932,7 +51929,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G1843" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51958,7 +51955,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1844" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51984,7 +51981,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1845" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52010,7 +52007,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1846" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52036,7 +52033,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1847" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52062,7 +52059,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1848" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52088,7 +52085,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1849" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52114,7 +52111,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1850" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52140,7 +52137,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1851" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52166,7 +52163,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1852" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52192,7 +52189,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1853" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52218,7 +52215,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52244,7 +52241,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52270,7 +52267,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1856" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52296,7 +52293,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1857" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52322,7 +52319,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1858" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52348,7 +52345,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52374,7 +52371,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52400,7 +52397,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1861" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52426,7 +52423,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1862" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52452,7 +52449,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1863" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52478,7 +52475,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1864" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52504,7 +52501,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1865" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52530,7 +52527,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1866" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52556,7 +52553,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1867" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52582,7 +52579,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52608,7 +52605,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1869" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52634,7 +52631,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1870" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52660,7 +52657,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52686,7 +52683,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1872" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52712,7 +52709,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1873" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52738,7 +52735,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52764,7 +52761,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52790,7 +52787,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52816,7 +52813,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1877" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52842,7 +52839,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1878" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52868,7 +52865,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1879" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52894,7 +52891,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1880" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52920,7 +52917,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52946,7 +52943,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52972,7 +52969,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1883" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52998,7 +52995,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1884" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53024,7 +53021,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1885" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53050,7 +53047,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1886" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53076,7 +53073,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1887" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53102,7 +53099,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53128,7 +53125,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1889" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53154,7 +53151,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1890" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53180,7 +53177,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53206,7 +53203,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53232,7 +53229,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1893" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53258,7 +53255,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1894" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53284,7 +53281,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1895" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53310,7 +53307,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53336,7 +53333,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1897" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53362,7 +53359,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53388,7 +53385,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1899" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53414,7 +53411,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1900" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53440,7 +53437,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1901" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53466,7 +53463,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1902" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53492,7 +53489,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1903" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53518,7 +53515,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1904" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53544,7 +53541,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1905" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53570,7 +53567,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1906" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53596,7 +53593,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1907" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53622,7 +53619,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1908" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53648,7 +53645,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53674,7 +53671,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1910" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53700,7 +53697,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53726,7 +53723,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1912" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53752,7 +53749,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G1913" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53778,7 +53775,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1914" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53804,7 +53801,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1915" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53830,7 +53827,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1916" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53856,7 +53853,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1917" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53882,7 +53879,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1918" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53908,7 +53905,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1919" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53934,7 +53931,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53960,7 +53957,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1921" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53986,7 +53983,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1922" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54012,7 +54009,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54038,7 +54035,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1924" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54064,7 +54061,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1925" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54090,7 +54087,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1926" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54116,7 +54113,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54142,7 +54139,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54168,7 +54165,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1929" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54194,7 +54191,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1930" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54220,7 +54217,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54246,7 +54243,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1932" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54272,7 +54269,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1933" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54298,7 +54295,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54324,7 +54321,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1935" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54350,7 +54347,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1936" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54376,7 +54373,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54402,7 +54399,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1938" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54428,7 +54425,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1939" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54454,7 +54451,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1940" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54480,7 +54477,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1941" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54506,7 +54503,7 @@
         <v>7.5</v>
       </c>
       <c r="G1942" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54532,7 +54529,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54558,7 +54555,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1944" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54584,7 +54581,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1945" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54610,7 +54607,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G1946" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54636,7 +54633,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1947" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54662,7 +54659,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1948" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54688,7 +54685,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1949" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54714,7 +54711,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1950" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54740,7 +54737,7 @@
         <v>7.75</v>
       </c>
       <c r="G1951" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54766,7 +54763,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1952" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54792,7 +54789,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1953" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54818,7 +54815,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54844,7 +54841,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G1955" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54870,7 +54867,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54896,7 +54893,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1957" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54922,7 +54919,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54948,7 +54945,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54974,7 +54971,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1960" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55000,7 +54997,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55026,7 +55023,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1962" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55052,7 +55049,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1963" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55078,7 +55075,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55104,7 +55101,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1965" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55130,7 +55127,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1966" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55156,7 +55153,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1967" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55182,7 +55179,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1968" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55208,7 +55205,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1969" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55234,7 +55231,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1970" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55260,7 +55257,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55286,7 +55283,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1972" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55312,7 +55309,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1973" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55338,7 +55335,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1974" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55364,7 +55361,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55390,7 +55387,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1976" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55416,7 +55413,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1977" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55442,7 +55439,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1978" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55468,7 +55465,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1979" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55494,7 +55491,7 @@
         <v>7.75</v>
       </c>
       <c r="G1980" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55520,7 +55517,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1981" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55546,7 +55543,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55572,7 +55569,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55598,7 +55595,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55624,7 +55621,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1985" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55650,7 +55647,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55676,7 +55673,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1987" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55702,7 +55699,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1988" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55728,7 +55725,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1989" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55754,7 +55751,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55780,7 +55777,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1991" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55806,7 +55803,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1992" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55832,7 +55829,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1993" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55858,7 +55855,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55884,7 +55881,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55910,7 +55907,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G1996" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55936,7 +55933,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1997" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55962,7 +55959,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1998" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55988,7 +55985,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1999" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56014,7 +56011,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2000" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56040,7 +56037,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G2001" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56066,7 +56063,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2002" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56092,7 +56089,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56118,7 +56115,7 @@
         <v>8</v>
       </c>
       <c r="G2004" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56144,7 +56141,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2005" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56170,7 +56167,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2006" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56196,7 +56193,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56222,7 +56219,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2008" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56248,7 +56245,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56274,7 +56271,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2010" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56300,7 +56297,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56326,7 +56323,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56352,7 +56349,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2013" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56378,7 +56375,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G2014" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56404,7 +56401,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2015" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56430,7 +56427,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56456,7 +56453,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2017" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56482,7 +56479,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2018" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56508,7 +56505,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G2019" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56534,7 +56531,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2020" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56560,7 +56557,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G2021" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56586,7 +56583,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2022" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56612,7 +56609,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2023" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56638,7 +56635,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2024" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56664,7 +56661,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2025" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56690,7 +56687,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2026" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56716,7 +56713,7 @@
         <v>8</v>
       </c>
       <c r="G2027" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56742,7 +56739,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2028" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56768,7 +56765,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2029" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56794,7 +56791,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2030" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56820,7 +56817,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G2031" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56846,7 +56843,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2032" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56872,7 +56869,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2033" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56898,7 +56895,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2034" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56924,7 +56921,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2035" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56950,7 +56947,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56976,7 +56973,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2037" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57002,7 +56999,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2038" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57028,7 +57025,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G2039" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57054,7 +57051,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2040" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57080,7 +57077,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2041" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57106,7 +57103,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2042" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57132,7 +57129,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2043" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57158,7 +57155,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2044" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57184,7 +57181,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2045" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57210,7 +57207,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G2046" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57236,7 +57233,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2047" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57262,7 +57259,7 @@
         <v>8.25</v>
       </c>
       <c r="G2048" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57288,7 +57285,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2049" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57314,7 +57311,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2050" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57340,7 +57337,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2051" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57366,7 +57363,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2052" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57392,7 +57389,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2053" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57418,7 +57415,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57444,7 +57441,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2055" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57470,7 +57467,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2056" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57496,7 +57493,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2057" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57522,7 +57519,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2058" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57548,7 +57545,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57574,7 +57571,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2060" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57600,7 +57597,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57626,7 +57623,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2062" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57652,7 +57649,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2063" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57678,7 +57675,7 @@
         <v>8.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57704,7 +57701,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2065" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57730,7 +57727,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2066" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57756,7 +57753,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2067" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57782,7 +57779,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2068" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57808,7 +57805,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57834,7 +57831,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2070" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57860,7 +57857,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2071" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57886,7 +57883,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57912,7 +57909,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2073" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57938,7 +57935,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2074" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57964,7 +57961,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2075" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57990,7 +57987,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2076" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58016,7 +58013,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2077" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58042,7 +58039,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2078" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58068,7 +58065,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G2079" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58094,7 +58091,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2080" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58120,7 +58117,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G2081" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58146,7 +58143,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2082" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58172,7 +58169,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58198,7 +58195,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58224,7 +58221,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58250,7 +58247,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G2086" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58276,7 +58273,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2087" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58302,7 +58299,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2088" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58328,7 +58325,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2089" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58354,7 +58351,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2090" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58380,7 +58377,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2091" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58406,7 +58403,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2092" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58432,7 +58429,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2093" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58458,7 +58455,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2094" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58484,7 +58481,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2095" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58510,7 +58507,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2096" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58536,7 +58533,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2097" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58562,7 +58559,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2098" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58588,7 +58585,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G2099" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58614,7 +58611,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2100" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58640,7 +58637,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58666,7 +58663,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58692,7 +58689,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2103" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58718,7 +58715,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2104" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58744,7 +58741,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58770,7 +58767,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58796,7 +58793,7 @@
         <v>9.25</v>
       </c>
       <c r="G2107" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58822,7 +58819,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58848,7 +58845,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2109" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58874,7 +58871,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2110" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58900,7 +58897,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2111" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58926,7 +58923,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2112" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58952,7 +58949,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2113" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58978,7 +58975,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2114" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59004,7 +59001,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2115" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59030,7 +59027,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2116" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59056,7 +59053,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G2117" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59082,7 +59079,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2118" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59108,7 +59105,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G2119" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59134,7 +59131,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G2120" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59160,7 +59157,7 @@
         <v>10</v>
       </c>
       <c r="G2121" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59186,7 +59183,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2122" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59212,7 +59209,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G2123" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59238,7 +59235,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G2124" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59264,7 +59261,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59290,7 +59287,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G2126" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59316,7 +59313,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G2127" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59342,7 +59339,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2128" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59368,7 +59365,7 @@
         <v>9.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59394,7 +59391,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2130" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59420,7 +59417,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G2131" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59446,7 +59443,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G2132" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59472,7 +59469,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59498,7 +59495,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G2134" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59524,7 +59521,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59550,7 +59547,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2136" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59576,7 +59573,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2137" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59602,7 +59599,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2138" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59628,7 +59625,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2139" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59654,7 +59651,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2140" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59680,7 +59677,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2141" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59706,7 +59703,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G2142" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59732,7 +59729,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2143" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59758,7 +59755,7 @@
         <v>9.5</v>
       </c>
       <c r="G2144" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59784,7 +59781,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59810,7 +59807,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2146" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59836,7 +59833,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2147" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59862,7 +59859,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2148" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59888,7 +59885,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G2149" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59914,7 +59911,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2150" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59940,7 +59937,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G2151" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59966,7 +59963,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2152" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59992,7 +59989,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2153" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60018,7 +60015,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2154" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60026,7 +60023,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6494444444</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>120542</v>
@@ -60044,9 +60041,35 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2155" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.649537037</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>106859</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>9.40999984741211</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>9.26000022888184</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>9.35000038146973</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>9.38000011444092</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1224">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96161127090454</t>
+    <t xml:space="preserve">4.9616117477417</t>
   </si>
   <si>
     <t xml:space="preserve">CE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00243282318115</t>
+    <t xml:space="preserve">5.00243234634399</t>
   </si>
   <si>
     <t xml:space="preserve">4.93192386627197</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75750637054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71297454833984</t>
+    <t xml:space="preserve">4.75750684738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71297407150269</t>
   </si>
   <si>
     <t xml:space="preserve">4.76492834091187</t>
@@ -65,55 +65,55 @@
     <t xml:space="preserve">4.82430458068848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72039651870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67957592010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47547054290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51258039474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13405799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32703018188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4532036781311</t>
+    <t xml:space="preserve">4.72039699554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67957496643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47547101974487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51257991790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13405752182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32703065872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45320415496826</t>
   </si>
   <si>
     <t xml:space="preserve">4.59051179885864</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56082344055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43464946746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55711221694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55340147018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36042928695679</t>
+    <t xml:space="preserve">4.5608229637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4346489906311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55711269378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55340194702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36042976379395</t>
   </si>
   <si>
     <t xml:space="preserve">4.20085573196411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23796510696411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27507638931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95592951774597</t>
+    <t xml:space="preserve">4.23796653747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2750768661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95592999458313</t>
   </si>
   <si>
     <t xml:space="preserve">3.78893423080444</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">4.14519071578979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9856173992157</t>
+    <t xml:space="preserve">3.98561763763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.25280952453613</t>
@@ -134,49 +134,49 @@
     <t xml:space="preserve">4.38269519805908</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49031448364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23054361343384</t>
+    <t xml:space="preserve">4.49031400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.230544090271</t>
   </si>
   <si>
     <t xml:space="preserve">4.16745710372925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3121862411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28620862960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11921405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.193434715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28991985321045</t>
+    <t xml:space="preserve">4.31218576431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28620910644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11921453475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19343423843384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28992033004761</t>
   </si>
   <si>
     <t xml:space="preserve">4.37156200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56453418731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63504314422607</t>
+    <t xml:space="preserve">4.56453371047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63504362106323</t>
   </si>
   <si>
     <t xml:space="preserve">4.62391090393066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57195663452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66473150253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75008487701416</t>
+    <t xml:space="preserve">4.57195615768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66473054885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.750084400177</t>
   </si>
   <si>
     <t xml:space="preserve">4.81317138671875</t>
@@ -185,49 +185,49 @@
     <t xml:space="preserve">4.70184135437012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72781896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58308935165405</t>
+    <t xml:space="preserve">4.72781848907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58308887481689</t>
   </si>
   <si>
     <t xml:space="preserve">4.77977228164673</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71668577194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60164451599121</t>
+    <t xml:space="preserve">4.71668529510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60164403915405</t>
   </si>
   <si>
     <t xml:space="preserve">4.52742433547974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47175931930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46433734893799</t>
+    <t xml:space="preserve">4.47175979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46433687210083</t>
   </si>
   <si>
     <t xml:space="preserve">4.34187412261963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31960821151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21941089630127</t>
+    <t xml:space="preserve">4.31960868835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21941041946411</t>
   </si>
   <si>
     <t xml:space="preserve">4.15261268615723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10065937042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34558486938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22683382034302</t>
+    <t xml:space="preserve">4.10065889358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34558439254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22683238983154</t>
   </si>
   <si>
     <t xml:space="preserve">4.50886917114258</t>
@@ -242,25 +242,25 @@
     <t xml:space="preserve">4.65359830856323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65730953216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.731529712677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7537956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8094596862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63875532150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50144720077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51629114151001</t>
+    <t xml:space="preserve">4.65730905532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73152923583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75379610061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80946111679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63875436782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5014476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51629066467285</t>
   </si>
   <si>
     <t xml:space="preserve">4.48660326004028</t>
@@ -278,10 +278,10 @@
     <t xml:space="preserve">4.57827949523926</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63912057876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69996118545532</t>
+    <t xml:space="preserve">4.63912010192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69996166229248</t>
   </si>
   <si>
     <t xml:space="preserve">4.67714595794678</t>
@@ -293,19 +293,19 @@
     <t xml:space="preserve">4.96233797073364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96994256973267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93952322006226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92431306838989</t>
+    <t xml:space="preserve">4.96994304656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9395227432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92431259155273</t>
   </si>
   <si>
     <t xml:space="preserve">4.93191766738892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83685350418091</t>
+    <t xml:space="preserve">4.83685398101807</t>
   </si>
   <si>
     <t xml:space="preserve">4.77221012115479</t>
@@ -317,10 +317,10 @@
     <t xml:space="preserve">4.73038196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89389133453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79502582550049</t>
+    <t xml:space="preserve">4.89389181137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79502534866333</t>
   </si>
   <si>
     <t xml:space="preserve">4.80643320083618</t>
@@ -329,52 +329,52 @@
     <t xml:space="preserve">4.69615888595581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46040010452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32731103897095</t>
+    <t xml:space="preserve">4.46040058135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32731151580811</t>
   </si>
   <si>
     <t xml:space="preserve">4.39955949783325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27407503128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57067489624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79122304916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84065580368042</t>
+    <t xml:space="preserve">4.27407550811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57067441940308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79122352600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84065532684326</t>
   </si>
   <si>
     <t xml:space="preserve">4.88628673553467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00416564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13338041305542</t>
+    <t xml:space="preserve">5.00416612625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13338088989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14478826522827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12197256088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24365472793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03451347351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89381980895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78734827041626</t>
+    <t xml:space="preserve">4.12197208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24365425109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0345139503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8938193321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78734731674194</t>
   </si>
   <si>
     <t xml:space="preserve">3.87480640411377</t>
@@ -386,19 +386,19 @@
     <t xml:space="preserve">4.14859056472778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22083950042725</t>
+    <t xml:space="preserve">4.2208399772644</t>
   </si>
   <si>
     <t xml:space="preserve">4.18281364440918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31590366363525</t>
+    <t xml:space="preserve">4.3159031867981</t>
   </si>
   <si>
     <t xml:space="preserve">4.38054704666138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36533689498901</t>
+    <t xml:space="preserve">4.36533641815186</t>
   </si>
   <si>
     <t xml:space="preserve">4.46420288085938</t>
@@ -416,31 +416,31 @@
     <t xml:space="preserve">4.3729419708252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19422149658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210136413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19802379608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07253980636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08774948120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15999889373779</t>
+    <t xml:space="preserve">4.19422101974487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210088729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1980242729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07253932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08774995803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15999794006348</t>
   </si>
   <si>
     <t xml:space="preserve">4.091552734375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04972410202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05352640151978</t>
+    <t xml:space="preserve">4.04972457885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05352687835693</t>
   </si>
   <si>
     <t xml:space="preserve">3.92423963546753</t>
@@ -449,16 +449,16 @@
     <t xml:space="preserve">3.85199117660522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84438633918762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72650647163391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72498512268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86720156669617</t>
+    <t xml:space="preserve">3.84438586235046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72650718688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7249858379364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86720132827759</t>
   </si>
   <si>
     <t xml:space="preserve">4.07634210586548</t>
@@ -467,10 +467,10 @@
     <t xml:space="preserve">3.9280424118042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81396508216858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84058380126953</t>
+    <t xml:space="preserve">3.81396579742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84058332443237</t>
   </si>
   <si>
     <t xml:space="preserve">4.02690839767456</t>
@@ -491,43 +491,43 @@
     <t xml:space="preserve">3.99268555641174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99648880958557</t>
+    <t xml:space="preserve">3.99648809432983</t>
   </si>
   <si>
     <t xml:space="preserve">3.95466017723083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93945002555847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85959649085999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85579347610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81016325950623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01930284500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86339831352234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74171733856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7097749710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72802805900574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65806078910828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67479228973389</t>
+    <t xml:space="preserve">3.93944954872131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85959601402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85579442977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81016302108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01930332183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8633987903595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74171757698059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70977544784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72802758216858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65806031227112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67479205131531</t>
   </si>
   <si>
     <t xml:space="preserve">3.70673370361328</t>
@@ -539,13 +539,13 @@
     <t xml:space="preserve">3.88241124153137</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84818840026855</t>
+    <t xml:space="preserve">3.84818887710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.87860894203186</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88621425628662</t>
+    <t xml:space="preserve">3.8862144947052</t>
   </si>
   <si>
     <t xml:space="preserve">3.83678102493286</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">3.95085787773132</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9052267074585</t>
+    <t xml:space="preserve">3.90522718429565</t>
   </si>
   <si>
     <t xml:space="preserve">4.03071212768555</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">4.06493425369263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97367310523987</t>
+    <t xml:space="preserve">3.97367262840271</t>
   </si>
   <si>
     <t xml:space="preserve">4.02310609817505</t>
@@ -572,25 +572,25 @@
     <t xml:space="preserve">4.01169919967651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93564772605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90142512321472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81776809692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76909494400024</t>
+    <t xml:space="preserve">3.93564820289612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90142464637756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81776833534241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76909518241882</t>
   </si>
   <si>
     <t xml:space="preserve">3.78886842727661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8215708732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80255770683289</t>
+    <t xml:space="preserve">3.82157111167908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80255794525146</t>
   </si>
   <si>
     <t xml:space="preserve">3.89762187004089</t>
@@ -605,13 +605,13 @@
     <t xml:space="preserve">4.00789594650269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9622654914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91663432121277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93184471130371</t>
+    <t xml:space="preserve">3.96226596832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91663479804993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93184518814087</t>
   </si>
   <si>
     <t xml:space="preserve">3.94325256347656</t>
@@ -620,19 +620,19 @@
     <t xml:space="preserve">4.10676288604736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.353928565979</t>
+    <t xml:space="preserve">4.35392904281616</t>
   </si>
   <si>
     <t xml:space="preserve">4.42997980117798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29308748245239</t>
+    <t xml:space="preserve">4.29308843612671</t>
   </si>
   <si>
     <t xml:space="preserve">4.3881516456604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23604965209961</t>
+    <t xml:space="preserve">4.23604917526245</t>
   </si>
   <si>
     <t xml:space="preserve">4.33871841430664</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">4.47941303253174</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34252023696899</t>
+    <t xml:space="preserve">4.34252119064331</t>
   </si>
   <si>
     <t xml:space="preserve">4.46800565719604</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">4.48701858520508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31970548629761</t>
+    <t xml:space="preserve">4.31970596313477</t>
   </si>
   <si>
     <t xml:space="preserve">4.30829811096191</t>
@@ -662,43 +662,43 @@
     <t xml:space="preserve">4.48321580886841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49842596054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50603103637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45279502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6353178024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65052843093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74559211730957</t>
+    <t xml:space="preserve">4.49842643737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50603151321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45279455184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63531827926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65052795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74559259414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.7265796661377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6923565864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75319814682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55926656723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56306886672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64292335510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53645181655884</t>
+    <t xml:space="preserve">4.69235610961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75319766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55926704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56306934356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6429238319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.536452293396</t>
   </si>
   <si>
     <t xml:space="preserve">4.5516619682312</t>
@@ -707,10 +707,10 @@
     <t xml:space="preserve">4.61630535125732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68475151062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58208227157593</t>
+    <t xml:space="preserve">4.68475103378296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58208274841309</t>
   </si>
   <si>
     <t xml:space="preserve">4.59729242324829</t>
@@ -722,19 +722,19 @@
     <t xml:space="preserve">4.57447719573975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5858850479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58968734741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62010765075684</t>
+    <t xml:space="preserve">4.58588552474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58968782424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62010717391968</t>
   </si>
   <si>
     <t xml:space="preserve">4.59348964691162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65433120727539</t>
+    <t xml:space="preserve">4.65433025360107</t>
   </si>
   <si>
     <t xml:space="preserve">4.77601289749146</t>
@@ -764,34 +764,34 @@
     <t xml:space="preserve">4.87487936019897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76080322265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82544565200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81023597717285</t>
+    <t xml:space="preserve">4.79882860183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76080274581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82544612884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81023550033569</t>
   </si>
   <si>
     <t xml:space="preserve">4.73418426513672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00036334991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86727476119995</t>
+    <t xml:space="preserve">5.00036382675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86727428436279</t>
   </si>
   <si>
     <t xml:space="preserve">4.95853567123413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98135137557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01177167892456</t>
+    <t xml:space="preserve">4.98135089874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0117712020874</t>
   </si>
   <si>
     <t xml:space="preserve">5.01937627792358</t>
@@ -800,22 +800,22 @@
     <t xml:space="preserve">4.91290473937988</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16007137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19117975234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30394649505615</t>
+    <t xml:space="preserve">5.160071849823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1911792755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30394697189331</t>
   </si>
   <si>
     <t xml:space="preserve">5.21062183380127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34283208847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37005186080933</t>
+    <t xml:space="preserve">5.3428316116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37005138397217</t>
   </si>
   <si>
     <t xml:space="preserve">5.35838556289673</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">5.21451044082642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17562580108643</t>
+    <t xml:space="preserve">5.17562532424927</t>
   </si>
   <si>
     <t xml:space="preserve">5.22617626190186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24950742721558</t>
+    <t xml:space="preserve">5.24950695037842</t>
   </si>
   <si>
     <t xml:space="preserve">5.31950044631958</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">5.3856053352356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31172370910645</t>
+    <t xml:space="preserve">5.31172323226929</t>
   </si>
   <si>
     <t xml:space="preserve">5.3078351020813</t>
@@ -872,25 +872,25 @@
     <t xml:space="preserve">5.40504789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40893697738647</t>
+    <t xml:space="preserve">5.40893650054932</t>
   </si>
   <si>
     <t xml:space="preserve">5.42837953567505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49448442459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49837255477905</t>
+    <t xml:space="preserve">5.49448394775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49837303161621</t>
   </si>
   <si>
     <t xml:space="preserve">5.46337652206421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64613676071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8094539642334</t>
+    <t xml:space="preserve">5.64613723754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80945444107056</t>
   </si>
   <si>
     <t xml:space="preserve">5.59169721603394</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">5.62280559539795</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54503488540649</t>
+    <t xml:space="preserve">5.54503536224365</t>
   </si>
   <si>
     <t xml:space="preserve">5.57614326477051</t>
@@ -929,67 +929,67 @@
     <t xml:space="preserve">5.63447093963623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59947395324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66946792602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56836557388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66169118881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75501489639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92611026763916</t>
+    <t xml:space="preserve">5.59947443008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66946840286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56836605072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6616907119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75501537322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92611074447632</t>
   </si>
   <si>
     <t xml:space="preserve">5.75890398025513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56447792053223</t>
+    <t xml:space="preserve">5.56447744369507</t>
   </si>
   <si>
     <t xml:space="preserve">5.70446443557739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82500886917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7783465385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69279909133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74723863601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6500244140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64224863052368</t>
+    <t xml:space="preserve">5.82500839233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77834606170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69279861450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74723815917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65002536773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64224815368652</t>
   </si>
   <si>
     <t xml:space="preserve">5.52948093414307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52170372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5372576713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57225513458252</t>
+    <t xml:space="preserve">5.52170419692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53725719451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57225465774536</t>
   </si>
   <si>
     <t xml:space="preserve">5.59558582305908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6966872215271</t>
+    <t xml:space="preserve">5.69668769836426</t>
   </si>
   <si>
     <t xml:space="preserve">5.90277910232544</t>
@@ -1001,22 +1001,22 @@
     <t xml:space="preserve">5.83278608322144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86389350891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80167770385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84834003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84445095062256</t>
+    <t xml:space="preserve">5.86389398574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80167722702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84833955764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84445190429688</t>
   </si>
   <si>
     <t xml:space="preserve">5.89500188827515</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90666770935059</t>
+    <t xml:space="preserve">5.90666723251343</t>
   </si>
   <si>
     <t xml:space="preserve">5.92999839782715</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">5.91444492340088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94944095611572</t>
+    <t xml:space="preserve">5.94944143295288</t>
   </si>
   <si>
     <t xml:space="preserve">5.96499538421631</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81723117828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86778211593628</t>
+    <t xml:space="preserve">5.81723213195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86778259277344</t>
   </si>
   <si>
     <t xml:space="preserve">5.88333654403687</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">5.70835304260254</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87167119979858</t>
+    <t xml:space="preserve">5.87167167663574</t>
   </si>
   <si>
     <t xml:space="preserve">5.85222864151001</t>
@@ -1067,13 +1067,13 @@
     <t xml:space="preserve">5.91833353042603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60336256027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5061502456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45948791503906</t>
+    <t xml:space="preserve">5.60336303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50614976882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45948696136475</t>
   </si>
   <si>
     <t xml:space="preserve">5.3778281211853</t>
@@ -1088,16 +1088,16 @@
     <t xml:space="preserve">5.56058931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58392000198364</t>
+    <t xml:space="preserve">5.58391952514648</t>
   </si>
   <si>
     <t xml:space="preserve">5.72779560089111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71613025665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7666802406311</t>
+    <t xml:space="preserve">5.71612977981567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76668071746826</t>
   </si>
   <si>
     <t xml:space="preserve">5.72001838684082</t>
@@ -1106,49 +1106,49 @@
     <t xml:space="preserve">5.77445840835571</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84056282043457</t>
+    <t xml:space="preserve">5.84056234359741</t>
   </si>
   <si>
     <t xml:space="preserve">5.5489239692688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52559280395508</t>
+    <t xml:space="preserve">5.52559232711792</t>
   </si>
   <si>
     <t xml:space="preserve">5.55670022964478</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58780860900879</t>
+    <t xml:space="preserve">5.58780908584595</t>
   </si>
   <si>
     <t xml:space="preserve">5.43615627288818</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51392698287964</t>
+    <t xml:space="preserve">5.51392650604248</t>
   </si>
   <si>
     <t xml:space="preserve">5.93388748168945</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0505428314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05832052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01165771484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00388097763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10498237609863</t>
+    <t xml:space="preserve">6.05054330825806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05832004547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01165723800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00388050079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10498189926147</t>
   </si>
   <si>
     <t xml:space="preserve">6.08942842483521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04276609420776</t>
+    <t xml:space="preserve">6.04276657104492</t>
   </si>
   <si>
     <t xml:space="preserve">5.97277307510376</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">5.7316837310791</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67724466323853</t>
+    <t xml:space="preserve">5.67724514007568</t>
   </si>
   <si>
     <t xml:space="preserve">5.88722515106201</t>
@@ -1169,19 +1169,19 @@
     <t xml:space="preserve">5.68502187728882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73946142196655</t>
+    <t xml:space="preserve">5.73946094512939</t>
   </si>
   <si>
     <t xml:space="preserve">5.79390048980713</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77056980133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78612279891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70057535171509</t>
+    <t xml:space="preserve">5.77056932449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78612375259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70057582855225</t>
   </si>
   <si>
     <t xml:space="preserve">5.6539134979248</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">5.68568086624146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50175666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46177244186401</t>
+    <t xml:space="preserve">5.50175619125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46177196502686</t>
   </si>
   <si>
     <t xml:space="preserve">5.31783103942871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34981870651245</t>
+    <t xml:space="preserve">5.34981822967529</t>
   </si>
   <si>
     <t xml:space="preserve">5.36581134796143</t>
@@ -1214,52 +1214,52 @@
     <t xml:space="preserve">5.32582759857178</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30983448028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03794527053833</t>
+    <t xml:space="preserve">5.30983400344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03794574737549</t>
   </si>
   <si>
     <t xml:space="preserve">4.93398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65410137176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91799449920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83002996444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99796199798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87001466751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7980432510376</t>
+    <t xml:space="preserve">4.65410232543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91799402236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83002948760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99796152114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87001419067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79804372787476</t>
   </si>
   <si>
     <t xml:space="preserve">4.74206590652466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85402059555054</t>
+    <t xml:space="preserve">4.8540210723877</t>
   </si>
   <si>
     <t xml:space="preserve">4.92599058151245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90200090408325</t>
+    <t xml:space="preserve">4.90200138092041</t>
   </si>
   <si>
     <t xml:space="preserve">5.00595855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09392213821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13390636444092</t>
+    <t xml:space="preserve">5.09392261505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13390588760376</t>
   </si>
   <si>
     <t xml:space="preserve">5.18188714981079</t>
@@ -1274,19 +1274,19 @@
     <t xml:space="preserve">4.95797777175903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0219521522522</t>
+    <t xml:space="preserve">5.02195167541504</t>
   </si>
   <si>
     <t xml:space="preserve">5.06993198394775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08592557907104</t>
+    <t xml:space="preserve">5.0859260559082</t>
   </si>
   <si>
     <t xml:space="preserve">5.17388963699341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1898832321167</t>
+    <t xml:space="preserve">5.18988275527954</t>
   </si>
   <si>
     <t xml:space="preserve">5.1099157333374</t>
@@ -1295,19 +1295,19 @@
     <t xml:space="preserve">5.11791229248047</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10191917419434</t>
+    <t xml:space="preserve">5.10191965103149</t>
   </si>
   <si>
     <t xml:space="preserve">5.04594230651855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90999698638916</t>
+    <t xml:space="preserve">4.90999746322632</t>
   </si>
   <si>
     <t xml:space="preserve">4.89400386810303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07792901992798</t>
+    <t xml:space="preserve">5.07792854309082</t>
   </si>
   <si>
     <t xml:space="preserve">4.94198417663574</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">4.61411809921265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53415012359619</t>
+    <t xml:space="preserve">4.53415060043335</t>
   </si>
   <si>
     <t xml:space="preserve">4.4701771736145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44618654251099</t>
+    <t xml:space="preserve">4.44618606567383</t>
   </si>
   <si>
     <t xml:space="preserve">4.45418310165405</t>
@@ -1337,16 +1337,16 @@
     <t xml:space="preserve">4.47817373275757</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4941668510437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39020967483521</t>
+    <t xml:space="preserve">4.49416732788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39020919799805</t>
   </si>
   <si>
     <t xml:space="preserve">4.42219686508179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25426530838013</t>
+    <t xml:space="preserve">4.25426483154297</t>
   </si>
   <si>
     <t xml:space="preserve">4.27825498580933</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">4.67009544372559</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64610528945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66209840774536</t>
+    <t xml:space="preserve">4.64610481262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66209888458252</t>
   </si>
   <si>
     <t xml:space="preserve">4.67809200286865</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">4.48617029190063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55814123153687</t>
+    <t xml:space="preserve">4.55814075469971</t>
   </si>
   <si>
     <t xml:space="preserve">4.31823921203613</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">4.2462682723999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18229389190674</t>
+    <t xml:space="preserve">4.1822943687439</t>
   </si>
   <si>
     <t xml:space="preserve">4.28625202178955</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">4.35822248458862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20628452301025</t>
+    <t xml:space="preserve">4.2062840461731</t>
   </si>
   <si>
     <t xml:space="preserve">4.11032390594482</t>
@@ -1430,31 +1430,31 @@
     <t xml:space="preserve">3.81844258308411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92240047454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21428155899048</t>
+    <t xml:space="preserve">3.92239999771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21428108215332</t>
   </si>
   <si>
     <t xml:space="preserve">4.15830373764038</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23027420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23827123641968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26226186752319</t>
+    <t xml:space="preserve">4.23027467727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23827171325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26226139068604</t>
   </si>
   <si>
     <t xml:space="preserve">4.13431406021118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15030765533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09433031082153</t>
+    <t xml:space="preserve">4.15030717849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09432983398438</t>
   </si>
   <si>
     <t xml:space="preserve">4.06234312057495</t>
@@ -1475,25 +1475,25 @@
     <t xml:space="preserve">4.16630125045776</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19828796386719</t>
+    <t xml:space="preserve">4.19828748703003</t>
   </si>
   <si>
     <t xml:space="preserve">4.04635000228882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11832046508789</t>
+    <t xml:space="preserve">4.11831998825073</t>
   </si>
   <si>
     <t xml:space="preserve">4.27025890350342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98237538337708</t>
+    <t xml:space="preserve">3.98237586021423</t>
   </si>
   <si>
     <t xml:space="preserve">3.96238398551941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95038890838623</t>
+    <t xml:space="preserve">3.95038866996765</t>
   </si>
   <si>
     <t xml:space="preserve">3.91440367698669</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">4.03835296630859</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22227764129639</t>
+    <t xml:space="preserve">4.22227811813354</t>
   </si>
   <si>
     <t xml:space="preserve">4.1023268699646</t>
@@ -1511,34 +1511,34 @@
     <t xml:space="preserve">4.08633327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07833623886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00636625289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03035593032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89441180229187</t>
+    <t xml:space="preserve">4.07833671569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00636577606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03035640716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89441132545471</t>
   </si>
   <si>
     <t xml:space="preserve">3.97837710380554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91840171813965</t>
+    <t xml:space="preserve">3.91840219497681</t>
   </si>
   <si>
     <t xml:space="preserve">3.87042140960693</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98637390136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1902904510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29424810409546</t>
+    <t xml:space="preserve">3.98637437820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19029092788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29424858093262</t>
   </si>
   <si>
     <t xml:space="preserve">3.93839406967163</t>
@@ -1550,40 +1550,40 @@
     <t xml:space="preserve">4.17429733276367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95838570594788</t>
+    <t xml:space="preserve">3.9583854675293</t>
   </si>
   <si>
     <t xml:space="preserve">3.910404920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84643149375916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86242461204529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81444430351257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77845859527588</t>
+    <t xml:space="preserve">3.846431016922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86242508888245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81444406509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77845883369446</t>
   </si>
   <si>
     <t xml:space="preserve">3.79098415374756</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79515933990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77010893821716</t>
+    <t xml:space="preserve">3.79515957832336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77010869979858</t>
   </si>
   <si>
     <t xml:space="preserve">3.68243169784546</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69913196563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74088335037231</t>
+    <t xml:space="preserve">3.69913244247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74088311195374</t>
   </si>
   <si>
     <t xml:space="preserve">3.72418308258057</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">3.71583247184753</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73670768737793</t>
+    <t xml:space="preserve">3.73670816421509</t>
   </si>
   <si>
     <t xml:space="preserve">3.65738153457642</t>
@@ -1604,13 +1604,13 @@
     <t xml:space="preserve">3.63650584220886</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59475493431091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66155695915222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68660688400269</t>
+    <t xml:space="preserve">3.59475517272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66155672073364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68660736083984</t>
   </si>
   <si>
     <t xml:space="preserve">3.61980557441711</t>
@@ -1622,43 +1622,43 @@
     <t xml:space="preserve">3.57387971878052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54047870635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55300402641296</t>
+    <t xml:space="preserve">3.54047846794128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55300378799438</t>
   </si>
   <si>
     <t xml:space="preserve">3.56970453262329</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5488293170929</t>
+    <t xml:space="preserve">3.54882884025574</t>
   </si>
   <si>
     <t xml:space="preserve">3.58222961425781</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51542806625366</t>
+    <t xml:space="preserve">3.51542830467224</t>
   </si>
   <si>
     <t xml:space="preserve">3.46532702445984</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48202776908875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52377820014954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53630352020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59057998657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74923348426819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97468876838684</t>
+    <t xml:space="preserve">3.48202753067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52377843856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53630375862122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59057974815369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74923324584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97468829154968</t>
   </si>
   <si>
     <t xml:space="preserve">4.04149055480957</t>
@@ -1670,16 +1670,16 @@
     <t xml:space="preserve">3.92458701133728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94128799438477</t>
+    <t xml:space="preserve">3.94128751754761</t>
   </si>
   <si>
     <t xml:space="preserve">3.94963812828064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98303842544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90371203422546</t>
+    <t xml:space="preserve">3.98303890228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90371227264404</t>
   </si>
   <si>
     <t xml:space="preserve">3.84108543395996</t>
@@ -1691,34 +1691,34 @@
     <t xml:space="preserve">3.95798778533936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94546294212341</t>
+    <t xml:space="preserve">3.94546246528625</t>
   </si>
   <si>
     <t xml:space="preserve">3.89536166191101</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87031102180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79933476448059</t>
+    <t xml:space="preserve">3.87031149864197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79933452606201</t>
   </si>
   <si>
     <t xml:space="preserve">3.78680896759033</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77845883369446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75758385658264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72000765800476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76593422889709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69078183174133</t>
+    <t xml:space="preserve">3.77845931053162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7575831413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72000741958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76593375205994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69078207015991</t>
   </si>
   <si>
     <t xml:space="preserve">3.78263425827026</t>
@@ -1730,34 +1730,34 @@
     <t xml:space="preserve">3.86613607406616</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92041182518005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02061462402344</t>
+    <t xml:space="preserve">3.92041230201721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02061414718628</t>
   </si>
   <si>
     <t xml:space="preserve">4.03731489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06654024124146</t>
+    <t xml:space="preserve">4.06654071807861</t>
   </si>
   <si>
     <t xml:space="preserve">4.05819034576416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12081670761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18344354629517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3337459564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26694536209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13751745223999</t>
+    <t xml:space="preserve">4.12081718444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18344306945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33374643325806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26694488525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13751697540283</t>
   </si>
   <si>
     <t xml:space="preserve">4.16256761550903</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">4.24189424514771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23354434967041</t>
+    <t xml:space="preserve">4.23354387283325</t>
   </si>
   <si>
     <t xml:space="preserve">4.16674280166626</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">4.0832405090332</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05401515960693</t>
+    <t xml:space="preserve">4.05401468276978</t>
   </si>
   <si>
     <t xml:space="preserve">4.12499141693115</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">4.25024509429932</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3086953163147</t>
+    <t xml:space="preserve">4.30869579315186</t>
   </si>
   <si>
     <t xml:space="preserve">4.40054798126221</t>
@@ -1814,28 +1814,28 @@
     <t xml:space="preserve">4.37549734115601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36714744567871</t>
+    <t xml:space="preserve">4.36714696884155</t>
   </si>
   <si>
     <t xml:space="preserve">4.34209632873535</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35879707336426</t>
+    <t xml:space="preserve">4.3587965965271</t>
   </si>
   <si>
     <t xml:space="preserve">4.40889835357666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3253960609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44229936599731</t>
+    <t xml:space="preserve">4.32539653778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44229888916016</t>
   </si>
   <si>
     <t xml:space="preserve">4.52580070495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45899963378906</t>
+    <t xml:space="preserve">4.4589991569519</t>
   </si>
   <si>
     <t xml:space="preserve">4.49240016937256</t>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">4.56755113601685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47569990158081</t>
+    <t xml:space="preserve">4.47569942474365</t>
   </si>
   <si>
     <t xml:space="preserve">4.45064926147461</t>
@@ -1856,61 +1856,61 @@
     <t xml:space="preserve">4.42559862136841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4673490524292</t>
+    <t xml:space="preserve">4.46734952926636</t>
   </si>
   <si>
     <t xml:space="preserve">4.55085134506226</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43394804000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3838472366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35044717788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39219808578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31704616546631</t>
+    <t xml:space="preserve">4.4339485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38384771347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3504467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39219760894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31704568862915</t>
   </si>
   <si>
     <t xml:space="preserve">4.30034589767456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29199504852295</t>
+    <t xml:space="preserve">4.29199552536011</t>
   </si>
   <si>
     <t xml:space="preserve">4.28364515304565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25859451293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20014333724976</t>
+    <t xml:space="preserve">4.25859403610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20014381408691</t>
   </si>
   <si>
     <t xml:space="preserve">3.97051310539246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97886347770691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0331392288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1082911491394</t>
+    <t xml:space="preserve">3.97886395454407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03313970565796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10829162597656</t>
   </si>
   <si>
     <t xml:space="preserve">4.41724824905396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11246633529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01226377487183</t>
+    <t xml:space="preserve">4.11246681213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01226425170898</t>
   </si>
   <si>
     <t xml:space="preserve">3.82856011390686</t>
@@ -1925,13 +1925,13 @@
     <t xml:space="preserve">3.43610143661499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38600039482117</t>
+    <t xml:space="preserve">3.38600015640259</t>
   </si>
   <si>
     <t xml:space="preserve">3.13549470901489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13131976127625</t>
+    <t xml:space="preserve">3.13131952285767</t>
   </si>
   <si>
     <t xml:space="preserve">3.26909780502319</t>
@@ -1940,22 +1940,22 @@
     <t xml:space="preserve">2.9935417175293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23987221717834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31919884681702</t>
+    <t xml:space="preserve">3.23987197875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31919860839844</t>
   </si>
   <si>
     <t xml:space="preserve">3.28579807281494</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25239706039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21482157707214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27327299118042</t>
+    <t xml:space="preserve">3.25239729881287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21482133865356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27327275276184</t>
   </si>
   <si>
     <t xml:space="preserve">3.15219521522522</t>
@@ -1964,16 +1964,16 @@
     <t xml:space="preserve">3.19812083244324</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18977069854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22734689712524</t>
+    <t xml:space="preserve">3.18977093696594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22734665870667</t>
   </si>
   <si>
     <t xml:space="preserve">3.15637016296387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20647120475769</t>
+    <t xml:space="preserve">3.20647144317627</t>
   </si>
   <si>
     <t xml:space="preserve">3.12296938896179</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">3.19394612312317</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31084847450256</t>
+    <t xml:space="preserve">3.31084871292114</t>
   </si>
   <si>
     <t xml:space="preserve">3.26074743270874</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">3.37347507476807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35259938240051</t>
+    <t xml:space="preserve">3.35259962081909</t>
   </si>
   <si>
     <t xml:space="preserve">3.34424948692322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44862675666809</t>
+    <t xml:space="preserve">3.44862699508667</t>
   </si>
   <si>
     <t xml:space="preserve">3.38182544708252</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">3.42357611656189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49872803688049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47367739677429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52795314788818</t>
+    <t xml:space="preserve">3.49872779846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47367715835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52795338630676</t>
   </si>
   <si>
     <t xml:space="preserve">3.55717945098877</t>
@@ -2033,10 +2033,10 @@
     <t xml:space="preserve">3.49037742614746</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39435052871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39017534255981</t>
+    <t xml:space="preserve">3.39435076713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39017510414124</t>
   </si>
   <si>
     <t xml:space="preserve">3.43192648887634</t>
@@ -2048,19 +2048,19 @@
     <t xml:space="preserve">3.61563014984131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63233041763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76175904273987</t>
+    <t xml:space="preserve">3.63233065605164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76175880432129</t>
   </si>
   <si>
     <t xml:space="preserve">3.87866139411926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85361075401306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82020950317383</t>
+    <t xml:space="preserve">3.85361051559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82020974159241</t>
   </si>
   <si>
     <t xml:space="preserve">3.64068126678467</t>
@@ -2072,43 +2072,43 @@
     <t xml:space="preserve">3.64485597610474</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65320634841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64903116226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60310506820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7325325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72835755348206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60728025436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75340843200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84526062011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74505853652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66573143005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59892988204956</t>
+    <t xml:space="preserve">3.65320611000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64903140068054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60310530662537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73253297805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72835803031921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60728049278259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75340819358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84526038169861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74505805969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66573095321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59893012046814</t>
   </si>
   <si>
     <t xml:space="preserve">3.56552934646606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51960325241089</t>
+    <t xml:space="preserve">3.51960349082947</t>
   </si>
   <si>
     <t xml:space="preserve">3.58640480041504</t>
@@ -2120,10 +2120,10 @@
     <t xml:space="preserve">3.46950244903564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51125288009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41522574424744</t>
+    <t xml:space="preserve">3.51125335693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41522622108459</t>
   </si>
   <si>
     <t xml:space="preserve">3.40270042419434</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">3.24822235107422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26492261886597</t>
+    <t xml:space="preserve">3.26492238044739</t>
   </si>
   <si>
     <t xml:space="preserve">3.23152184486389</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">3.18559575080872</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09374380111694</t>
+    <t xml:space="preserve">3.09374356269836</t>
   </si>
   <si>
     <t xml:space="preserve">3.08121871948242</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06034278869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03946781158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00189161300659</t>
+    <t xml:space="preserve">3.06034302711487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03946757316589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00189185142517</t>
   </si>
   <si>
     <t xml:space="preserve">3.00606679916382</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">2.96014070510864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82236289978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7054603099823</t>
+    <t xml:space="preserve">2.82236266136169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70546007156372</t>
   </si>
   <si>
     <t xml:space="preserve">2.81818771362305</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">2.9810163974762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30249810218811</t>
+    <t xml:space="preserve">3.30249834060669</t>
   </si>
   <si>
     <t xml:space="preserve">3.90788698196411</t>
@@ -2192,28 +2192,28 @@
     <t xml:space="preserve">4.00808906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01643896102905</t>
+    <t xml:space="preserve">4.01643943786621</t>
   </si>
   <si>
     <t xml:space="preserve">3.95381331443787</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93711233139038</t>
+    <t xml:space="preserve">3.93711280822754</t>
   </si>
   <si>
     <t xml:space="preserve">3.87448620796204</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84943604469299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89118671417236</t>
+    <t xml:space="preserve">3.84943556785583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89118623733521</t>
   </si>
   <si>
     <t xml:space="preserve">3.77428388595581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45280194282532</t>
+    <t xml:space="preserve">3.45280170440674</t>
   </si>
   <si>
     <t xml:space="preserve">4.20849323272705</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">4.02478933334351</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07071590423584</t>
+    <t xml:space="preserve">4.07071542739868</t>
   </si>
   <si>
     <t xml:space="preserve">4.14169216156006</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1917929649353</t>
+    <t xml:space="preserve">4.19179344177246</t>
   </si>
   <si>
     <t xml:space="preserve">4.15004205703735</t>
@@ -2258,19 +2258,19 @@
     <t xml:space="preserve">4.66995096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55731821060181</t>
+    <t xml:space="preserve">4.55731773376465</t>
   </si>
   <si>
     <t xml:space="preserve">4.50533294677734</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51399755477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5226616859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64395904541016</t>
+    <t xml:space="preserve">4.51399707794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52266120910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.643958568573</t>
   </si>
   <si>
     <t xml:space="preserve">4.71327209472656</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">4.72193574905396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7046070098877</t>
+    <t xml:space="preserve">4.70460748672485</t>
   </si>
   <si>
     <t xml:space="preserve">4.82590532302856</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">4.78258419036865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79991245269775</t>
+    <t xml:space="preserve">4.79991292953491</t>
   </si>
   <si>
     <t xml:space="preserve">4.80857706069946</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">4.73059988021851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63529443740845</t>
+    <t xml:space="preserve">4.63529491424561</t>
   </si>
   <si>
     <t xml:space="preserve">4.46201276779175</t>
@@ -2312,22 +2312,22 @@
     <t xml:space="preserve">4.44468450546265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41869211196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4273567199707</t>
+    <t xml:space="preserve">4.41869163513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42735624313354</t>
   </si>
   <si>
     <t xml:space="preserve">4.3753719329834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45334815979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47934103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34937906265259</t>
+    <t xml:space="preserve">4.4533486366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47934055328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34937953948975</t>
   </si>
   <si>
     <t xml:space="preserve">4.33205127716064</t>
@@ -2336,16 +2336,16 @@
     <t xml:space="preserve">4.4360203742981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49666881561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3927001953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62663125991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68727874755859</t>
+    <t xml:space="preserve">4.49666929244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39269971847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62663078308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68727922439575</t>
   </si>
   <si>
     <t xml:space="preserve">4.65262269973755</t>
@@ -2354,25 +2354,25 @@
     <t xml:space="preserve">4.85189723968506</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92121028900146</t>
+    <t xml:space="preserve">4.92120981216431</t>
   </si>
   <si>
     <t xml:space="preserve">4.89521789550781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8865532875061</t>
+    <t xml:space="preserve">4.88655376434326</t>
   </si>
   <si>
     <t xml:space="preserve">4.84323358535767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86056184768677</t>
+    <t xml:space="preserve">4.86056137084961</t>
   </si>
   <si>
     <t xml:space="preserve">4.79124879837036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81724119186401</t>
+    <t xml:space="preserve">4.81724071502686</t>
   </si>
   <si>
     <t xml:space="preserve">4.92987442016602</t>
@@ -2381,16 +2381,16 @@
     <t xml:space="preserve">4.91254615783691</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90388154983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94720268249512</t>
+    <t xml:space="preserve">4.90388202667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94720220565796</t>
   </si>
   <si>
     <t xml:space="preserve">4.95586633682251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97319412231445</t>
+    <t xml:space="preserve">4.97319459915161</t>
   </si>
   <si>
     <t xml:space="preserve">5.04250764846802</t>
@@ -2399,13 +2399,13 @@
     <t xml:space="preserve">5.08582782745361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11182069778442</t>
+    <t xml:space="preserve">5.11182022094727</t>
   </si>
   <si>
     <t xml:space="preserve">5.12048435211182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96453094482422</t>
+    <t xml:space="preserve">4.96453046798706</t>
   </si>
   <si>
     <t xml:space="preserve">5.07716417312622</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">5.22445344924927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12914896011353</t>
+    <t xml:space="preserve">5.12914848327637</t>
   </si>
   <si>
     <t xml:space="preserve">5.24178218841553</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">5.37174320220947</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42372798919678</t>
+    <t xml:space="preserve">5.42372846603394</t>
   </si>
   <si>
     <t xml:space="preserve">5.58834600448608</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">5.56235361099243</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51903295516968</t>
+    <t xml:space="preserve">5.51903343200684</t>
   </si>
   <si>
     <t xml:space="preserve">5.47571277618408</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">5.50170469284058</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60567378997803</t>
+    <t xml:space="preserve">5.60567426681519</t>
   </si>
   <si>
     <t xml:space="preserve">5.57968187332153</t>
@@ -2489,19 +2489,19 @@
     <t xml:space="preserve">5.76162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74429988861084</t>
+    <t xml:space="preserve">5.744300365448</t>
   </si>
   <si>
     <t xml:space="preserve">5.80494832992554</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54502534866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44972085952759</t>
+    <t xml:space="preserve">5.85693311691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54502582550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44971990585327</t>
   </si>
   <si>
     <t xml:space="preserve">5.30243062973022</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">5.18113327026367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18979692459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09449243545532</t>
+    <t xml:space="preserve">5.18979740142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09449195861816</t>
   </si>
   <si>
     <t xml:space="preserve">5.00785112380981</t>
@@ -2528,199 +2528,202 @@
     <t xml:space="preserve">4.98185873031616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93853807449341</t>
+    <t xml:space="preserve">4.93853855133057</t>
   </si>
   <si>
     <t xml:space="preserve">5.03384351730347</t>
   </si>
   <si>
+    <t xml:space="preserve">5.02517986297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05117177963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99918699264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01651525497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99052333831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05983591079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32842350006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38907146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39773559570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28510236740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19846153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14647674560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27643871307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36307907104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45838499069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09952831268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2554817199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3334584236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51540517807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28147411346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29880285263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18616914749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1081919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71830749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84826898574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20712566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87788963317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31975889205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44105672836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35441493988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21578979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06850004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10315656661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27142238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2349419593811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18934154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12550020217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29878282546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50854539871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47206497192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68182706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60886669158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65446662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49942493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59062623977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41734409332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49030494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38086366653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3352632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10726022720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8701376914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97957897186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04341983795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95221853256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0616602897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13462066650391</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.02517938613892</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05117177963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99918699264526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01651525497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99052286148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05983591079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32842302322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38907146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39773607254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28510236740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19846153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14647722244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27643823623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36307954788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45838451385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09952783584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2554817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3334584236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51540470123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28147411346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29880237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18616914749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10819244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84826898574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20712566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87788963317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639925003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31975841522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44105672836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35441541671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21578931808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06849956512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10315608978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27142238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23494148254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18934154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12550067901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29878282546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50854539871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47206449508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68182706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6088662147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65446662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49942493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59062623977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41734409332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49030494689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38086366653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3352632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10726022720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8701376914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97957897186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04341983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9522180557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06165981292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13462066650391</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.09814071655273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05253934860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98869895935059</t>
+    <t xml:space="preserve">5.05253982543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98869848251343</t>
   </si>
   <si>
     <t xml:space="preserve">4.78805685043335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76069641113281</t>
+    <t xml:space="preserve">4.76069593429565</t>
   </si>
   <si>
     <t xml:space="preserve">4.84277725219727</t>
@@ -2732,19 +2735,16 @@
     <t xml:space="preserve">4.71509552001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85189771652222</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.93397808074951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88837814331055</t>
+    <t xml:space="preserve">4.88837766647339</t>
   </si>
   <si>
     <t xml:space="preserve">4.83365726470947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72421550750732</t>
+    <t xml:space="preserve">4.72421598434448</t>
   </si>
   <si>
     <t xml:space="preserve">4.91573810577393</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">5.03429937362671</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16198062896729</t>
+    <t xml:space="preserve">5.16198110580444</t>
   </si>
   <si>
     <t xml:space="preserve">5.1437406539917</t>
@@ -2774,6 +2774,9 @@
     <t xml:space="preserve">5.36262321472168</t>
   </si>
   <si>
+    <t xml:space="preserve">5.37174367904663</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.21670150756836</t>
   </si>
   <si>
@@ -2783,7 +2786,7 @@
     <t xml:space="preserve">5.28054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22582197189331</t>
+    <t xml:space="preserve">5.22582149505615</t>
   </si>
   <si>
     <t xml:space="preserve">5.32614326477051</t>
@@ -2816,34 +2819,34 @@
     <t xml:space="preserve">5.31702280044556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39910411834717</t>
+    <t xml:space="preserve">5.39910364151001</t>
   </si>
   <si>
     <t xml:space="preserve">5.45382452011108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5359058380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64534711837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70918750762939</t>
+    <t xml:space="preserve">5.53590536117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64534664154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70918798446655</t>
   </si>
   <si>
     <t xml:space="preserve">5.78214836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73654794692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77302837371826</t>
+    <t xml:space="preserve">5.73654747009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7730278968811</t>
   </si>
   <si>
     <t xml:space="preserve">5.81862878799438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82774925231934</t>
+    <t xml:space="preserve">5.82774877548218</t>
   </si>
   <si>
     <t xml:space="preserve">5.84598922729492</t>
@@ -2852,7 +2855,7 @@
     <t xml:space="preserve">5.86422920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92807006835938</t>
+    <t xml:space="preserve">5.92807054519653</t>
   </si>
   <si>
     <t xml:space="preserve">6.00103092193604</t>
@@ -2870,13 +2873,13 @@
     <t xml:space="preserve">6.0648717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03751087188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15607309341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01927089691162</t>
+    <t xml:space="preserve">6.03751134872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15607261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01927137374878</t>
   </si>
   <si>
     <t xml:space="preserve">6.0739917755127</t>
@@ -2897,10 +2900,10 @@
     <t xml:space="preserve">6.12871217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28375434875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21991348266602</t>
+    <t xml:space="preserve">6.28375387191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21991395950317</t>
   </si>
   <si>
     <t xml:space="preserve">6.20167350769043</t>
@@ -2909,19 +2912,19 @@
     <t xml:space="preserve">6.18343353271484</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16519355773926</t>
+    <t xml:space="preserve">6.1651930809021</t>
   </si>
   <si>
     <t xml:space="preserve">6.24727344512939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38407564163208</t>
+    <t xml:space="preserve">6.38407516479492</t>
   </si>
   <si>
     <t xml:space="preserve">6.4296760559082</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45703601837158</t>
+    <t xml:space="preserve">6.45703649520874</t>
   </si>
   <si>
     <t xml:space="preserve">6.47527647018433</t>
@@ -2933,7 +2936,7 @@
     <t xml:space="preserve">6.42055606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52087736129761</t>
+    <t xml:space="preserve">6.52087688446045</t>
   </si>
   <si>
     <t xml:space="preserve">6.41143608093262</t>
@@ -2954,7 +2957,7 @@
     <t xml:space="preserve">7.06808376312256</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15016508102417</t>
+    <t xml:space="preserve">7.15016460418701</t>
   </si>
   <si>
     <t xml:space="preserve">7.11368417739868</t>
@@ -2966,10 +2969,10 @@
     <t xml:space="preserve">7.28696584701538</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20488500595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26872587203979</t>
+    <t xml:space="preserve">7.20488548278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26872539520264</t>
   </si>
   <si>
     <t xml:space="preserve">7.27784633636475</t>
@@ -2978,7 +2981,7 @@
     <t xml:space="preserve">7.19576501846313</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25048589706421</t>
+    <t xml:space="preserve">7.25048542022705</t>
   </si>
   <si>
     <t xml:space="preserve">7.37816762924194</t>
@@ -2996,7 +2999,7 @@
     <t xml:space="preserve">7.50584840774536</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44200754165649</t>
+    <t xml:space="preserve">7.44200801849365</t>
   </si>
   <si>
     <t xml:space="preserve">7.38728761672974</t>
@@ -3008,7 +3011,7 @@
     <t xml:space="preserve">7.31432676315308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34168672561646</t>
+    <t xml:space="preserve">7.34168720245361</t>
   </si>
   <si>
     <t xml:space="preserve">7.42376804351807</t>
@@ -3017,7 +3020,7 @@
     <t xml:space="preserve">7.45112800598145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4602484703064</t>
+    <t xml:space="preserve">7.46024894714355</t>
   </si>
   <si>
     <t xml:space="preserve">7.49672889709473</t>
@@ -3044,7 +3047,7 @@
     <t xml:space="preserve">5.94631052017212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25639390945435</t>
+    <t xml:space="preserve">6.2563943862915</t>
   </si>
   <si>
     <t xml:space="preserve">6.19255304336548</t>
@@ -3056,7 +3059,7 @@
     <t xml:space="preserve">6.44791650772095</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50263738632202</t>
+    <t xml:space="preserve">6.50263690948486</t>
   </si>
   <si>
     <t xml:space="preserve">6.40231561660767</t>
@@ -3065,7 +3068,7 @@
     <t xml:space="preserve">6.49351692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60295820236206</t>
+    <t xml:space="preserve">6.6029577255249</t>
   </si>
   <si>
     <t xml:space="preserve">6.5299973487854</t>
@@ -3083,7 +3086,7 @@
     <t xml:space="preserve">6.56647729873657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58471727371216</t>
+    <t xml:space="preserve">6.58471775054932</t>
   </si>
   <si>
     <t xml:space="preserve">6.48439693450928</t>
@@ -3678,6 +3681,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.38000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27999973297119</t>
   </si>
 </sst>
 </file>
@@ -46859,7 +46865,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1648" t="s">
-        <v>840</v>
+        <v>898</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46885,7 +46891,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1649" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46911,7 +46917,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46937,7 +46943,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1651" t="s">
-        <v>840</v>
+        <v>898</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46963,7 +46969,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1652" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46989,7 +46995,7 @@
         <v>5.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47015,7 +47021,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1654" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47041,7 +47047,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1655" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47067,7 +47073,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1656" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47093,7 +47099,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47119,7 +47125,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1658" t="s">
-        <v>906</v>
+        <v>779</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47327,7 +47333,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>840</v>
+        <v>898</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47405,7 +47411,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47483,7 +47489,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1672" t="s">
-        <v>906</v>
+        <v>779</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47821,7 +47827,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G1685" t="s">
-        <v>804</v>
+        <v>920</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47925,7 +47931,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1689" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47951,7 +47957,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47977,7 +47983,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48003,7 +48009,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1692" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48263,7 +48269,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48289,7 +48295,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1703" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48367,7 +48373,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1706" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48393,7 +48399,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48445,7 +48451,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1709" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48497,7 +48503,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1711" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48523,7 +48529,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1712" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48575,7 +48581,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1714" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48601,7 +48607,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1715" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48627,7 +48633,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1716" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48679,7 +48685,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48731,7 +48737,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1720" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48835,7 +48841,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48887,7 +48893,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1726" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48913,7 +48919,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G1727" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49017,7 +49023,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1731" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49043,7 +49049,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1732" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49069,7 +49075,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49095,7 +49101,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1734" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49173,7 +49179,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1737" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49199,7 +49205,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1738" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49251,7 +49257,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1740" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49277,7 +49283,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1741" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49303,7 +49309,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1742" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49329,7 +49335,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1743" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49355,7 +49361,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G1744" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49381,7 +49387,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49407,7 +49413,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1746" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49433,7 +49439,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49459,7 +49465,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1748" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49485,7 +49491,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G1749" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49511,7 +49517,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1750" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49537,7 +49543,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1751" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49563,7 +49569,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1752" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49589,7 +49595,7 @@
         <v>6.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49615,7 +49621,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49641,7 +49647,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1755" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49667,7 +49673,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1756" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49693,7 +49699,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49719,7 +49725,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49745,7 +49751,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49771,7 +49777,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1760" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49797,7 +49803,7 @@
         <v>6.75</v>
       </c>
       <c r="G1761" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49823,7 +49829,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1762" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49849,7 +49855,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49875,7 +49881,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1764" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49901,7 +49907,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1765" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49927,7 +49933,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1766" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49953,7 +49959,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1767" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49979,7 +49985,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1768" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50005,7 +50011,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50031,7 +50037,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1770" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50057,7 +50063,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50083,7 +50089,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1772" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50109,7 +50115,7 @@
         <v>6.75</v>
       </c>
       <c r="G1773" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50135,7 +50141,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1774" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50161,7 +50167,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1775" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50187,7 +50193,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1776" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50213,7 +50219,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1777" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50239,7 +50245,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1778" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50265,7 +50271,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1779" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50291,7 +50297,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1780" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50317,7 +50323,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1781" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50343,7 +50349,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50369,7 +50375,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1783" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50395,7 +50401,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1784" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50421,7 +50427,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50447,7 +50453,7 @@
         <v>7</v>
       </c>
       <c r="G1786" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50473,7 +50479,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1787" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50499,7 +50505,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50525,7 +50531,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1789" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50551,7 +50557,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1790" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50577,7 +50583,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1791" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50603,7 +50609,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1792" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50629,7 +50635,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1793" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50655,7 +50661,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1794" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50681,7 +50687,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1795" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50707,7 +50713,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1796" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50733,7 +50739,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50759,7 +50765,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1798" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50785,7 +50791,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1799" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50811,7 +50817,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1800" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50837,7 +50843,7 @@
         <v>7.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50863,7 +50869,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1802" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50889,7 +50895,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1803" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50915,7 +50921,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1804" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50941,7 +50947,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1805" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50967,7 +50973,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1806" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50993,7 +50999,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51019,7 +51025,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1808" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51045,7 +51051,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1809" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51071,7 +51077,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1810" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51097,7 +51103,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1811" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51123,7 +51129,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1812" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51149,7 +51155,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1813" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51175,7 +51181,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1814" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51201,7 +51207,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1815" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51227,7 +51233,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1816" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51253,7 +51259,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1817" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51279,7 +51285,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1818" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51305,7 +51311,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1819" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51331,7 +51337,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51357,7 +51363,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1821" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51383,7 +51389,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1822" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51409,7 +51415,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1823" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51435,7 +51441,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1824" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51461,7 +51467,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1825" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51487,7 +51493,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1826" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51513,7 +51519,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1827" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51539,7 +51545,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1828" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51565,7 +51571,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1829" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51591,7 +51597,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1830" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51617,7 +51623,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1831" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51643,7 +51649,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1832" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51669,7 +51675,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51695,7 +51701,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51721,7 +51727,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1835" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51747,7 +51753,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1836" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51773,7 +51779,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1837" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51799,7 +51805,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1838" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51825,7 +51831,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1839" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51851,7 +51857,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1840" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51877,7 +51883,7 @@
         <v>6.75</v>
       </c>
       <c r="G1841" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51903,7 +51909,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51929,7 +51935,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G1843" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51955,7 +51961,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1844" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51981,7 +51987,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1845" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52007,7 +52013,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1846" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52033,7 +52039,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1847" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52059,7 +52065,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1848" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52085,7 +52091,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1849" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52111,7 +52117,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1850" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52137,7 +52143,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1851" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52163,7 +52169,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1852" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52189,7 +52195,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1853" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52215,7 +52221,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52241,7 +52247,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52267,7 +52273,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1856" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52293,7 +52299,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1857" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52319,7 +52325,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1858" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52345,7 +52351,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52371,7 +52377,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52397,7 +52403,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1861" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52423,7 +52429,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1862" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52449,7 +52455,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1863" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52475,7 +52481,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1864" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52501,7 +52507,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1865" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52527,7 +52533,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1866" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52553,7 +52559,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1867" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52579,7 +52585,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52605,7 +52611,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1869" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52631,7 +52637,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1870" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52657,7 +52663,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52683,7 +52689,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1872" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52709,7 +52715,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1873" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52735,7 +52741,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52761,7 +52767,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52787,7 +52793,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52813,7 +52819,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1877" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52839,7 +52845,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1878" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52865,7 +52871,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1879" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52891,7 +52897,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1880" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52917,7 +52923,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52943,7 +52949,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52969,7 +52975,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1883" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52995,7 +53001,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1884" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53021,7 +53027,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1885" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53047,7 +53053,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1886" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53073,7 +53079,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1887" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53099,7 +53105,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53125,7 +53131,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1889" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53151,7 +53157,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1890" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53177,7 +53183,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53203,7 +53209,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53229,7 +53235,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1893" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53255,7 +53261,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1894" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53281,7 +53287,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1895" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53307,7 +53313,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53333,7 +53339,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1897" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53359,7 +53365,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53385,7 +53391,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1899" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53411,7 +53417,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1900" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53437,7 +53443,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1901" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53463,7 +53469,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1902" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53489,7 +53495,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1903" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53515,7 +53521,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1904" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53541,7 +53547,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1905" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53567,7 +53573,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1906" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53593,7 +53599,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1907" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53619,7 +53625,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1908" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53645,7 +53651,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53671,7 +53677,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1910" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53697,7 +53703,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53723,7 +53729,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1912" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53749,7 +53755,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G1913" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53775,7 +53781,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1914" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53801,7 +53807,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1915" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53827,7 +53833,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1916" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53853,7 +53859,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1917" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53879,7 +53885,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1918" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53905,7 +53911,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1919" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53931,7 +53937,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53957,7 +53963,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1921" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53983,7 +53989,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1922" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54009,7 +54015,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54035,7 +54041,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1924" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54061,7 +54067,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1925" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54087,7 +54093,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1926" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54113,7 +54119,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54139,7 +54145,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54165,7 +54171,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1929" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54191,7 +54197,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1930" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54217,7 +54223,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54243,7 +54249,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1932" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54269,7 +54275,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1933" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54295,7 +54301,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54321,7 +54327,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1935" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54347,7 +54353,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1936" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54373,7 +54379,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54399,7 +54405,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1938" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54425,7 +54431,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1939" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54451,7 +54457,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1940" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54477,7 +54483,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1941" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54503,7 +54509,7 @@
         <v>7.5</v>
       </c>
       <c r="G1942" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54529,7 +54535,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54555,7 +54561,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1944" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54581,7 +54587,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1945" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54607,7 +54613,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G1946" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54633,7 +54639,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1947" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54659,7 +54665,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1948" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54685,7 +54691,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1949" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54711,7 +54717,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1950" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54737,7 +54743,7 @@
         <v>7.75</v>
       </c>
       <c r="G1951" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54763,7 +54769,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1952" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54789,7 +54795,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1953" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54815,7 +54821,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54841,7 +54847,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G1955" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54867,7 +54873,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54893,7 +54899,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1957" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54919,7 +54925,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54945,7 +54951,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54971,7 +54977,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1960" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54997,7 +55003,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55023,7 +55029,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1962" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55049,7 +55055,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1963" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55075,7 +55081,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55101,7 +55107,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1965" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55127,7 +55133,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1966" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55153,7 +55159,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1967" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55179,7 +55185,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1968" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55205,7 +55211,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1969" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55231,7 +55237,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1970" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55257,7 +55263,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55283,7 +55289,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1972" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55309,7 +55315,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1973" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55335,7 +55341,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1974" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55361,7 +55367,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55387,7 +55393,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1976" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55413,7 +55419,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1977" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55439,7 +55445,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1978" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55465,7 +55471,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1979" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55491,7 +55497,7 @@
         <v>7.75</v>
       </c>
       <c r="G1980" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55517,7 +55523,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1981" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55543,7 +55549,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55569,7 +55575,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55595,7 +55601,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55621,7 +55627,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1985" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55647,7 +55653,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55673,7 +55679,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1987" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55699,7 +55705,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1988" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55725,7 +55731,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1989" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55751,7 +55757,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55777,7 +55783,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1991" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55803,7 +55809,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1992" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55829,7 +55835,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1993" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55855,7 +55861,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55881,7 +55887,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55907,7 +55913,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G1996" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55933,7 +55939,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1997" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55959,7 +55965,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1998" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55985,7 +55991,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1999" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56011,7 +56017,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2000" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56037,7 +56043,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G2001" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56063,7 +56069,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2002" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56089,7 +56095,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56115,7 +56121,7 @@
         <v>8</v>
       </c>
       <c r="G2004" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56141,7 +56147,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2005" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56167,7 +56173,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2006" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56193,7 +56199,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56219,7 +56225,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2008" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56245,7 +56251,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56271,7 +56277,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2010" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56297,7 +56303,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56323,7 +56329,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56349,7 +56355,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2013" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56375,7 +56381,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G2014" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56401,7 +56407,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2015" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56427,7 +56433,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56453,7 +56459,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2017" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56479,7 +56485,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2018" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56505,7 +56511,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G2019" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56531,7 +56537,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2020" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56557,7 +56563,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G2021" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56583,7 +56589,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2022" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56609,7 +56615,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2023" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56635,7 +56641,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2024" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56661,7 +56667,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2025" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56687,7 +56693,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2026" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56713,7 +56719,7 @@
         <v>8</v>
       </c>
       <c r="G2027" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56739,7 +56745,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2028" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56765,7 +56771,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2029" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56791,7 +56797,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2030" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56817,7 +56823,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G2031" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56843,7 +56849,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2032" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56869,7 +56875,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2033" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56895,7 +56901,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2034" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56921,7 +56927,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2035" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56947,7 +56953,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56973,7 +56979,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2037" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56999,7 +57005,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2038" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57025,7 +57031,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G2039" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57051,7 +57057,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2040" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57077,7 +57083,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2041" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57103,7 +57109,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2042" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57129,7 +57135,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2043" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57155,7 +57161,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2044" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57181,7 +57187,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2045" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57207,7 +57213,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G2046" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57233,7 +57239,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2047" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57259,7 +57265,7 @@
         <v>8.25</v>
       </c>
       <c r="G2048" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57285,7 +57291,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2049" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57311,7 +57317,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2050" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57337,7 +57343,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2051" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57363,7 +57369,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2052" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57389,7 +57395,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2053" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57415,7 +57421,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57441,7 +57447,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2055" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57467,7 +57473,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2056" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57493,7 +57499,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2057" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57519,7 +57525,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2058" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57545,7 +57551,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57571,7 +57577,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2060" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57597,7 +57603,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57623,7 +57629,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2062" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57649,7 +57655,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2063" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57675,7 +57681,7 @@
         <v>8.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57701,7 +57707,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2065" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57727,7 +57733,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2066" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57753,7 +57759,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2067" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57779,7 +57785,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2068" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57805,7 +57811,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57831,7 +57837,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2070" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57857,7 +57863,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2071" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57883,7 +57889,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57909,7 +57915,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2073" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57935,7 +57941,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2074" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57961,7 +57967,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2075" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57987,7 +57993,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2076" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58013,7 +58019,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2077" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58039,7 +58045,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2078" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58065,7 +58071,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G2079" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58091,7 +58097,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2080" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58117,7 +58123,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G2081" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58143,7 +58149,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2082" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58169,7 +58175,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58195,7 +58201,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58221,7 +58227,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58247,7 +58253,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G2086" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58273,7 +58279,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2087" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58299,7 +58305,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2088" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58325,7 +58331,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2089" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58351,7 +58357,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2090" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58377,7 +58383,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2091" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58403,7 +58409,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2092" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58429,7 +58435,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2093" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58455,7 +58461,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2094" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58481,7 +58487,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2095" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58507,7 +58513,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2096" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58533,7 +58539,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2097" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58559,7 +58565,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2098" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58585,7 +58591,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G2099" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58611,7 +58617,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2100" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58637,7 +58643,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58663,7 +58669,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58689,7 +58695,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2103" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58715,7 +58721,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2104" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58741,7 +58747,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58767,7 +58773,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58793,7 +58799,7 @@
         <v>9.25</v>
       </c>
       <c r="G2107" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58819,7 +58825,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58845,7 +58851,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2109" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58871,7 +58877,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2110" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58897,7 +58903,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2111" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58923,7 +58929,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2112" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58949,7 +58955,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2113" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58975,7 +58981,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2114" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59001,7 +59007,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2115" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59027,7 +59033,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2116" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59053,7 +59059,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G2117" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59079,7 +59085,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2118" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59105,7 +59111,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G2119" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59131,7 +59137,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G2120" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59157,7 +59163,7 @@
         <v>10</v>
       </c>
       <c r="G2121" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59183,7 +59189,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2122" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59209,7 +59215,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G2123" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59235,7 +59241,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G2124" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59261,7 +59267,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59287,7 +59293,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G2126" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59313,7 +59319,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G2127" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59339,7 +59345,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2128" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59365,7 +59371,7 @@
         <v>9.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59391,7 +59397,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2130" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59417,7 +59423,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G2131" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59443,7 +59449,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G2132" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59469,7 +59475,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59495,7 +59501,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G2134" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59521,7 +59527,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59547,7 +59553,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2136" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59573,7 +59579,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2137" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59599,7 +59605,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2138" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59625,7 +59631,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2139" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59651,7 +59657,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2140" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59677,7 +59683,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2141" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59703,7 +59709,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G2142" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59729,7 +59735,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2143" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59755,7 +59761,7 @@
         <v>9.5</v>
       </c>
       <c r="G2144" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59781,7 +59787,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59807,7 +59813,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2146" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59833,7 +59839,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2147" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59859,7 +59865,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2148" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59885,7 +59891,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G2149" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59911,7 +59917,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2150" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59937,7 +59943,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G2151" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59963,7 +59969,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2152" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59989,7 +59995,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2153" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60015,7 +60021,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2154" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60041,7 +60047,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2155" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60049,7 +60055,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.649537037</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>106859</v>
@@ -60067,9 +60073,35 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2156" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6494560185</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>346208</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>9.28999996185303</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>9.10000038146973</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>9.35000038146973</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>9.27999973297119</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -47,13 +47,13 @@
     <t xml:space="preserve">5.00243234634399</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93192386627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75750684738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71297407150269</t>
+    <t xml:space="preserve">4.93192338943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75750637054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71297454833984</t>
   </si>
   <si>
     <t xml:space="preserve">4.76492834091187</t>
@@ -65,61 +65,61 @@
     <t xml:space="preserve">4.82430458068848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72039699554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67957496643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47547101974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51257991790771</t>
+    <t xml:space="preserve">4.72039651870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67957592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47547006607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51258039474487</t>
   </si>
   <si>
     <t xml:space="preserve">4.13405752182007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32703065872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45320415496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59051179885864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5608229637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4346489906311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55711269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55340194702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36042976379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20085573196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23796653747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2750768661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95592999458313</t>
+    <t xml:space="preserve">4.32703018188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45320463180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59051132202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56082344055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43464946746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55711221694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55340147018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36042928695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20085620880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23796558380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27507591247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95592904090881</t>
   </si>
   <si>
     <t xml:space="preserve">3.78893423080444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14519071578979</t>
+    <t xml:space="preserve">4.14519119262695</t>
   </si>
   <si>
     <t xml:space="preserve">3.98561763763428</t>
@@ -134,49 +134,49 @@
     <t xml:space="preserve">4.38269519805908</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49031400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.230544090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16745710372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31218576431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28620910644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11921453475952</t>
+    <t xml:space="preserve">4.49031448364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23054456710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16745662689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3121862411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28620862960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11921358108521</t>
   </si>
   <si>
     <t xml:space="preserve">4.19343423843384</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28992033004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37156200408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56453371047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63504362106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62391090393066</t>
+    <t xml:space="preserve">4.28991985321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37156248092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56453466415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63504314422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62390995025635</t>
   </si>
   <si>
     <t xml:space="preserve">4.57195615768433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66473054885864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.750084400177</t>
+    <t xml:space="preserve">4.6647310256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75008487701416</t>
   </si>
   <si>
     <t xml:space="preserve">4.81317138671875</t>
@@ -185,73 +185,73 @@
     <t xml:space="preserve">4.70184135437012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72781848907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58308887481689</t>
+    <t xml:space="preserve">4.72781801223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58308935165405</t>
   </si>
   <si>
     <t xml:space="preserve">4.77977228164673</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71668529510498</t>
+    <t xml:space="preserve">4.7166862487793</t>
   </si>
   <si>
     <t xml:space="preserve">4.60164403915405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52742433547974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47175979614258</t>
+    <t xml:space="preserve">4.52742481231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47175931930542</t>
   </si>
   <si>
     <t xml:space="preserve">4.46433687210083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34187412261963</t>
+    <t xml:space="preserve">4.34187364578247</t>
   </si>
   <si>
     <t xml:space="preserve">4.31960868835449</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21941041946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15261268615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10065889358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34558439254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22683238983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50886917114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59422254562378</t>
+    <t xml:space="preserve">4.21941137313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15261316299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10065937042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34558582305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22683334350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50886869430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59422206878662</t>
   </si>
   <si>
     <t xml:space="preserve">4.61648845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65359830856323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65730905532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73152923583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75379610061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80946111679077</t>
+    <t xml:space="preserve">4.65359783172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65730953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.731529712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7537956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80946016311646</t>
   </si>
   <si>
     <t xml:space="preserve">4.63875436782837</t>
@@ -260,19 +260,19 @@
     <t xml:space="preserve">4.5014476776123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51629066467285</t>
+    <t xml:space="preserve">4.51629114151001</t>
   </si>
   <si>
     <t xml:space="preserve">4.48660326004028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44578170776367</t>
+    <t xml:space="preserve">4.44578218460083</t>
   </si>
   <si>
     <t xml:space="preserve">4.34929609298706</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65813302993774</t>
+    <t xml:space="preserve">4.6581335067749</t>
   </si>
   <si>
     <t xml:space="preserve">4.57827949523926</t>
@@ -281,16 +281,16 @@
     <t xml:space="preserve">4.63912010192871</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69996166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67714595794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68094921112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96233797073364</t>
+    <t xml:space="preserve">4.69996118545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67714691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68094873428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9623384475708</t>
   </si>
   <si>
     <t xml:space="preserve">4.96994304656982</t>
@@ -317,19 +317,19 @@
     <t xml:space="preserve">4.73038196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89389181137085</t>
+    <t xml:space="preserve">4.89389228820801</t>
   </si>
   <si>
     <t xml:space="preserve">4.79502534866333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80643320083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69615888595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46040058135986</t>
+    <t xml:space="preserve">4.80643367767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69615840911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46040010452271</t>
   </si>
   <si>
     <t xml:space="preserve">4.32731151580811</t>
@@ -338,16 +338,16 @@
     <t xml:space="preserve">4.39955949783325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27407550811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57067441940308</t>
+    <t xml:space="preserve">4.27407503128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57067489624023</t>
   </si>
   <si>
     <t xml:space="preserve">4.79122352600098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84065532684326</t>
+    <t xml:space="preserve">4.84065675735474</t>
   </si>
   <si>
     <t xml:space="preserve">4.88628673553467</t>
@@ -356,25 +356,25 @@
     <t xml:space="preserve">5.00416612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13338088989258</t>
+    <t xml:space="preserve">4.13337993621826</t>
   </si>
   <si>
     <t xml:space="preserve">4.14478826522827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12197208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24365425109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0345139503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8938193321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78734731674194</t>
+    <t xml:space="preserve">4.12197256088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24365472793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03451347351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89381885528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78734803199768</t>
   </si>
   <si>
     <t xml:space="preserve">3.87480640411377</t>
@@ -386,16 +386,16 @@
     <t xml:space="preserve">4.14859056472778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2208399772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18281364440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3159031867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38054704666138</t>
+    <t xml:space="preserve">4.22083950042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18281316757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31590366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38054656982422</t>
   </si>
   <si>
     <t xml:space="preserve">4.36533641815186</t>
@@ -404,28 +404,28 @@
     <t xml:space="preserve">4.46420288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43378257751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35773086547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40716457366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3729419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19422101974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210088729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1980242729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07253932952881</t>
+    <t xml:space="preserve">4.43378305435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35773134231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40716505050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37294149398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19422149658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31209993362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19802379608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07253980636597</t>
   </si>
   <si>
     <t xml:space="preserve">4.08774995803833</t>
@@ -434,88 +434,88 @@
     <t xml:space="preserve">4.15999794006348</t>
   </si>
   <si>
-    <t xml:space="preserve">4.091552734375</t>
+    <t xml:space="preserve">4.09155225753784</t>
   </si>
   <si>
     <t xml:space="preserve">4.04972457885742</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05352687835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92423963546753</t>
+    <t xml:space="preserve">4.05352640151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92423915863037</t>
   </si>
   <si>
     <t xml:space="preserve">3.85199117660522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84438586235046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72650718688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7249858379364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86720132827759</t>
+    <t xml:space="preserve">3.84438610076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72650647163391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72498559951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86720180511475</t>
   </si>
   <si>
     <t xml:space="preserve">4.07634210586548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9280424118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396579742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84058332443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02690839767456</t>
+    <t xml:space="preserve">3.92804265022278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396532058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84058380126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02690935134888</t>
   </si>
   <si>
     <t xml:space="preserve">4.11056566238403</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09535503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17520809173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20562887191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99268555641174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99648809432983</t>
+    <t xml:space="preserve">4.09535551071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.175208568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20562934875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9926860332489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99648857116699</t>
   </si>
   <si>
     <t xml:space="preserve">3.95466017723083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93944954872131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85959601402283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85579442977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81016302108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01930332183838</t>
+    <t xml:space="preserve">3.93944978713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85959625244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85579371452332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81016325950623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01930379867554</t>
   </si>
   <si>
     <t xml:space="preserve">3.8633987903595</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74171757698059</t>
+    <t xml:space="preserve">3.74171733856201</t>
   </si>
   <si>
     <t xml:space="preserve">3.70977544784546</t>
@@ -524,139 +524,139 @@
     <t xml:space="preserve">3.72802758216858</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65806031227112</t>
+    <t xml:space="preserve">3.6580605506897</t>
   </si>
   <si>
     <t xml:space="preserve">3.67479205131531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70673370361328</t>
+    <t xml:space="preserve">3.7067334651947</t>
   </si>
   <si>
     <t xml:space="preserve">3.77365803718567</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88241124153137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84818887710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87860894203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8862144947052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83678102493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95085787773132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90522718429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03071212768555</t>
+    <t xml:space="preserve">3.88241147994995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84818816184998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8786084651947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88621401786804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83678078651428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95085740089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90522694587708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03071117401123</t>
   </si>
   <si>
     <t xml:space="preserve">4.06493425369263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97367262840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02310609817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01169919967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93564820289612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90142464637756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81776833534241</t>
+    <t xml:space="preserve">3.97367286682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02310657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01169872283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93564772605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90142488479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81776809692383</t>
   </si>
   <si>
     <t xml:space="preserve">3.76909518241882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78886842727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82157111167908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80255794525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89762187004089</t>
+    <t xml:space="preserve">3.78886890411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82157063484192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80255770683289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89762258529663</t>
   </si>
   <si>
     <t xml:space="preserve">4.01550149917603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06113195419312</t>
+    <t xml:space="preserve">4.06113147735596</t>
   </si>
   <si>
     <t xml:space="preserve">4.00789594650269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96226596832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91663479804993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93184518814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94325256347656</t>
+    <t xml:space="preserve">3.96226572990417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91663503646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93184471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94325232505798</t>
   </si>
   <si>
     <t xml:space="preserve">4.10676288604736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35392904281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42997980117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29308843612671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3881516456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23604917526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33871841430664</t>
+    <t xml:space="preserve">4.353928565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42997932434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29308748245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38815212249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23604965209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33871793746948</t>
   </si>
   <si>
     <t xml:space="preserve">4.40336227416992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47941303253174</t>
+    <t xml:space="preserve">4.4794135093689</t>
   </si>
   <si>
     <t xml:space="preserve">4.34252119064331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46800565719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48701858520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31970596313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30829811096191</t>
+    <t xml:space="preserve">4.46800518035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48701810836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31970548629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30829763412476</t>
   </si>
   <si>
     <t xml:space="preserve">4.48321580886841</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">4.50603151321411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45279455184937</t>
+    <t xml:space="preserve">4.45279550552368</t>
   </si>
   <si>
     <t xml:space="preserve">4.63531827926636</t>
@@ -677,40 +677,40 @@
     <t xml:space="preserve">4.65052795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74559259414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7265796661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69235610961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75319766998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55926704406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56306934356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6429238319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.536452293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5516619682312</t>
+    <t xml:space="preserve">4.74559164047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72657918930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69235706329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75319671630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55926656723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56307029724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64292335510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53645181655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55166149139404</t>
   </si>
   <si>
     <t xml:space="preserve">4.61630535125732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68475103378296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58208274841309</t>
+    <t xml:space="preserve">4.68475151062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58208227157593</t>
   </si>
   <si>
     <t xml:space="preserve">4.59729242324829</t>
@@ -719,37 +719,37 @@
     <t xml:space="preserve">4.47180795669556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57447719573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58588552474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58968782424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62010717391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59348964691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65433025360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77601289749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82164335250854</t>
+    <t xml:space="preserve">4.57447671890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5858850479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58968687057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62010765075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59349012374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65433073043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77601337432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8216438293457</t>
   </si>
   <si>
     <t xml:space="preserve">4.89769458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90530014038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84445905685425</t>
+    <t xml:space="preserve">4.9052996635437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84445810317993</t>
   </si>
   <si>
     <t xml:space="preserve">4.94332551956177</t>
@@ -758,13 +758,13 @@
     <t xml:space="preserve">4.88248443603516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8330512046814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87487936019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79882860183716</t>
+    <t xml:space="preserve">4.83305168151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87487888336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79882764816284</t>
   </si>
   <si>
     <t xml:space="preserve">4.76080274581909</t>
@@ -776,10 +776,10 @@
     <t xml:space="preserve">4.81023550033569</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73418426513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00036382675171</t>
+    <t xml:space="preserve">4.73418474197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00036334991455</t>
   </si>
   <si>
     <t xml:space="preserve">4.86727428436279</t>
@@ -788,25 +788,25 @@
     <t xml:space="preserve">4.95853567123413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98135089874268</t>
+    <t xml:space="preserve">4.98135137557983</t>
   </si>
   <si>
     <t xml:space="preserve">5.0117712020874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01937627792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91290473937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.160071849823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1911792755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30394697189331</t>
+    <t xml:space="preserve">5.0193772315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91290521621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16007089614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19117975234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30394649505615</t>
   </si>
   <si>
     <t xml:space="preserve">5.21062183380127</t>
@@ -824,25 +824,25 @@
     <t xml:space="preserve">5.38949394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28450393676758</t>
+    <t xml:space="preserve">5.28450441360474</t>
   </si>
   <si>
     <t xml:space="preserve">5.21451044082642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17562532424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22617626190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24950695037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31950044631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31561231613159</t>
+    <t xml:space="preserve">5.17562580108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2261757850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24950742721558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31950092315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31561183929443</t>
   </si>
   <si>
     <t xml:space="preserve">5.44393348693848</t>
@@ -851,34 +851,34 @@
     <t xml:space="preserve">5.45559883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3856053352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31172323226929</t>
+    <t xml:space="preserve">5.38560581207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31172370910645</t>
   </si>
   <si>
     <t xml:space="preserve">5.3078351020813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28839254379272</t>
+    <t xml:space="preserve">5.28839206695557</t>
   </si>
   <si>
     <t xml:space="preserve">5.47892999649048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37393999099731</t>
+    <t xml:space="preserve">5.37394046783447</t>
   </si>
   <si>
     <t xml:space="preserve">5.40504789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40893650054932</t>
+    <t xml:space="preserve">5.40893602371216</t>
   </si>
   <si>
     <t xml:space="preserve">5.42837953567505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49448394775391</t>
+    <t xml:space="preserve">5.49448442459106</t>
   </si>
   <si>
     <t xml:space="preserve">5.49837303161621</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">5.46337652206421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64613723754883</t>
+    <t xml:space="preserve">5.64613676071167</t>
   </si>
   <si>
     <t xml:space="preserve">5.80945444107056</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">5.59169721603394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61891651153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63835954666138</t>
+    <t xml:space="preserve">5.61891746520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63835906982422</t>
   </si>
   <si>
     <t xml:space="preserve">5.63058233261108</t>
@@ -911,16 +911,16 @@
     <t xml:space="preserve">5.62280559539795</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54503536224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57614326477051</t>
+    <t xml:space="preserve">5.54503488540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57614374160767</t>
   </si>
   <si>
     <t xml:space="preserve">5.48670673370361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4244909286499</t>
+    <t xml:space="preserve">5.42449045181274</t>
   </si>
   <si>
     <t xml:space="preserve">5.53336954116821</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">5.63447093963623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59947443008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66946840286255</t>
+    <t xml:space="preserve">5.59947395324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66946792602539</t>
   </si>
   <si>
     <t xml:space="preserve">5.56836605072021</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">5.6616907119751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75501537322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92611074447632</t>
+    <t xml:space="preserve">5.75501585006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.926109790802</t>
   </si>
   <si>
     <t xml:space="preserve">5.75890398025513</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">5.77834606170654</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69279861450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74723815917969</t>
+    <t xml:space="preserve">5.69279956817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74723768234253</t>
   </si>
   <si>
     <t xml:space="preserve">5.65002536773682</t>
@@ -977,10 +977,10 @@
     <t xml:space="preserve">5.52948093414307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52170419692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53725719451904</t>
+    <t xml:space="preserve">5.52170372009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5372576713562</t>
   </si>
   <si>
     <t xml:space="preserve">5.57225465774536</t>
@@ -989,52 +989,52 @@
     <t xml:space="preserve">5.59558582305908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69668769836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90277910232544</t>
+    <t xml:space="preserve">5.6966872215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9027795791626</t>
   </si>
   <si>
     <t xml:space="preserve">5.85611724853516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83278608322144</t>
+    <t xml:space="preserve">5.83278512954712</t>
   </si>
   <si>
     <t xml:space="preserve">5.86389398574829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80167722702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84833955764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84445190429688</t>
+    <t xml:space="preserve">5.80167770385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84834051132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84445095062256</t>
   </si>
   <si>
     <t xml:space="preserve">5.89500188827515</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90666723251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92999839782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91444492340088</t>
+    <t xml:space="preserve">5.90666770935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92999887466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91444444656372</t>
   </si>
   <si>
     <t xml:space="preserve">5.94944143295288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96499538421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81723213195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86778259277344</t>
+    <t xml:space="preserve">5.96499633789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81723165512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86778211593628</t>
   </si>
   <si>
     <t xml:space="preserve">5.88333654403687</t>
@@ -1043,19 +1043,19 @@
     <t xml:space="preserve">5.83667421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78223466873169</t>
+    <t xml:space="preserve">5.78223514556885</t>
   </si>
   <si>
     <t xml:space="preserve">5.76279211044312</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68113327026367</t>
+    <t xml:space="preserve">5.68113279342651</t>
   </si>
   <si>
     <t xml:space="preserve">5.70835304260254</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87167167663574</t>
+    <t xml:space="preserve">5.87167119979858</t>
   </si>
   <si>
     <t xml:space="preserve">5.85222864151001</t>
@@ -1073,22 +1073,22 @@
     <t xml:space="preserve">5.50614976882935</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45948696136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3778281211853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44004440307617</t>
+    <t xml:space="preserve">5.4594874382019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37782859802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44004487991333</t>
   </si>
   <si>
     <t xml:space="preserve">5.50226068496704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56058931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58391952514648</t>
+    <t xml:space="preserve">5.56058883666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58392000198364</t>
   </si>
   <si>
     <t xml:space="preserve">5.72779560089111</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">5.71612977981567</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76668071746826</t>
+    <t xml:space="preserve">5.76668119430542</t>
   </si>
   <si>
     <t xml:space="preserve">5.72001838684082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77445840835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84056234359741</t>
+    <t xml:space="preserve">5.77445793151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84056282043457</t>
   </si>
   <si>
     <t xml:space="preserve">5.5489239692688</t>
@@ -1115,19 +1115,19 @@
     <t xml:space="preserve">5.52559232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55670022964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58780908584595</t>
+    <t xml:space="preserve">5.55670070648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58780860900879</t>
   </si>
   <si>
     <t xml:space="preserve">5.43615627288818</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51392650604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93388748168945</t>
+    <t xml:space="preserve">5.51392698287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93388795852661</t>
   </si>
   <si>
     <t xml:space="preserve">6.05054330825806</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">6.05832004547119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01165723800659</t>
+    <t xml:space="preserve">6.01165819168091</t>
   </si>
   <si>
     <t xml:space="preserve">6.00388050079346</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">6.08942842483521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04276657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97277307510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94166469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7316837310791</t>
+    <t xml:space="preserve">6.04276609420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9727725982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94166421890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73168420791626</t>
   </si>
   <si>
     <t xml:space="preserve">5.67724514007568</t>
@@ -1169,13 +1169,13 @@
     <t xml:space="preserve">5.68502187728882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73946094512939</t>
+    <t xml:space="preserve">5.73946189880371</t>
   </si>
   <si>
     <t xml:space="preserve">5.79390048980713</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77056932449341</t>
+    <t xml:space="preserve">5.77056980133057</t>
   </si>
   <si>
     <t xml:space="preserve">5.78612375259399</t>
@@ -1184,22 +1184,22 @@
     <t xml:space="preserve">5.70057582855225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6539134979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49059581756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76564884185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68568086624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50175619125366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46177196502686</t>
+    <t xml:space="preserve">5.65391302108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49059629440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76564788818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68568134307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5017557144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46177244186401</t>
   </si>
   <si>
     <t xml:space="preserve">5.31783103942871</t>
@@ -1208,28 +1208,28 @@
     <t xml:space="preserve">5.34981822967529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36581134796143</t>
+    <t xml:space="preserve">5.36581182479858</t>
   </si>
   <si>
     <t xml:space="preserve">5.32582759857178</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30983400344849</t>
+    <t xml:space="preserve">5.30983448028564</t>
   </si>
   <si>
     <t xml:space="preserve">5.03794574737549</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93398761749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65410232543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91799402236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83002948760986</t>
+    <t xml:space="preserve">4.93398809432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65410184860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91799449920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83003044128418</t>
   </si>
   <si>
     <t xml:space="preserve">4.99796152114868</t>
@@ -1241,28 +1241,28 @@
     <t xml:space="preserve">4.79804372787476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74206590652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8540210723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92599058151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90200138092041</t>
+    <t xml:space="preserve">4.7420654296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85402059555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92599105834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90200090408325</t>
   </si>
   <si>
     <t xml:space="preserve">5.00595855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09392261505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13390588760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18188714981079</t>
+    <t xml:space="preserve">5.09392213821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13390636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18188667297363</t>
   </si>
   <si>
     <t xml:space="preserve">5.05393886566162</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">5.02195167541504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06993198394775</t>
+    <t xml:space="preserve">5.06993246078491</t>
   </si>
   <si>
     <t xml:space="preserve">5.0859260559082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17388963699341</t>
+    <t xml:space="preserve">5.17389011383057</t>
   </si>
   <si>
     <t xml:space="preserve">5.18988275527954</t>
@@ -1292,16 +1292,16 @@
     <t xml:space="preserve">5.1099157333374</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11791229248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10191965103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04594230651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90999746322632</t>
+    <t xml:space="preserve">5.11791276931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10191917419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0459418296814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90999698638916</t>
   </si>
   <si>
     <t xml:space="preserve">4.89400386810303</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">4.94198417663574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98996496200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98196792602539</t>
+    <t xml:space="preserve">4.98996448516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98196744918823</t>
   </si>
   <si>
     <t xml:space="preserve">4.61411809921265</t>
@@ -1328,22 +1328,22 @@
     <t xml:space="preserve">4.4701771736145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44618606567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45418310165405</t>
+    <t xml:space="preserve">4.44618701934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45418357849121</t>
   </si>
   <si>
     <t xml:space="preserve">4.47817373275757</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49416732788086</t>
+    <t xml:space="preserve">4.4941668510437</t>
   </si>
   <si>
     <t xml:space="preserve">4.39020919799805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42219686508179</t>
+    <t xml:space="preserve">4.42219638824463</t>
   </si>
   <si>
     <t xml:space="preserve">4.25426483154297</t>
@@ -1352,31 +1352,31 @@
     <t xml:space="preserve">4.27825498580933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34222841262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33423185348511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54214763641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67009544372559</t>
+    <t xml:space="preserve">4.34222936630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33423233032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54214715957642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67009496688843</t>
   </si>
   <si>
     <t xml:space="preserve">4.64610481262207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66209888458252</t>
+    <t xml:space="preserve">4.66209840774536</t>
   </si>
   <si>
     <t xml:space="preserve">4.67809200286865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70208263397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72607231140137</t>
+    <t xml:space="preserve">4.70208215713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72607278823853</t>
   </si>
   <si>
     <t xml:space="preserve">4.75006294250488</t>
@@ -1388,19 +1388,19 @@
     <t xml:space="preserve">4.81403636932373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71007871627808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52615404129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48617029190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55814075469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31823921203613</t>
+    <t xml:space="preserve">4.71007919311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52615356445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48617076873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55814123153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31823873519897</t>
   </si>
   <si>
     <t xml:space="preserve">4.2462682723999</t>
@@ -1409,37 +1409,37 @@
     <t xml:space="preserve">4.1822943687439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28625202178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35822248458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2062840461731</t>
+    <t xml:space="preserve">4.28625154495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35822200775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20628499984741</t>
   </si>
   <si>
     <t xml:space="preserve">4.11032390594482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07033967971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95438718795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81844258308411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92239999771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21428108215332</t>
+    <t xml:space="preserve">4.07034015655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95438694953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81844282150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92240023612976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21428155899048</t>
   </si>
   <si>
     <t xml:space="preserve">4.15830373764038</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23027467727661</t>
+    <t xml:space="preserve">4.23027515411377</t>
   </si>
   <si>
     <t xml:space="preserve">4.23827171325684</t>
@@ -1463,28 +1463,28 @@
     <t xml:space="preserve">4.01436281204224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05434656143188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99836945533752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0223593711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16630125045776</t>
+    <t xml:space="preserve">4.05434608459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99836921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02235984802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16630077362061</t>
   </si>
   <si>
     <t xml:space="preserve">4.19828748703003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04635000228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11831998825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27025890350342</t>
+    <t xml:space="preserve">4.0463490486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11832046508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27025842666626</t>
   </si>
   <si>
     <t xml:space="preserve">3.98237586021423</t>
@@ -1493,52 +1493,52 @@
     <t xml:space="preserve">3.96238398551941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95038866996765</t>
+    <t xml:space="preserve">3.95038843154907</t>
   </si>
   <si>
     <t xml:space="preserve">3.91440367698669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03835296630859</t>
+    <t xml:space="preserve">4.03835344314575</t>
   </si>
   <si>
     <t xml:space="preserve">4.22227811813354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1023268699646</t>
+    <t xml:space="preserve">4.10232734680176</t>
   </si>
   <si>
     <t xml:space="preserve">4.08633327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07833671569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00636577606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03035640716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89441132545471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97837710380554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91840219497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87042140960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98637437820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19029092788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29424858093262</t>
+    <t xml:space="preserve">4.07833623886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00636625289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03035593032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89441204071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97837781906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91840171813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87042212486267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98637461662292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1902904510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29424810409546</t>
   </si>
   <si>
     <t xml:space="preserve">3.93839406967163</t>
@@ -1550,19 +1550,19 @@
     <t xml:space="preserve">4.17429733276367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9583854675293</t>
+    <t xml:space="preserve">3.95838499069214</t>
   </si>
   <si>
     <t xml:space="preserve">3.910404920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.846431016922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86242508888245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81444406509399</t>
+    <t xml:space="preserve">3.84643125534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86242461204529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81444430351257</t>
   </si>
   <si>
     <t xml:space="preserve">3.77845883369446</t>
@@ -1574,10 +1574,10 @@
     <t xml:space="preserve">3.79515957832336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77010869979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68243169784546</t>
+    <t xml:space="preserve">3.77010893821716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68243193626404</t>
   </si>
   <si>
     <t xml:space="preserve">3.69913244247437</t>
@@ -1592,37 +1592,37 @@
     <t xml:space="preserve">3.71583247184753</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73670816421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65738153457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67408180236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63650584220886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59475517272949</t>
+    <t xml:space="preserve">3.73670792579651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65738129615784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67408156394958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63650560379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59475493431091</t>
   </si>
   <si>
     <t xml:space="preserve">3.66155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68660736083984</t>
+    <t xml:space="preserve">3.68660712242126</t>
   </si>
   <si>
     <t xml:space="preserve">3.61980557441711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62398052215576</t>
+    <t xml:space="preserve">3.62398076057434</t>
   </si>
   <si>
     <t xml:space="preserve">3.57387971878052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54047846794128</t>
+    <t xml:space="preserve">3.54047822952271</t>
   </si>
   <si>
     <t xml:space="preserve">3.55300378799438</t>
@@ -1631,22 +1631,22 @@
     <t xml:space="preserve">3.56970453262329</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54882884025574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58222961425781</t>
+    <t xml:space="preserve">3.54882860183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58222937583923</t>
   </si>
   <si>
     <t xml:space="preserve">3.51542830467224</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46532702445984</t>
+    <t xml:space="preserve">3.46532726287842</t>
   </si>
   <si>
     <t xml:space="preserve">3.48202753067017</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52377843856812</t>
+    <t xml:space="preserve">3.52377820014954</t>
   </si>
   <si>
     <t xml:space="preserve">3.53630375862122</t>
@@ -1655,52 +1655,52 @@
     <t xml:space="preserve">3.59057974815369</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74923324584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97468829154968</t>
+    <t xml:space="preserve">3.74923300743103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97468852996826</t>
   </si>
   <si>
     <t xml:space="preserve">4.04149055480957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92876219749451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92458701133728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94128751754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94963812828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98303890228271</t>
+    <t xml:space="preserve">3.92876195907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92458724975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94128775596619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94963788986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98303866386414</t>
   </si>
   <si>
     <t xml:space="preserve">3.90371227264404</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84108543395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96633815765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95798778533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94546246528625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89536166191101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87031149864197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79933452606201</t>
+    <t xml:space="preserve">3.84108519554138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96633791923523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95798802375793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94546270370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89536190032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87031126022339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79933428764343</t>
   </si>
   <si>
     <t xml:space="preserve">3.78680896759033</t>
@@ -1709,31 +1709,31 @@
     <t xml:space="preserve">3.77845931053162</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7575831413269</t>
+    <t xml:space="preserve">3.75758361816406</t>
   </si>
   <si>
     <t xml:space="preserve">3.72000741958618</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76593375205994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69078207015991</t>
+    <t xml:space="preserve">3.76593351364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69078230857849</t>
   </si>
   <si>
     <t xml:space="preserve">3.78263425827026</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88283634185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86613607406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92041230201721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02061414718628</t>
+    <t xml:space="preserve">3.88283610343933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86613583564758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92041254043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02061462402344</t>
   </si>
   <si>
     <t xml:space="preserve">4.03731489181519</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">4.05819034576416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12081718444824</t>
+    <t xml:space="preserve">4.12081670761108</t>
   </si>
   <si>
     <t xml:space="preserve">4.18344306945801</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">4.13751697540283</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16256761550903</t>
+    <t xml:space="preserve">4.16256809234619</t>
   </si>
   <si>
     <t xml:space="preserve">4.24189424514771</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">4.07906579971313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09159135818481</t>
+    <t xml:space="preserve">4.09159088134766</t>
   </si>
   <si>
     <t xml:space="preserve">4.17509269714355</t>
@@ -1787,13 +1787,13 @@
     <t xml:space="preserve">4.07489061355591</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04983949661255</t>
+    <t xml:space="preserve">4.04983997344971</t>
   </si>
   <si>
     <t xml:space="preserve">4.0832405090332</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05401468276978</t>
+    <t xml:space="preserve">4.05401515960693</t>
   </si>
   <si>
     <t xml:space="preserve">4.12499141693115</t>
@@ -1802,19 +1802,19 @@
     <t xml:space="preserve">4.21684408187866</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25024509429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30869579315186</t>
+    <t xml:space="preserve">4.25024461746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3086953163147</t>
   </si>
   <si>
     <t xml:space="preserve">4.40054798126221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37549734115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36714696884155</t>
+    <t xml:space="preserve">4.37549686431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36714744567871</t>
   </si>
   <si>
     <t xml:space="preserve">4.34209632873535</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">4.40889835357666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32539653778076</t>
+    <t xml:space="preserve">4.3253960609436</t>
   </si>
   <si>
     <t xml:space="preserve">4.44229888916016</t>
@@ -1850,31 +1850,31 @@
     <t xml:space="preserve">4.47569942474365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45064926147461</t>
+    <t xml:space="preserve">4.45064878463745</t>
   </si>
   <si>
     <t xml:space="preserve">4.42559862136841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46734952926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55085134506226</t>
+    <t xml:space="preserve">4.4673490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5508508682251</t>
   </si>
   <si>
     <t xml:space="preserve">4.4339485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38384771347046</t>
+    <t xml:space="preserve">4.3838472366333</t>
   </si>
   <si>
     <t xml:space="preserve">4.3504467010498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39219760894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31704568862915</t>
+    <t xml:space="preserve">4.39219808578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31704616546631</t>
   </si>
   <si>
     <t xml:space="preserve">4.30034589767456</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">4.29199552536011</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28364515304565</t>
+    <t xml:space="preserve">4.28364562988281</t>
   </si>
   <si>
     <t xml:space="preserve">4.25859403610229</t>
@@ -1892,34 +1892,34 @@
     <t xml:space="preserve">4.20014381408691</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97051310539246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97886395454407</t>
+    <t xml:space="preserve">3.97051334381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97886323928833</t>
   </si>
   <si>
     <t xml:space="preserve">4.03313970565796</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10829162597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41724824905396</t>
+    <t xml:space="preserve">4.1082911491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41724872589111</t>
   </si>
   <si>
     <t xml:space="preserve">4.11246681213379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01226425170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82856011390686</t>
+    <t xml:space="preserve">4.01226377487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82856035232544</t>
   </si>
   <si>
     <t xml:space="preserve">3.80768465995789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62815523147583</t>
+    <t xml:space="preserve">3.62815546989441</t>
   </si>
   <si>
     <t xml:space="preserve">3.43610143661499</t>
@@ -1931,49 +1931,49 @@
     <t xml:space="preserve">3.13549470901489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13131952285767</t>
+    <t xml:space="preserve">3.13131976127625</t>
   </si>
   <si>
     <t xml:space="preserve">3.26909780502319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9935417175293</t>
+    <t xml:space="preserve">2.99354147911072</t>
   </si>
   <si>
     <t xml:space="preserve">3.23987197875977</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31919860839844</t>
+    <t xml:space="preserve">3.31919884681702</t>
   </si>
   <si>
     <t xml:space="preserve">3.28579807281494</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25239729881287</t>
+    <t xml:space="preserve">3.25239753723145</t>
   </si>
   <si>
     <t xml:space="preserve">3.21482133865356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27327275276184</t>
+    <t xml:space="preserve">3.27327299118042</t>
   </si>
   <si>
     <t xml:space="preserve">3.15219521522522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19812083244324</t>
+    <t xml:space="preserve">3.19812107086182</t>
   </si>
   <si>
     <t xml:space="preserve">3.18977093696594</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22734665870667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15637016296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20647144317627</t>
+    <t xml:space="preserve">3.22734689712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15636992454529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20647120475769</t>
   </si>
   <si>
     <t xml:space="preserve">3.12296938896179</t>
@@ -1982,25 +1982,25 @@
     <t xml:space="preserve">3.19394612312317</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31084871292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26074743270874</t>
+    <t xml:space="preserve">3.31084895133972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26074767112732</t>
   </si>
   <si>
     <t xml:space="preserve">3.28997325897217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30667352676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37347507476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35259962081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34424948692322</t>
+    <t xml:space="preserve">3.30667328834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37347531318665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35259938240051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34424924850464</t>
   </si>
   <si>
     <t xml:space="preserve">3.44862699508667</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">3.42357611656189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49872779846191</t>
+    <t xml:space="preserve">3.49872803688049</t>
   </si>
   <si>
     <t xml:space="preserve">3.47367715835571</t>
@@ -2021,25 +2021,25 @@
     <t xml:space="preserve">3.52795338630676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55717945098877</t>
+    <t xml:space="preserve">3.55717921257019</t>
   </si>
   <si>
     <t xml:space="preserve">3.61145520210266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66990661621094</t>
+    <t xml:space="preserve">3.66990637779236</t>
   </si>
   <si>
     <t xml:space="preserve">3.49037742614746</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39435076713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39017510414124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43192648887634</t>
+    <t xml:space="preserve">3.39435052871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39017534255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43192625045776</t>
   </si>
   <si>
     <t xml:space="preserve">3.49455261230469</t>
@@ -2054,19 +2054,19 @@
     <t xml:space="preserve">3.76175880432129</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87866139411926</t>
+    <t xml:space="preserve">3.87866115570068</t>
   </si>
   <si>
     <t xml:space="preserve">3.85361051559448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82020974159241</t>
+    <t xml:space="preserve">3.82020998001099</t>
   </si>
   <si>
     <t xml:space="preserve">3.64068126678467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69495725631714</t>
+    <t xml:space="preserve">3.69495749473572</t>
   </si>
   <si>
     <t xml:space="preserve">3.64485597610474</t>
@@ -2081,25 +2081,25 @@
     <t xml:space="preserve">3.60310530662537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73253297805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72835803031921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60728049278259</t>
+    <t xml:space="preserve">3.73253273963928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72835826873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60728025436401</t>
   </si>
   <si>
     <t xml:space="preserve">3.75340819358826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84526038169861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74505805969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66573095321655</t>
+    <t xml:space="preserve">3.84526062011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74505853652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66573143005371</t>
   </si>
   <si>
     <t xml:space="preserve">3.59893012046814</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">3.50707769393921</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46950244903564</t>
+    <t xml:space="preserve">3.46950221061707</t>
   </si>
   <si>
     <t xml:space="preserve">3.51125335693359</t>
@@ -2138,10 +2138,10 @@
     <t xml:space="preserve">3.24822235107422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26492238044739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23152184486389</t>
+    <t xml:space="preserve">3.26492261886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23152160644531</t>
   </si>
   <si>
     <t xml:space="preserve">3.18559575080872</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">3.06034302711487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03946757316589</t>
+    <t xml:space="preserve">3.03946781158447</t>
   </si>
   <si>
     <t xml:space="preserve">3.00189185142517</t>
@@ -2168,25 +2168,25 @@
     <t xml:space="preserve">2.96014070510864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82236266136169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70546007156372</t>
+    <t xml:space="preserve">2.82236289978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7054603099823</t>
   </si>
   <si>
     <t xml:space="preserve">2.81818771362305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88916420936584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9810163974762</t>
+    <t xml:space="preserve">2.88916444778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98101615905762</t>
   </si>
   <si>
     <t xml:space="preserve">3.30249834060669</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90788698196411</t>
+    <t xml:space="preserve">3.90788722038269</t>
   </si>
   <si>
     <t xml:space="preserve">4.00808906555176</t>
@@ -2195,37 +2195,37 @@
     <t xml:space="preserve">4.01643943786621</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95381331443787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93711280822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87448620796204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84943556785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89118623733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77428388595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45280170440674</t>
+    <t xml:space="preserve">3.95381307601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93711304664612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87448596954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84943532943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89118599891663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77428412437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45280194282532</t>
   </si>
   <si>
     <t xml:space="preserve">4.20849323272705</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15421724319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02478933334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07071542739868</t>
+    <t xml:space="preserve">4.15421772003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02478981018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07071590423584</t>
   </si>
   <si>
     <t xml:space="preserve">4.14169216156006</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">4.19179344177246</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15004205703735</t>
+    <t xml:space="preserve">4.15004253387451</t>
   </si>
   <si>
     <t xml:space="preserve">4.17091798782349</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">4.54250144958496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60930204391479</t>
+    <t xml:space="preserve">4.60930252075195</t>
   </si>
   <si>
     <t xml:space="preserve">4.76525640487671</t>
@@ -60081,7 +60081,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6494560185</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>346208</v>
@@ -60093,7 +60093,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="E2157" t="n">
-        <v>9.35000038146973</v>
+        <v>9.10000038146973</v>
       </c>
       <c r="F2157" t="n">
         <v>9.27999973297119</v>
@@ -60102,6 +60102,32 @@
         <v>1223</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6496412037</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>192433</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>9.61999988555908</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>9.30000019073486</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>9.10000038146973</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>9.60000038146973</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1225">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9616117477417</t>
+    <t xml:space="preserve">4.96161222457886</t>
   </si>
   <si>
     <t xml:space="preserve">CE.MI</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">4.93192338943481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75750637054443</t>
+    <t xml:space="preserve">4.75750589370728</t>
   </si>
   <si>
     <t xml:space="preserve">4.71297454833984</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.76492834091187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7723503112793</t>
+    <t xml:space="preserve">4.77235078811646</t>
   </si>
   <si>
     <t xml:space="preserve">4.82430458068848</t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">4.72039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67957592010498</t>
+    <t xml:space="preserve">4.67957544326782</t>
   </si>
   <si>
     <t xml:space="preserve">4.47547006607056</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51258039474487</t>
+    <t xml:space="preserve">4.51257991790771</t>
   </si>
   <si>
     <t xml:space="preserve">4.13405752182007</t>
@@ -86,49 +86,49 @@
     <t xml:space="preserve">4.45320463180542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59051132202148</t>
+    <t xml:space="preserve">4.59051179885864</t>
   </si>
   <si>
     <t xml:space="preserve">4.56082344055176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43464946746826</t>
+    <t xml:space="preserve">4.4346489906311</t>
   </si>
   <si>
     <t xml:space="preserve">4.55711221694946</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55340147018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36042928695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20085620880127</t>
+    <t xml:space="preserve">4.55340194702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36042881011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20085573196411</t>
   </si>
   <si>
     <t xml:space="preserve">4.23796558380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27507591247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95592904090881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78893423080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14519119262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98561763763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25280952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31589698791504</t>
+    <t xml:space="preserve">4.27507638931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95592999458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78893446922302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14519071578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9856173992157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25281047821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31589651107788</t>
   </si>
   <si>
     <t xml:space="preserve">4.38269519805908</t>
@@ -137,37 +137,37 @@
     <t xml:space="preserve">4.49031448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23054456710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16745662689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3121862411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28620862960815</t>
+    <t xml:space="preserve">4.23054361343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16745710372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31218576431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28620958328247</t>
   </si>
   <si>
     <t xml:space="preserve">4.11921358108521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19343423843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28991985321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37156248092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56453466415405</t>
+    <t xml:space="preserve">4.193434715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28992033004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37156200408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56453418731689</t>
   </si>
   <si>
     <t xml:space="preserve">4.63504314422607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62390995025635</t>
+    <t xml:space="preserve">4.62391042709351</t>
   </si>
   <si>
     <t xml:space="preserve">4.57195615768433</t>
@@ -179,34 +179,34 @@
     <t xml:space="preserve">4.75008487701416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81317138671875</t>
+    <t xml:space="preserve">4.81317186355591</t>
   </si>
   <si>
     <t xml:space="preserve">4.70184135437012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72781801223755</t>
+    <t xml:space="preserve">4.72781848907471</t>
   </si>
   <si>
     <t xml:space="preserve">4.58308935165405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77977228164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7166862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60164403915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52742481231689</t>
+    <t xml:space="preserve">4.77977275848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71668529510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60164451599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52742433547974</t>
   </si>
   <si>
     <t xml:space="preserve">4.47175931930542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46433687210083</t>
+    <t xml:space="preserve">4.46433734893799</t>
   </si>
   <si>
     <t xml:space="preserve">4.34187364578247</t>
@@ -215,31 +215,31 @@
     <t xml:space="preserve">4.31960868835449</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21941137313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15261316299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10065937042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34558582305908</t>
+    <t xml:space="preserve">4.21941089630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15261268615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10065841674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34558534622192</t>
   </si>
   <si>
     <t xml:space="preserve">4.22683334350586</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50886869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59422206878662</t>
+    <t xml:space="preserve">4.50886964797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59422254562378</t>
   </si>
   <si>
     <t xml:space="preserve">4.61648845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65359783172607</t>
+    <t xml:space="preserve">4.65359830856323</t>
   </si>
   <si>
     <t xml:space="preserve">4.65730953216553</t>
@@ -251,28 +251,28 @@
     <t xml:space="preserve">4.7537956237793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80946016311646</t>
+    <t xml:space="preserve">4.80946063995361</t>
   </si>
   <si>
     <t xml:space="preserve">4.63875436782837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5014476776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51629114151001</t>
+    <t xml:space="preserve">4.50144672393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51629161834717</t>
   </si>
   <si>
     <t xml:space="preserve">4.48660326004028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44578218460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34929609298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6581335067749</t>
+    <t xml:space="preserve">4.44578170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34929656982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65813398361206</t>
   </si>
   <si>
     <t xml:space="preserve">4.57827949523926</t>
@@ -284,28 +284,28 @@
     <t xml:space="preserve">4.69996118545532</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67714691162109</t>
+    <t xml:space="preserve">4.67714595794678</t>
   </si>
   <si>
     <t xml:space="preserve">4.68094873428345</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9623384475708</t>
+    <t xml:space="preserve">4.96233797073364</t>
   </si>
   <si>
     <t xml:space="preserve">4.96994304656982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9395227432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92431259155273</t>
+    <t xml:space="preserve">4.93952322006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92431211471558</t>
   </si>
   <si>
     <t xml:space="preserve">4.93191766738892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83685398101807</t>
+    <t xml:space="preserve">4.83685350418091</t>
   </si>
   <si>
     <t xml:space="preserve">4.77221012115479</t>
@@ -320,19 +320,19 @@
     <t xml:space="preserve">4.89389228820801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79502534866333</t>
+    <t xml:space="preserve">4.79502582550049</t>
   </si>
   <si>
     <t xml:space="preserve">4.80643367767334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69615840911865</t>
+    <t xml:space="preserve">4.69615936279297</t>
   </si>
   <si>
     <t xml:space="preserve">4.46040010452271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32731151580811</t>
+    <t xml:space="preserve">4.32731103897095</t>
   </si>
   <si>
     <t xml:space="preserve">4.39955949783325</t>
@@ -344,16 +344,16 @@
     <t xml:space="preserve">4.57067489624023</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79122352600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84065675735474</t>
+    <t xml:space="preserve">4.79122304916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84065628051758</t>
   </si>
   <si>
     <t xml:space="preserve">4.88628673553467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00416612625122</t>
+    <t xml:space="preserve">5.00416660308838</t>
   </si>
   <si>
     <t xml:space="preserve">4.13337993621826</t>
@@ -362,22 +362,22 @@
     <t xml:space="preserve">4.14478826522827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12197256088257</t>
+    <t xml:space="preserve">4.12197303771973</t>
   </si>
   <si>
     <t xml:space="preserve">4.24365472793579</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03451347351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89381885528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78734803199768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87480640411377</t>
+    <t xml:space="preserve">4.0345139503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8938193321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78734827041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480664253235</t>
   </si>
   <si>
     <t xml:space="preserve">4.04211902618408</t>
@@ -386,31 +386,31 @@
     <t xml:space="preserve">4.14859056472778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22083950042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18281316757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31590366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38054656982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36533641815186</t>
+    <t xml:space="preserve">4.22083902359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18281364440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3159031867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38054704666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36533689498901</t>
   </si>
   <si>
     <t xml:space="preserve">4.46420288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43378305435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35773134231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40716505050659</t>
+    <t xml:space="preserve">4.43378257751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35773181915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40716457366943</t>
   </si>
   <si>
     <t xml:space="preserve">4.37294149398804</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">4.19422149658203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31209993362427</t>
+    <t xml:space="preserve">4.31210088729858</t>
   </si>
   <si>
     <t xml:space="preserve">4.19802379608154</t>
@@ -440,22 +440,22 @@
     <t xml:space="preserve">4.04972457885742</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05352640151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92423915863037</t>
+    <t xml:space="preserve">4.05352687835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92423987388611</t>
   </si>
   <si>
     <t xml:space="preserve">3.85199117660522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84438610076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72650647163391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72498559951782</t>
+    <t xml:space="preserve">3.84438633918762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72650671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7249858379364</t>
   </si>
   <si>
     <t xml:space="preserve">3.86720180511475</t>
@@ -464,49 +464,49 @@
     <t xml:space="preserve">4.07634210586548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92804265022278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396532058716</t>
+    <t xml:space="preserve">3.92804217338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396579742432</t>
   </si>
   <si>
     <t xml:space="preserve">3.84058380126953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02690935134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11056566238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09535551071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.175208568573</t>
+    <t xml:space="preserve">4.02690839767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11056518554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09535455703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17520809173584</t>
   </si>
   <si>
     <t xml:space="preserve">4.20562934875488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9926860332489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99648857116699</t>
+    <t xml:space="preserve">3.99268555641174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99648809432983</t>
   </si>
   <si>
     <t xml:space="preserve">3.95466017723083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93944978713989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85959625244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85579371452332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81016325950623</t>
+    <t xml:space="preserve">3.93944954872131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85959601402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85579395294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81016278266907</t>
   </si>
   <si>
     <t xml:space="preserve">4.01930379867554</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">3.74171733856201</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70977544784546</t>
+    <t xml:space="preserve">3.7097749710083</t>
   </si>
   <si>
     <t xml:space="preserve">3.72802758216858</t>
@@ -533,34 +533,34 @@
     <t xml:space="preserve">3.7067334651947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77365803718567</t>
+    <t xml:space="preserve">3.77365875244141</t>
   </si>
   <si>
     <t xml:space="preserve">3.88241147994995</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84818816184998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8786084651947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88621401786804</t>
+    <t xml:space="preserve">3.84818863868713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87860918045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8862144947052</t>
   </si>
   <si>
     <t xml:space="preserve">3.83678078651428</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95085740089417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90522694587708</t>
+    <t xml:space="preserve">3.95085787773132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90522718429565</t>
   </si>
   <si>
     <t xml:space="preserve">4.03071117401123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06493425369263</t>
+    <t xml:space="preserve">4.06493377685547</t>
   </si>
   <si>
     <t xml:space="preserve">3.97367286682129</t>
@@ -572,76 +572,76 @@
     <t xml:space="preserve">4.01169872283936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93564772605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90142488479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81776809692383</t>
+    <t xml:space="preserve">3.93564748764038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90142416954041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81776833534241</t>
   </si>
   <si>
     <t xml:space="preserve">3.76909518241882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78886890411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82157063484192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80255770683289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89762258529663</t>
+    <t xml:space="preserve">3.78886818885803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82157111167908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80255746841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89762187004089</t>
   </si>
   <si>
     <t xml:space="preserve">4.01550149917603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06113147735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00789594650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96226572990417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91663503646851</t>
+    <t xml:space="preserve">4.06113243103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00789642333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9622654914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91663479804993</t>
   </si>
   <si>
     <t xml:space="preserve">3.93184471130371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94325232505798</t>
+    <t xml:space="preserve">3.94325256347656</t>
   </si>
   <si>
     <t xml:space="preserve">4.10676288604736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.353928565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42997932434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29308748245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38815212249756</t>
+    <t xml:space="preserve">4.35392904281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42997980117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29308795928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3881516456604</t>
   </si>
   <si>
     <t xml:space="preserve">4.23604965209961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33871793746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40336227416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4794135093689</t>
+    <t xml:space="preserve">4.3387188911438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40336132049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47941303253174</t>
   </si>
   <si>
     <t xml:space="preserve">4.34252119064331</t>
@@ -650,43 +650,43 @@
     <t xml:space="preserve">4.46800518035889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48701810836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31970548629761</t>
+    <t xml:space="preserve">4.48701858520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31970596313477</t>
   </si>
   <si>
     <t xml:space="preserve">4.30829763412476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48321580886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49842643737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50603151321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45279550552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63531827926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65052795410156</t>
+    <t xml:space="preserve">4.48321628570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49842596054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50603103637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45279502868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6353178024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6505274772644</t>
   </si>
   <si>
     <t xml:space="preserve">4.74559164047241</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72657918930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69235706329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75319671630859</t>
+    <t xml:space="preserve">4.7265796661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69235610961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75319719314575</t>
   </si>
   <si>
     <t xml:space="preserve">4.55926656723022</t>
@@ -695,40 +695,40 @@
     <t xml:space="preserve">4.56307029724121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64292335510254</t>
+    <t xml:space="preserve">4.64292287826538</t>
   </si>
   <si>
     <t xml:space="preserve">4.53645181655884</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55166149139404</t>
+    <t xml:space="preserve">4.5516619682312</t>
   </si>
   <si>
     <t xml:space="preserve">4.61630535125732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68475151062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58208227157593</t>
+    <t xml:space="preserve">4.68475103378296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58208274841309</t>
   </si>
   <si>
     <t xml:space="preserve">4.59729242324829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47180795669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57447671890259</t>
+    <t xml:space="preserve">4.47180843353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57447719573975</t>
   </si>
   <si>
     <t xml:space="preserve">4.5858850479126</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58968687057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62010765075684</t>
+    <t xml:space="preserve">4.58968782424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62010812759399</t>
   </si>
   <si>
     <t xml:space="preserve">4.59349012374878</t>
@@ -746,10 +746,10 @@
     <t xml:space="preserve">4.89769458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9052996635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84445810317993</t>
+    <t xml:space="preserve">4.90529918670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84445858001709</t>
   </si>
   <si>
     <t xml:space="preserve">4.94332551956177</t>
@@ -758,19 +758,19 @@
     <t xml:space="preserve">4.88248443603516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83305168151855</t>
+    <t xml:space="preserve">4.83305072784424</t>
   </si>
   <si>
     <t xml:space="preserve">4.87487888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79882764816284</t>
+    <t xml:space="preserve">4.798828125</t>
   </si>
   <si>
     <t xml:space="preserve">4.76080274581909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82544612884521</t>
+    <t xml:space="preserve">4.82544565200806</t>
   </si>
   <si>
     <t xml:space="preserve">4.81023550033569</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">4.73418474197388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00036334991455</t>
+    <t xml:space="preserve">5.00036382675171</t>
   </si>
   <si>
     <t xml:space="preserve">4.86727428436279</t>
@@ -788,19 +788,19 @@
     <t xml:space="preserve">4.95853567123413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98135137557983</t>
+    <t xml:space="preserve">4.98135042190552</t>
   </si>
   <si>
     <t xml:space="preserve">5.0117712020874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0193772315979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91290521621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16007089614868</t>
+    <t xml:space="preserve">5.01937627792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91290473937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16007137298584</t>
   </si>
   <si>
     <t xml:space="preserve">5.19117975234985</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">5.30394649505615</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21062183380127</t>
+    <t xml:space="preserve">5.21062231063843</t>
   </si>
   <si>
     <t xml:space="preserve">5.3428316116333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37005138397217</t>
+    <t xml:space="preserve">5.37005186080933</t>
   </si>
   <si>
     <t xml:space="preserve">5.35838556289673</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">5.38949394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28450441360474</t>
+    <t xml:space="preserve">5.28450393676758</t>
   </si>
   <si>
     <t xml:space="preserve">5.21451044082642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17562580108643</t>
+    <t xml:space="preserve">5.17562532424927</t>
   </si>
   <si>
     <t xml:space="preserve">5.2261757850647</t>
@@ -839,16 +839,16 @@
     <t xml:space="preserve">5.24950742721558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31950092315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31561183929443</t>
+    <t xml:space="preserve">5.31950044631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31561231613159</t>
   </si>
   <si>
     <t xml:space="preserve">5.44393348693848</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45559883117676</t>
+    <t xml:space="preserve">5.4555983543396</t>
   </si>
   <si>
     <t xml:space="preserve">5.38560581207275</t>
@@ -860,22 +860,22 @@
     <t xml:space="preserve">5.3078351020813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28839206695557</t>
+    <t xml:space="preserve">5.28839254379272</t>
   </si>
   <si>
     <t xml:space="preserve">5.47892999649048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37394046783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40504789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40893602371216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42837953567505</t>
+    <t xml:space="preserve">5.37393999099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40504837036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40893650054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42837905883789</t>
   </si>
   <si>
     <t xml:space="preserve">5.49448442459106</t>
@@ -884,28 +884,28 @@
     <t xml:space="preserve">5.49837303161621</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46337652206421</t>
+    <t xml:space="preserve">5.46337604522705</t>
   </si>
   <si>
     <t xml:space="preserve">5.64613676071167</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80945444107056</t>
+    <t xml:space="preserve">5.8094539642334</t>
   </si>
   <si>
     <t xml:space="preserve">5.59169721603394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61891746520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63835906982422</t>
+    <t xml:space="preserve">5.61891651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63835954666138</t>
   </si>
   <si>
     <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58003234863281</t>
+    <t xml:space="preserve">5.5800313949585</t>
   </si>
   <si>
     <t xml:space="preserve">5.62280559539795</t>
@@ -917,13 +917,13 @@
     <t xml:space="preserve">5.57614374160767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48670673370361</t>
+    <t xml:space="preserve">5.48670721054077</t>
   </si>
   <si>
     <t xml:space="preserve">5.42449045181274</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53336954116821</t>
+    <t xml:space="preserve">5.53336906433105</t>
   </si>
   <si>
     <t xml:space="preserve">5.63447093963623</t>
@@ -932,136 +932,136 @@
     <t xml:space="preserve">5.59947395324707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66946792602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56836605072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6616907119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75501585006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.926109790802</t>
+    <t xml:space="preserve">5.66946744918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56836652755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66169118881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75501489639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92611026763916</t>
   </si>
   <si>
     <t xml:space="preserve">5.75890398025513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56447744369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70446443557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82500839233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77834606170654</t>
+    <t xml:space="preserve">5.56447792053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70446395874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82500886917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77834701538086</t>
   </si>
   <si>
     <t xml:space="preserve">5.69279956817627</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74723768234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65002536773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64224815368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52948093414307</t>
+    <t xml:space="preserve">5.74723815917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65002489089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64224863052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52948141098022</t>
   </si>
   <si>
     <t xml:space="preserve">5.52170372009277</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5372576713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57225465774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59558582305908</t>
+    <t xml:space="preserve">5.53725814819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5722541809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59558629989624</t>
   </si>
   <si>
     <t xml:space="preserve">5.6966872215271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9027795791626</t>
+    <t xml:space="preserve">5.90277910232544</t>
   </si>
   <si>
     <t xml:space="preserve">5.85611724853516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83278512954712</t>
+    <t xml:space="preserve">5.83278608322144</t>
   </si>
   <si>
     <t xml:space="preserve">5.86389398574829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80167770385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84834051132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84445095062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89500188827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90666770935059</t>
+    <t xml:space="preserve">5.80167722702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84833908081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84445142745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8950023651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90666723251343</t>
   </si>
   <si>
     <t xml:space="preserve">5.92999887466431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91444444656372</t>
+    <t xml:space="preserve">5.91444492340088</t>
   </si>
   <si>
     <t xml:space="preserve">5.94944143295288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96499633789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81723165512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86778211593628</t>
+    <t xml:space="preserve">5.96499538421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81723260879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86778259277344</t>
   </si>
   <si>
     <t xml:space="preserve">5.88333654403687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83667421340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78223514556885</t>
+    <t xml:space="preserve">5.83667469024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78223466873169</t>
   </si>
   <si>
     <t xml:space="preserve">5.76279211044312</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68113279342651</t>
+    <t xml:space="preserve">5.68113327026367</t>
   </si>
   <si>
     <t xml:space="preserve">5.70835304260254</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87167119979858</t>
+    <t xml:space="preserve">5.87167167663574</t>
   </si>
   <si>
     <t xml:space="preserve">5.85222864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73557281494141</t>
+    <t xml:space="preserve">5.73557233810425</t>
   </si>
   <si>
     <t xml:space="preserve">5.91833353042603</t>
@@ -1070,25 +1070,25 @@
     <t xml:space="preserve">5.60336303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50614976882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4594874382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37782859802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44004487991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50226068496704</t>
+    <t xml:space="preserve">5.50614929199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45948791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37782764434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44004535675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5022611618042</t>
   </si>
   <si>
     <t xml:space="preserve">5.56058883666992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58392000198364</t>
+    <t xml:space="preserve">5.5839204788208</t>
   </si>
   <si>
     <t xml:space="preserve">5.72779560089111</t>
@@ -1097,10 +1097,10 @@
     <t xml:space="preserve">5.71612977981567</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76668119430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72001838684082</t>
+    <t xml:space="preserve">5.76668071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72001886367798</t>
   </si>
   <si>
     <t xml:space="preserve">5.77445793151855</t>
@@ -1112,22 +1112,22 @@
     <t xml:space="preserve">5.5489239692688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52559232711792</t>
+    <t xml:space="preserve">5.52559185028076</t>
   </si>
   <si>
     <t xml:space="preserve">5.55670070648193</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58780860900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43615627288818</t>
+    <t xml:space="preserve">5.58780908584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43615579605103</t>
   </si>
   <si>
     <t xml:space="preserve">5.51392698287964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93388795852661</t>
+    <t xml:space="preserve">5.93388748168945</t>
   </si>
   <si>
     <t xml:space="preserve">6.05054330825806</t>
@@ -1139,16 +1139,16 @@
     <t xml:space="preserve">6.01165819168091</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00388050079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10498189926147</t>
+    <t xml:space="preserve">6.0038800239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10498285293579</t>
   </si>
   <si>
     <t xml:space="preserve">6.08942842483521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04276609420776</t>
+    <t xml:space="preserve">6.04276561737061</t>
   </si>
   <si>
     <t xml:space="preserve">5.9727725982666</t>
@@ -1169,13 +1169,13 @@
     <t xml:space="preserve">5.68502187728882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73946189880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79390048980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77056980133057</t>
+    <t xml:space="preserve">5.73946142196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79390001296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77056932449341</t>
   </si>
   <si>
     <t xml:space="preserve">5.78612375259399</t>
@@ -1184,19 +1184,19 @@
     <t xml:space="preserve">5.70057582855225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65391302108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49059629440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76564788818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68568134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5017557144165</t>
+    <t xml:space="preserve">5.65391397476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49059581756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76564836502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68568181991577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50175666809082</t>
   </si>
   <si>
     <t xml:space="preserve">5.46177244186401</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">5.31783103942871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34981822967529</t>
+    <t xml:space="preserve">5.34981775283813</t>
   </si>
   <si>
     <t xml:space="preserve">5.36581182479858</t>
@@ -1217,52 +1217,52 @@
     <t xml:space="preserve">5.30983448028564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03794574737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93398809432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65410184860229</t>
+    <t xml:space="preserve">5.03794527053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93398761749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65410232543945</t>
   </si>
   <si>
     <t xml:space="preserve">4.91799449920654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83003044128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99796152114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87001419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79804372787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7420654296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85402059555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92599105834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90200090408325</t>
+    <t xml:space="preserve">4.83002996444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99796199798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87001371383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7980432510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74206590652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85402011871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92599058151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90200138092041</t>
   </si>
   <si>
     <t xml:space="preserve">5.00595855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09392213821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13390636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18188667297363</t>
+    <t xml:space="preserve">5.09392261505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13390588760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18188619613647</t>
   </si>
   <si>
     <t xml:space="preserve">5.05393886566162</t>
@@ -1280,31 +1280,31 @@
     <t xml:space="preserve">5.06993246078491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0859260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17389011383057</t>
+    <t xml:space="preserve">5.08592557907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17388963699341</t>
   </si>
   <si>
     <t xml:space="preserve">5.18988275527954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1099157333374</t>
+    <t xml:space="preserve">5.10991621017456</t>
   </si>
   <si>
     <t xml:space="preserve">5.11791276931763</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10191917419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0459418296814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90999698638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89400386810303</t>
+    <t xml:space="preserve">5.10191965103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04594278335571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90999746322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89400339126587</t>
   </si>
   <si>
     <t xml:space="preserve">5.07792854309082</t>
@@ -1316,43 +1316,43 @@
     <t xml:space="preserve">4.98996448516846</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98196744918823</t>
+    <t xml:space="preserve">4.98196792602539</t>
   </si>
   <si>
     <t xml:space="preserve">4.61411809921265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53415060043335</t>
+    <t xml:space="preserve">4.53415107727051</t>
   </si>
   <si>
     <t xml:space="preserve">4.4701771736145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44618701934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45418357849121</t>
+    <t xml:space="preserve">4.44618654251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45418310165405</t>
   </si>
   <si>
     <t xml:space="preserve">4.47817373275757</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4941668510437</t>
+    <t xml:space="preserve">4.49416732788086</t>
   </si>
   <si>
     <t xml:space="preserve">4.39020919799805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42219638824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25426483154297</t>
+    <t xml:space="preserve">4.42219734191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25426435470581</t>
   </si>
   <si>
     <t xml:space="preserve">4.27825498580933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34222936630249</t>
+    <t xml:space="preserve">4.34222841262817</t>
   </si>
   <si>
     <t xml:space="preserve">4.33423233032227</t>
@@ -1370,100 +1370,100 @@
     <t xml:space="preserve">4.66209840774536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67809200286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70208215713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72607278823853</t>
+    <t xml:space="preserve">4.67809247970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70208263397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72607231140137</t>
   </si>
   <si>
     <t xml:space="preserve">4.75006294250488</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82203388214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81403636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71007919311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52615356445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48617076873779</t>
+    <t xml:space="preserve">4.8220329284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81403684616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71007871627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52615404129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48617029190063</t>
   </si>
   <si>
     <t xml:space="preserve">4.55814123153687</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31823873519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2462682723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1822943687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28625154495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35822200775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20628499984741</t>
+    <t xml:space="preserve">4.31823921203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24626779556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18229389190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28625202178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35822248458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20628452301025</t>
   </si>
   <si>
     <t xml:space="preserve">4.11032390594482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07034015655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95438694953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81844282150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92240023612976</t>
+    <t xml:space="preserve">4.07033967971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95438718795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81844329833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92240071296692</t>
   </si>
   <si>
     <t xml:space="preserve">4.21428155899048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15830373764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23027515411377</t>
+    <t xml:space="preserve">4.15830421447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23027467727661</t>
   </si>
   <si>
     <t xml:space="preserve">4.23827171325684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26226139068604</t>
+    <t xml:space="preserve">4.26226234436035</t>
   </si>
   <si>
     <t xml:space="preserve">4.13431406021118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15030717849731</t>
+    <t xml:space="preserve">4.15030765533447</t>
   </si>
   <si>
     <t xml:space="preserve">4.09432983398438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06234312057495</t>
+    <t xml:space="preserve">4.06234359741211</t>
   </si>
   <si>
     <t xml:space="preserve">4.01436281204224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05434608459473</t>
+    <t xml:space="preserve">4.05434656143188</t>
   </si>
   <si>
     <t xml:space="preserve">3.99836921691895</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">4.19828748703003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0463490486145</t>
+    <t xml:space="preserve">4.04634952545166</t>
   </si>
   <si>
     <t xml:space="preserve">4.11832046508789</t>
@@ -1490,121 +1490,121 @@
     <t xml:space="preserve">3.98237586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96238398551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95038843154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91440367698669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03835344314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22227811813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10232734680176</t>
+    <t xml:space="preserve">3.96238374710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95038890838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91440343856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03835296630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2222785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1023268699646</t>
   </si>
   <si>
     <t xml:space="preserve">4.08633327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07833623886108</t>
+    <t xml:space="preserve">4.07833671569824</t>
   </si>
   <si>
     <t xml:space="preserve">4.00636625289917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03035593032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89441204071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97837781906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91840171813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87042212486267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98637461662292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1902904510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29424810409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93839406967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97038078308105</t>
+    <t xml:space="preserve">4.03035640716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89441180229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97837734222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91840195655823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87042164802551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98637437820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19029092788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29424858093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93839359283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97038102149963</t>
   </si>
   <si>
     <t xml:space="preserve">4.17429733276367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95838499069214</t>
+    <t xml:space="preserve">3.95838522911072</t>
   </si>
   <si>
     <t xml:space="preserve">3.910404920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84643125534058</t>
+    <t xml:space="preserve">3.846431016922</t>
   </si>
   <si>
     <t xml:space="preserve">3.86242461204529</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81444430351257</t>
+    <t xml:space="preserve">3.81444406509399</t>
   </si>
   <si>
     <t xml:space="preserve">3.77845883369446</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79098415374756</t>
+    <t xml:space="preserve">3.79098463058472</t>
   </si>
   <si>
     <t xml:space="preserve">3.79515957832336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77010893821716</t>
+    <t xml:space="preserve">3.77010869979858</t>
   </si>
   <si>
     <t xml:space="preserve">3.68243193626404</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69913244247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74088311195374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72418308258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71583247184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73670792579651</t>
+    <t xml:space="preserve">3.69913220405579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74088335037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72418260574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71583223342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73670816421509</t>
   </si>
   <si>
     <t xml:space="preserve">3.65738129615784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67408156394958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63650560379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59475493431091</t>
+    <t xml:space="preserve">3.67408132553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63650584220886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59475469589233</t>
   </si>
   <si>
     <t xml:space="preserve">3.66155672073364</t>
@@ -1613,31 +1613,31 @@
     <t xml:space="preserve">3.68660712242126</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61980557441711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62398076057434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57387971878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54047822952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55300378799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56970453262329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54882860183716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58222937583923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51542830467224</t>
+    <t xml:space="preserve">3.61980533599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62398099899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5738799571991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54047846794128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55300402641296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56970405578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54882884025574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58222961425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51542806625366</t>
   </si>
   <si>
     <t xml:space="preserve">3.46532726287842</t>
@@ -1646,31 +1646,31 @@
     <t xml:space="preserve">3.48202753067017</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52377820014954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53630375862122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59057974815369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74923300743103</t>
+    <t xml:space="preserve">3.52377843856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53630399703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59058022499084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74923324584961</t>
   </si>
   <si>
     <t xml:space="preserve">3.97468852996826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04149055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92876195907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92458724975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94128775596619</t>
+    <t xml:space="preserve">4.04149007797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92876243591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9245867729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94128727912903</t>
   </si>
   <si>
     <t xml:space="preserve">3.94963788986206</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">3.98303866386414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90371227264404</t>
+    <t xml:space="preserve">3.90371179580688</t>
   </si>
   <si>
     <t xml:space="preserve">3.84108519554138</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">3.89536190032959</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87031126022339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79933428764343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78680896759033</t>
+    <t xml:space="preserve">3.87031078338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79933476448059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78680920600891</t>
   </si>
   <si>
     <t xml:space="preserve">3.77845931053162</t>
@@ -1712,28 +1712,28 @@
     <t xml:space="preserve">3.75758361816406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72000741958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76593351364136</t>
+    <t xml:space="preserve">3.72000765800476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76593375205994</t>
   </si>
   <si>
     <t xml:space="preserve">3.69078230857849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78263425827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88283610343933</t>
+    <t xml:space="preserve">3.78263449668884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88283658027649</t>
   </si>
   <si>
     <t xml:space="preserve">3.86613583564758</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92041254043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02061462402344</t>
+    <t xml:space="preserve">3.92041206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02061414718628</t>
   </si>
   <si>
     <t xml:space="preserve">4.03731489181519</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">4.06654071807861</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05819034576416</t>
+    <t xml:space="preserve">4.058189868927</t>
   </si>
   <si>
     <t xml:space="preserve">4.12081670761108</t>
@@ -1763,22 +1763,22 @@
     <t xml:space="preserve">4.16256809234619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24189424514771</t>
+    <t xml:space="preserve">4.24189472198486</t>
   </si>
   <si>
     <t xml:space="preserve">4.23354387283325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16674280166626</t>
+    <t xml:space="preserve">4.1667423248291</t>
   </si>
   <si>
     <t xml:space="preserve">4.12916660308838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07906579971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09159088134766</t>
+    <t xml:space="preserve">4.07906532287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09159135818481</t>
   </si>
   <si>
     <t xml:space="preserve">4.17509269714355</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">4.05401515960693</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12499141693115</t>
+    <t xml:space="preserve">4.12499189376831</t>
   </si>
   <si>
     <t xml:space="preserve">4.21684408187866</t>
@@ -1814,10 +1814,10 @@
     <t xml:space="preserve">4.37549686431885</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36714744567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34209632873535</t>
+    <t xml:space="preserve">4.36714696884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34209680557251</t>
   </si>
   <si>
     <t xml:space="preserve">4.3587965965271</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">4.40889835357666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3253960609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44229888916016</t>
+    <t xml:space="preserve">4.32539558410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.442298412323</t>
   </si>
   <si>
     <t xml:space="preserve">4.52580070495605</t>
@@ -1838,25 +1838,25 @@
     <t xml:space="preserve">4.4589991569519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49240016937256</t>
+    <t xml:space="preserve">4.4923996925354</t>
   </si>
   <si>
     <t xml:space="preserve">4.50910043716431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56755113601685</t>
+    <t xml:space="preserve">4.567551612854</t>
   </si>
   <si>
     <t xml:space="preserve">4.47569942474365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45064878463745</t>
+    <t xml:space="preserve">4.45064926147461</t>
   </si>
   <si>
     <t xml:space="preserve">4.42559862136841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4673490524292</t>
+    <t xml:space="preserve">4.46734952926636</t>
   </si>
   <si>
     <t xml:space="preserve">4.5508508682251</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">4.3838472366333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3504467010498</t>
+    <t xml:space="preserve">4.35044717788696</t>
   </si>
   <si>
     <t xml:space="preserve">4.39219808578491</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">4.30034589767456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29199552536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28364562988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25859403610229</t>
+    <t xml:space="preserve">4.29199600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28364515304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25859451293945</t>
   </si>
   <si>
     <t xml:space="preserve">4.20014381408691</t>
@@ -1898,19 +1898,19 @@
     <t xml:space="preserve">3.97886323928833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03313970565796</t>
+    <t xml:space="preserve">4.0331392288208</t>
   </si>
   <si>
     <t xml:space="preserve">4.1082911491394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41724872589111</t>
+    <t xml:space="preserve">4.41724824905396</t>
   </si>
   <si>
     <t xml:space="preserve">4.11246681213379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01226377487183</t>
+    <t xml:space="preserve">4.01226425170898</t>
   </si>
   <si>
     <t xml:space="preserve">3.82856035232544</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">3.80768465995789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62815546989441</t>
+    <t xml:space="preserve">3.62815570831299</t>
   </si>
   <si>
     <t xml:space="preserve">3.43610143661499</t>
@@ -1934,31 +1934,31 @@
     <t xml:space="preserve">3.13131976127625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26909780502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99354147911072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23987197875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31919884681702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28579807281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25239753723145</t>
+    <t xml:space="preserve">3.26909756660461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9935417175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23987221717834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31919860839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28579831123352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25239729881287</t>
   </si>
   <si>
     <t xml:space="preserve">3.21482133865356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27327299118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15219521522522</t>
+    <t xml:space="preserve">3.27327275276184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1521954536438</t>
   </si>
   <si>
     <t xml:space="preserve">3.19812107086182</t>
@@ -1970,19 +1970,19 @@
     <t xml:space="preserve">3.22734689712524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15636992454529</t>
+    <t xml:space="preserve">3.15637016296387</t>
   </si>
   <si>
     <t xml:space="preserve">3.20647120475769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12296938896179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19394612312317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31084895133972</t>
+    <t xml:space="preserve">3.12296962738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19394588470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31084847450256</t>
   </si>
   <si>
     <t xml:space="preserve">3.26074767112732</t>
@@ -1991,16 +1991,16 @@
     <t xml:space="preserve">3.28997325897217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30667328834534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37347531318665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35259938240051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34424924850464</t>
+    <t xml:space="preserve">3.30667352676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37347507476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35259962081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34424948692322</t>
   </si>
   <si>
     <t xml:space="preserve">3.44862699508667</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">3.42357611656189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49872803688049</t>
+    <t xml:space="preserve">3.49872779846191</t>
   </si>
   <si>
     <t xml:space="preserve">3.47367715835571</t>
@@ -2021,13 +2021,13 @@
     <t xml:space="preserve">3.52795338630676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55717921257019</t>
+    <t xml:space="preserve">3.55717897415161</t>
   </si>
   <si>
     <t xml:space="preserve">3.61145520210266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66990637779236</t>
+    <t xml:space="preserve">3.66990661621094</t>
   </si>
   <si>
     <t xml:space="preserve">3.49037742614746</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">3.39017534255981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43192625045776</t>
+    <t xml:space="preserve">3.43192648887634</t>
   </si>
   <si>
     <t xml:space="preserve">3.49455261230469</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">3.63233065605164</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76175880432129</t>
+    <t xml:space="preserve">3.76175904273987</t>
   </si>
   <si>
     <t xml:space="preserve">3.87866115570068</t>
@@ -2066,28 +2066,28 @@
     <t xml:space="preserve">3.64068126678467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69495749473572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64485597610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65320611000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64903140068054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60310530662537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73253273963928</t>
+    <t xml:space="preserve">3.69495725631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64485573768616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65320634841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64903116226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60310506820679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73253297805786</t>
   </si>
   <si>
     <t xml:space="preserve">3.72835826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60728025436401</t>
+    <t xml:space="preserve">3.60728001594543</t>
   </si>
   <si>
     <t xml:space="preserve">3.75340819358826</t>
@@ -2099,31 +2099,31 @@
     <t xml:space="preserve">3.74505853652954</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66573143005371</t>
+    <t xml:space="preserve">3.66573119163513</t>
   </si>
   <si>
     <t xml:space="preserve">3.59893012046814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56552934646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960349082947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58640480041504</t>
+    <t xml:space="preserve">3.56552910804749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960301399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58640503883362</t>
   </si>
   <si>
     <t xml:space="preserve">3.50707769393921</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46950221061707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51125335693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41522622108459</t>
+    <t xml:space="preserve">3.46950244903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51125288009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41522598266602</t>
   </si>
   <si>
     <t xml:space="preserve">3.40270042419434</t>
@@ -2138,22 +2138,22 @@
     <t xml:space="preserve">3.24822235107422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26492261886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23152160644531</t>
+    <t xml:space="preserve">3.26492285728455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23152184486389</t>
   </si>
   <si>
     <t xml:space="preserve">3.18559575080872</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09374356269836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08121871948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06034302711487</t>
+    <t xml:space="preserve">3.09374380111694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08121848106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06034278869629</t>
   </si>
   <si>
     <t xml:space="preserve">3.03946781158447</t>
@@ -2165,31 +2165,31 @@
     <t xml:space="preserve">3.00606679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96014070510864</t>
+    <t xml:space="preserve">2.96014094352722</t>
   </si>
   <si>
     <t xml:space="preserve">2.82236289978027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7054603099823</t>
+    <t xml:space="preserve">2.70546007156372</t>
   </si>
   <si>
     <t xml:space="preserve">2.81818771362305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88916444778442</t>
+    <t xml:space="preserve">2.88916420936584</t>
   </si>
   <si>
     <t xml:space="preserve">2.98101615905762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30249834060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90788722038269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00808906555176</t>
+    <t xml:space="preserve">3.30249857902527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90788674354553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00808954238892</t>
   </si>
   <si>
     <t xml:space="preserve">4.01643943786621</t>
@@ -2204,13 +2204,13 @@
     <t xml:space="preserve">3.87448596954346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84943532943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89118599891663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77428412437439</t>
+    <t xml:space="preserve">3.84943580627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89118647575378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77428364753723</t>
   </si>
   <si>
     <t xml:space="preserve">3.45280194282532</t>
@@ -2219,37 +2219,37 @@
     <t xml:space="preserve">4.20849323272705</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15421772003174</t>
+    <t xml:space="preserve">4.15421724319458</t>
   </si>
   <si>
     <t xml:space="preserve">4.02478981018066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07071590423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14169216156006</t>
+    <t xml:space="preserve">4.07071542739868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14169263839722</t>
   </si>
   <si>
     <t xml:space="preserve">4.19179344177246</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15004253387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17091798782349</t>
+    <t xml:space="preserve">4.15004205703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17091751098633</t>
   </si>
   <si>
     <t xml:space="preserve">4.15839242935181</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59260225296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54250144958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60930252075195</t>
+    <t xml:space="preserve">4.59260177612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5425009727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60930299758911</t>
   </si>
   <si>
     <t xml:space="preserve">4.76525640487671</t>
@@ -2264,13 +2264,13 @@
     <t xml:space="preserve">4.50533294677734</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51399707794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52266120910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.643958568573</t>
+    <t xml:space="preserve">4.51399755477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5226616859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64395904541016</t>
   </si>
   <si>
     <t xml:space="preserve">4.71327209472656</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">4.72193574905396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70460748672485</t>
+    <t xml:space="preserve">4.7046070098877</t>
   </si>
   <si>
     <t xml:space="preserve">4.82590532302856</t>
@@ -2288,16 +2288,16 @@
     <t xml:space="preserve">4.78258419036865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79991292953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80857706069946</t>
+    <t xml:space="preserve">4.79991245269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8085765838623</t>
   </si>
   <si>
     <t xml:space="preserve">4.756591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7392635345459</t>
+    <t xml:space="preserve">4.73926401138306</t>
   </si>
   <si>
     <t xml:space="preserve">4.73059988021851</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">4.44468450546265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41869163513184</t>
+    <t xml:space="preserve">4.41869211196899</t>
   </si>
   <si>
     <t xml:space="preserve">4.42735624313354</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">4.3753719329834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4533486366272</t>
+    <t xml:space="preserve">4.45334815979004</t>
   </si>
   <si>
     <t xml:space="preserve">4.47934055328369</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">4.79124879837036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81724071502686</t>
+    <t xml:space="preserve">4.81724119186401</t>
   </si>
   <si>
     <t xml:space="preserve">4.92987442016602</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">4.91254615783691</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90388202667236</t>
+    <t xml:space="preserve">4.90388154983521</t>
   </si>
   <si>
     <t xml:space="preserve">4.94720220565796</t>
@@ -2390,10 +2390,10 @@
     <t xml:space="preserve">4.95586633682251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97319459915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04250764846802</t>
+    <t xml:space="preserve">4.97319412231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04250812530518</t>
   </si>
   <si>
     <t xml:space="preserve">5.08582782745361</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">5.12048435211182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96453046798706</t>
+    <t xml:space="preserve">4.96453094482422</t>
   </si>
   <si>
     <t xml:space="preserve">5.07716417312622</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">5.22445344924927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12914848327637</t>
+    <t xml:space="preserve">5.12914896011353</t>
   </si>
   <si>
     <t xml:space="preserve">5.24178218841553</t>
@@ -2429,16 +2429,16 @@
     <t xml:space="preserve">5.37174320220947</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42372846603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58834600448608</t>
+    <t xml:space="preserve">5.42372798919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58834552764893</t>
   </si>
   <si>
     <t xml:space="preserve">5.56235361099243</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51903343200684</t>
+    <t xml:space="preserve">5.51903295516968</t>
   </si>
   <si>
     <t xml:space="preserve">5.47571277618408</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">5.60567426681519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57968187332153</t>
+    <t xml:space="preserve">5.57968235015869</t>
   </si>
   <si>
     <t xml:space="preserve">5.55368947982788</t>
@@ -2468,16 +2468,16 @@
     <t xml:space="preserve">5.62300205230713</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73563575744629</t>
+    <t xml:space="preserve">5.73563528060913</t>
   </si>
   <si>
     <t xml:space="preserve">5.72697162628174</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70964336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64033079147339</t>
+    <t xml:space="preserve">5.70964384078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64033031463623</t>
   </si>
   <si>
     <t xml:space="preserve">5.68365144729614</t>
@@ -2495,19 +2495,19 @@
     <t xml:space="preserve">5.80494832992554</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85693311691284</t>
+    <t xml:space="preserve">5.85693359375</t>
   </si>
   <si>
     <t xml:space="preserve">5.54502582550049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44971990585327</t>
+    <t xml:space="preserve">5.44972038269043</t>
   </si>
   <si>
     <t xml:space="preserve">5.30243062973022</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25910997390747</t>
+    <t xml:space="preserve">5.25911045074463</t>
   </si>
   <si>
     <t xml:space="preserve">5.26777410507202</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">5.05983591079712</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32842350006104</t>
+    <t xml:space="preserve">5.32842302322388</t>
   </si>
   <si>
     <t xml:space="preserve">5.38907146453857</t>
@@ -2564,91 +2564,94 @@
     <t xml:space="preserve">5.28510236740112</t>
   </si>
   <si>
+    <t xml:space="preserve">5.19846105575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14647674560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27643823623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36307954788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45838499069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09952831268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25548124313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3334584236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51540517807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28147411346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29880285263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18616914749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1081919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71830749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84826946258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20712566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87788963317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31975841522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44105672836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35441541671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21578979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06850004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10315608978271</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.19846153259277</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14647674560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27643871307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36307907104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45838499069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09952831268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2554817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3334584236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51540517807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28147411346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29880285263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18616914749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1081919670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84826898574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20712566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87788963317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639972686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31975889205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44105672836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35441493988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21578979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06850004196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10315656661987</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.27142238616943</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2349419593811</t>
+    <t xml:space="preserve">5.23494148254395</t>
   </si>
   <si>
     <t xml:space="preserve">5.18934154510498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12550020217896</t>
+    <t xml:space="preserve">5.12550067901611</t>
   </si>
   <si>
     <t xml:space="preserve">5.29878282546997</t>
@@ -2657,13 +2660,13 @@
     <t xml:space="preserve">5.50854539871216</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47206497192383</t>
+    <t xml:space="preserve">5.47206449508667</t>
   </si>
   <si>
     <t xml:space="preserve">5.68182706832886</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60886669158936</t>
+    <t xml:space="preserve">5.6088662147522</t>
   </si>
   <si>
     <t xml:space="preserve">5.65446662902832</t>
@@ -2699,10 +2702,10 @@
     <t xml:space="preserve">5.04341983795166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95221853256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0616602897644</t>
+    <t xml:space="preserve">4.9522180557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06165981292725</t>
   </si>
   <si>
     <t xml:space="preserve">5.13462066650391</t>
@@ -2714,16 +2717,16 @@
     <t xml:space="preserve">5.09814071655273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05253982543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98869848251343</t>
+    <t xml:space="preserve">5.05253934860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98869895935059</t>
   </si>
   <si>
     <t xml:space="preserve">4.78805685043335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76069593429565</t>
+    <t xml:space="preserve">4.76069641113281</t>
   </si>
   <si>
     <t xml:space="preserve">4.84277725219727</t>
@@ -2735,16 +2738,19 @@
     <t xml:space="preserve">4.71509552001953</t>
   </si>
   <si>
+    <t xml:space="preserve">4.85189771652222</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.93397808074951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88837766647339</t>
+    <t xml:space="preserve">4.88837814331055</t>
   </si>
   <si>
     <t xml:space="preserve">4.83365726470947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72421598434448</t>
+    <t xml:space="preserve">4.72421550750732</t>
   </si>
   <si>
     <t xml:space="preserve">4.91573810577393</t>
@@ -2759,7 +2765,7 @@
     <t xml:space="preserve">5.03429937362671</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16198110580444</t>
+    <t xml:space="preserve">5.16198062896729</t>
   </si>
   <si>
     <t xml:space="preserve">5.1437406539917</t>
@@ -2774,9 +2780,6 @@
     <t xml:space="preserve">5.36262321472168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37174367904663</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.21670150756836</t>
   </si>
   <si>
@@ -2786,7 +2789,7 @@
     <t xml:space="preserve">5.28054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22582149505615</t>
+    <t xml:space="preserve">5.22582197189331</t>
   </si>
   <si>
     <t xml:space="preserve">5.32614326477051</t>
@@ -2819,34 +2822,34 @@
     <t xml:space="preserve">5.31702280044556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39910364151001</t>
+    <t xml:space="preserve">5.39910411834717</t>
   </si>
   <si>
     <t xml:space="preserve">5.45382452011108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53590536117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64534664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70918798446655</t>
+    <t xml:space="preserve">5.5359058380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64534711837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70918750762939</t>
   </si>
   <si>
     <t xml:space="preserve">5.78214836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73654747009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7730278968811</t>
+    <t xml:space="preserve">5.73654794692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77302837371826</t>
   </si>
   <si>
     <t xml:space="preserve">5.81862878799438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82774877548218</t>
+    <t xml:space="preserve">5.82774925231934</t>
   </si>
   <si>
     <t xml:space="preserve">5.84598922729492</t>
@@ -2855,7 +2858,7 @@
     <t xml:space="preserve">5.86422920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92807054519653</t>
+    <t xml:space="preserve">5.92807006835938</t>
   </si>
   <si>
     <t xml:space="preserve">6.00103092193604</t>
@@ -2873,13 +2876,13 @@
     <t xml:space="preserve">6.0648717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03751134872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15607261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01927137374878</t>
+    <t xml:space="preserve">6.03751087188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15607309341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01927089691162</t>
   </si>
   <si>
     <t xml:space="preserve">6.0739917755127</t>
@@ -2900,10 +2903,10 @@
     <t xml:space="preserve">6.12871217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28375387191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21991395950317</t>
+    <t xml:space="preserve">6.28375434875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21991348266602</t>
   </si>
   <si>
     <t xml:space="preserve">6.20167350769043</t>
@@ -2912,19 +2915,19 @@
     <t xml:space="preserve">6.18343353271484</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1651930809021</t>
+    <t xml:space="preserve">6.16519355773926</t>
   </si>
   <si>
     <t xml:space="preserve">6.24727344512939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38407516479492</t>
+    <t xml:space="preserve">6.38407564163208</t>
   </si>
   <si>
     <t xml:space="preserve">6.4296760559082</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45703649520874</t>
+    <t xml:space="preserve">6.45703601837158</t>
   </si>
   <si>
     <t xml:space="preserve">6.47527647018433</t>
@@ -2936,7 +2939,7 @@
     <t xml:space="preserve">6.42055606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52087688446045</t>
+    <t xml:space="preserve">6.52087736129761</t>
   </si>
   <si>
     <t xml:space="preserve">6.41143608093262</t>
@@ -2957,7 +2960,7 @@
     <t xml:space="preserve">7.06808376312256</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15016460418701</t>
+    <t xml:space="preserve">7.15016508102417</t>
   </si>
   <si>
     <t xml:space="preserve">7.11368417739868</t>
@@ -2969,10 +2972,10 @@
     <t xml:space="preserve">7.28696584701538</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20488548278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26872539520264</t>
+    <t xml:space="preserve">7.20488500595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26872587203979</t>
   </si>
   <si>
     <t xml:space="preserve">7.27784633636475</t>
@@ -2981,7 +2984,7 @@
     <t xml:space="preserve">7.19576501846313</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25048542022705</t>
+    <t xml:space="preserve">7.25048589706421</t>
   </si>
   <si>
     <t xml:space="preserve">7.37816762924194</t>
@@ -2999,7 +3002,7 @@
     <t xml:space="preserve">7.50584840774536</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44200801849365</t>
+    <t xml:space="preserve">7.44200754165649</t>
   </si>
   <si>
     <t xml:space="preserve">7.38728761672974</t>
@@ -3011,7 +3014,7 @@
     <t xml:space="preserve">7.31432676315308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34168720245361</t>
+    <t xml:space="preserve">7.34168672561646</t>
   </si>
   <si>
     <t xml:space="preserve">7.42376804351807</t>
@@ -3020,7 +3023,7 @@
     <t xml:space="preserve">7.45112800598145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46024894714355</t>
+    <t xml:space="preserve">7.4602484703064</t>
   </si>
   <si>
     <t xml:space="preserve">7.49672889709473</t>
@@ -3047,7 +3050,7 @@
     <t xml:space="preserve">5.94631052017212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2563943862915</t>
+    <t xml:space="preserve">6.25639390945435</t>
   </si>
   <si>
     <t xml:space="preserve">6.19255304336548</t>
@@ -3059,7 +3062,7 @@
     <t xml:space="preserve">6.44791650772095</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50263690948486</t>
+    <t xml:space="preserve">6.50263738632202</t>
   </si>
   <si>
     <t xml:space="preserve">6.40231561660767</t>
@@ -3068,7 +3071,7 @@
     <t xml:space="preserve">6.49351692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6029577255249</t>
+    <t xml:space="preserve">6.60295820236206</t>
   </si>
   <si>
     <t xml:space="preserve">6.5299973487854</t>
@@ -3086,7 +3089,7 @@
     <t xml:space="preserve">6.56647729873657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58471775054932</t>
+    <t xml:space="preserve">6.58471727371216</t>
   </si>
   <si>
     <t xml:space="preserve">6.48439693450928</t>
@@ -46137,7 +46140,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1620" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46163,7 +46166,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1621" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46189,7 +46192,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1622" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46215,7 +46218,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46241,7 +46244,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1624" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46267,7 +46270,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46293,7 +46296,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46319,7 +46322,7 @@
         <v>6</v>
       </c>
       <c r="G1627" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46345,7 +46348,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1628" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46371,7 +46374,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1629" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46397,7 +46400,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1630" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46423,7 +46426,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1631" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46449,7 +46452,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1632" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46475,7 +46478,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46501,7 +46504,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46527,7 +46530,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1635" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46553,7 +46556,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46579,7 +46582,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1637" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46605,7 +46608,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46631,7 +46634,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1639" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46657,7 +46660,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1640" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46683,7 +46686,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1641" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46709,7 +46712,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1642" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46735,7 +46738,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1643" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46761,7 +46764,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46787,7 +46790,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1645" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46813,7 +46816,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1646" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46839,7 +46842,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1647" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46865,7 +46868,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1648" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46891,7 +46894,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1649" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46917,7 +46920,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46943,7 +46946,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1651" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46969,7 +46972,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1652" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46995,7 +46998,7 @@
         <v>5.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47021,7 +47024,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1654" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47047,7 +47050,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1655" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47073,7 +47076,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1656" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47099,7 +47102,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47125,7 +47128,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1658" t="s">
-        <v>779</v>
+        <v>908</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47151,7 +47154,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1659" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47177,7 +47180,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G1660" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47203,7 +47206,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1661" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47229,7 +47232,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1662" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47255,7 +47258,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1663" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47281,7 +47284,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1664" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47307,7 +47310,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1665" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47333,7 +47336,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47359,7 +47362,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1667" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47385,7 +47388,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1668" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47411,7 +47414,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47437,7 +47440,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G1670" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47463,7 +47466,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1671" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47489,7 +47492,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1672" t="s">
-        <v>779</v>
+        <v>908</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47515,7 +47518,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1673" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47541,7 +47544,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1674" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47567,7 +47570,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1675" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47593,7 +47596,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1676" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47619,7 +47622,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1677" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47645,7 +47648,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1678" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47671,7 +47674,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1679" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47697,7 +47700,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1680" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47723,7 +47726,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1681" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47749,7 +47752,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1682" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47775,7 +47778,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1683" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47801,7 +47804,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1684" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47827,7 +47830,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G1685" t="s">
-        <v>920</v>
+        <v>804</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47853,7 +47856,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1686" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47879,7 +47882,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1687" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47905,7 +47908,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47931,7 +47934,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1689" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47957,7 +47960,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47983,7 +47986,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48009,7 +48012,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1692" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48035,7 +48038,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1693" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48061,7 +48064,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48087,7 +48090,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1695" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48113,7 +48116,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1696" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48139,7 +48142,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1697" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48165,7 +48168,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1698" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48191,7 +48194,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1699" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48217,7 +48220,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1700" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48243,7 +48246,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1701" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48269,7 +48272,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48295,7 +48298,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1703" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48321,7 +48324,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1704" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48347,7 +48350,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1705" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48373,7 +48376,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1706" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48399,7 +48402,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48425,7 +48428,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48451,7 +48454,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1709" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48477,7 +48480,7 @@
         <v>6</v>
       </c>
       <c r="G1710" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48503,7 +48506,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1711" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48529,7 +48532,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1712" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48555,7 +48558,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1713" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48581,7 +48584,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1714" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48607,7 +48610,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1715" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48633,7 +48636,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1716" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48659,7 +48662,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48685,7 +48688,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48711,7 +48714,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1719" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48737,7 +48740,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1720" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48763,7 +48766,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1721" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48789,7 +48792,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1722" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48815,7 +48818,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1723" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48841,7 +48844,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48867,7 +48870,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1725" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48893,7 +48896,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1726" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48919,7 +48922,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G1727" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48945,7 +48948,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1728" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48971,7 +48974,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1729" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48997,7 +49000,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49023,7 +49026,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1731" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49049,7 +49052,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1732" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49075,7 +49078,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49101,7 +49104,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1734" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49127,7 +49130,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1735" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49153,7 +49156,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1736" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49179,7 +49182,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1737" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49205,7 +49208,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1738" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49231,7 +49234,7 @@
         <v>6</v>
       </c>
       <c r="G1739" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49257,7 +49260,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1740" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49283,7 +49286,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1741" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49309,7 +49312,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1742" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49335,7 +49338,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1743" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49361,7 +49364,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G1744" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49387,7 +49390,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49413,7 +49416,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1746" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49439,7 +49442,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49465,7 +49468,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1748" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49491,7 +49494,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G1749" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49517,7 +49520,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1750" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49543,7 +49546,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1751" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49569,7 +49572,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1752" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49595,7 +49598,7 @@
         <v>6.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49621,7 +49624,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49647,7 +49650,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1755" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49673,7 +49676,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1756" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49699,7 +49702,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49725,7 +49728,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49751,7 +49754,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49777,7 +49780,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1760" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49803,7 +49806,7 @@
         <v>6.75</v>
       </c>
       <c r="G1761" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49829,7 +49832,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1762" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49855,7 +49858,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49881,7 +49884,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1764" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49907,7 +49910,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1765" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49933,7 +49936,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1766" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49959,7 +49962,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1767" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49985,7 +49988,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1768" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50011,7 +50014,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50037,7 +50040,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1770" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50063,7 +50066,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50089,7 +50092,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1772" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50115,7 +50118,7 @@
         <v>6.75</v>
       </c>
       <c r="G1773" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50141,7 +50144,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1774" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50167,7 +50170,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1775" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50193,7 +50196,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1776" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50219,7 +50222,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1777" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50245,7 +50248,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1778" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50271,7 +50274,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1779" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50297,7 +50300,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1780" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50323,7 +50326,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1781" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50349,7 +50352,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50375,7 +50378,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1783" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50401,7 +50404,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1784" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50427,7 +50430,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50453,7 +50456,7 @@
         <v>7</v>
       </c>
       <c r="G1786" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50479,7 +50482,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1787" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50505,7 +50508,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50531,7 +50534,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1789" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50557,7 +50560,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1790" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50583,7 +50586,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1791" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50609,7 +50612,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1792" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50635,7 +50638,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1793" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50661,7 +50664,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1794" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50687,7 +50690,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1795" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50713,7 +50716,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1796" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50739,7 +50742,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50765,7 +50768,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1798" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50791,7 +50794,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1799" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50817,7 +50820,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1800" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50843,7 +50846,7 @@
         <v>7.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50869,7 +50872,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1802" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50895,7 +50898,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1803" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50921,7 +50924,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1804" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50947,7 +50950,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1805" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50973,7 +50976,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1806" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50999,7 +51002,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51025,7 +51028,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1808" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51051,7 +51054,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1809" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51077,7 +51080,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1810" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51103,7 +51106,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1811" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51129,7 +51132,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1812" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51155,7 +51158,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1813" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51181,7 +51184,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1814" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51207,7 +51210,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1815" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51233,7 +51236,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1816" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51259,7 +51262,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1817" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51285,7 +51288,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1818" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51311,7 +51314,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1819" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51337,7 +51340,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51363,7 +51366,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1821" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51389,7 +51392,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1822" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51415,7 +51418,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1823" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51441,7 +51444,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1824" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51467,7 +51470,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1825" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51493,7 +51496,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1826" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51519,7 +51522,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1827" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51545,7 +51548,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1828" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51571,7 +51574,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1829" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51597,7 +51600,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1830" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51623,7 +51626,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1831" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51649,7 +51652,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1832" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51675,7 +51678,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51701,7 +51704,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51727,7 +51730,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1835" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51753,7 +51756,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1836" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51779,7 +51782,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1837" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51805,7 +51808,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1838" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51831,7 +51834,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1839" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51857,7 +51860,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1840" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51883,7 +51886,7 @@
         <v>6.75</v>
       </c>
       <c r="G1841" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51909,7 +51912,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51935,7 +51938,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G1843" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51961,7 +51964,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1844" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51987,7 +51990,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1845" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52013,7 +52016,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1846" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52039,7 +52042,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1847" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52065,7 +52068,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1848" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52091,7 +52094,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1849" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52117,7 +52120,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1850" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52143,7 +52146,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1851" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52169,7 +52172,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1852" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52195,7 +52198,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1853" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52221,7 +52224,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52247,7 +52250,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52273,7 +52276,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1856" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52299,7 +52302,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1857" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52325,7 +52328,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1858" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52351,7 +52354,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52377,7 +52380,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52403,7 +52406,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1861" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52429,7 +52432,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1862" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52455,7 +52458,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1863" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52481,7 +52484,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1864" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52507,7 +52510,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1865" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52533,7 +52536,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1866" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52559,7 +52562,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1867" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52585,7 +52588,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52611,7 +52614,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1869" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52637,7 +52640,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1870" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52663,7 +52666,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52689,7 +52692,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1872" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52715,7 +52718,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1873" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52741,7 +52744,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52767,7 +52770,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52793,7 +52796,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52819,7 +52822,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1877" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52845,7 +52848,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1878" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52871,7 +52874,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1879" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52897,7 +52900,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1880" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52923,7 +52926,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52949,7 +52952,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52975,7 +52978,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1883" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53001,7 +53004,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1884" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53027,7 +53030,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1885" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53053,7 +53056,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1886" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53079,7 +53082,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1887" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53105,7 +53108,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53131,7 +53134,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1889" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53157,7 +53160,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1890" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53183,7 +53186,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53209,7 +53212,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53235,7 +53238,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1893" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53261,7 +53264,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1894" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53287,7 +53290,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1895" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53313,7 +53316,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53339,7 +53342,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1897" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53365,7 +53368,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53391,7 +53394,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1899" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53417,7 +53420,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1900" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53443,7 +53446,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1901" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53469,7 +53472,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1902" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53495,7 +53498,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1903" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53521,7 +53524,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1904" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53547,7 +53550,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1905" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53573,7 +53576,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1906" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53599,7 +53602,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1907" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53625,7 +53628,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1908" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53651,7 +53654,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53677,7 +53680,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1910" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53703,7 +53706,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53729,7 +53732,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1912" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53755,7 +53758,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G1913" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53781,7 +53784,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1914" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53807,7 +53810,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1915" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53833,7 +53836,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1916" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53859,7 +53862,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1917" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53885,7 +53888,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1918" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53911,7 +53914,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1919" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53937,7 +53940,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53963,7 +53966,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1921" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53989,7 +53992,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1922" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54015,7 +54018,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54041,7 +54044,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1924" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54067,7 +54070,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1925" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54093,7 +54096,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1926" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54119,7 +54122,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54145,7 +54148,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54171,7 +54174,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1929" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54197,7 +54200,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1930" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54223,7 +54226,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54249,7 +54252,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1932" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54275,7 +54278,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1933" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54301,7 +54304,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54327,7 +54330,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1935" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54353,7 +54356,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1936" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54379,7 +54382,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54405,7 +54408,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1938" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54431,7 +54434,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1939" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54457,7 +54460,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1940" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54483,7 +54486,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1941" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54509,7 +54512,7 @@
         <v>7.5</v>
       </c>
       <c r="G1942" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54535,7 +54538,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54561,7 +54564,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1944" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54587,7 +54590,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1945" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54613,7 +54616,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G1946" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54639,7 +54642,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1947" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54665,7 +54668,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1948" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54691,7 +54694,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1949" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54717,7 +54720,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1950" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54743,7 +54746,7 @@
         <v>7.75</v>
       </c>
       <c r="G1951" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54769,7 +54772,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1952" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54795,7 +54798,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1953" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54821,7 +54824,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54847,7 +54850,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G1955" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54873,7 +54876,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54899,7 +54902,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1957" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54925,7 +54928,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54951,7 +54954,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54977,7 +54980,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1960" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55003,7 +55006,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55029,7 +55032,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1962" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55055,7 +55058,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1963" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55081,7 +55084,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55107,7 +55110,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1965" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55133,7 +55136,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1966" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55159,7 +55162,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1967" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55185,7 +55188,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1968" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55211,7 +55214,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1969" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55237,7 +55240,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1970" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55263,7 +55266,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55289,7 +55292,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1972" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55315,7 +55318,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1973" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55341,7 +55344,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1974" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55367,7 +55370,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55393,7 +55396,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1976" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55419,7 +55422,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1977" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55445,7 +55448,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1978" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55471,7 +55474,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1979" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55497,7 +55500,7 @@
         <v>7.75</v>
       </c>
       <c r="G1980" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55523,7 +55526,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1981" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55549,7 +55552,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55575,7 +55578,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55601,7 +55604,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55627,7 +55630,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1985" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55653,7 +55656,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55679,7 +55682,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1987" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55705,7 +55708,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1988" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55731,7 +55734,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1989" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55757,7 +55760,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55783,7 +55786,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1991" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55809,7 +55812,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1992" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55835,7 +55838,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1993" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55861,7 +55864,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55887,7 +55890,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55913,7 +55916,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G1996" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55939,7 +55942,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1997" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55965,7 +55968,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1998" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55991,7 +55994,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1999" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56017,7 +56020,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2000" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56043,7 +56046,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G2001" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56069,7 +56072,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2002" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56095,7 +56098,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56121,7 +56124,7 @@
         <v>8</v>
       </c>
       <c r="G2004" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56147,7 +56150,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2005" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56173,7 +56176,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2006" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56199,7 +56202,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56225,7 +56228,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2008" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56251,7 +56254,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56277,7 +56280,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2010" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56303,7 +56306,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56329,7 +56332,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56355,7 +56358,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2013" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56381,7 +56384,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G2014" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56407,7 +56410,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2015" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56433,7 +56436,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56459,7 +56462,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2017" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56485,7 +56488,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2018" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56511,7 +56514,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G2019" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56537,7 +56540,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2020" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56563,7 +56566,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G2021" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56589,7 +56592,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2022" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56615,7 +56618,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2023" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56641,7 +56644,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2024" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56667,7 +56670,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2025" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56693,7 +56696,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2026" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56719,7 +56722,7 @@
         <v>8</v>
       </c>
       <c r="G2027" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56745,7 +56748,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2028" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56771,7 +56774,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2029" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56797,7 +56800,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2030" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56823,7 +56826,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G2031" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56849,7 +56852,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2032" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56875,7 +56878,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2033" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56901,7 +56904,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2034" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56927,7 +56930,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2035" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56953,7 +56956,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56979,7 +56982,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2037" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57005,7 +57008,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2038" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57031,7 +57034,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G2039" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57057,7 +57060,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2040" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57083,7 +57086,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2041" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57109,7 +57112,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2042" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57135,7 +57138,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2043" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57161,7 +57164,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2044" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57187,7 +57190,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2045" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57213,7 +57216,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G2046" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57239,7 +57242,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2047" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57265,7 +57268,7 @@
         <v>8.25</v>
       </c>
       <c r="G2048" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57291,7 +57294,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2049" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57317,7 +57320,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2050" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57343,7 +57346,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2051" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57369,7 +57372,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2052" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57395,7 +57398,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2053" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57421,7 +57424,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57447,7 +57450,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2055" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57473,7 +57476,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2056" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57499,7 +57502,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2057" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57525,7 +57528,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2058" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57551,7 +57554,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57577,7 +57580,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2060" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57603,7 +57606,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57629,7 +57632,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2062" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57655,7 +57658,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2063" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57681,7 +57684,7 @@
         <v>8.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57707,7 +57710,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2065" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57733,7 +57736,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2066" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57759,7 +57762,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2067" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57785,7 +57788,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2068" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57811,7 +57814,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57837,7 +57840,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2070" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57863,7 +57866,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2071" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57889,7 +57892,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57915,7 +57918,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2073" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57941,7 +57944,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2074" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57967,7 +57970,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2075" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57993,7 +57996,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2076" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58019,7 +58022,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2077" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58045,7 +58048,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2078" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58071,7 +58074,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G2079" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58097,7 +58100,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2080" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58123,7 +58126,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G2081" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58149,7 +58152,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2082" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58175,7 +58178,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58201,7 +58204,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58227,7 +58230,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58253,7 +58256,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G2086" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58279,7 +58282,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2087" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58305,7 +58308,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2088" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58331,7 +58334,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2089" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58357,7 +58360,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2090" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58383,7 +58386,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2091" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58409,7 +58412,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2092" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58435,7 +58438,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2093" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58461,7 +58464,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2094" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58487,7 +58490,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2095" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58513,7 +58516,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2096" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58539,7 +58542,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2097" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58565,7 +58568,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2098" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58591,7 +58594,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G2099" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58617,7 +58620,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2100" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58643,7 +58646,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58669,7 +58672,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58695,7 +58698,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2103" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58721,7 +58724,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2104" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58747,7 +58750,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58773,7 +58776,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58799,7 +58802,7 @@
         <v>9.25</v>
       </c>
       <c r="G2107" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58825,7 +58828,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58851,7 +58854,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2109" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58877,7 +58880,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2110" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58903,7 +58906,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2111" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58929,7 +58932,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2112" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58955,7 +58958,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2113" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58981,7 +58984,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2114" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59007,7 +59010,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2115" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59033,7 +59036,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2116" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59059,7 +59062,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G2117" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59085,7 +59088,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2118" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59111,7 +59114,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G2119" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59137,7 +59140,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G2120" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59163,7 +59166,7 @@
         <v>10</v>
       </c>
       <c r="G2121" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59189,7 +59192,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2122" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59215,7 +59218,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G2123" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59241,7 +59244,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G2124" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59267,7 +59270,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59293,7 +59296,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G2126" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59319,7 +59322,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G2127" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59345,7 +59348,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2128" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59371,7 +59374,7 @@
         <v>9.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59397,7 +59400,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2130" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59423,7 +59426,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G2131" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59449,7 +59452,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G2132" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59475,7 +59478,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59501,7 +59504,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G2134" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59527,7 +59530,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59553,7 +59556,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2136" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59579,7 +59582,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2137" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59605,7 +59608,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2138" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59631,7 +59634,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2139" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59657,7 +59660,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2140" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59683,7 +59686,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2141" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59709,7 +59712,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G2142" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59735,7 +59738,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2143" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59761,7 +59764,7 @@
         <v>9.5</v>
       </c>
       <c r="G2144" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59787,7 +59790,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59813,7 +59816,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2146" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59839,7 +59842,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2147" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59865,7 +59868,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2148" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59891,7 +59894,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G2149" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59917,7 +59920,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2150" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59943,7 +59946,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G2151" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59969,7 +59972,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2152" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59995,7 +59998,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2153" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60021,7 +60024,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2154" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60047,7 +60050,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2155" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60073,7 +60076,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2156" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60099,7 +60102,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G2157" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60107,7 +60110,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6496412037</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>192433</v>
@@ -60119,15 +60122,41 @@
         <v>9.30000019073486</v>
       </c>
       <c r="E2158" t="n">
-        <v>9.10000038146973</v>
+        <v>9.34000015258789</v>
       </c>
       <c r="F2158" t="n">
         <v>9.60000038146973</v>
       </c>
       <c r="G2158" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6493634259</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>186685</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>9.67000007629395</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>9.52000045776367</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>9.60000038146973</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>9.56999969482422</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1224">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96161222457886</t>
+    <t xml:space="preserve">4.9616117477417</t>
   </si>
   <si>
     <t xml:space="preserve">CE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00243234634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93192338943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75750589370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71297454833984</t>
+    <t xml:space="preserve">5.00243330001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93192386627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75750684738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71297407150269</t>
   </si>
   <si>
     <t xml:space="preserve">4.76492834091187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77235078811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82430458068848</t>
+    <t xml:space="preserve">4.7723503112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82430362701416</t>
   </si>
   <si>
     <t xml:space="preserve">4.72039651870728</t>
@@ -74,19 +74,19 @@
     <t xml:space="preserve">4.47547006607056</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51257991790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13405752182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32703018188477</t>
+    <t xml:space="preserve">4.51258039474487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13405799865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32703065872192</t>
   </si>
   <si>
     <t xml:space="preserve">4.45320463180542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59051179885864</t>
+    <t xml:space="preserve">4.59051132202148</t>
   </si>
   <si>
     <t xml:space="preserve">4.56082344055176</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">4.4346489906311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55711221694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55340194702148</t>
+    <t xml:space="preserve">4.5571117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55340099334717</t>
   </si>
   <si>
     <t xml:space="preserve">4.36042881011963</t>
@@ -110,25 +110,25 @@
     <t xml:space="preserve">4.23796558380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27507638931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95592999458313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78893446922302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14519071578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9856173992157</t>
+    <t xml:space="preserve">4.27507591247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95592975616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7889347076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14519119262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98561787605286</t>
   </si>
   <si>
     <t xml:space="preserve">4.25281047821045</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31589651107788</t>
+    <t xml:space="preserve">4.31589698791504</t>
   </si>
   <si>
     <t xml:space="preserve">4.38269519805908</t>
@@ -137,52 +137,52 @@
     <t xml:space="preserve">4.49031448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23054361343384</t>
+    <t xml:space="preserve">4.23054456710815</t>
   </si>
   <si>
     <t xml:space="preserve">4.16745710372925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31218576431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28620958328247</t>
+    <t xml:space="preserve">4.31218528747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28620910644531</t>
   </si>
   <si>
     <t xml:space="preserve">4.11921358108521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.193434715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28992033004761</t>
+    <t xml:space="preserve">4.19343376159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28992080688477</t>
   </si>
   <si>
     <t xml:space="preserve">4.37156200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56453418731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63504314422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62391042709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57195615768433</t>
+    <t xml:space="preserve">4.56453466415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63504266738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62391090393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57195663452148</t>
   </si>
   <si>
     <t xml:space="preserve">4.6647310256958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75008487701416</t>
+    <t xml:space="preserve">4.75008392333984</t>
   </si>
   <si>
     <t xml:space="preserve">4.81317186355591</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70184135437012</t>
+    <t xml:space="preserve">4.70184183120728</t>
   </si>
   <si>
     <t xml:space="preserve">4.72781848907471</t>
@@ -194,43 +194,43 @@
     <t xml:space="preserve">4.77977275848389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71668529510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60164451599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52742433547974</t>
+    <t xml:space="preserve">4.71668577194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60164403915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52742338180542</t>
   </si>
   <si>
     <t xml:space="preserve">4.47175931930542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46433734893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34187364578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31960868835449</t>
+    <t xml:space="preserve">4.46433687210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34187412261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31960821151733</t>
   </si>
   <si>
     <t xml:space="preserve">4.21941089630127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15261268615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10065841674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34558534622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22683334350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50886964797974</t>
+    <t xml:space="preserve">4.15261220932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10065889358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34558486938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22683238983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50886917114258</t>
   </si>
   <si>
     <t xml:space="preserve">4.59422254562378</t>
@@ -254,28 +254,28 @@
     <t xml:space="preserve">4.80946063995361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63875436782837</t>
+    <t xml:space="preserve">4.63875484466553</t>
   </si>
   <si>
     <t xml:space="preserve">4.50144672393799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51629161834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48660326004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44578170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34929656982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65813398361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57827949523926</t>
+    <t xml:space="preserve">4.51629114151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48660373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44578218460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34929609298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6581335067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5782790184021</t>
   </si>
   <si>
     <t xml:space="preserve">4.63912010192871</t>
@@ -284,40 +284,40 @@
     <t xml:space="preserve">4.69996118545532</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67714595794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68094873428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96233797073364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96994304656982</t>
+    <t xml:space="preserve">4.67714643478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68094921112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9623384475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96994256973267</t>
   </si>
   <si>
     <t xml:space="preserve">4.93952322006226</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92431211471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93191766738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83685350418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77221012115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82924842834473</t>
+    <t xml:space="preserve">4.92431259155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93191814422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83685398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77220964431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82924795150757</t>
   </si>
   <si>
     <t xml:space="preserve">4.73038196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89389228820801</t>
+    <t xml:space="preserve">4.89389181137085</t>
   </si>
   <si>
     <t xml:space="preserve">4.79502582550049</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">4.27407503128052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57067489624023</t>
+    <t xml:space="preserve">4.57067537307739</t>
   </si>
   <si>
     <t xml:space="preserve">4.79122304916382</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">4.84065628051758</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88628673553467</t>
+    <t xml:space="preserve">4.88628721237183</t>
   </si>
   <si>
     <t xml:space="preserve">5.00416660308838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13337993621826</t>
+    <t xml:space="preserve">4.13338041305542</t>
   </si>
   <si>
     <t xml:space="preserve">4.14478826522827</t>
@@ -365,40 +365,40 @@
     <t xml:space="preserve">4.12197303771973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24365472793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0345139503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8938193321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78734827041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87480664253235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04211902618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14859056472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22083902359009</t>
+    <t xml:space="preserve">4.24365425109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03451347351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89381885528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78734803199768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480592727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04211950302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14859104156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2208399772644</t>
   </si>
   <si>
     <t xml:space="preserve">4.18281364440918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3159031867981</t>
+    <t xml:space="preserve">4.31590366363525</t>
   </si>
   <si>
     <t xml:space="preserve">4.38054704666138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36533689498901</t>
+    <t xml:space="preserve">4.3653359413147</t>
   </si>
   <si>
     <t xml:space="preserve">4.46420288085938</t>
@@ -407,16 +407,16 @@
     <t xml:space="preserve">4.43378257751465</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35773181915283</t>
+    <t xml:space="preserve">4.35773134231567</t>
   </si>
   <si>
     <t xml:space="preserve">4.40716457366943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37294149398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19422149658203</t>
+    <t xml:space="preserve">4.3729419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19422101974487</t>
   </si>
   <si>
     <t xml:space="preserve">4.31210088729858</t>
@@ -425,121 +425,121 @@
     <t xml:space="preserve">4.19802379608154</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07253980636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08774995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15999794006348</t>
+    <t xml:space="preserve">4.07253932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08774948120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15999841690063</t>
   </si>
   <si>
     <t xml:space="preserve">4.09155225753784</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04972457885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05352687835693</t>
+    <t xml:space="preserve">4.04972410202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05352592468262</t>
   </si>
   <si>
     <t xml:space="preserve">3.92423987388611</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85199117660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84438633918762</t>
+    <t xml:space="preserve">3.85199093818665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84438610076904</t>
   </si>
   <si>
     <t xml:space="preserve">3.72650671005249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7249858379364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86720180511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07634210586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92804217338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396579742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84058380126953</t>
+    <t xml:space="preserve">3.72498512268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86720108985901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07634258270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92804169654846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396555900574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84058356285095</t>
   </si>
   <si>
     <t xml:space="preserve">4.02690839767456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11056518554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09535455703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17520809173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20562934875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99268555641174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99648809432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95466017723083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93944954872131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85959601402283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85579395294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81016278266907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01930379867554</t>
+    <t xml:space="preserve">4.11056566238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09535503387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.175208568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20562887191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99268531799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99648833274841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95465970039368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93945050239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85959625244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85579442977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81016302108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01930332183838</t>
   </si>
   <si>
     <t xml:space="preserve">3.8633987903595</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74171733856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7097749710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72802758216858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6580605506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67479205131531</t>
+    <t xml:space="preserve">3.74171710014343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70977592468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72802829742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65806078910828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67479181289673</t>
   </si>
   <si>
     <t xml:space="preserve">3.7067334651947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77365875244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88241147994995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84818863868713</t>
+    <t xml:space="preserve">3.77365827560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88241195678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84818840026855</t>
   </si>
   <si>
     <t xml:space="preserve">3.87860918045044</t>
@@ -548,19 +548,19 @@
     <t xml:space="preserve">3.8862144947052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83678078651428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95085787773132</t>
+    <t xml:space="preserve">3.83678126335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95085835456848</t>
   </si>
   <si>
     <t xml:space="preserve">3.90522718429565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03071117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06493377685547</t>
+    <t xml:space="preserve">4.03071165084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06493473052979</t>
   </si>
   <si>
     <t xml:space="preserve">3.97367286682129</t>
@@ -572,52 +572,52 @@
     <t xml:space="preserve">4.01169872283936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93564748764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90142416954041</t>
+    <t xml:space="preserve">3.93564701080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90142393112183</t>
   </si>
   <si>
     <t xml:space="preserve">3.81776833534241</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76909518241882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78886818885803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82157111167908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80255746841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89762187004089</t>
+    <t xml:space="preserve">3.7690954208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78886842727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8215708732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80255794525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89762234687805</t>
   </si>
   <si>
     <t xml:space="preserve">4.01550149917603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06113243103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00789642333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9622654914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91663479804993</t>
+    <t xml:space="preserve">4.06113147735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00789594650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96226501464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91663503646851</t>
   </si>
   <si>
     <t xml:space="preserve">3.93184471130371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94325256347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10676288604736</t>
+    <t xml:space="preserve">3.94325304031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10676240921021</t>
   </si>
   <si>
     <t xml:space="preserve">4.35392904281616</t>
@@ -629,34 +629,34 @@
     <t xml:space="preserve">4.29308795928955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3881516456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23604965209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3387188911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40336132049561</t>
+    <t xml:space="preserve">4.38815259933472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23604917526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33871841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40336179733276</t>
   </si>
   <si>
     <t xml:space="preserve">4.47941303253174</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34252119064331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46800518035889</t>
+    <t xml:space="preserve">4.34252071380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46800565719604</t>
   </si>
   <si>
     <t xml:space="preserve">4.48701858520508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31970596313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30829763412476</t>
+    <t xml:space="preserve">4.31970643997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30829811096191</t>
   </si>
   <si>
     <t xml:space="preserve">4.48321628570557</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">4.50603103637695</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45279502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6353178024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6505274772644</t>
+    <t xml:space="preserve">4.45279550552368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63531827926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65052843093872</t>
   </si>
   <si>
     <t xml:space="preserve">4.74559164047241</t>
@@ -686,16 +686,16 @@
     <t xml:space="preserve">4.69235610961914</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75319719314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55926656723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56307029724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64292287826538</t>
+    <t xml:space="preserve">4.75319766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55926752090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56306982040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64292335510254</t>
   </si>
   <si>
     <t xml:space="preserve">4.53645181655884</t>
@@ -704,22 +704,22 @@
     <t xml:space="preserve">4.5516619682312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61630535125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68475103378296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58208274841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59729242324829</t>
+    <t xml:space="preserve">4.61630487442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68475151062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58208227157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59729337692261</t>
   </si>
   <si>
     <t xml:space="preserve">4.47180843353271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57447719573975</t>
+    <t xml:space="preserve">4.57447624206543</t>
   </si>
   <si>
     <t xml:space="preserve">4.5858850479126</t>
@@ -728,40 +728,40 @@
     <t xml:space="preserve">4.58968782424927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62010812759399</t>
+    <t xml:space="preserve">4.62010765075684</t>
   </si>
   <si>
     <t xml:space="preserve">4.59349012374878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65433073043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77601337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8216438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89769458770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90529918670654</t>
+    <t xml:space="preserve">4.65433120727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77601289749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82164335250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89769506454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9052996635437</t>
   </si>
   <si>
     <t xml:space="preserve">4.84445858001709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94332551956177</t>
+    <t xml:space="preserve">4.94332456588745</t>
   </si>
   <si>
     <t xml:space="preserve">4.88248443603516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83305072784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87487888336182</t>
+    <t xml:space="preserve">4.8330512046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87487936019897</t>
   </si>
   <si>
     <t xml:space="preserve">4.798828125</t>
@@ -770,13 +770,13 @@
     <t xml:space="preserve">4.76080274581909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82544565200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81023550033569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73418474197388</t>
+    <t xml:space="preserve">4.82544612884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81023597717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73418426513672</t>
   </si>
   <si>
     <t xml:space="preserve">5.00036382675171</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">4.95853567123413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98135042190552</t>
+    <t xml:space="preserve">4.98135089874268</t>
   </si>
   <si>
     <t xml:space="preserve">5.0117712020874</t>
@@ -800,64 +800,64 @@
     <t xml:space="preserve">4.91290473937988</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16007137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19117975234985</t>
+    <t xml:space="preserve">5.16007089614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19117879867554</t>
   </si>
   <si>
     <t xml:space="preserve">5.30394649505615</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21062231063843</t>
+    <t xml:space="preserve">5.21062135696411</t>
   </si>
   <si>
     <t xml:space="preserve">5.3428316116333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37005186080933</t>
+    <t xml:space="preserve">5.37005138397217</t>
   </si>
   <si>
     <t xml:space="preserve">5.35838556289673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38949394226074</t>
+    <t xml:space="preserve">5.3894944190979</t>
   </si>
   <si>
     <t xml:space="preserve">5.28450393676758</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21451044082642</t>
+    <t xml:space="preserve">5.21451091766357</t>
   </si>
   <si>
     <t xml:space="preserve">5.17562532424927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2261757850647</t>
+    <t xml:space="preserve">5.22617626190186</t>
   </si>
   <si>
     <t xml:space="preserve">5.24950742721558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31950044631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31561231613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44393348693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4555983543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38560581207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31172370910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3078351020813</t>
+    <t xml:space="preserve">5.3195013999939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31561183929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44393301010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45559883117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38560628890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31172323226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30783462524414</t>
   </si>
   <si>
     <t xml:space="preserve">5.28839254379272</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">5.47892999649048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37393999099731</t>
+    <t xml:space="preserve">5.37393951416016</t>
   </si>
   <si>
     <t xml:space="preserve">5.40504837036133</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40893650054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42837905883789</t>
+    <t xml:space="preserve">5.40893697738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42837953567505</t>
   </si>
   <si>
     <t xml:space="preserve">5.49448442459106</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">5.46337604522705</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64613676071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8094539642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59169721603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61891651153564</t>
+    <t xml:space="preserve">5.64613723754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80945444107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59169769287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61891746520996</t>
   </si>
   <si>
     <t xml:space="preserve">5.63835954666138</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5800313949585</t>
+    <t xml:space="preserve">5.58003234863281</t>
   </si>
   <si>
     <t xml:space="preserve">5.62280559539795</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">5.54503488540649</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57614374160767</t>
+    <t xml:space="preserve">5.57614326477051</t>
   </si>
   <si>
     <t xml:space="preserve">5.48670721054077</t>
@@ -923,58 +923,58 @@
     <t xml:space="preserve">5.42449045181274</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53336906433105</t>
+    <t xml:space="preserve">5.53336954116821</t>
   </si>
   <si>
     <t xml:space="preserve">5.63447093963623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59947395324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66946744918823</t>
+    <t xml:space="preserve">5.59947443008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66946792602539</t>
   </si>
   <si>
     <t xml:space="preserve">5.56836652755737</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66169118881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75501489639282</t>
+    <t xml:space="preserve">5.6616907119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75501537322998</t>
   </si>
   <si>
     <t xml:space="preserve">5.92611026763916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75890398025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56447792053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70446395874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82500886917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77834701538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69279956817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74723815917969</t>
+    <t xml:space="preserve">5.75890350341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56447744369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70446443557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82500839233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77834606170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69279909133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74723768234253</t>
   </si>
   <si>
     <t xml:space="preserve">5.65002489089966</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64224863052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52948141098022</t>
+    <t xml:space="preserve">5.64224815368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52948093414307</t>
   </si>
   <si>
     <t xml:space="preserve">5.52170372009277</t>
@@ -983,16 +983,16 @@
     <t xml:space="preserve">5.53725814819336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5722541809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59558629989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6966872215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90277910232544</t>
+    <t xml:space="preserve">5.57225465774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59558534622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69668769836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9027795791626</t>
   </si>
   <si>
     <t xml:space="preserve">5.85611724853516</t>
@@ -1004,34 +1004,34 @@
     <t xml:space="preserve">5.86389398574829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80167722702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84833908081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84445142745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8950023651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90666723251343</t>
+    <t xml:space="preserve">5.80167770385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84834003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84445095062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89500188827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90666770935059</t>
   </si>
   <si>
     <t xml:space="preserve">5.92999887466431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91444492340088</t>
+    <t xml:space="preserve">5.91444540023804</t>
   </si>
   <si>
     <t xml:space="preserve">5.94944143295288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96499538421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81723260879517</t>
+    <t xml:space="preserve">5.96499586105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81723117828369</t>
   </si>
   <si>
     <t xml:space="preserve">5.86778259277344</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">5.83667469024658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78223466873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76279211044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68113327026367</t>
+    <t xml:space="preserve">5.78223562240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76279258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68113279342651</t>
   </si>
   <si>
     <t xml:space="preserve">5.70835304260254</t>
@@ -1058,40 +1058,40 @@
     <t xml:space="preserve">5.87167167663574</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85222864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73557233810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91833353042603</t>
+    <t xml:space="preserve">5.85222816467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73557281494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91833305358887</t>
   </si>
   <si>
     <t xml:space="preserve">5.60336303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50614929199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45948791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37782764434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44004535675049</t>
+    <t xml:space="preserve">5.50614976882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4594874382019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37782907485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44004487991333</t>
   </si>
   <si>
     <t xml:space="preserve">5.5022611618042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56058883666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5839204788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72779560089111</t>
+    <t xml:space="preserve">5.56058931350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58391952514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72779512405396</t>
   </si>
   <si>
     <t xml:space="preserve">5.71612977981567</t>
@@ -1106,25 +1106,25 @@
     <t xml:space="preserve">5.77445793151855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84056282043457</t>
+    <t xml:space="preserve">5.84056234359741</t>
   </si>
   <si>
     <t xml:space="preserve">5.5489239692688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52559185028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55670070648193</t>
+    <t xml:space="preserve">5.52559232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55670022964478</t>
   </si>
   <si>
     <t xml:space="preserve">5.58780908584595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43615579605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51392698287964</t>
+    <t xml:space="preserve">5.43615627288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51392650604248</t>
   </si>
   <si>
     <t xml:space="preserve">5.93388748168945</t>
@@ -1136,31 +1136,31 @@
     <t xml:space="preserve">6.05832004547119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01165819168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0038800239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10498285293579</t>
+    <t xml:space="preserve">6.01165771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00388050079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10498237609863</t>
   </si>
   <si>
     <t xml:space="preserve">6.08942842483521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04276561737061</t>
+    <t xml:space="preserve">6.04276609420776</t>
   </si>
   <si>
     <t xml:space="preserve">5.9727725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94166421890259</t>
+    <t xml:space="preserve">5.94166374206543</t>
   </si>
   <si>
     <t xml:space="preserve">5.73168420791626</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67724514007568</t>
+    <t xml:space="preserve">5.67724466323853</t>
   </si>
   <si>
     <t xml:space="preserve">5.88722515106201</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">5.73946142196655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79390001296997</t>
+    <t xml:space="preserve">5.79390048980713</t>
   </si>
   <si>
     <t xml:space="preserve">5.77056932449341</t>
@@ -1184,37 +1184,37 @@
     <t xml:space="preserve">5.70057582855225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65391397476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49059581756592</t>
+    <t xml:space="preserve">5.6539134979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49059534072876</t>
   </si>
   <si>
     <t xml:space="preserve">5.76564836502075</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68568181991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50175666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46177244186401</t>
+    <t xml:space="preserve">5.68568134307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50175619125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46177196502686</t>
   </si>
   <si>
     <t xml:space="preserve">5.31783103942871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34981775283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36581182479858</t>
+    <t xml:space="preserve">5.34981822967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36581134796143</t>
   </si>
   <si>
     <t xml:space="preserve">5.32582759857178</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30983448028564</t>
+    <t xml:space="preserve">5.30983400344849</t>
   </si>
   <si>
     <t xml:space="preserve">5.03794527053833</t>
@@ -1223,13 +1223,13 @@
     <t xml:space="preserve">4.93398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65410232543945</t>
+    <t xml:space="preserve">4.65410184860229</t>
   </si>
   <si>
     <t xml:space="preserve">4.91799449920654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83002996444702</t>
+    <t xml:space="preserve">4.83003044128418</t>
   </si>
   <si>
     <t xml:space="preserve">4.99796199798584</t>
@@ -1247,10 +1247,10 @@
     <t xml:space="preserve">4.85402011871338</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92599058151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90200138092041</t>
+    <t xml:space="preserve">4.92599105834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90200090408325</t>
   </si>
   <si>
     <t xml:space="preserve">5.00595855712891</t>
@@ -1259,19 +1259,19 @@
     <t xml:space="preserve">5.09392261505127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13390588760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18188619613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05393886566162</t>
+    <t xml:space="preserve">5.13390636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18188667297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05393934249878</t>
   </si>
   <si>
     <t xml:space="preserve">5.06193542480469</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95797777175903</t>
+    <t xml:space="preserve">4.95797824859619</t>
   </si>
   <si>
     <t xml:space="preserve">5.02195167541504</t>
@@ -1283,25 +1283,25 @@
     <t xml:space="preserve">5.08592557907104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17388963699341</t>
+    <t xml:space="preserve">5.17389011383057</t>
   </si>
   <si>
     <t xml:space="preserve">5.18988275527954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10991621017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11791276931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10191965103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04594278335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90999746322632</t>
+    <t xml:space="preserve">5.1099157333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11791229248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10191917419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0459418296814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90999698638916</t>
   </si>
   <si>
     <t xml:space="preserve">4.89400339126587</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">5.07792854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94198417663574</t>
+    <t xml:space="preserve">4.94198369979858</t>
   </si>
   <si>
     <t xml:space="preserve">4.98996448516846</t>
@@ -1319,49 +1319,49 @@
     <t xml:space="preserve">4.98196792602539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61411809921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53415107727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4701771736145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44618654251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45418310165405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47817373275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49416732788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39020919799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42219734191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25426435470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27825498580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34222841262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33423233032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54214715957642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67009496688843</t>
+    <t xml:space="preserve">4.6141185760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53415060043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47017669677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44618701934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45418405532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47817325592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4941668510437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39020872116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42219638824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25426483154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27825546264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34222888946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33423280715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54214763641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67009544372559</t>
   </si>
   <si>
     <t xml:space="preserve">4.64610481262207</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">4.66209840774536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67809247970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70208263397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72607231140137</t>
+    <t xml:space="preserve">4.67809200286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70208215713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72607183456421</t>
   </si>
   <si>
     <t xml:space="preserve">4.75006294250488</t>
@@ -1385,25 +1385,25 @@
     <t xml:space="preserve">4.8220329284668</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81403684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71007871627808</t>
+    <t xml:space="preserve">4.81403636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71007919311523</t>
   </si>
   <si>
     <t xml:space="preserve">4.52615404129028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48617029190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55814123153687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31823921203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24626779556274</t>
+    <t xml:space="preserve">4.48617076873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55814075469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31823873519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2462682723999</t>
   </si>
   <si>
     <t xml:space="preserve">4.18229389190674</t>
@@ -1415,49 +1415,49 @@
     <t xml:space="preserve">4.35822248458862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20628452301025</t>
+    <t xml:space="preserve">4.20628499984741</t>
   </si>
   <si>
     <t xml:space="preserve">4.11032390594482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07033967971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95438718795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81844329833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92240071296692</t>
+    <t xml:space="preserve">4.07034063339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95438694953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81844258308411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92240023612976</t>
   </si>
   <si>
     <t xml:space="preserve">4.21428155899048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15830421447754</t>
+    <t xml:space="preserve">4.15830373764038</t>
   </si>
   <si>
     <t xml:space="preserve">4.23027467727661</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23827171325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26226234436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13431406021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15030765533447</t>
+    <t xml:space="preserve">4.23827219009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26226139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13431358337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15030717849731</t>
   </si>
   <si>
     <t xml:space="preserve">4.09432983398438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06234359741211</t>
+    <t xml:space="preserve">4.06234312057495</t>
   </si>
   <si>
     <t xml:space="preserve">4.01436281204224</t>
@@ -1469,10 +1469,10 @@
     <t xml:space="preserve">3.99836921691895</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02235984802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16630077362061</t>
+    <t xml:space="preserve">4.0223593711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16630125045776</t>
   </si>
   <si>
     <t xml:space="preserve">4.19828748703003</t>
@@ -1490,28 +1490,28 @@
     <t xml:space="preserve">3.98237586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96238374710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95038890838623</t>
+    <t xml:space="preserve">3.96238350868225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95038843154907</t>
   </si>
   <si>
     <t xml:space="preserve">3.91440343856812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03835296630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2222785949707</t>
+    <t xml:space="preserve">4.03835344314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22227764129639</t>
   </si>
   <si>
     <t xml:space="preserve">4.1023268699646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08633327484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07833671569824</t>
+    <t xml:space="preserve">4.08633375167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07833623886108</t>
   </si>
   <si>
     <t xml:space="preserve">4.00636625289917</t>
@@ -1520,19 +1520,19 @@
     <t xml:space="preserve">4.03035640716553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89441180229187</t>
+    <t xml:space="preserve">3.89441156387329</t>
   </si>
   <si>
     <t xml:space="preserve">3.97837734222412</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91840195655823</t>
+    <t xml:space="preserve">3.91840219497681</t>
   </si>
   <si>
     <t xml:space="preserve">3.87042164802551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98637437820435</t>
+    <t xml:space="preserve">3.98637413978577</t>
   </si>
   <si>
     <t xml:space="preserve">4.19029092788696</t>
@@ -1541,22 +1541,22 @@
     <t xml:space="preserve">4.29424858093262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93839359283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97038102149963</t>
+    <t xml:space="preserve">3.93839406967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97038125991821</t>
   </si>
   <si>
     <t xml:space="preserve">4.17429733276367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95838522911072</t>
+    <t xml:space="preserve">3.9583854675293</t>
   </si>
   <si>
     <t xml:space="preserve">3.910404920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.846431016922</t>
+    <t xml:space="preserve">3.84643125534058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86242461204529</t>
@@ -1565,184 +1565,184 @@
     <t xml:space="preserve">3.81444406509399</t>
   </si>
   <si>
+    <t xml:space="preserve">3.77845859527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79098415374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79515957832336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77010869979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68243169784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69913244247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74088335037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72418284416199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71583247184753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73670792579651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65738153457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67408156394958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63650584220886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59475493431091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66155672073364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68660712242126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61980557441711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62398099899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57387971878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54047846794128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55300426483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56970453262329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54882884025574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58222961425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51542830467224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46532726287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48202753067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52377820014954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53630399703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59057974815369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74923324584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97468876838684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04149007797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92876267433167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92458701133728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94128751754761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94963765144348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98303842544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90371203422546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84108543395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96633815765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95798778533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94546246528625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89536166191101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87031102180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79933500289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78680944442749</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.77845883369446</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79098463058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79515957832336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77010869979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68243193626404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69913220405579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74088335037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72418260574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71583223342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73670816421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65738129615784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67408132553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63650584220886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59475469589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66155672073364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68660712242126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61980533599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62398099899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5738799571991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54047846794128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55300402641296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56970405578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54882884025574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58222961425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51542806625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46532726287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48202753067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52377843856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53630399703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59058022499084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74923324584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97468852996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04149007797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92876243591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9245867729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94128727912903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94963788986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98303866386414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90371179580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84108519554138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96633791923523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95798802375793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94546270370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89536190032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87031078338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79933476448059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78680920600891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77845931053162</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.75758361816406</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72000765800476</t>
+    <t xml:space="preserve">3.72000741958618</t>
   </si>
   <si>
     <t xml:space="preserve">3.76593375205994</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69078230857849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78263449668884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88283658027649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86613583564758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92041206359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02061414718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03731489181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06654071807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.058189868927</t>
+    <t xml:space="preserve">3.69078183174133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78263401985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88283634185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86613607406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92041230201721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0206151008606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03731441497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06654024124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05819034576416</t>
   </si>
   <si>
     <t xml:space="preserve">4.12081670761108</t>
@@ -1754,19 +1754,19 @@
     <t xml:space="preserve">4.33374643325806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26694488525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13751697540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16256809234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24189472198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23354387283325</t>
+    <t xml:space="preserve">4.26694536209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13751649856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16256761550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24189424514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23354434967041</t>
   </si>
   <si>
     <t xml:space="preserve">4.1667423248291</t>
@@ -1796,43 +1796,43 @@
     <t xml:space="preserve">4.05401515960693</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12499189376831</t>
+    <t xml:space="preserve">4.12499141693115</t>
   </si>
   <si>
     <t xml:space="preserve">4.21684408187866</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25024461746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3086953163147</t>
+    <t xml:space="preserve">4.25024509429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30869579315186</t>
   </si>
   <si>
     <t xml:space="preserve">4.40054798126221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37549686431885</t>
+    <t xml:space="preserve">4.37549734115601</t>
   </si>
   <si>
     <t xml:space="preserve">4.36714696884155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34209680557251</t>
+    <t xml:space="preserve">4.34209632873535</t>
   </si>
   <si>
     <t xml:space="preserve">4.3587965965271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40889835357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32539558410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.442298412323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52580070495605</t>
+    <t xml:space="preserve">4.4088978767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32539653778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44229888916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52580118179321</t>
   </si>
   <si>
     <t xml:space="preserve">4.4589991569519</t>
@@ -1847,19 +1847,19 @@
     <t xml:space="preserve">4.567551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47569942474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45064926147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42559862136841</t>
+    <t xml:space="preserve">4.47569990158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45064878463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42559909820557</t>
   </si>
   <si>
     <t xml:space="preserve">4.46734952926636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5508508682251</t>
+    <t xml:space="preserve">4.55085134506226</t>
   </si>
   <si>
     <t xml:space="preserve">4.4339485168457</t>
@@ -1874,13 +1874,13 @@
     <t xml:space="preserve">4.39219808578491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31704616546631</t>
+    <t xml:space="preserve">4.31704568862915</t>
   </si>
   <si>
     <t xml:space="preserve">4.30034589767456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29199600219727</t>
+    <t xml:space="preserve">4.29199552536011</t>
   </si>
   <si>
     <t xml:space="preserve">4.28364515304565</t>
@@ -1889,16 +1889,16 @@
     <t xml:space="preserve">4.25859451293945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20014381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97051334381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97886323928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0331392288208</t>
+    <t xml:space="preserve">4.20014333724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97051358222961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97886347770691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03313970565796</t>
   </si>
   <si>
     <t xml:space="preserve">4.1082911491394</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">4.01226425170898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82856035232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80768465995789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62815570831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43610143661499</t>
+    <t xml:space="preserve">3.82856011390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80768442153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62815546989441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43610119819641</t>
   </si>
   <si>
     <t xml:space="preserve">3.38600015640259</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">3.13131976127625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26909756660461</t>
+    <t xml:space="preserve">3.26909780502319</t>
   </si>
   <si>
     <t xml:space="preserve">2.9935417175293</t>
@@ -1943,10 +1943,10 @@
     <t xml:space="preserve">3.23987221717834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31919860839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28579831123352</t>
+    <t xml:space="preserve">3.31919884681702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28579807281494</t>
   </si>
   <si>
     <t xml:space="preserve">3.25239729881287</t>
@@ -1958,13 +1958,13 @@
     <t xml:space="preserve">3.27327275276184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1521954536438</t>
+    <t xml:space="preserve">3.15219521522522</t>
   </si>
   <si>
     <t xml:space="preserve">3.19812107086182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18977093696594</t>
+    <t xml:space="preserve">3.18977069854736</t>
   </si>
   <si>
     <t xml:space="preserve">3.22734689712524</t>
@@ -1976,31 +1976,31 @@
     <t xml:space="preserve">3.20647120475769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12296962738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19394588470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31084847450256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26074767112732</t>
+    <t xml:space="preserve">3.12296915054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19394612312317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31084871292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26074743270874</t>
   </si>
   <si>
     <t xml:space="preserve">3.28997325897217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30667352676392</t>
+    <t xml:space="preserve">3.3066737651825</t>
   </si>
   <si>
     <t xml:space="preserve">3.37347507476807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35259962081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34424948692322</t>
+    <t xml:space="preserve">3.35259938240051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34424924850464</t>
   </si>
   <si>
     <t xml:space="preserve">3.44862699508667</t>
@@ -2018,10 +2018,10 @@
     <t xml:space="preserve">3.47367715835571</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52795338630676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55717897415161</t>
+    <t xml:space="preserve">3.52795362472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55717921257019</t>
   </si>
   <si>
     <t xml:space="preserve">3.61145520210266</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">3.39435052871704</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39017534255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43192648887634</t>
+    <t xml:space="preserve">3.39017510414124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43192625045776</t>
   </si>
   <si>
     <t xml:space="preserve">3.49455261230469</t>
@@ -2048,79 +2048,79 @@
     <t xml:space="preserve">3.61563014984131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63233065605164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76175904273987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87866115570068</t>
+    <t xml:space="preserve">3.63233041763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76175856590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87866139411926</t>
   </si>
   <si>
     <t xml:space="preserve">3.85361051559448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82020998001099</t>
+    <t xml:space="preserve">3.82020950317383</t>
   </si>
   <si>
     <t xml:space="preserve">3.64068126678467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69495725631714</t>
+    <t xml:space="preserve">3.69495701789856</t>
   </si>
   <si>
     <t xml:space="preserve">3.64485573768616</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65320634841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64903116226196</t>
+    <t xml:space="preserve">3.65320611000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64903092384338</t>
   </si>
   <si>
     <t xml:space="preserve">3.60310506820679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73253297805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72835826873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60728001594543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75340819358826</t>
+    <t xml:space="preserve">3.7325325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72835803031921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60728025436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75340843200684</t>
   </si>
   <si>
     <t xml:space="preserve">3.84526062011719</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74505853652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66573119163513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59893012046814</t>
+    <t xml:space="preserve">3.74505877494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66573143005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59893035888672</t>
   </si>
   <si>
     <t xml:space="preserve">3.56552910804749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51960301399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58640503883362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50707769393921</t>
+    <t xml:space="preserve">3.51960325241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58640456199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50707793235779</t>
   </si>
   <si>
     <t xml:space="preserve">3.46950244903564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51125288009644</t>
+    <t xml:space="preserve">3.51125311851501</t>
   </si>
   <si>
     <t xml:space="preserve">3.41522598266602</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">3.40270042419434</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36512494087219</t>
+    <t xml:space="preserve">3.36512470245361</t>
   </si>
   <si>
     <t xml:space="preserve">3.33172416687012</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">3.24822235107422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26492285728455</t>
+    <t xml:space="preserve">3.26492261886597</t>
   </si>
   <si>
     <t xml:space="preserve">3.23152184486389</t>
@@ -2150,13 +2150,13 @@
     <t xml:space="preserve">3.09374380111694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08121848106384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06034278869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03946781158447</t>
+    <t xml:space="preserve">3.08121871948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06034302711487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03946757316589</t>
   </si>
   <si>
     <t xml:space="preserve">3.00189185142517</t>
@@ -2165,13 +2165,13 @@
     <t xml:space="preserve">3.00606679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96014094352722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82236289978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70546007156372</t>
+    <t xml:space="preserve">2.96014070510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82236266136169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7054603099823</t>
   </si>
   <si>
     <t xml:space="preserve">2.81818771362305</t>
@@ -2180,55 +2180,55 @@
     <t xml:space="preserve">2.88916420936584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98101615905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30249857902527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90788674354553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00808954238892</t>
+    <t xml:space="preserve">2.9810163974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30249834060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90788650512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00808906555176</t>
   </si>
   <si>
     <t xml:space="preserve">4.01643943786621</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95381307601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93711304664612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87448596954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84943580627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89118647575378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77428364753723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45280194282532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20849323272705</t>
+    <t xml:space="preserve">3.95381283760071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93711280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87448668479919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84943556785583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89118623733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77428412437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45280170440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20849370956421</t>
   </si>
   <si>
     <t xml:space="preserve">4.15421724319458</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02478981018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07071542739868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14169263839722</t>
+    <t xml:space="preserve">4.02478933334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07071590423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14169216156006</t>
   </si>
   <si>
     <t xml:space="preserve">4.19179344177246</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">4.15839242935181</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59260177612305</t>
+    <t xml:space="preserve">4.59260225296021</t>
   </si>
   <si>
     <t xml:space="preserve">4.5425009727478</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60930299758911</t>
+    <t xml:space="preserve">4.60930252075195</t>
   </si>
   <si>
     <t xml:space="preserve">4.76525640487671</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">4.66995096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55731773376465</t>
+    <t xml:space="preserve">4.55731821060181</t>
   </si>
   <si>
     <t xml:space="preserve">4.50533294677734</t>
@@ -2267,25 +2267,25 @@
     <t xml:space="preserve">4.51399755477905</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5226616859436</t>
+    <t xml:space="preserve">4.52266120910645</t>
   </si>
   <si>
     <t xml:space="preserve">4.64395904541016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71327209472656</t>
+    <t xml:space="preserve">4.7132716178894</t>
   </si>
   <si>
     <t xml:space="preserve">4.72193574905396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7046070098877</t>
+    <t xml:space="preserve">4.70460748672485</t>
   </si>
   <si>
     <t xml:space="preserve">4.82590532302856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78258419036865</t>
+    <t xml:space="preserve">4.78258466720581</t>
   </si>
   <si>
     <t xml:space="preserve">4.79991245269775</t>
@@ -2315,13 +2315,13 @@
     <t xml:space="preserve">4.41869211196899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42735624313354</t>
+    <t xml:space="preserve">4.4273567199707</t>
   </si>
   <si>
     <t xml:space="preserve">4.3753719329834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45334815979004</t>
+    <t xml:space="preserve">4.4533486366272</t>
   </si>
   <si>
     <t xml:space="preserve">4.47934055328369</t>
@@ -2333,13 +2333,13 @@
     <t xml:space="preserve">4.33205127716064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4360203742981</t>
+    <t xml:space="preserve">4.43601989746094</t>
   </si>
   <si>
     <t xml:space="preserve">4.49666929244995</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39269971847534</t>
+    <t xml:space="preserve">4.3927001953125</t>
   </si>
   <si>
     <t xml:space="preserve">4.62663078308105</t>
@@ -2348,409 +2348,403 @@
     <t xml:space="preserve">4.68727922439575</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65262269973755</t>
+    <t xml:space="preserve">4.65262317657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8518967628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92121028900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89521741867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88655376434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84323310852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86056184768677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79124879837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81724119186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92987442016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91254615783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90388202667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94720220565796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95586633682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97319459915161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04250764846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08582782745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11182069778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12048387527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96453094482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07716369628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15514087677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17246866226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22445344924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12914848327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24178218841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37174367904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42372846603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58834552764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56235408782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51903343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47571325302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46704864501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49304103851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38040781021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50170469284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60567426681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57968187332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55368995666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62300205230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73563575744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72697162628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70964336395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64033079147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68365097045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78762054443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76162815093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.744300365448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80494832992554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85693311691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54502534866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44972038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30243015289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25910997390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26777410507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18113327026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18979740142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09449243545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00785160064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98185873031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93853807449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03384304046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02517938613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05117177963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99918746948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01651525497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99052286148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05983591079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32842350006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38907146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39773559570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28510236740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19846153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14647722244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27643871307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36307907104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45838451385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09952783584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2554817199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33345890045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51540517807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28147411346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29880237579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18616914749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10819244384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71830749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84826898574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20712566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87789011001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639925003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31975841522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44105625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35441493988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21578931808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06850004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10315656661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27142238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2349419593811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18934154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12550020217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29878282546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50854539871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47206497192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68182706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60886669158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65446662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49942493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59062623977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41734409332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49030494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38086366653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3352632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10726022720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8701376914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97957897186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04341983795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95221853256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0616602897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13462066650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09814071655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05253982543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98869848251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78805685043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76069593429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84277725219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6056547164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71509552001953</t>
   </si>
   <si>
     <t xml:space="preserve">4.85189723968506</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92120981216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89521789550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88655376434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84323358535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86056137084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79124879837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81724119186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92987442016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91254615783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90388154983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94720220565796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95586633682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97319412231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04250812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08582782745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11182022094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12048435211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96453094482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07716417312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15514087677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17246866226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22445344924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12914896011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24178218841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37174320220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42372798919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58834552764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56235361099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51903295516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47571277618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46704864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49304103851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38040781021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50170469284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60567426681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57968235015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55368947982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62300205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73563528060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72697162628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70964384078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64033031463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68365144729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78762006759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76162815093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.744300365448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80494832992554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54502582550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44972038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30243062973022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25911045074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26777410507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18113327026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18979740142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09449195861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00785112380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98185873031616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93853855133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03384351730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02517986297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05117177963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99918699264526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01651525497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99052333831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05983591079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32842302322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38907146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39773559570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28510236740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19846105575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14647674560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27643823623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36307954788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45838499069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09952831268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25548124313354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3334584236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51540517807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28147411346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29880285263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18616914749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685609817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1081919670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84826946258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20712566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87788963317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639972686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31975841522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44105672836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35441541671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21578979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06850004196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10315608978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19846153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27142238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23494148254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18934154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12550067901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29878282546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50854539871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47206449508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68182706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6088662147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65446662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49942493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59062623977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41734409332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49030494689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38086366653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3352632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10726022720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8701376914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97957897186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04341983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9522180557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06165981292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13462066650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02517938613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09814071655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05253934860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98869895935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78805685043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76069641113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84277725219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6056547164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71509552001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85189771652222</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.93397808074951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88837814331055</t>
+    <t xml:space="preserve">4.88837766647339</t>
   </si>
   <si>
     <t xml:space="preserve">4.83365726470947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72421550750732</t>
+    <t xml:space="preserve">4.72421598434448</t>
   </si>
   <si>
     <t xml:space="preserve">4.91573810577393</t>
@@ -2765,7 +2759,7 @@
     <t xml:space="preserve">5.03429937362671</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16198062896729</t>
+    <t xml:space="preserve">5.16198110580444</t>
   </si>
   <si>
     <t xml:space="preserve">5.1437406539917</t>
@@ -2789,7 +2783,7 @@
     <t xml:space="preserve">5.28054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22582197189331</t>
+    <t xml:space="preserve">5.22582149505615</t>
   </si>
   <si>
     <t xml:space="preserve">5.32614326477051</t>
@@ -2822,34 +2816,34 @@
     <t xml:space="preserve">5.31702280044556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39910411834717</t>
+    <t xml:space="preserve">5.39910364151001</t>
   </si>
   <si>
     <t xml:space="preserve">5.45382452011108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5359058380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64534711837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70918750762939</t>
+    <t xml:space="preserve">5.53590536117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64534664154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70918798446655</t>
   </si>
   <si>
     <t xml:space="preserve">5.78214836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73654794692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77302837371826</t>
+    <t xml:space="preserve">5.73654747009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7730278968811</t>
   </si>
   <si>
     <t xml:space="preserve">5.81862878799438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82774925231934</t>
+    <t xml:space="preserve">5.82774877548218</t>
   </si>
   <si>
     <t xml:space="preserve">5.84598922729492</t>
@@ -2858,7 +2852,7 @@
     <t xml:space="preserve">5.86422920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92807006835938</t>
+    <t xml:space="preserve">5.92807054519653</t>
   </si>
   <si>
     <t xml:space="preserve">6.00103092193604</t>
@@ -2876,13 +2870,13 @@
     <t xml:space="preserve">6.0648717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03751087188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15607309341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01927089691162</t>
+    <t xml:space="preserve">6.03751134872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15607261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01927137374878</t>
   </si>
   <si>
     <t xml:space="preserve">6.0739917755127</t>
@@ -2903,10 +2897,10 @@
     <t xml:space="preserve">6.12871217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28375434875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21991348266602</t>
+    <t xml:space="preserve">6.28375387191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21991395950317</t>
   </si>
   <si>
     <t xml:space="preserve">6.20167350769043</t>
@@ -2915,19 +2909,19 @@
     <t xml:space="preserve">6.18343353271484</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16519355773926</t>
+    <t xml:space="preserve">6.1651930809021</t>
   </si>
   <si>
     <t xml:space="preserve">6.24727344512939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38407564163208</t>
+    <t xml:space="preserve">6.38407516479492</t>
   </si>
   <si>
     <t xml:space="preserve">6.4296760559082</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45703601837158</t>
+    <t xml:space="preserve">6.45703649520874</t>
   </si>
   <si>
     <t xml:space="preserve">6.47527647018433</t>
@@ -2939,7 +2933,7 @@
     <t xml:space="preserve">6.42055606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52087736129761</t>
+    <t xml:space="preserve">6.52087688446045</t>
   </si>
   <si>
     <t xml:space="preserve">6.41143608093262</t>
@@ -2960,7 +2954,7 @@
     <t xml:space="preserve">7.06808376312256</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15016508102417</t>
+    <t xml:space="preserve">7.15016460418701</t>
   </si>
   <si>
     <t xml:space="preserve">7.11368417739868</t>
@@ -2972,10 +2966,10 @@
     <t xml:space="preserve">7.28696584701538</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20488500595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26872587203979</t>
+    <t xml:space="preserve">7.20488548278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26872539520264</t>
   </si>
   <si>
     <t xml:space="preserve">7.27784633636475</t>
@@ -2984,7 +2978,7 @@
     <t xml:space="preserve">7.19576501846313</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25048589706421</t>
+    <t xml:space="preserve">7.25048542022705</t>
   </si>
   <si>
     <t xml:space="preserve">7.37816762924194</t>
@@ -3002,7 +2996,7 @@
     <t xml:space="preserve">7.50584840774536</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44200754165649</t>
+    <t xml:space="preserve">7.44200801849365</t>
   </si>
   <si>
     <t xml:space="preserve">7.38728761672974</t>
@@ -3014,7 +3008,7 @@
     <t xml:space="preserve">7.31432676315308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34168672561646</t>
+    <t xml:space="preserve">7.34168720245361</t>
   </si>
   <si>
     <t xml:space="preserve">7.42376804351807</t>
@@ -3023,7 +3017,7 @@
     <t xml:space="preserve">7.45112800598145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4602484703064</t>
+    <t xml:space="preserve">7.46024894714355</t>
   </si>
   <si>
     <t xml:space="preserve">7.49672889709473</t>
@@ -3050,7 +3044,7 @@
     <t xml:space="preserve">5.94631052017212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25639390945435</t>
+    <t xml:space="preserve">6.2563943862915</t>
   </si>
   <si>
     <t xml:space="preserve">6.19255304336548</t>
@@ -3062,7 +3056,7 @@
     <t xml:space="preserve">6.44791650772095</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50263738632202</t>
+    <t xml:space="preserve">6.50263690948486</t>
   </si>
   <si>
     <t xml:space="preserve">6.40231561660767</t>
@@ -3071,7 +3065,7 @@
     <t xml:space="preserve">6.49351692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60295820236206</t>
+    <t xml:space="preserve">6.6029577255249</t>
   </si>
   <si>
     <t xml:space="preserve">6.5299973487854</t>
@@ -3089,7 +3083,7 @@
     <t xml:space="preserve">6.56647729873657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58471727371216</t>
+    <t xml:space="preserve">6.58471775054932</t>
   </si>
   <si>
     <t xml:space="preserve">6.48439693450928</t>
@@ -3687,6 +3681,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.27999973297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47999954223633</t>
   </si>
 </sst>
 </file>
@@ -46140,7 +46137,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1620" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46166,7 +46163,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1621" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46192,7 +46189,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1622" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46218,7 +46215,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46244,7 +46241,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1624" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46270,7 +46267,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46296,7 +46293,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46322,7 +46319,7 @@
         <v>6</v>
       </c>
       <c r="G1627" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46348,7 +46345,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1628" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46374,7 +46371,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1629" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46400,7 +46397,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1630" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46426,7 +46423,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1631" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46452,7 +46449,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1632" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46478,7 +46475,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46504,7 +46501,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46530,7 +46527,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1635" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46556,7 +46553,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46582,7 +46579,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1637" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46608,7 +46605,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46634,7 +46631,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1639" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46660,7 +46657,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1640" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46686,7 +46683,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1641" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46712,7 +46709,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1642" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46738,7 +46735,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1643" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46764,7 +46761,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46790,7 +46787,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1645" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46816,7 +46813,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1646" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46842,7 +46839,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1647" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46868,7 +46865,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1648" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46894,7 +46891,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1649" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46920,7 +46917,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46946,7 +46943,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1651" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46972,7 +46969,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1652" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46998,7 +46995,7 @@
         <v>5.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47024,7 +47021,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1654" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47050,7 +47047,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1655" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47076,7 +47073,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1656" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47102,7 +47099,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47128,7 +47125,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1658" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47154,7 +47151,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1659" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47180,7 +47177,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G1660" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47206,7 +47203,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1661" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47232,7 +47229,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1662" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47258,7 +47255,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1663" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47284,7 +47281,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1664" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47310,7 +47307,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1665" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47336,7 +47333,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47362,7 +47359,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1667" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47388,7 +47385,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1668" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47414,7 +47411,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47440,7 +47437,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G1670" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47466,7 +47463,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1671" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47492,7 +47489,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1672" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47518,7 +47515,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1673" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47544,7 +47541,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1674" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47570,7 +47567,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1675" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47596,7 +47593,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1676" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47622,7 +47619,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1677" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47648,7 +47645,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1678" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47674,7 +47671,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1679" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47700,7 +47697,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G1680" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47726,7 +47723,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1681" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47752,7 +47749,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1682" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47778,7 +47775,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1683" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47804,7 +47801,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1684" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47856,7 +47853,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1686" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47882,7 +47879,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1687" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47908,7 +47905,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47934,7 +47931,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1689" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47960,7 +47957,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47986,7 +47983,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48012,7 +48009,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1692" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48038,7 +48035,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1693" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48064,7 +48061,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48090,7 +48087,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G1695" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48116,7 +48113,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1696" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48142,7 +48139,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1697" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48168,7 +48165,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1698" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48194,7 +48191,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1699" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48220,7 +48217,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1700" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48246,7 +48243,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1701" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48272,7 +48269,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48298,7 +48295,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1703" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48324,7 +48321,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1704" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48350,7 +48347,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1705" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48376,7 +48373,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1706" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48402,7 +48399,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48428,7 +48425,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48454,7 +48451,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1709" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48480,7 +48477,7 @@
         <v>6</v>
       </c>
       <c r="G1710" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48506,7 +48503,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1711" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48532,7 +48529,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1712" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48558,7 +48555,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1713" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48584,7 +48581,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1714" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48610,7 +48607,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1715" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48636,7 +48633,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1716" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48662,7 +48659,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48688,7 +48685,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48714,7 +48711,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1719" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48740,7 +48737,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1720" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48766,7 +48763,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1721" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48792,7 +48789,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1722" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48818,7 +48815,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1723" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48844,7 +48841,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48870,7 +48867,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1725" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48896,7 +48893,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1726" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48922,7 +48919,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G1727" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48948,7 +48945,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G1728" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48974,7 +48971,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1729" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49000,7 +48997,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49026,7 +49023,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1731" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49052,7 +49049,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1732" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49078,7 +49075,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49104,7 +49101,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1734" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49130,7 +49127,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1735" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49156,7 +49153,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1736" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49182,7 +49179,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1737" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49208,7 +49205,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1738" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49234,7 +49231,7 @@
         <v>6</v>
       </c>
       <c r="G1739" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49260,7 +49257,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1740" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49286,7 +49283,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1741" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49312,7 +49309,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1742" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49338,7 +49335,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1743" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49364,7 +49361,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G1744" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49390,7 +49387,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49416,7 +49413,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1746" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49442,7 +49439,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49468,7 +49465,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1748" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49494,7 +49491,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G1749" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49520,7 +49517,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1750" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49546,7 +49543,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1751" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49572,7 +49569,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1752" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49598,7 +49595,7 @@
         <v>6.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49624,7 +49621,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49650,7 +49647,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1755" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49676,7 +49673,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1756" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49702,7 +49699,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49728,7 +49725,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49754,7 +49751,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49780,7 +49777,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1760" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49806,7 +49803,7 @@
         <v>6.75</v>
       </c>
       <c r="G1761" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49832,7 +49829,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1762" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49858,7 +49855,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49884,7 +49881,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1764" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49910,7 +49907,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1765" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49936,7 +49933,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1766" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49962,7 +49959,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1767" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49988,7 +49985,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1768" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50014,7 +50011,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50040,7 +50037,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1770" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50066,7 +50063,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50092,7 +50089,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1772" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50118,7 +50115,7 @@
         <v>6.75</v>
       </c>
       <c r="G1773" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50144,7 +50141,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1774" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50170,7 +50167,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1775" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50196,7 +50193,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1776" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50222,7 +50219,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1777" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50248,7 +50245,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1778" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50274,7 +50271,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1779" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50300,7 +50297,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1780" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50326,7 +50323,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1781" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50352,7 +50349,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50378,7 +50375,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1783" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50404,7 +50401,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1784" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50430,7 +50427,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50456,7 +50453,7 @@
         <v>7</v>
       </c>
       <c r="G1786" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50482,7 +50479,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1787" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50508,7 +50505,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50534,7 +50531,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1789" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50560,7 +50557,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1790" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50586,7 +50583,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1791" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50612,7 +50609,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1792" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50638,7 +50635,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1793" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50664,7 +50661,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1794" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50690,7 +50687,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1795" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50716,7 +50713,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1796" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50742,7 +50739,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50768,7 +50765,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1798" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50794,7 +50791,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1799" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50820,7 +50817,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1800" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50846,7 +50843,7 @@
         <v>7.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50872,7 +50869,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1802" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50898,7 +50895,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1803" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50924,7 +50921,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1804" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50950,7 +50947,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1805" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50976,7 +50973,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1806" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51002,7 +50999,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51028,7 +51025,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1808" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51054,7 +51051,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1809" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51080,7 +51077,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1810" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51106,7 +51103,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1811" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51132,7 +51129,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1812" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51158,7 +51155,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1813" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51184,7 +51181,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1814" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51210,7 +51207,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1815" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51236,7 +51233,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1816" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51262,7 +51259,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1817" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51288,7 +51285,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1818" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51314,7 +51311,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1819" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51340,7 +51337,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51366,7 +51363,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1821" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51392,7 +51389,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1822" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51418,7 +51415,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1823" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51444,7 +51441,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1824" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51470,7 +51467,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1825" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51496,7 +51493,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1826" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51522,7 +51519,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1827" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51548,7 +51545,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1828" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51574,7 +51571,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1829" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51600,7 +51597,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1830" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51626,7 +51623,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1831" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51652,7 +51649,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1832" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51678,7 +51675,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51704,7 +51701,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51730,7 +51727,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1835" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51756,7 +51753,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1836" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51782,7 +51779,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1837" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51808,7 +51805,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1838" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51834,7 +51831,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1839" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51860,7 +51857,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1840" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51886,7 +51883,7 @@
         <v>6.75</v>
       </c>
       <c r="G1841" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51912,7 +51909,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51938,7 +51935,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G1843" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51964,7 +51961,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1844" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51990,7 +51987,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1845" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52016,7 +52013,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1846" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52042,7 +52039,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1847" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52068,7 +52065,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1848" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52094,7 +52091,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1849" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52120,7 +52117,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1850" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52146,7 +52143,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1851" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52172,7 +52169,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1852" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52198,7 +52195,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1853" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52224,7 +52221,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52250,7 +52247,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52276,7 +52273,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1856" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52302,7 +52299,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1857" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52328,7 +52325,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1858" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52354,7 +52351,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52380,7 +52377,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52406,7 +52403,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1861" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52432,7 +52429,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1862" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52458,7 +52455,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1863" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52484,7 +52481,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1864" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52510,7 +52507,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1865" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52536,7 +52533,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1866" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52562,7 +52559,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1867" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52588,7 +52585,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52614,7 +52611,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1869" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52640,7 +52637,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1870" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52666,7 +52663,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52692,7 +52689,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1872" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52718,7 +52715,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1873" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52744,7 +52741,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52770,7 +52767,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52796,7 +52793,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52822,7 +52819,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1877" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52848,7 +52845,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1878" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52874,7 +52871,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1879" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52900,7 +52897,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1880" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52926,7 +52923,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52952,7 +52949,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52978,7 +52975,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1883" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53004,7 +53001,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1884" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53030,7 +53027,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1885" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53056,7 +53053,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1886" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53082,7 +53079,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1887" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53108,7 +53105,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53134,7 +53131,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1889" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53160,7 +53157,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1890" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53186,7 +53183,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1891" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53212,7 +53209,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53238,7 +53235,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1893" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53264,7 +53261,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1894" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53290,7 +53287,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1895" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53316,7 +53313,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53342,7 +53339,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1897" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53368,7 +53365,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53394,7 +53391,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1899" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53420,7 +53417,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1900" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53446,7 +53443,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1901" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53472,7 +53469,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1902" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53498,7 +53495,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1903" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53524,7 +53521,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1904" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53550,7 +53547,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1905" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53576,7 +53573,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1906" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53602,7 +53599,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1907" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53628,7 +53625,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1908" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53654,7 +53651,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53680,7 +53677,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1910" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53706,7 +53703,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53732,7 +53729,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1912" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53758,7 +53755,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G1913" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53784,7 +53781,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1914" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53810,7 +53807,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1915" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53836,7 +53833,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1916" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53862,7 +53859,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1917" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53888,7 +53885,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1918" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53914,7 +53911,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1919" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53940,7 +53937,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53966,7 +53963,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1921" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53992,7 +53989,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1922" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54018,7 +54015,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54044,7 +54041,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1924" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54070,7 +54067,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1925" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54096,7 +54093,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1926" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54122,7 +54119,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54148,7 +54145,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54174,7 +54171,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1929" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54200,7 +54197,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1930" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54226,7 +54223,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54252,7 +54249,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1932" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54278,7 +54275,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1933" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54304,7 +54301,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54330,7 +54327,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1935" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54356,7 +54353,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1936" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54382,7 +54379,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54408,7 +54405,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1938" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54434,7 +54431,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1939" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54460,7 +54457,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G1940" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54486,7 +54483,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1941" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54512,7 +54509,7 @@
         <v>7.5</v>
       </c>
       <c r="G1942" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54538,7 +54535,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1943" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54564,7 +54561,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1944" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54590,7 +54587,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1945" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54616,7 +54613,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G1946" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54642,7 +54639,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1947" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54668,7 +54665,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1948" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54694,7 +54691,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1949" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54720,7 +54717,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1950" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54746,7 +54743,7 @@
         <v>7.75</v>
       </c>
       <c r="G1951" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54772,7 +54769,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1952" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54798,7 +54795,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1953" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54824,7 +54821,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54850,7 +54847,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G1955" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54876,7 +54873,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1956" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54902,7 +54899,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1957" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54928,7 +54925,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54954,7 +54951,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54980,7 +54977,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1960" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55006,7 +55003,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55032,7 +55029,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1962" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55058,7 +55055,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1963" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55084,7 +55081,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55110,7 +55107,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1965" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55136,7 +55133,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1966" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55162,7 +55159,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1967" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55188,7 +55185,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1968" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55214,7 +55211,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1969" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55240,7 +55237,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1970" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55266,7 +55263,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55292,7 +55289,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1972" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55318,7 +55315,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1973" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55344,7 +55341,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G1974" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55370,7 +55367,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55396,7 +55393,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1976" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55422,7 +55419,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1977" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55448,7 +55445,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G1978" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55474,7 +55471,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1979" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55500,7 +55497,7 @@
         <v>7.75</v>
       </c>
       <c r="G1980" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55526,7 +55523,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1981" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55552,7 +55549,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55578,7 +55575,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55604,7 +55601,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55630,7 +55627,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1985" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55656,7 +55653,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55682,7 +55679,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1987" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55708,7 +55705,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G1988" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55734,7 +55731,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G1989" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55760,7 +55757,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55786,7 +55783,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1991" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55812,7 +55809,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G1992" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55838,7 +55835,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1993" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55864,7 +55861,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55890,7 +55887,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55916,7 +55913,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G1996" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55942,7 +55939,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1997" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55968,7 +55965,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1998" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55994,7 +55991,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G1999" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56020,7 +56017,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2000" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56046,7 +56043,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G2001" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56072,7 +56069,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2002" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56098,7 +56095,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56124,7 +56121,7 @@
         <v>8</v>
       </c>
       <c r="G2004" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56150,7 +56147,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2005" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56176,7 +56173,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G2006" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56202,7 +56199,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56228,7 +56225,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2008" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56254,7 +56251,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56280,7 +56277,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2010" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56306,7 +56303,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56332,7 +56329,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56358,7 +56355,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2013" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56384,7 +56381,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G2014" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56410,7 +56407,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2015" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56436,7 +56433,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56462,7 +56459,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2017" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56488,7 +56485,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2018" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56514,7 +56511,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G2019" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56540,7 +56537,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2020" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56566,7 +56563,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G2021" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56592,7 +56589,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2022" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56618,7 +56615,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2023" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56644,7 +56641,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2024" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56670,7 +56667,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2025" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56696,7 +56693,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2026" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56722,7 +56719,7 @@
         <v>8</v>
       </c>
       <c r="G2027" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56748,7 +56745,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2028" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56774,7 +56771,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2029" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56800,7 +56797,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G2030" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56826,7 +56823,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G2031" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56852,7 +56849,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2032" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56878,7 +56875,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2033" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56904,7 +56901,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2034" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56930,7 +56927,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2035" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56956,7 +56953,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56982,7 +56979,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2037" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57008,7 +57005,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2038" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57034,7 +57031,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G2039" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57060,7 +57057,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2040" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57086,7 +57083,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2041" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57112,7 +57109,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2042" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57138,7 +57135,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2043" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57164,7 +57161,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G2044" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57190,7 +57187,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2045" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57216,7 +57213,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G2046" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57242,7 +57239,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G2047" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57268,7 +57265,7 @@
         <v>8.25</v>
       </c>
       <c r="G2048" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57294,7 +57291,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2049" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57320,7 +57317,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2050" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57346,7 +57343,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2051" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57372,7 +57369,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2052" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57398,7 +57395,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2053" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57424,7 +57421,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57450,7 +57447,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2055" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57476,7 +57473,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2056" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57502,7 +57499,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2057" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57528,7 +57525,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2058" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57554,7 +57551,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57580,7 +57577,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2060" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57606,7 +57603,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57632,7 +57629,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2062" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57658,7 +57655,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2063" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57684,7 +57681,7 @@
         <v>8.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57710,7 +57707,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2065" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57736,7 +57733,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2066" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57762,7 +57759,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2067" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57788,7 +57785,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2068" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57814,7 +57811,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57840,7 +57837,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2070" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57866,7 +57863,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2071" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57892,7 +57889,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57918,7 +57915,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2073" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57944,7 +57941,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2074" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57970,7 +57967,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2075" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57996,7 +57993,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2076" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58022,7 +58019,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2077" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58048,7 +58045,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2078" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58074,7 +58071,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G2079" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58100,7 +58097,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2080" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58126,7 +58123,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G2081" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58152,7 +58149,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2082" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58178,7 +58175,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58204,7 +58201,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2084" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58230,7 +58227,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2085" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58256,7 +58253,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G2086" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58282,7 +58279,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2087" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58308,7 +58305,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2088" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58334,7 +58331,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2089" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58360,7 +58357,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2090" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58386,7 +58383,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2091" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58412,7 +58409,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2092" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58438,7 +58435,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2093" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58464,7 +58461,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2094" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58490,7 +58487,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2095" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58516,7 +58513,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2096" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58542,7 +58539,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G2097" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58568,7 +58565,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2098" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58594,7 +58591,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G2099" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58620,7 +58617,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G2100" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58646,7 +58643,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58672,7 +58669,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58698,7 +58695,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2103" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58724,7 +58721,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2104" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58750,7 +58747,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58776,7 +58773,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58802,7 +58799,7 @@
         <v>9.25</v>
       </c>
       <c r="G2107" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58828,7 +58825,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G2108" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58854,7 +58851,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2109" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58880,7 +58877,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2110" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58906,7 +58903,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2111" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58932,7 +58929,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2112" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58958,7 +58955,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2113" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58984,7 +58981,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G2114" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59010,7 +59007,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2115" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59036,7 +59033,7 @@
         <v>9.52999973297119</v>
       </c>
       <c r="G2116" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59062,7 +59059,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G2117" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59088,7 +59085,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2118" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59114,7 +59111,7 @@
         <v>9.90999984741211</v>
       </c>
       <c r="G2119" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59140,7 +59137,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G2120" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59166,7 +59163,7 @@
         <v>10</v>
       </c>
       <c r="G2121" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59192,7 +59189,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2122" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59218,7 +59215,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G2123" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59244,7 +59241,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G2124" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59270,7 +59267,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59296,7 +59293,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G2126" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59322,7 +59319,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G2127" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59348,7 +59345,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2128" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59374,7 +59371,7 @@
         <v>9.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59400,7 +59397,7 @@
         <v>9.68000030517578</v>
       </c>
       <c r="G2130" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59426,7 +59423,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G2131" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59452,7 +59449,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G2132" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59478,7 +59475,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59504,7 +59501,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G2134" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59530,7 +59527,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59556,7 +59553,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2136" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59582,7 +59579,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2137" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59608,7 +59605,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G2138" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59634,7 +59631,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G2139" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59660,7 +59657,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2140" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59686,7 +59683,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2141" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59712,7 +59709,7 @@
         <v>9.60999965667725</v>
       </c>
       <c r="G2142" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59738,7 +59735,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G2143" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59764,7 +59761,7 @@
         <v>9.5</v>
       </c>
       <c r="G2144" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59790,7 +59787,7 @@
         <v>9.46000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59816,7 +59813,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2146" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59842,7 +59839,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G2147" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59868,7 +59865,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G2148" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59894,7 +59891,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G2149" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59920,7 +59917,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G2150" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59946,7 +59943,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G2151" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59972,7 +59969,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2152" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59998,7 +59995,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2153" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60024,7 +60021,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2154" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60050,7 +60047,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2155" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60076,7 +60073,7 @@
         <v>9.38000011444092</v>
       </c>
       <c r="G2156" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60102,7 +60099,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G2157" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60128,7 +60125,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2158" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60136,7 +60133,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6493634259</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>186685</v>
@@ -60154,9 +60151,35 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2159" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.649537037</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>137413</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>9.60000038146973</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>9.44999980926514</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>9.57999992370605</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>9.47999954223633</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CE.MI.xlsx
+++ b/data/CE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="1226">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9616117477417</t>
+    <t xml:space="preserve">4.96161127090454</t>
   </si>
   <si>
     <t xml:space="preserve">CE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00243330001831</t>
+    <t xml:space="preserve">5.00243282318115</t>
   </si>
   <si>
     <t xml:space="preserve">4.93192386627197</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">4.75750684738159</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71297407150269</t>
+    <t xml:space="preserve">4.712975025177</t>
   </si>
   <si>
     <t xml:space="preserve">4.76492834091187</t>
@@ -62,136 +62,136 @@
     <t xml:space="preserve">4.7723503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82430362701416</t>
+    <t xml:space="preserve">4.82430458068848</t>
   </si>
   <si>
     <t xml:space="preserve">4.72039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67957544326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47547006607056</t>
+    <t xml:space="preserve">4.67957496643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47547054290771</t>
   </si>
   <si>
     <t xml:space="preserve">4.51258039474487</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13405799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32703065872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45320463180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59051132202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56082344055176</t>
+    <t xml:space="preserve">4.13405847549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32702970504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45320415496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59051179885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5608229637146</t>
   </si>
   <si>
     <t xml:space="preserve">4.4346489906311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5571117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55340099334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36042881011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20085573196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23796558380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27507591247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95592975616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7889347076416</t>
+    <t xml:space="preserve">4.55711221694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55340147018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36042928695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20085620880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23796653747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27507638931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95592999458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78893494606018</t>
   </si>
   <si>
     <t xml:space="preserve">4.14519119262695</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98561787605286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25281047821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31589698791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38269519805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49031448364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23054456710815</t>
+    <t xml:space="preserve">3.98561716079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25280952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3158974647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38269567489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49031400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.230544090271</t>
   </si>
   <si>
     <t xml:space="preserve">4.16745710372925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31218528747559</t>
+    <t xml:space="preserve">4.3121862411499</t>
   </si>
   <si>
     <t xml:space="preserve">4.28620910644531</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11921358108521</t>
+    <t xml:space="preserve">4.11921405792236</t>
   </si>
   <si>
     <t xml:space="preserve">4.19343376159668</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28992080688477</t>
+    <t xml:space="preserve">4.28991985321045</t>
   </si>
   <si>
     <t xml:space="preserve">4.37156200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56453466415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63504266738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62391090393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57195663452148</t>
+    <t xml:space="preserve">4.56453418731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63504314422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62391042709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57195615768433</t>
   </si>
   <si>
     <t xml:space="preserve">4.6647310256958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75008392333984</t>
+    <t xml:space="preserve">4.75008487701416</t>
   </si>
   <si>
     <t xml:space="preserve">4.81317186355591</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70184183120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72781848907471</t>
+    <t xml:space="preserve">4.70184135437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72781801223755</t>
   </si>
   <si>
     <t xml:space="preserve">4.58308935165405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77977275848389</t>
+    <t xml:space="preserve">4.77977228164673</t>
   </si>
   <si>
     <t xml:space="preserve">4.71668577194214</t>
@@ -200,22 +200,22 @@
     <t xml:space="preserve">4.60164403915405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52742338180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47175931930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46433687210083</t>
+    <t xml:space="preserve">4.52742433547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47175884246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46433734893799</t>
   </si>
   <si>
     <t xml:space="preserve">4.34187412261963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31960821151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21941089630127</t>
+    <t xml:space="preserve">4.31960773468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21941041946411</t>
   </si>
   <si>
     <t xml:space="preserve">4.15261220932007</t>
@@ -227,55 +227,55 @@
     <t xml:space="preserve">4.34558486938477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22683238983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50886917114258</t>
+    <t xml:space="preserve">4.2268328666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50886964797974</t>
   </si>
   <si>
     <t xml:space="preserve">4.59422254562378</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61648845672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65359830856323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65730953216553</t>
+    <t xml:space="preserve">4.61648893356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65359783172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65730905532837</t>
   </si>
   <si>
     <t xml:space="preserve">4.731529712677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7537956237793</t>
+    <t xml:space="preserve">4.75379610061646</t>
   </si>
   <si>
     <t xml:space="preserve">4.80946063995361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63875484466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50144672393799</t>
+    <t xml:space="preserve">4.63875389099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50144720077515</t>
   </si>
   <si>
     <t xml:space="preserve">4.51629114151001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48660373687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44578218460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34929609298706</t>
+    <t xml:space="preserve">4.48660326004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44578170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3492956161499</t>
   </si>
   <si>
     <t xml:space="preserve">4.6581335067749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5782790184021</t>
+    <t xml:space="preserve">4.57827949523926</t>
   </si>
   <si>
     <t xml:space="preserve">4.63912010192871</t>
@@ -284,31 +284,31 @@
     <t xml:space="preserve">4.69996118545532</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67714643478394</t>
+    <t xml:space="preserve">4.67714595794678</t>
   </si>
   <si>
     <t xml:space="preserve">4.68094921112061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9623384475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96994256973267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93952322006226</t>
+    <t xml:space="preserve">4.96233749389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96994304656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9395227432251</t>
   </si>
   <si>
     <t xml:space="preserve">4.92431259155273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93191814422607</t>
+    <t xml:space="preserve">4.93191766738892</t>
   </si>
   <si>
     <t xml:space="preserve">4.83685398101807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77220964431763</t>
+    <t xml:space="preserve">4.77221012115479</t>
   </si>
   <si>
     <t xml:space="preserve">4.82924795150757</t>
@@ -317,16 +317,16 @@
     <t xml:space="preserve">4.73038196563721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89389181137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79502582550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80643367767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69615936279297</t>
+    <t xml:space="preserve">4.89389228820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79502534866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80643320083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69615888595581</t>
   </si>
   <si>
     <t xml:space="preserve">4.46040010452271</t>
@@ -341,49 +341,49 @@
     <t xml:space="preserve">4.27407503128052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57067537307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79122304916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84065628051758</t>
+    <t xml:space="preserve">4.57067489624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79122352600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84065580368042</t>
   </si>
   <si>
     <t xml:space="preserve">4.88628721237183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00416660308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13338041305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14478826522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12197303771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24365425109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03451347351074</t>
+    <t xml:space="preserve">5.00416564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13337993621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14478778839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12197256088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24365472793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0345139503479</t>
   </si>
   <si>
     <t xml:space="preserve">3.89381885528564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78734803199768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87480592727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04211950302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14859104156494</t>
+    <t xml:space="preserve">3.78734755516052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480688095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04211902618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14859056472778</t>
   </si>
   <si>
     <t xml:space="preserve">4.2208399772644</t>
@@ -392,25 +392,25 @@
     <t xml:space="preserve">4.18281364440918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31590366363525</t>
+    <t xml:space="preserve">4.3159031867981</t>
   </si>
   <si>
     <t xml:space="preserve">4.38054704666138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3653359413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46420288085938</t>
+    <t xml:space="preserve">4.36533641815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46420240402222</t>
   </si>
   <si>
     <t xml:space="preserve">4.43378257751465</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35773134231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40716457366943</t>
+    <t xml:space="preserve">4.35773086547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40716505050659</t>
   </si>
   <si>
     <t xml:space="preserve">4.3729419708252</t>
@@ -422,13 +422,13 @@
     <t xml:space="preserve">4.31210088729858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19802379608154</t>
+    <t xml:space="preserve">4.19802474975586</t>
   </si>
   <si>
     <t xml:space="preserve">4.07253932952881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08774948120117</t>
+    <t xml:space="preserve">4.08774995803833</t>
   </si>
   <si>
     <t xml:space="preserve">4.15999841690063</t>
@@ -440,31 +440,31 @@
     <t xml:space="preserve">4.04972410202026</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05352592468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92423987388611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85199093818665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84438610076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72650671005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72498512268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86720108985901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07634258270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92804169654846</t>
+    <t xml:space="preserve">4.05352687835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92423963546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85199117660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84438586235046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72650694847107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7249858379364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86720132827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07634210586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9280424118042</t>
   </si>
   <si>
     <t xml:space="preserve">3.81396555900574</t>
@@ -479,16 +479,16 @@
     <t xml:space="preserve">4.11056566238403</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09535503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.175208568573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20562887191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99268531799316</t>
+    <t xml:space="preserve">4.0953540802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17520809173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20562934875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99268555641174</t>
   </si>
   <si>
     <t xml:space="preserve">3.99648833274841</t>
@@ -497,16 +497,16 @@
     <t xml:space="preserve">3.95465970039368</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93945050239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85959625244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85579442977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81016302108765</t>
+    <t xml:space="preserve">3.93944954872131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85959601402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85579395294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81016254425049</t>
   </si>
   <si>
     <t xml:space="preserve">4.01930332183838</t>
@@ -515,109 +515,109 @@
     <t xml:space="preserve">3.8633987903595</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74171710014343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70977592468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72802829742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65806078910828</t>
+    <t xml:space="preserve">3.74171733856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70977544784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72802710533142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65806031227112</t>
   </si>
   <si>
     <t xml:space="preserve">3.67479181289673</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7067334651947</t>
+    <t xml:space="preserve">3.70673322677612</t>
   </si>
   <si>
     <t xml:space="preserve">3.77365827560425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88241195678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84818840026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87860918045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8862144947052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83678126335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95085835456848</t>
+    <t xml:space="preserve">3.88241171836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84818863868713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87860941886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88621425628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83678102493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95085740089417</t>
   </si>
   <si>
     <t xml:space="preserve">3.90522718429565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03071165084839</t>
+    <t xml:space="preserve">4.03071212768555</t>
   </si>
   <si>
     <t xml:space="preserve">4.06493473052979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97367286682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02310657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01169872283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93564701080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90142393112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81776833534241</t>
+    <t xml:space="preserve">3.97367262840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02310609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01169919967651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93564820289612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90142464637756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81776785850525</t>
   </si>
   <si>
     <t xml:space="preserve">3.7690954208374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78886842727661</t>
+    <t xml:space="preserve">3.78886866569519</t>
   </si>
   <si>
     <t xml:space="preserve">3.8215708732605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80255794525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89762234687805</t>
+    <t xml:space="preserve">3.80255818367004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89762187004089</t>
   </si>
   <si>
     <t xml:space="preserve">4.01550149917603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06113147735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00789594650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96226501464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91663503646851</t>
+    <t xml:space="preserve">4.06113243103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00789546966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9622654914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91663479804993</t>
   </si>
   <si>
     <t xml:space="preserve">3.93184471130371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94325304031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10676240921021</t>
+    <t xml:space="preserve">3.94325256347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10676288604736</t>
   </si>
   <si>
     <t xml:space="preserve">4.35392904281616</t>
@@ -626,25 +626,25 @@
     <t xml:space="preserve">4.42997980117798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29308795928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38815259933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23604917526245</t>
+    <t xml:space="preserve">4.29308843612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3881516456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23604965209961</t>
   </si>
   <si>
     <t xml:space="preserve">4.33871841430664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40336179733276</t>
+    <t xml:space="preserve">4.40336227416992</t>
   </si>
   <si>
     <t xml:space="preserve">4.47941303253174</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34252071380615</t>
+    <t xml:space="preserve">4.34252119064331</t>
   </si>
   <si>
     <t xml:space="preserve">4.46800565719604</t>
@@ -653,31 +653,31 @@
     <t xml:space="preserve">4.48701858520508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31970643997192</t>
+    <t xml:space="preserve">4.31970548629761</t>
   </si>
   <si>
     <t xml:space="preserve">4.30829811096191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48321628570557</t>
+    <t xml:space="preserve">4.48321580886841</t>
   </si>
   <si>
     <t xml:space="preserve">4.49842596054077</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50603103637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45279550552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63531827926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65052843093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74559164047241</t>
+    <t xml:space="preserve">4.50603055953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45279455184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6353178024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65052795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74559259414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.7265796661377</t>
@@ -692,67 +692,67 @@
     <t xml:space="preserve">4.55926752090454</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56306982040405</t>
+    <t xml:space="preserve">4.56307029724121</t>
   </si>
   <si>
     <t xml:space="preserve">4.64292335510254</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53645181655884</t>
+    <t xml:space="preserve">4.536452293396</t>
   </si>
   <si>
     <t xml:space="preserve">4.5516619682312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61630487442017</t>
+    <t xml:space="preserve">4.61630582809448</t>
   </si>
   <si>
     <t xml:space="preserve">4.68475151062012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58208227157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59729337692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47180843353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57447624206543</t>
+    <t xml:space="preserve">4.58208274841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59729194641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47180795669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57447719573975</t>
   </si>
   <si>
     <t xml:space="preserve">4.5858850479126</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58968782424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62010765075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59349012374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65433120727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77601289749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82164335250854</t>
+    <t xml:space="preserve">4.58968734741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62010717391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59348964691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65433073043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7760124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82164287567139</t>
   </si>
   <si>
     <t xml:space="preserve">4.89769506454468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9052996635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84445858001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94332456588745</t>
+    <t xml:space="preserve">4.90530014038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84445905685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94332504272461</t>
   </si>
   <si>
     <t xml:space="preserve">4.88248443603516</t>
@@ -764,19 +764,19 @@
     <t xml:space="preserve">4.87487936019897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76080274581909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82544612884521</t>
+    <t xml:space="preserve">4.79882860183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76080226898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82544565200806</t>
   </si>
   <si>
     <t xml:space="preserve">4.81023597717285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73418426513672</t>
+    <t xml:space="preserve">4.73418474197388</t>
   </si>
   <si>
     <t xml:space="preserve">5.00036382675171</t>
@@ -785,25 +785,25 @@
     <t xml:space="preserve">4.86727428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95853567123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98135089874268</t>
+    <t xml:space="preserve">4.95853519439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98135137557983</t>
   </si>
   <si>
     <t xml:space="preserve">5.0117712020874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01937627792358</t>
+    <t xml:space="preserve">5.01937675476074</t>
   </si>
   <si>
     <t xml:space="preserve">4.91290473937988</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16007089614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19117879867554</t>
+    <t xml:space="preserve">5.160071849823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19117975234985</t>
   </si>
   <si>
     <t xml:space="preserve">5.30394649505615</t>
@@ -815,19 +815,19 @@
     <t xml:space="preserve">5.3428316116333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37005138397217</t>
+    <t xml:space="preserve">5.37005186080933</t>
   </si>
   <si>
     <t xml:space="preserve">5.35838556289673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3894944190979</t>
+    <t xml:space="preserve">5.38949394226074</t>
   </si>
   <si>
     <t xml:space="preserve">5.28450393676758</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21451091766357</t>
+    <t xml:space="preserve">5.21451044082642</t>
   </si>
   <si>
     <t xml:space="preserve">5.17562532424927</t>
@@ -836,76 +836,76 @@
     <t xml:space="preserve">5.22617626190186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24950742721558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3195013999939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31561183929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44393301010132</t>
+    <t xml:space="preserve">5.24950695037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31950092315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31561231613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44393348693848</t>
   </si>
   <si>
     <t xml:space="preserve">5.45559883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38560628890991</t>
+    <t xml:space="preserve">5.3856053352356</t>
   </si>
   <si>
     <t xml:space="preserve">5.31172323226929</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30783462524414</t>
+    <t xml:space="preserve">5.3078351020813</t>
   </si>
   <si>
     <t xml:space="preserve">5.28839254379272</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47892999649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37393951416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40504837036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40893697738647</t>
+    <t xml:space="preserve">5.47893047332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37393999099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40504789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40893650054932</t>
   </si>
   <si>
     <t xml:space="preserve">5.42837953567505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49448442459106</t>
+    <t xml:space="preserve">5.49448394775391</t>
   </si>
   <si>
     <t xml:space="preserve">5.49837303161621</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46337604522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64613723754883</t>
+    <t xml:space="preserve">5.46337652206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64613676071167</t>
   </si>
   <si>
     <t xml:space="preserve">5.80945444107056</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59169769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61891746520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63835954666138</t>
+    <t xml:space="preserve">5.59169673919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61891651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63835906982422</t>
   </si>
   <si>
     <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58003234863281</t>
+    <t xml:space="preserve">5.58003187179565</t>
   </si>
   <si>
     <t xml:space="preserve">5.62280559539795</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">5.57614326477051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48670721054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42449045181274</t>
+    <t xml:space="preserve">5.48670673370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4244909286499</t>
   </si>
   <si>
     <t xml:space="preserve">5.53336954116821</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">5.59947443008423</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66946792602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56836652755737</t>
+    <t xml:space="preserve">5.66946840286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56836557388306</t>
   </si>
   <si>
     <t xml:space="preserve">5.6616907119751</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">5.92611026763916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75890350341797</t>
+    <t xml:space="preserve">5.75890398025513</t>
   </si>
   <si>
     <t xml:space="preserve">5.56447744369507</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70446443557739</t>
+    <t xml:space="preserve">5.70446491241455</t>
   </si>
   <si>
     <t xml:space="preserve">5.82500839233398</t>
@@ -965,10 +965,10 @@
     <t xml:space="preserve">5.69279909133911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74723768234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65002489089966</t>
+    <t xml:space="preserve">5.74723815917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65002536773682</t>
   </si>
   <si>
     <t xml:space="preserve">5.64224815368652</t>
@@ -977,22 +977,22 @@
     <t xml:space="preserve">5.52948093414307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52170372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53725814819336</t>
+    <t xml:space="preserve">5.52170419692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5372576713562</t>
   </si>
   <si>
     <t xml:space="preserve">5.57225465774536</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59558534622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69668769836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9027795791626</t>
+    <t xml:space="preserve">5.59558582305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69668817520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90277862548828</t>
   </si>
   <si>
     <t xml:space="preserve">5.85611724853516</t>
@@ -1010,79 +1010,79 @@
     <t xml:space="preserve">5.84834003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84445095062256</t>
+    <t xml:space="preserve">5.84445190429688</t>
   </si>
   <si>
     <t xml:space="preserve">5.89500188827515</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90666770935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92999887466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91444540023804</t>
+    <t xml:space="preserve">5.90666723251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92999839782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91444492340088</t>
   </si>
   <si>
     <t xml:space="preserve">5.94944143295288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96499586105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81723117828369</t>
+    <t xml:space="preserve">5.96499538421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81723213195801</t>
   </si>
   <si>
     <t xml:space="preserve">5.86778259277344</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88333654403687</t>
+    <t xml:space="preserve">5.88333702087402</t>
   </si>
   <si>
     <t xml:space="preserve">5.83667469024658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78223562240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76279258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68113279342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70835304260254</t>
+    <t xml:space="preserve">5.78223466873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76279211044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68113327026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7083535194397</t>
   </si>
   <si>
     <t xml:space="preserve">5.87167167663574</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85222816467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73557281494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91833305358887</t>
+    <t xml:space="preserve">5.85222864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73557233810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91833353042603</t>
   </si>
   <si>
     <t xml:space="preserve">5.60336303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50614976882935</t>
+    <t xml:space="preserve">5.5061502456665</t>
   </si>
   <si>
     <t xml:space="preserve">5.4594874382019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37782907485962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44004487991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5022611618042</t>
+    <t xml:space="preserve">5.3778281211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44004440307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50226068496704</t>
   </si>
   <si>
     <t xml:space="preserve">5.56058931350708</t>
@@ -1100,31 +1100,31 @@
     <t xml:space="preserve">5.76668071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72001886367798</t>
+    <t xml:space="preserve">5.72001838684082</t>
   </si>
   <si>
     <t xml:space="preserve">5.77445793151855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84056234359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5489239692688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52559232711792</t>
+    <t xml:space="preserve">5.84056282043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54892349243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52559280395508</t>
   </si>
   <si>
     <t xml:space="preserve">5.55670022964478</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58780908584595</t>
+    <t xml:space="preserve">5.58780860900879</t>
   </si>
   <si>
     <t xml:space="preserve">5.43615627288818</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51392650604248</t>
+    <t xml:space="preserve">5.51392698287964</t>
   </si>
   <si>
     <t xml:space="preserve">5.93388748168945</t>
@@ -1136,31 +1136,31 @@
     <t xml:space="preserve">6.05832004547119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01165771484375</t>
+    <t xml:space="preserve">6.01165723800659</t>
   </si>
   <si>
     <t xml:space="preserve">6.00388050079346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10498237609863</t>
+    <t xml:space="preserve">6.10498189926147</t>
   </si>
   <si>
     <t xml:space="preserve">6.08942842483521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04276609420776</t>
+    <t xml:space="preserve">6.04276657104492</t>
   </si>
   <si>
     <t xml:space="preserve">5.9727725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94166374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73168420791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67724466323853</t>
+    <t xml:space="preserve">5.94166469573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7316837310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67724514007568</t>
   </si>
   <si>
     <t xml:space="preserve">5.88722515106201</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">5.68502187728882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73946142196655</t>
+    <t xml:space="preserve">5.73946094512939</t>
   </si>
   <si>
     <t xml:space="preserve">5.79390048980713</t>
@@ -1178,22 +1178,22 @@
     <t xml:space="preserve">5.77056932449341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78612375259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70057582855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6539134979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49059534072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76564836502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68568134307861</t>
+    <t xml:space="preserve">5.78612327575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7005763053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65391397476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49059581756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76564884185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68568086624146</t>
   </si>
   <si>
     <t xml:space="preserve">5.50175619125366</t>
@@ -1217,40 +1217,40 @@
     <t xml:space="preserve">5.30983400344849</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03794527053833</t>
+    <t xml:space="preserve">5.03794574737549</t>
   </si>
   <si>
     <t xml:space="preserve">4.93398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65410184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91799449920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83003044128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99796199798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87001371383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7980432510376</t>
+    <t xml:space="preserve">4.65410232543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91799402236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83002948760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99796152114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87001419067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79804372787476</t>
   </si>
   <si>
     <t xml:space="preserve">4.74206590652466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85402011871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92599105834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90200090408325</t>
+    <t xml:space="preserve">4.8540210723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92599058151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90200138092041</t>
   </si>
   <si>
     <t xml:space="preserve">5.00595855712891</t>
@@ -1259,31 +1259,31 @@
     <t xml:space="preserve">5.09392261505127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13390636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18188667297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05393934249878</t>
+    <t xml:space="preserve">5.13390588760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18188714981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05393886566162</t>
   </si>
   <si>
     <t xml:space="preserve">5.06193542480469</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95797824859619</t>
+    <t xml:space="preserve">4.95797777175903</t>
   </si>
   <si>
     <t xml:space="preserve">5.02195167541504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06993246078491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08592557907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17389011383057</t>
+    <t xml:space="preserve">5.06993198394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0859260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17388963699341</t>
   </si>
   <si>
     <t xml:space="preserve">5.18988275527954</t>
@@ -1295,67 +1295,67 @@
     <t xml:space="preserve">5.11791229248047</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10191917419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0459418296814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90999698638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89400339126587</t>
+    <t xml:space="preserve">5.10191965103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04594230651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90999746322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89400386810303</t>
   </si>
   <si>
     <t xml:space="preserve">5.07792854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94198369979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98996448516846</t>
+    <t xml:space="preserve">4.94198417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98996496200562</t>
   </si>
   <si>
     <t xml:space="preserve">4.98196792602539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6141185760498</t>
+    <t xml:space="preserve">4.61411809921265</t>
   </si>
   <si>
     <t xml:space="preserve">4.53415060043335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47017669677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44618701934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45418405532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47817325592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4941668510437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39020872116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42219638824463</t>
+    <t xml:space="preserve">4.4701771736145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44618606567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45418310165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47817373275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49416732788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39020919799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42219686508179</t>
   </si>
   <si>
     <t xml:space="preserve">4.25426483154297</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27825546264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34222888946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33423280715942</t>
+    <t xml:space="preserve">4.27825498580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34222841262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33423185348511</t>
   </si>
   <si>
     <t xml:space="preserve">4.54214763641357</t>
@@ -1367,46 +1367,46 @@
     <t xml:space="preserve">4.64610481262207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66209840774536</t>
+    <t xml:space="preserve">4.66209888458252</t>
   </si>
   <si>
     <t xml:space="preserve">4.67809200286865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70208215713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72607183456421</t>
+    <t xml:space="preserve">4.70208263397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72607231140137</t>
   </si>
   <si>
     <t xml:space="preserve">4.75006294250488</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8220329284668</t>
+    <t xml:space="preserve">4.82203388214111</t>
   </si>
   <si>
     <t xml:space="preserve">4.81403636932373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71007919311523</t>
+    <t xml:space="preserve">4.71007871627808</t>
   </si>
   <si>
     <t xml:space="preserve">4.52615404129028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48617076873779</t>
+    <t xml:space="preserve">4.48617029190063</t>
   </si>
   <si>
     <t xml:space="preserve">4.55814075469971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31823873519897</t>
+    <t xml:space="preserve">4.31823921203613</t>
   </si>
   <si>
     <t xml:space="preserve">4.2462682723999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18229389190674</t>
+    <t xml:space="preserve">4.1822943687439</t>
   </si>
   <si>
     <t xml:space="preserve">4.28625202178955</t>
@@ -1415,25 +1415,25 @@
     <t xml:space="preserve">4.35822248458862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20628499984741</t>
+    <t xml:space="preserve">4.2062840461731</t>
   </si>
   <si>
     <t xml:space="preserve">4.11032390594482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07034063339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95438694953918</t>
+    <t xml:space="preserve">4.07033967971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95438718795776</t>
   </si>
   <si>
     <t xml:space="preserve">3.81844258308411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92240023612976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21428155899048</t>
+    <t xml:space="preserve">3.92239999771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21428108215332</t>
   </si>
   <si>
     <t xml:space="preserve">4.15830373764038</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">4.23027467727661</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23827219009399</t>
+    <t xml:space="preserve">4.23827171325684</t>
   </si>
   <si>
     <t xml:space="preserve">4.26226139068604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13431358337402</t>
+    <t xml:space="preserve">4.13431406021118</t>
   </si>
   <si>
     <t xml:space="preserve">4.15030717849731</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">4.05434656143188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99836921691895</t>
+    <t xml:space="preserve">3.99836945533752</t>
   </si>
   <si>
     <t xml:space="preserve">4.0223593711853</t>
@@ -1478,61 +1478,61 @@
     <t xml:space="preserve">4.19828748703003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04634952545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11832046508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27025842666626</t>
+    <t xml:space="preserve">4.04635000228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11831998825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27025890350342</t>
   </si>
   <si>
     <t xml:space="preserve">3.98237586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96238350868225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95038843154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91440343856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03835344314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22227764129639</t>
+    <t xml:space="preserve">3.96238398551941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95038866996765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91440367698669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03835296630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22227811813354</t>
   </si>
   <si>
     <t xml:space="preserve">4.1023268699646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08633375167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07833623886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00636625289917</t>
+    <t xml:space="preserve">4.08633327484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07833671569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00636577606201</t>
   </si>
   <si>
     <t xml:space="preserve">4.03035640716553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89441156387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97837734222412</t>
+    <t xml:space="preserve">3.89441132545471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97837710380554</t>
   </si>
   <si>
     <t xml:space="preserve">3.91840219497681</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87042164802551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98637413978577</t>
+    <t xml:space="preserve">3.87042140960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98637437820435</t>
   </si>
   <si>
     <t xml:space="preserve">4.19029092788696</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">3.93839406967163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97038125991821</t>
+    <t xml:space="preserve">3.97038078308105</t>
   </si>
   <si>
     <t xml:space="preserve">4.17429733276367</t>
@@ -1556,16 +1556,16 @@
     <t xml:space="preserve">3.910404920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84643125534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86242461204529</t>
+    <t xml:space="preserve">3.846431016922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86242508888245</t>
   </si>
   <si>
     <t xml:space="preserve">3.81444406509399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77845859527588</t>
+    <t xml:space="preserve">3.77845883369446</t>
   </si>
   <si>
     <t xml:space="preserve">3.79098415374756</t>
@@ -1583,40 +1583,40 @@
     <t xml:space="preserve">3.69913244247437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74088335037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72418284416199</t>
+    <t xml:space="preserve">3.74088311195374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72418308258057</t>
   </si>
   <si>
     <t xml:space="preserve">3.71583247184753</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73670792579651</t>
+    <t xml:space="preserve">3.73670816421509</t>
   </si>
   <si>
     <t xml:space="preserve">3.65738153457642</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67408156394958</t>
+    <t xml:space="preserve">3.67408180236816</t>
   </si>
   <si>
     <t xml:space="preserve">3.63650584220886</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59475493431091</t>
+    <t xml:space="preserve">3.59475517272949</t>
   </si>
   <si>
     <t xml:space="preserve">3.66155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68660712242126</t>
+    <t xml:space="preserve">3.68660736083984</t>
   </si>
   <si>
     <t xml:space="preserve">3.61980557441711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62398099899292</t>
+    <t xml:space="preserve">3.62398052215576</t>
   </si>
   <si>
     <t xml:space="preserve">3.57387971878052</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">3.54047846794128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55300426483154</t>
+    <t xml:space="preserve">3.55300378799438</t>
   </si>
   <si>
     <t xml:space="preserve">3.56970453262329</t>
@@ -1640,16 +1640,16 @@
     <t xml:space="preserve">3.51542830467224</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46532726287842</t>
+    <t xml:space="preserve">3.46532702445984</t>
   </si>
   <si>
     <t xml:space="preserve">3.48202753067017</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52377820014954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53630399703979</t>
+    <t xml:space="preserve">3.52377843856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53630375862122</t>
   </si>
   <si>
     <t xml:space="preserve">3.59057974815369</t>
@@ -1658,13 +1658,13 @@
     <t xml:space="preserve">3.74923324584961</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97468876838684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04149007797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92876267433167</t>
+    <t xml:space="preserve">3.97468829154968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04149055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92876219749451</t>
   </si>
   <si>
     <t xml:space="preserve">3.92458701133728</t>
@@ -1673,13 +1673,13 @@
     <t xml:space="preserve">3.94128751754761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94963765144348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98303842544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90371203422546</t>
+    <t xml:space="preserve">3.94963812828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98303890228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90371227264404</t>
   </si>
   <si>
     <t xml:space="preserve">3.84108543395996</t>
@@ -1697,19 +1697,19 @@
     <t xml:space="preserve">3.89536166191101</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87031102180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79933500289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78680944442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77845883369446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75758361816406</t>
+    <t xml:space="preserve">3.87031149864197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79933452606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78680896759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77845931053162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7575831413269</t>
   </si>
   <si>
     <t xml:space="preserve">3.72000741958618</t>
@@ -1718,10 +1718,10 @@
     <t xml:space="preserve">3.76593375205994</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69078183174133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78263401985168</t>
+    <t xml:space="preserve">3.69078207015991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78263425827026</t>
   </si>
   <si>
     <t xml:space="preserve">3.88283634185791</t>
@@ -1733,19 +1733,19 @@
     <t xml:space="preserve">3.92041230201721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0206151008606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03731441497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06654024124146</t>
+    <t xml:space="preserve">4.02061414718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03731489181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06654071807861</t>
   </si>
   <si>
     <t xml:space="preserve">4.05819034576416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12081670761108</t>
+    <t xml:space="preserve">4.12081718444824</t>
   </si>
   <si>
     <t xml:space="preserve">4.18344306945801</t>
@@ -1754,10 +1754,10 @@
     <t xml:space="preserve">4.33374643325806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26694536209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13751649856567</t>
+    <t xml:space="preserve">4.26694488525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13751697540283</t>
   </si>
   <si>
     <t xml:space="preserve">4.16256761550903</t>
@@ -1766,16 +1766,16 @@
     <t xml:space="preserve">4.24189424514771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23354434967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1667423248291</t>
+    <t xml:space="preserve">4.23354387283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16674280166626</t>
   </si>
   <si>
     <t xml:space="preserve">4.12916660308838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07906532287598</t>
+    <t xml:space="preserve">4.07906579971313</t>
   </si>
   <si>
     <t xml:space="preserve">4.09159135818481</t>
@@ -1787,13 +1787,13 @@
     <t xml:space="preserve">4.07489061355591</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04983997344971</t>
+    <t xml:space="preserve">4.04983949661255</t>
   </si>
   <si>
     <t xml:space="preserve">4.0832405090332</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05401515960693</t>
+    <t xml:space="preserve">4.05401468276978</t>
   </si>
   <si>
     <t xml:space="preserve">4.12499141693115</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">4.3587965965271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4088978767395</t>
+    <t xml:space="preserve">4.40889835357666</t>
   </si>
   <si>
     <t xml:space="preserve">4.32539653778076</t>
@@ -1832,28 +1832,28 @@
     <t xml:space="preserve">4.44229888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52580118179321</t>
+    <t xml:space="preserve">4.52580070495605</t>
   </si>
   <si>
     <t xml:space="preserve">4.4589991569519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4923996925354</t>
+    <t xml:space="preserve">4.49240016937256</t>
   </si>
   <si>
     <t xml:space="preserve">4.50910043716431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.567551612854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47569990158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45064878463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42559909820557</t>
+    <t xml:space="preserve">4.56755113601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47569942474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45064926147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42559862136841</t>
   </si>
   <si>
     <t xml:space="preserve">4.46734952926636</t>
@@ -1865,13 +1865,13 @@
     <t xml:space="preserve">4.4339485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3838472366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35044717788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39219808578491</t>
+    <t xml:space="preserve">4.38384771347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3504467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39219760894775</t>
   </si>
   <si>
     <t xml:space="preserve">4.31704568862915</t>
@@ -1886,22 +1886,22 @@
     <t xml:space="preserve">4.28364515304565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25859451293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20014333724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97051358222961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97886347770691</t>
+    <t xml:space="preserve">4.25859403610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20014381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97051310539246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97886395454407</t>
   </si>
   <si>
     <t xml:space="preserve">4.03313970565796</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1082911491394</t>
+    <t xml:space="preserve">4.10829162597656</t>
   </si>
   <si>
     <t xml:space="preserve">4.41724824905396</t>
@@ -1916,13 +1916,13 @@
     <t xml:space="preserve">3.82856011390686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80768442153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62815546989441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43610119819641</t>
+    <t xml:space="preserve">3.80768465995789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62815523147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43610143661499</t>
   </si>
   <si>
     <t xml:space="preserve">3.38600015640259</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">3.13549470901489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13131976127625</t>
+    <t xml:space="preserve">3.13131952285767</t>
   </si>
   <si>
     <t xml:space="preserve">3.26909780502319</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">2.9935417175293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23987221717834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31919884681702</t>
+    <t xml:space="preserve">3.23987197875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31919860839844</t>
   </si>
   <si>
     <t xml:space="preserve">3.28579807281494</t>
@@ -1961,22 +1961,22 @@
     <t xml:space="preserve">3.15219521522522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19812107086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18977069854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22734689712524</t>
+    <t xml:space="preserve">3.19812083244324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18977093696594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22734665870667</t>
   </si>
   <si>
     <t xml:space="preserve">3.15637016296387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20647120475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12296915054321</t>
+    <t xml:space="preserve">3.20647144317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12296938896179</t>
   </si>
   <si>
     <t xml:space="preserve">3.19394612312317</t>
@@ -1991,16 +1991,16 @@
     <t xml:space="preserve">3.28997325897217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3066737651825</t>
+    <t xml:space="preserve">3.30667352676392</t>
   </si>
   <si>
     <t xml:space="preserve">3.37347507476807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35259938240051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34424924850464</t>
+    <t xml:space="preserve">3.35259962081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34424948692322</t>
   </si>
   <si>
     <t xml:space="preserve">3.44862699508667</t>
@@ -2018,10 +2018,10 @@
     <t xml:space="preserve">3.47367715835571</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52795362472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55717921257019</t>
+    <t xml:space="preserve">3.52795338630676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55717945098877</t>
   </si>
   <si>
     <t xml:space="preserve">3.61145520210266</t>
@@ -2033,13 +2033,13 @@
     <t xml:space="preserve">3.49037742614746</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39435052871704</t>
+    <t xml:space="preserve">3.39435076713562</t>
   </si>
   <si>
     <t xml:space="preserve">3.39017510414124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43192625045776</t>
+    <t xml:space="preserve">3.43192648887634</t>
   </si>
   <si>
     <t xml:space="preserve">3.49455261230469</t>
@@ -2048,10 +2048,10 @@
     <t xml:space="preserve">3.61563014984131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63233041763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76175856590271</t>
+    <t xml:space="preserve">3.63233065605164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76175880432129</t>
   </si>
   <si>
     <t xml:space="preserve">3.87866139411926</t>
@@ -2060,76 +2060,76 @@
     <t xml:space="preserve">3.85361051559448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82020950317383</t>
+    <t xml:space="preserve">3.82020974159241</t>
   </si>
   <si>
     <t xml:space="preserve">3.64068126678467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69495701789856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64485573768616</t>
+    <t xml:space="preserve">3.69495725631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64485597610474</t>
   </si>
   <si>
     <t xml:space="preserve">3.65320611000061</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64903092384338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60310506820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7325325012207</t>
+    <t xml:space="preserve">3.64903140068054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60310530662537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73253297805786</t>
   </si>
   <si>
     <t xml:space="preserve">3.72835803031921</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60728025436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75340843200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84526062011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74505877494812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66573143005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59893035888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56552910804749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960325241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58640456199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50707793235779</t>
+    <t xml:space="preserve">3.60728049278259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75340819358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84526038169861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74505805969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66573095321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59893012046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56552934646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960349082947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58640480041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50707769393921</t>
   </si>
   <si>
     <t xml:space="preserve">3.46950244903564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51125311851501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41522598266602</t>
+    <t xml:space="preserve">3.51125335693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41522622108459</t>
   </si>
   <si>
     <t xml:space="preserve">3.40270042419434</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36512470245361</t>
+    <t xml:space="preserve">3.36512494087219</t>
   </si>
   <si>
     <t xml:space="preserve">3.33172416687012</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">3.24822235107422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26492261886597</t>
+    <t xml:space="preserve">3.26492238044739</t>
   </si>
   <si>
     <t xml:space="preserve">3.23152184486389</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">3.18559575080872</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09374380111694</t>
+    <t xml:space="preserve">3.09374356269836</t>
   </si>
   <si>
     <t xml:space="preserve">3.08121871948242</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">2.82236266136169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7054603099823</t>
+    <t xml:space="preserve">2.70546007156372</t>
   </si>
   <si>
     <t xml:space="preserve">2.81818771362305</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">3.30249834060669</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90788650512695</t>
+    <t xml:space="preserve">3.90788698196411</t>
   </si>
   <si>
     <t xml:space="preserve">4.00808906555176</t>
@@ -2195,13 +2195,13 @@
     <t xml:space="preserve">4.01643943786621</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95381283760071</t>
+    <t xml:space="preserve">3.95381331443787</t>
   </si>
   <si>
     <t xml:space="preserve">3.93711280822754</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87448668479919</t>
+    <t xml:space="preserve">3.87448620796204</t>
   </si>
   <si>
     <t xml:space="preserve">3.84943556785583</t>
@@ -2210,13 +2210,13 @@
     <t xml:space="preserve">3.89118623733521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77428412437439</t>
+    <t xml:space="preserve">3.77428388595581</t>
   </si>
   <si>
     <t xml:space="preserve">3.45280170440674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20849370956421</t>
+    <t xml:space="preserve">4.20849323272705</t>
   </si>
   <si>
     <t xml:space="preserve">4.15421724319458</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">4.02478933334351</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07071590423584</t>
+    <t xml:space="preserve">4.07071542739868</t>
   </si>
   <si>
     <t xml:space="preserve">4.14169216156006</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">4.15004205703735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17091751098633</t>
+    <t xml:space="preserve">4.17091798782349</t>
   </si>
   <si>
     <t xml:space="preserve">4.15839242935181</t>
@@ -2246,10 +2246,10 @@
     <t xml:space="preserve">4.59260225296021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5425009727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60930252075195</t>
+    <t xml:space="preserve">4.54250144958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60930204391479</t>
   </si>
   <si>
     <t xml:space="preserve">4.76525640487671</t>
@@ -2258,22 +2258,22 @@
     <t xml:space="preserve">4.66995096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55731821060181</t>
+    <t xml:space="preserve">4.55731773376465</t>
   </si>
   <si>
     <t xml:space="preserve">4.50533294677734</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51399755477905</t>
+    <t xml:space="preserve">4.51399707794189</t>
   </si>
   <si>
     <t xml:space="preserve">4.52266120910645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64395904541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7132716178894</t>
+    <t xml:space="preserve">4.643958568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71327209472656</t>
   </si>
   <si>
     <t xml:space="preserve">4.72193574905396</t>
@@ -2285,19 +2285,19 @@
     <t xml:space="preserve">4.82590532302856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78258466720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79991245269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8085765838623</t>
+    <t xml:space="preserve">4.78258419036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79991292953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80857706069946</t>
   </si>
   <si>
     <t xml:space="preserve">4.756591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73926401138306</t>
+    <t xml:space="preserve">4.7392635345459</t>
   </si>
   <si>
     <t xml:space="preserve">4.73059988021851</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">4.44468450546265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41869211196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4273567199707</t>
+    <t xml:space="preserve">4.41869163513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42735624313354</t>
   </si>
   <si>
     <t xml:space="preserve">4.3753719329834</t>
@@ -2333,13 +2333,13 @@
     <t xml:space="preserve">4.33205127716064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43601989746094</t>
+    <t xml:space="preserve">4.4360203742981</t>
   </si>
   <si>
     <t xml:space="preserve">4.49666929244995</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3927001953125</t>
+    <t xml:space="preserve">4.39269971847534</t>
   </si>
   <si>
     <t xml:space="preserve">4.62663078308105</t>
@@ -2348,31 +2348,31 @@
     <t xml:space="preserve">4.68727922439575</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65262317657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8518967628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92121028900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89521741867065</t>
+    <t xml:space="preserve">4.65262269973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85189723968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92120981216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89521789550781</t>
   </si>
   <si>
     <t xml:space="preserve">4.88655376434326</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84323310852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86056184768677</t>
+    <t xml:space="preserve">4.84323358535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86056137084961</t>
   </si>
   <si>
     <t xml:space="preserve">4.79124879837036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81724119186401</t>
+    <t xml:space="preserve">4.81724071502686</t>
   </si>
   <si>
     <t xml:space="preserve">4.92987442016602</t>
@@ -2399,16 +2399,16 @@
     <t xml:space="preserve">5.08582782745361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11182069778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12048387527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96453094482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07716369628906</t>
+    <t xml:space="preserve">5.11182022094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12048435211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96453046798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07716417312622</t>
   </si>
   <si>
     <t xml:space="preserve">5.15514087677002</t>
@@ -2426,354 +2426,357 @@
     <t xml:space="preserve">5.24178218841553</t>
   </si>
   <si>
+    <t xml:space="preserve">5.37174320220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42372846603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58834600448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56235361099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51903343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47571277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46704864501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49304103851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38040781021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50170469284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60567426681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57968187332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55368947982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62300205230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73563575744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72697162628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70964336395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64033079147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68365144729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78762006759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76162815093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.744300365448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80494832992554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85693311691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54502582550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44971990585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30243062973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25910997390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26777410507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18113327026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18979740142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09449195861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00785112380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98185873031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93853855133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03384351730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02517986297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05117177963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99918699264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01651525497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99052333831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05983591079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32842350006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38907146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39773559570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28510236740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19846153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14647674560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27643871307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36307907104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45838499069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09952831268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2554817199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3334584236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51540517807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28147411346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29880285263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18616914749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11685657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1081919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71830749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84826898574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20712566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87788963317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31975889205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44105672836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35441493988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21578979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06850004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10315656661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27142238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2349419593811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18934154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12550020217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29878282546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50854539871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47206497192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68182706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60886669158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65446662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49942493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59062623977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41734409332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49030494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38086366653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3352632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10726022720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8701376914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97957897186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04341983795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95221853256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0616602897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13462066650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02517938613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09814071655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05253982543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98869848251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78805685043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76069593429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84277725219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6056547164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71509552001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93397808074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88837766647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83365726470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72421598434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91573810577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79717683792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8792576789856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03429937362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16198110580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1437406539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20758152008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26230192184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36262321472168</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.37174367904663</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42372846603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58834552764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56235408782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51903343200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47571325302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46704864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49304103851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38040781021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50170469284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60567426681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57968187332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55368995666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62300205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73563575744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72697162628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70964336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64033079147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68365097045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78762054443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76162815093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.744300365448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80494832992554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85693311691284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54502534866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44972038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30243015289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25910997390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26777410507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18113327026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18979740142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09449243545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00785160064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98185873031616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93853807449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03384304046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02517938613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05117177963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99918746948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01651525497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99052286148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05983591079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32842350006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38907146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39773559570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28510236740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19846153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14647722244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27643871307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36307907104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45838451385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09952783584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2554817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33345890045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51540517807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28147411346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29880237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18616914749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11685609817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10819244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84826898574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20712566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87789011001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639925003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31975841522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44105625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35441493988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21578931808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06850004196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10315656661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27142238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2349419593811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18934154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12550020217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29878282546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50854539871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47206497192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68182706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60886669158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65446662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49942493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59062623977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41734409332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49030494689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38086366653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3352632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10726022720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8701376914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97957897186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04341983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95221853256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0616602897644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13462066650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09814071655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05253982543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98869848251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78805685043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76069593429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84277725219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6056547164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71509552001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85189723968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93397808074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88837766647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83365726470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72421598434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91573810577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79717683792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8792576789856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03429937362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16198110580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1437406539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20758152008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26230192184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36262321472168</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.21670150756836</t>
   </si>
   <si>
@@ -3684,6 +3687,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.47999954223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28999996185303</t>
   </si>
 </sst>
 </file>
@@ -46865,7 +46871,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1648" t="s">
-        <v>840</v>
+        <v>898</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46891,7 +46897,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1649" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46917,7 +46923,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46943,7 +46949,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1651" t="s">
-        <v>840</v>
+        <v>898</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46969,7 +46975,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1652" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46995,7 +47001,7 @@
         <v>5.25</v>
       </c>
       <c r="G1653" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47021,7 +47027,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1654" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47047,7 +47053,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1655" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47073,7 +47079,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1656" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47099,7 +47105,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47125,7 +47131,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1658" t="s">
-        <v>906</v>
+        <v>779</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47333,7 +47339,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>840</v>
+        <v>898</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47411,7 +47417,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47489,7 +47495,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1672" t="s">
-        <v>906</v>
+        <v>779</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47827,7 +47833,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G1685" t="s">
-        <v>804</v>
+        <v>920</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47931,7 +47937,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1689" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47957,7 +47963,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47983,7 +47989,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48009,7 +48015,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1692" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48269,7 +48275,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48295,7 +48301,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1703" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48373,7 +48379,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1706" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48399,7 +48405,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48451,7 +48457,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1709" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48503,7 +48509,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1711" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48529,7 +48535,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1712" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48581,7 +48587,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1714" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48607,7 +48613,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1715" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48633,7 +48639,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1716" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48685,7 +48691,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48737,7 +48743,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1720" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48841,7 +48847,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48893,7 +48899,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1726" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48919,7 +48925,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G1727" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49023,7 +49029,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1731" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49049,7 +49055,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G1732" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49075,7 +49081,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49101,7 +49107,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1734" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49179,7 +49185,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1737" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49205,7 +49211,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1738" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49257,7 +49263,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1740" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49283,7 +49289,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1741" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49309,7 +49315,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1742" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49335,7 +49341,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1743" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49361,7 +49367,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G1744" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49387,7 +49393,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49413,7 +49419,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1746" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49439,7 +49445,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49465,7 +49471,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1748" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49491,7 +49497,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G1749" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49517,7 +49523,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1750" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49543,7 +49549,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G1751" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49569,7 +49575,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1752" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49595,7 +49601,7 @@
         <v>6.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49621,7 +49627,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49647,7 +49653,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1755" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49673,7 +49679,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1756" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49699,7 +49705,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49725,7 +49731,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1758" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49751,7 +49757,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49777,7 +49783,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1760" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49803,7 +49809,7 @@
         <v>6.75</v>
       </c>
       <c r="G1761" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49829,7 +49835,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1762" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49855,7 +49861,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49881,7 +49887,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1764" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49907,7 +49913,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1765" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49933,7 +49939,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1766" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49959,7 +49965,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1767" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49985,7 +49991,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1768" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50011,7 +50017,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50037,7 +50043,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1770" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50063,7 +50069,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50089,7 +50095,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1772" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50115,7 +50121,7 @@
         <v>6.75</v>
       </c>
       <c r="G1773" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50141,7 +50147,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1774" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50167,7 +50173,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1775" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50193,7 +50199,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1776" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50219,7 +50225,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1777" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50245,7 +50251,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1778" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50271,7 +50277,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1779" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50297,7 +50303,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1780" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50323,7 +50329,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1781" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50349,7 +50355,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50375,7 +50381,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1783" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50401,7 +50407,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1784" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50427,7 +50433,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50453,7 +50459,7 @@
         <v>7</v>
       </c>
       <c r="G1786" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50479,7 +50485,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1787" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50505,7 +50511,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50531,7 +50537,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1789" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50557,7 +50563,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1790" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50583,7 +50589,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1791" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50609,7 +50615,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1792" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50635,7 +50641,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1793" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50661,7 +50667,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1794" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50687,7 +50693,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1795" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50713,7 +50719,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1796" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50739,7 +50745,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50765,7 +50771,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G1798" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50791,7 +50797,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1799" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50817,7 +50823,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G1800" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50843,7 +50849,7 @@
         <v>7.75</v>
       </c>
       <c r="G1801" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50869,7 +50875,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G1802" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50895,7 +50901,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1803" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50921,7 +50927,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1804" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50947,7 +50953,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1805" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50973,7 +50979,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1806" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50999,7 +51005,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51025,7 +51031,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G1808" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51051,7 +51057,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1809" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51077,7 +51083,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1810" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51103,7 +51109,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1811" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51129,7 +51135,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1812" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51155,7 +51161,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1813" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51181,7 +51187,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1814" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51207,7 +51213,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1815" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51233,7 +51239,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1816" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51259,7 +51265,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1817" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51285,7 +51291,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1818" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51311,7 +51317,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1819" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51337,7 +51343,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51363,7 +51369,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1821" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51389,7 +51395,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1822" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51415,7 +51421,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G1823" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51441,7 +51447,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1824" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51467,7 +51473,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1825" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51493,7 +51499,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1826" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51519,7 +51525,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1827" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51545,7 +51551,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1828" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51571,7 +51577,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1829" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51597,7 +51603,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1830" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51623,7 +51629,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G1831" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51649,7 +51655,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1832" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51675,7 +51681,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1833" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51701,7 +51707,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51727,7 +51733,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1835" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51753,7 +51759,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1836" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51779,7 +51785,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1837" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51805,7 +51811,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1838" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51831,7 +51837,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1839" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51857,7 +51863,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1840" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51883,7 +51889,7 @@
         <v>6.75</v>
       </c>
       <c r="G1841" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51909,7 +51915,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51935,7 +51941,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G1843" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51961,7 +51967,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G1844" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51987,7 +51993,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1845" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52013,7 +52019,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1846" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52039,7 +52045,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1847" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52065,7 +52071,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1848" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52091,7 +52097,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1849" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52117,7 +52123,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1850" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52143,7 +52149,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1851" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52169,7 +52175,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1852" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52195,7 +52201,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1853" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52221,7 +52227,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52247,7 +52253,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52273,7 +52279,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1856" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52299,7 +52305,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1857" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52325,7 +52331,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1858" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52351,7 +52357,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52377,7 +52383,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52403,7 +52409,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G1861" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52429,7 +52435,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1862" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52455,7 +52461,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1863" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52481,7 +52487,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1864" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52507,7 +52513,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1865" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52533,7 +52539,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1866" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52559,7 +52565,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1867" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52585,7 +52591,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52611,7 +52617,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1869" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52637,7 +52643,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1870" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52663,7 +52669,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52689,7 +52695,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1872" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52715,7 +52721,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1873" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52741,7 +52747,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52767,7 +52773,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52793,7 +52799,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52819,7 +52825,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1877" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52845,7 +52851,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1878" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52871,7 +52877,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1879" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52897,7 +52903,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1880" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52923,7 +52929,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
   